--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ContentCompiler\contentCompiler\src\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim.sharepoint.com/sites/O365-OntwikkelgroepHoofdfase/Gedeelde documenten/General/Ontwikkelgroep SE/01. Besluiten, planningen, actiepunten, etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA913E-CA1E-46B7-8D57-5FE25FA7ABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{923E889D-E71A-4CE3-ABDE-A3001F21729B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="217">
   <si>
     <t>TC-1</t>
   </si>
@@ -480,6 +480,9 @@
     <t>WEEK3</t>
   </si>
   <si>
+    <t>Polymorfisme-Interfaces</t>
+  </si>
+  <si>
     <t>Generic-Type</t>
   </si>
   <si>
@@ -522,6 +525,9 @@
     <t>WEEK5</t>
   </si>
   <si>
+    <t>Code-review</t>
+  </si>
+  <si>
     <t>Les8</t>
   </si>
   <si>
@@ -552,6 +558,21 @@
     <t>Week7</t>
   </si>
   <si>
+    <t>bb-23</t>
+  </si>
+  <si>
+    <t>Beheren ontwikkelstraat</t>
+  </si>
+  <si>
+    <t>Testen-in-pipeline</t>
+  </si>
+  <si>
+    <t>Branching-Strategieën</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
     <t>Reviewer</t>
   </si>
   <si>
@@ -579,12 +600,6 @@
     <t>be-26</t>
   </si>
   <si>
-    <t>Beheren ontwikkelstraat</t>
-  </si>
-  <si>
-    <t>bb-23</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -676,22 +691,13 @@
   </si>
   <si>
     <t>Status opties</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Polymorfisme-Interfaces</t>
-  </si>
-  <si>
-    <t>Code-review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1189,282 +1195,11 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="86">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF395766"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B4310"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF395766"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B4310"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF395766"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B4310"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1861,15 +1596,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="2" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.499984740745262"/>
-        </top>
         <bottom style="thin">
           <color theme="2" tint="-0.499984740745262"/>
         </bottom>
@@ -1877,6 +1603,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </top>
         <bottom style="thin">
           <color theme="2" tint="-0.499984740745262"/>
         </bottom>
@@ -1916,6 +1651,106 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF395766"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B4310"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
@@ -2201,6 +2036,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color theme="2" tint="-0.499984740745262"/>
         </left>
@@ -2222,13 +2064,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="2" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2262,6 +2097,96 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF395766"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B4310"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2762,6 +2687,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -2786,13 +2718,6 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2828,6 +2753,86 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF395766"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B4310"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2851,83 +2856,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P135" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P135" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76" headerRowBorderDxfId="74" tableBorderDxfId="75">
   <autoFilter ref="A1:P135" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}"/>
   <tableColumns count="16">
-    <tableColumn id="2" xr3:uid="{F8A50546-3BB2-41F8-99A7-821FFAEA9EA0}" name="TC-1" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{41734F87-6DB1-4AC3-80CE-250B23378554}" name="TC-2" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{5B30DF97-0362-47CA-9FEB-983BDA2DF844}" name="Proces" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{DDC7FBE8-1A18-4596-8FBD-1F40B9F94AA0}" name="Processtap" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{15170496-2005-43A7-AD43-CFD4F0B25656}" name="Onderwerp" dataDxfId="77"/>
-    <tableColumn id="7" xr3:uid="{AD473AEC-8FAD-46C0-A48A-A65E296DBE11}" name="PS" dataDxfId="76"/>
-    <tableColumn id="8" xr3:uid="{1591AA9A-3ED6-44E5-A48A-E9910C5A2DDC}" name="LT" dataDxfId="75"/>
-    <tableColumn id="9" xr3:uid="{343866B0-4820-4E45-9596-524C0A3E0DB4}" name="OI" dataDxfId="74"/>
-    <tableColumn id="10" xr3:uid="{B3D04D72-920A-4859-8170-8854154E6BEE}" name="PI" dataDxfId="73"/>
-    <tableColumn id="11" xr3:uid="{DAE26EF7-02E2-4493-9827-F044C9947102}" name="DT" dataDxfId="72"/>
-    <tableColumn id="12" xr3:uid="{66861921-DC42-4E48-9995-22D71902D0E6}" name="Auteur" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{F8A50546-3BB2-41F8-99A7-821FFAEA9EA0}" name="TC-1" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{41734F87-6DB1-4AC3-80CE-250B23378554}" name="TC-2" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{5B30DF97-0362-47CA-9FEB-983BDA2DF844}" name="Proces" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{DDC7FBE8-1A18-4596-8FBD-1F40B9F94AA0}" name="Processtap" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{15170496-2005-43A7-AD43-CFD4F0B25656}" name="Onderwerp" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{AD473AEC-8FAD-46C0-A48A-A65E296DBE11}" name="PS" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{1591AA9A-3ED6-44E5-A48A-E9910C5A2DDC}" name="LT" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{343866B0-4820-4E45-9596-524C0A3E0DB4}" name="OI" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{B3D04D72-920A-4859-8170-8854154E6BEE}" name="PI" dataDxfId="65"/>
+    <tableColumn id="11" xr3:uid="{DAE26EF7-02E2-4493-9827-F044C9947102}" name="DT" dataDxfId="64"/>
+    <tableColumn id="12" xr3:uid="{66861921-DC42-4E48-9995-22D71902D0E6}" name="Auteur" dataDxfId="63"/>
     <tableColumn id="13" xr3:uid="{41E829DC-30B4-4ED6-A23E-6E86A90CC847}" name="Status"/>
-    <tableColumn id="14" xr3:uid="{4DEA7C20-4CDB-4765-A2ED-2DAE0C74EA88}" name="Les" dataDxfId="70"/>
-    <tableColumn id="15" xr3:uid="{BA1A1DC9-E1C8-41C8-8B22-98655139BA61}" name="Week" dataDxfId="69"/>
-    <tableColumn id="16" xr3:uid="{FEFBF060-7975-4841-BB25-4FD9EA20FCE9}" name="Vak" dataDxfId="68"/>
-    <tableColumn id="17" xr3:uid="{DC49865F-5E2A-4A41-9018-4460A5231335}" name="Opmerking" dataDxfId="67"/>
+    <tableColumn id="14" xr3:uid="{4DEA7C20-4CDB-4765-A2ED-2DAE0C74EA88}" name="Les" dataDxfId="62"/>
+    <tableColumn id="15" xr3:uid="{BA1A1DC9-E1C8-41C8-8B22-98655139BA61}" name="Week" dataDxfId="61"/>
+    <tableColumn id="16" xr3:uid="{FEFBF060-7975-4841-BB25-4FD9EA20FCE9}" name="Vak" dataDxfId="60"/>
+    <tableColumn id="17" xr3:uid="{DC49865F-5E2A-4A41-9018-4460A5231335}" name="Opmerking" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0ADA3302-785A-4FF5-9F05-63AE2FDA43FB}" name="Tabel4" displayName="Tabel4" ref="A1:M25" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0ADA3302-785A-4FF5-9F05-63AE2FDA43FB}" name="Tabel4" displayName="Tabel4" ref="A1:M25" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" headerRowBorderDxfId="46" tableBorderDxfId="47">
   <autoFilter ref="A1:M25" xr:uid="{0ADA3302-785A-4FF5-9F05-63AE2FDA43FB}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{33A30161-A23E-481A-A474-FEC370178E0D}" name="TC-1" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{A765E6F9-736A-40CA-B5F9-5BC3B46176FE}" name="TC-2" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{431178D4-CB18-48BA-B97B-883BA30A9FA6}" name="Proces" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{5D8BDCB3-AF62-410D-BCD9-7529FBB9BBB7}" name="Processtap" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{17101B71-2071-4872-BCB8-53953285475F}" name="Onderwerp" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{6198134A-F0C6-4ECB-A8E9-956960FA372A}" name="PS" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{EB7DBD3A-B2F6-4E6C-8E44-800B7FFBDF34}" name="LT" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{6DFB468C-42AC-4932-9751-5824148384B7}" name="OI" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{7AC5ED05-0A47-4500-9F72-355CAA569399}" name="PI" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{960F9FA7-0252-4FF9-8236-BEF22521DD53}" name="DT" dataDxfId="53"/>
-    <tableColumn id="12" xr3:uid="{53896853-B8EC-4437-A8F9-866346B3373C}" name="Auteur" dataDxfId="52"/>
-    <tableColumn id="13" xr3:uid="{1541B82C-BEB4-4F0F-87EE-C5476ABDDE24}" name="Reviewer" dataDxfId="51"/>
-    <tableColumn id="14" xr3:uid="{C7098195-B41A-40CD-A545-F76D64296E86}" name="Status" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{33A30161-A23E-481A-A474-FEC370178E0D}" name="TC-1" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{A765E6F9-736A-40CA-B5F9-5BC3B46176FE}" name="TC-2" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{431178D4-CB18-48BA-B97B-883BA30A9FA6}" name="Proces" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{5D8BDCB3-AF62-410D-BCD9-7529FBB9BBB7}" name="Processtap" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{17101B71-2071-4872-BCB8-53953285475F}" name="Onderwerp" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{6198134A-F0C6-4ECB-A8E9-956960FA372A}" name="PS" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{EB7DBD3A-B2F6-4E6C-8E44-800B7FFBDF34}" name="LT" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{6DFB468C-42AC-4932-9751-5824148384B7}" name="OI" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{7AC5ED05-0A47-4500-9F72-355CAA569399}" name="PI" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{960F9FA7-0252-4FF9-8236-BEF22521DD53}" name="DT" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{53896853-B8EC-4437-A8F9-866346B3373C}" name="Auteur" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{1541B82C-BEB4-4F0F-87EE-C5476ABDDE24}" name="Reviewer" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{C7098195-B41A-40CD-A545-F76D64296E86}" name="Status" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}" name="Tabel46" displayName="Tabel46" ref="A1:M25" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}" name="Tabel46" displayName="Tabel46" ref="A1:M25" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21">
   <autoFilter ref="A1:M25" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{1535D98C-E0EE-4D42-BCEB-E5B9CE3EB61D}" name="TC-1" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{626D3CCE-98FA-446A-9492-EFF5B77FBEE7}" name="TC-2" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{7D9467F0-D231-479A-AC4D-EFCFCDA0F355}" name="Proces" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{563F1A23-B95F-4820-8982-FD4C397E7132}" name="Processtap" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{6EB4EFB7-2E6E-49E8-8B36-E5A953066F34}" name="Onderwerp" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{952C00F6-C03B-46BB-8BDD-48716B660A03}" name="PS" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{905E3EDF-F38D-471C-BAF6-5E4C96FF3FB2}" name="LT" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{8DFE5EC7-2595-4617-8FC0-FDDA89438F44}" name="OI" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{557B5D16-5B65-4AF7-BD7B-FB0218A7C1B3}" name="PI" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{9F6BDCD6-BD58-4752-B392-4BDB07F65BF9}" name="DT" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{265C90D0-C2F9-46F3-BC15-46853C80AE44}" name="Auteur" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{56238B06-B929-4176-9193-3DBF61BD24F4}" name="Reviewer" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{5A7CC1D3-6CDF-46C8-BAD6-5021F68425FC}" name="Status" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{1535D98C-E0EE-4D42-BCEB-E5B9CE3EB61D}" name="TC-1" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{626D3CCE-98FA-446A-9492-EFF5B77FBEE7}" name="TC-2" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{7D9467F0-D231-479A-AC4D-EFCFCDA0F355}" name="Proces" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{563F1A23-B95F-4820-8982-FD4C397E7132}" name="Processtap" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{6EB4EFB7-2E6E-49E8-8B36-E5A953066F34}" name="Onderwerp" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{952C00F6-C03B-46BB-8BDD-48716B660A03}" name="PS" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{905E3EDF-F38D-471C-BAF6-5E4C96FF3FB2}" name="LT" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{8DFE5EC7-2595-4617-8FC0-FDDA89438F44}" name="OI" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{557B5D16-5B65-4AF7-BD7B-FB0218A7C1B3}" name="PI" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{9F6BDCD6-BD58-4752-B392-4BDB07F65BF9}" name="DT" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{265C90D0-C2F9-46F3-BC15-46853C80AE44}" name="Auteur" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{56238B06-B929-4176-9193-3DBF61BD24F4}" name="Reviewer" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{5A7CC1D3-6CDF-46C8-BAD6-5021F68425FC}" name="Status" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}" name="Tabel2" displayName="Tabel2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}" name="Tabel2" displayName="Tabel2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E29" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E0D87A47-D7F7-498A-A22E-05A996992FE5}" name="Id" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{A3888C5B-B532-4621-A573-477CB568DA88}" name="SSDLC" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{E1227983-22D3-4B85-9382-7BE0428CF806}" name="Proces" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{25EAD8F8-D89A-4F34-8AE3-23D6D7363D47}" name="Processtap" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{DCD8D2DD-F7D1-48E7-8B06-F484930BAD1C}" name="Taxonomiecode-deel-1" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{E0D87A47-D7F7-498A-A22E-05A996992FE5}" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A3888C5B-B532-4621-A573-477CB568DA88}" name="SSDLC" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E1227983-22D3-4B85-9382-7BE0428CF806}" name="Proces" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{25EAD8F8-D89A-4F34-8AE3-23D6D7363D47}" name="Processtap" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{DCD8D2DD-F7D1-48E7-8B06-F484930BAD1C}" name="Taxonomiecode-deel-1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3252,11 +3257,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8AE46-0301-40E0-97E1-E2E70FD5D32D}">
   <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
@@ -3267,7 +3272,7 @@
     <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -3317,7 +3322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="32" t="s">
         <v>16</v>
       </c>
@@ -3359,7 +3364,7 @@
       <c r="O2" s="32"/>
       <c r="P2" s="48"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="32" t="s">
         <v>16</v>
       </c>
@@ -3399,7 +3404,7 @@
       <c r="O3" s="32"/>
       <c r="P3" s="48"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="32" t="s">
         <v>16</v>
       </c>
@@ -3439,7 +3444,7 @@
       <c r="O4" s="32"/>
       <c r="P4" s="48"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="32" t="s">
         <v>16</v>
       </c>
@@ -3479,7 +3484,7 @@
       <c r="O5" s="32"/>
       <c r="P5" s="48"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="32" t="s">
         <v>16</v>
       </c>
@@ -3519,7 +3524,7 @@
       <c r="O6" s="32"/>
       <c r="P6" s="48"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="32" t="s">
         <v>16</v>
       </c>
@@ -3559,7 +3564,7 @@
       <c r="O7" s="32"/>
       <c r="P7" s="48"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="32" t="s">
         <v>16</v>
       </c>
@@ -3599,7 +3604,7 @@
       <c r="O8" s="32"/>
       <c r="P8" s="48"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="32" t="s">
         <v>16</v>
       </c>
@@ -3639,7 +3644,7 @@
       <c r="O9" s="32"/>
       <c r="P9" s="48"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="32" t="s">
         <v>16</v>
       </c>
@@ -3679,7 +3684,7 @@
       <c r="O10" s="32"/>
       <c r="P10" s="48"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="32" t="s">
         <v>16</v>
       </c>
@@ -3719,7 +3724,7 @@
       <c r="O11" s="32"/>
       <c r="P11" s="48"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="32" t="s">
         <v>16</v>
       </c>
@@ -3759,7 +3764,7 @@
       <c r="O12" s="32"/>
       <c r="P12" s="48"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="32" t="s">
         <v>16</v>
       </c>
@@ -3799,7 +3804,7 @@
       <c r="O13" s="32"/>
       <c r="P13" s="48"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="32" t="s">
         <v>36</v>
       </c>
@@ -3839,7 +3844,7 @@
       <c r="O14" s="32"/>
       <c r="P14" s="48"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="32" t="s">
         <v>36</v>
       </c>
@@ -3879,7 +3884,7 @@
       <c r="O15" s="32"/>
       <c r="P15" s="48"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="32" t="s">
         <v>36</v>
       </c>
@@ -3917,7 +3922,7 @@
       <c r="O16" s="32"/>
       <c r="P16" s="48"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="32" t="s">
         <v>36</v>
       </c>
@@ -3957,7 +3962,7 @@
       <c r="O17" s="32"/>
       <c r="P17" s="48"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="32" t="s">
         <v>36</v>
       </c>
@@ -3997,7 +4002,7 @@
       <c r="O18" s="32"/>
       <c r="P18" s="48"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="32" t="s">
         <v>36</v>
       </c>
@@ -4035,7 +4040,7 @@
       <c r="O19" s="32"/>
       <c r="P19" s="48"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="32" t="s">
         <v>36</v>
       </c>
@@ -4073,7 +4078,7 @@
       <c r="O20" s="32"/>
       <c r="P20" s="48"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="32" t="s">
         <v>36</v>
       </c>
@@ -4111,7 +4116,7 @@
       <c r="O21" s="32"/>
       <c r="P21" s="48"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="32" t="s">
         <v>36</v>
       </c>
@@ -4151,7 +4156,7 @@
       <c r="O22" s="32"/>
       <c r="P22" s="48"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="32" t="s">
         <v>36</v>
       </c>
@@ -4191,7 +4196,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="48"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="32" t="s">
         <v>36</v>
       </c>
@@ -4229,7 +4234,7 @@
       <c r="O24" s="32"/>
       <c r="P24" s="48"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="32" t="s">
         <v>36</v>
       </c>
@@ -4262,14 +4267,14 @@
         <v>61</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
       <c r="P25" s="48"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15">
       <c r="A26" s="32" t="s">
         <v>36</v>
       </c>
@@ -4301,15 +4306,15 @@
       <c r="K26" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="36" t="s">
-        <v>43</v>
+      <c r="L26" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
       <c r="O26" s="32"/>
       <c r="P26" s="48"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="32" t="s">
         <v>36</v>
       </c>
@@ -4349,7 +4354,7 @@
       <c r="O27" s="32"/>
       <c r="P27" s="48"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="32" t="s">
         <v>36</v>
       </c>
@@ -4389,7 +4394,7 @@
       <c r="O28" s="32"/>
       <c r="P28" s="48"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15">
       <c r="A29" s="32" t="s">
         <v>36</v>
       </c>
@@ -4419,15 +4424,15 @@
         <v>22</v>
       </c>
       <c r="K29" s="32"/>
-      <c r="L29" s="37" t="s">
-        <v>52</v>
+      <c r="L29" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
       <c r="O29" s="32"/>
       <c r="P29" s="48"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="32" t="s">
         <v>36</v>
       </c>
@@ -4467,7 +4472,7 @@
       <c r="O30" s="32"/>
       <c r="P30" s="48"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="32" t="s">
         <v>36</v>
       </c>
@@ -4505,7 +4510,7 @@
       <c r="O31" s="32"/>
       <c r="P31" s="48"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="32" t="s">
         <v>36</v>
       </c>
@@ -4545,7 +4550,7 @@
       <c r="O32" s="32"/>
       <c r="P32" s="48"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="32" t="s">
         <v>36</v>
       </c>
@@ -4595,7 +4600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="32" t="s">
         <v>36</v>
       </c>
@@ -4633,7 +4638,7 @@
       <c r="O34" s="32"/>
       <c r="P34" s="48"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15">
       <c r="A35" s="32" t="s">
         <v>71</v>
       </c>
@@ -4663,15 +4668,15 @@
         <v>22</v>
       </c>
       <c r="K35" s="32"/>
-      <c r="L35" s="33" t="s">
-        <v>45</v>
+      <c r="L35" s="38" t="s">
+        <v>52</v>
       </c>
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
       <c r="P35" s="48"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="32" t="s">
         <v>75</v>
       </c>
@@ -4711,7 +4716,7 @@
       <c r="O36" s="32"/>
       <c r="P36" s="48"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="32" t="s">
         <v>80</v>
       </c>
@@ -4751,7 +4756,7 @@
       <c r="O37" s="32"/>
       <c r="P37" s="48"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="32" t="s">
         <v>83</v>
       </c>
@@ -4780,7 +4785,9 @@
       <c r="J38" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="32"/>
+      <c r="K38" s="32" t="s">
+        <v>42</v>
+      </c>
       <c r="L38" s="30" t="s">
         <v>45</v>
       </c>
@@ -4789,7 +4796,7 @@
       <c r="O38" s="32"/>
       <c r="P38" s="48"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15">
       <c r="A39" s="32" t="s">
         <v>71</v>
       </c>
@@ -4819,7 +4826,7 @@
         <v>22</v>
       </c>
       <c r="K39" s="32"/>
-      <c r="L39" s="37" t="s">
+      <c r="L39" s="38" t="s">
         <v>52</v>
       </c>
       <c r="M39" s="32"/>
@@ -4827,7 +4834,7 @@
       <c r="O39" s="32"/>
       <c r="P39" s="48"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="32" t="s">
         <v>87</v>
       </c>
@@ -4867,7 +4874,7 @@
       <c r="O40" s="32"/>
       <c r="P40" s="48"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="32" t="s">
         <v>92</v>
       </c>
@@ -4907,7 +4914,7 @@
       <c r="O41" s="32"/>
       <c r="P41" s="48"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15">
       <c r="A42" s="32" t="s">
         <v>95</v>
       </c>
@@ -4939,15 +4946,15 @@
       <c r="K42" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="L42" s="31" t="s">
-        <v>24</v>
+      <c r="L42" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="M42" s="32"/>
       <c r="N42" s="32"/>
       <c r="O42" s="32"/>
       <c r="P42" s="48"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15">
       <c r="A43" s="32" t="s">
         <v>99</v>
       </c>
@@ -4979,15 +4986,15 @@
       <c r="K43" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="L43" s="35" t="s">
-        <v>43</v>
+      <c r="L43" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="M43" s="32"/>
       <c r="N43" s="32"/>
       <c r="O43" s="32"/>
       <c r="P43" s="48"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="15">
       <c r="A44" s="32" t="s">
         <v>102</v>
       </c>
@@ -5019,15 +5026,15 @@
       <c r="K44" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="L44" s="31" t="s">
-        <v>24</v>
+      <c r="L44" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="M44" s="32"/>
       <c r="N44" s="32"/>
       <c r="O44" s="32"/>
       <c r="P44" s="48"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="32" t="s">
         <v>36</v>
       </c>
@@ -5067,7 +5074,7 @@
       <c r="O45" s="32"/>
       <c r="P45" s="48"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="32" t="s">
         <v>106</v>
       </c>
@@ -5107,7 +5114,7 @@
       <c r="O46" s="32"/>
       <c r="P46" s="48"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15">
       <c r="A47" s="32" t="s">
         <v>109</v>
       </c>
@@ -5136,18 +5143,16 @@
       <c r="J47" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="L47" s="33" t="s">
-        <v>45</v>
+      <c r="K47" s="32"/>
+      <c r="L47" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
       <c r="O47" s="32"/>
       <c r="P47" s="48"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15">
       <c r="A48" s="32" t="s">
         <v>80</v>
       </c>
@@ -5177,15 +5182,15 @@
         <v>22</v>
       </c>
       <c r="K48" s="32"/>
-      <c r="L48" s="30" t="s">
-        <v>45</v>
+      <c r="L48" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="M48" s="32"/>
       <c r="N48" s="32"/>
       <c r="O48" s="32"/>
       <c r="P48" s="48"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="15">
       <c r="A49" s="32" t="s">
         <v>87</v>
       </c>
@@ -5215,15 +5220,15 @@
         <v>22</v>
       </c>
       <c r="K49" s="32"/>
-      <c r="L49" s="33" t="s">
-        <v>45</v>
+      <c r="L49" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="M49" s="32"/>
       <c r="N49" s="32"/>
       <c r="O49" s="32"/>
       <c r="P49" s="48"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="15">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -5237,15 +5242,15 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
-      <c r="L50" s="30" t="s">
-        <v>45</v>
+      <c r="L50" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="M50" s="32"/>
       <c r="N50" s="32"/>
       <c r="O50" s="32"/>
       <c r="P50" s="48"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="15">
       <c r="A51" s="32" t="s">
         <v>102</v>
       </c>
@@ -5275,15 +5280,15 @@
         <v>22</v>
       </c>
       <c r="K51" s="32"/>
-      <c r="L51" s="33" t="s">
-        <v>45</v>
+      <c r="L51" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="M51" s="32"/>
       <c r="N51" s="32"/>
       <c r="O51" s="32"/>
       <c r="P51" s="48"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="32" t="s">
         <v>36</v>
       </c>
@@ -5325,7 +5330,7 @@
       </c>
       <c r="P52" s="48"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="32" t="s">
         <v>36</v>
       </c>
@@ -5367,7 +5372,7 @@
       </c>
       <c r="P53" s="48"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="32" t="s">
         <v>36</v>
       </c>
@@ -5409,7 +5414,7 @@
       </c>
       <c r="P54" s="48"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="15">
       <c r="A55" s="32" t="s">
         <v>36</v>
       </c>
@@ -5441,8 +5446,8 @@
       <c r="K55" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="L55" s="31" t="s">
-        <v>24</v>
+      <c r="L55" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="M55" s="32"/>
       <c r="N55" s="32"/>
@@ -5451,7 +5456,7 @@
       </c>
       <c r="P55" s="48"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="32" t="s">
         <v>36</v>
       </c>
@@ -5497,7 +5502,7 @@
       </c>
       <c r="P56" s="48"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="32" t="s">
         <v>36</v>
       </c>
@@ -5543,7 +5548,7 @@
       </c>
       <c r="P57" s="48"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="32" t="s">
         <v>36</v>
       </c>
@@ -5589,7 +5594,7 @@
       </c>
       <c r="P58" s="48"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="32" t="s">
         <v>36</v>
       </c>
@@ -5635,7 +5640,7 @@
       </c>
       <c r="P59" s="48"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="32" t="s">
         <v>36</v>
       </c>
@@ -5681,7 +5686,7 @@
       </c>
       <c r="P60" s="48"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="32" t="s">
         <v>36</v>
       </c>
@@ -5727,7 +5732,7 @@
       </c>
       <c r="P61" s="48"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="32" t="s">
         <v>36</v>
       </c>
@@ -5773,7 +5778,7 @@
       </c>
       <c r="P62" s="48"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="32" t="s">
         <v>36</v>
       </c>
@@ -5819,7 +5824,7 @@
       </c>
       <c r="P63" s="48"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="32" t="s">
         <v>36</v>
       </c>
@@ -5865,7 +5870,7 @@
       </c>
       <c r="P64" s="48"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="15">
       <c r="A65" s="32" t="s">
         <v>36</v>
       </c>
@@ -5897,8 +5902,8 @@
       <c r="K65" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="L65" s="34" t="s">
-        <v>24</v>
+      <c r="L65" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="M65" s="32" t="s">
         <v>122</v>
@@ -5911,7 +5916,7 @@
       </c>
       <c r="P65" s="48"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="32" t="s">
         <v>36</v>
       </c>
@@ -5953,7 +5958,7 @@
       </c>
       <c r="P66" s="48"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="32" t="s">
         <v>36</v>
       </c>
@@ -5986,7 +5991,7 @@
         <v>61</v>
       </c>
       <c r="L67" s="30" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M67" s="32" t="s">
         <v>122</v>
@@ -5999,7 +6004,7 @@
       </c>
       <c r="P67" s="48"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="32" t="s">
         <v>36</v>
       </c>
@@ -6047,7 +6052,7 @@
       </c>
       <c r="P68" s="48"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="32" t="s">
         <v>36</v>
       </c>
@@ -6079,7 +6084,7 @@
         <v>17</v>
       </c>
       <c r="K69" s="32" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L69" s="36" t="s">
         <v>43</v>
@@ -6095,7 +6100,7 @@
       </c>
       <c r="P69" s="48"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="32" t="s">
         <v>36</v>
       </c>
@@ -6127,7 +6132,7 @@
         <v>17</v>
       </c>
       <c r="K70" s="32" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="L70" s="35" t="s">
         <v>43</v>
@@ -6143,7 +6148,7 @@
       </c>
       <c r="P70" s="48"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="32" t="s">
         <v>36</v>
       </c>
@@ -6175,7 +6180,7 @@
         <v>17</v>
       </c>
       <c r="K71" s="32" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L71" s="36" t="s">
         <v>43</v>
@@ -6191,7 +6196,7 @@
       </c>
       <c r="P71" s="48"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="32" t="s">
         <v>36</v>
       </c>
@@ -6223,7 +6228,7 @@
         <v>17</v>
       </c>
       <c r="K72" s="32" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L72" s="35" t="s">
         <v>43</v>
@@ -6235,7 +6240,7 @@
       </c>
       <c r="P72" s="48"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="32" t="s">
         <v>36</v>
       </c>
@@ -6267,7 +6272,7 @@
         <v>17</v>
       </c>
       <c r="K73" s="32" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="L73" s="31" t="s">
         <v>24</v>
@@ -6283,7 +6288,7 @@
       </c>
       <c r="P73" s="48"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="32" t="s">
         <v>36</v>
       </c>
@@ -6331,7 +6336,7 @@
       </c>
       <c r="P74" s="48"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="15">
       <c r="A75" s="32" t="s">
         <v>36</v>
       </c>
@@ -6344,8 +6349,8 @@
       <c r="D75" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E75" s="54" t="s">
-        <v>213</v>
+      <c r="E75" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="F75" s="32" t="s">
         <v>21</v>
@@ -6379,7 +6384,7 @@
       </c>
       <c r="P75" s="48"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" s="32" t="s">
         <v>36</v>
       </c>
@@ -6393,7 +6398,7 @@
         <v>38</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>21</v>
@@ -6427,7 +6432,7 @@
       </c>
       <c r="P76" s="48"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="32" t="s">
         <v>36</v>
       </c>
@@ -6441,7 +6446,7 @@
         <v>38</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F77" s="32" t="s">
         <v>21</v>
@@ -6475,7 +6480,7 @@
       </c>
       <c r="P77" s="48"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" s="32" t="s">
         <v>36</v>
       </c>
@@ -6489,7 +6494,7 @@
         <v>38</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F78" s="32" t="s">
         <v>21</v>
@@ -6513,7 +6518,7 @@
         <v>43</v>
       </c>
       <c r="M78" s="32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N78" s="32" t="s">
         <v>145</v>
@@ -6523,7 +6528,7 @@
       </c>
       <c r="P78" s="48"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="32" t="s">
         <v>36</v>
       </c>
@@ -6537,7 +6542,7 @@
         <v>38</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F79" s="32" t="s">
         <v>21</v>
@@ -6561,7 +6566,7 @@
         <v>57</v>
       </c>
       <c r="M79" s="32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N79" s="32" t="s">
         <v>145</v>
@@ -6571,7 +6576,7 @@
       </c>
       <c r="P79" s="48"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="32" t="s">
         <v>36</v>
       </c>
@@ -6585,7 +6590,7 @@
         <v>38</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F80" s="32"/>
       <c r="G80" s="32" t="s">
@@ -6607,17 +6612,17 @@
         <v>24</v>
       </c>
       <c r="M80" s="32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N80" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O80" s="32" t="s">
         <v>117</v>
       </c>
       <c r="P80" s="48"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="32" t="s">
         <v>36</v>
       </c>
@@ -6631,7 +6636,7 @@
         <v>38</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F81" s="32" t="s">
         <v>21</v>
@@ -6649,23 +6654,23 @@
         <v>17</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L81" s="30" t="s">
         <v>45</v>
       </c>
       <c r="M81" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N81" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O81" s="32" t="s">
         <v>117</v>
       </c>
       <c r="P81" s="48"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="32" t="s">
         <v>36</v>
       </c>
@@ -6679,7 +6684,7 @@
         <v>38</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F82" s="32"/>
       <c r="G82" s="32" t="s">
@@ -6701,17 +6706,17 @@
         <v>24</v>
       </c>
       <c r="M82" s="32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O82" s="32" t="s">
         <v>117</v>
       </c>
       <c r="P82" s="48"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="32" t="s">
         <v>36</v>
       </c>
@@ -6725,7 +6730,7 @@
         <v>38</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="F83" s="32" t="s">
         <v>21</v>
@@ -6749,17 +6754,17 @@
         <v>24</v>
       </c>
       <c r="M83" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="N83" s="32" t="s">
         <v>160</v>
-      </c>
-      <c r="N83" s="32" t="s">
-        <v>159</v>
       </c>
       <c r="O83" s="32" t="s">
         <v>117</v>
       </c>
       <c r="P83" s="48"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="32" t="s">
         <v>36</v>
       </c>
@@ -6773,7 +6778,7 @@
         <v>38</v>
       </c>
       <c r="E84" s="32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F84" s="32" t="s">
         <v>21</v>
@@ -6797,17 +6802,17 @@
         <v>24</v>
       </c>
       <c r="M84" s="32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N84" s="32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O84" s="32" t="s">
         <v>117</v>
       </c>
       <c r="P84" s="48"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="32" t="s">
         <v>36</v>
       </c>
@@ -6821,7 +6826,7 @@
         <v>38</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F85" s="32" t="s">
         <v>21</v>
@@ -6845,17 +6850,17 @@
         <v>45</v>
       </c>
       <c r="M85" s="32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O85" s="32" t="s">
         <v>117</v>
       </c>
       <c r="P85" s="48"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="32" t="s">
         <v>36</v>
       </c>
@@ -6869,7 +6874,7 @@
         <v>38</v>
       </c>
       <c r="E86" s="32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F86" s="32" t="s">
         <v>21</v>
@@ -6893,17 +6898,17 @@
         <v>24</v>
       </c>
       <c r="M86" s="32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N86" s="32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O86" s="32" t="s">
         <v>117</v>
       </c>
       <c r="P86" s="48"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" s="32" t="s">
         <v>36</v>
       </c>
@@ -6917,7 +6922,7 @@
         <v>38</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F87" s="32" t="s">
         <v>21</v>
@@ -6941,17 +6946,17 @@
         <v>45</v>
       </c>
       <c r="M87" s="32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N87" s="32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O87" s="32" t="s">
         <v>117</v>
       </c>
       <c r="P87" s="48"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="49" t="s">
         <v>36</v>
       </c>
@@ -6965,7 +6970,7 @@
         <v>38</v>
       </c>
       <c r="E88" s="49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F88" s="49"/>
       <c r="G88" s="32" t="s">
@@ -6987,51 +6992,97 @@
         <v>24</v>
       </c>
       <c r="M88" s="49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N88" s="49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O88" s="49" t="s">
         <v>117</v>
       </c>
       <c r="P88" s="50"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
+    <row r="89" spans="1:16">
+      <c r="A89" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
+      <c r="G89" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L89" t="s">
+        <v>57</v>
+      </c>
       <c r="M89" s="32"/>
       <c r="N89" s="32"/>
       <c r="O89" s="32"/>
       <c r="P89" s="48"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
+    <row r="90" spans="1:16">
+      <c r="A90" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>175</v>
+      </c>
       <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="32"/>
+      <c r="G90" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" t="s">
+        <v>176</v>
+      </c>
       <c r="M90" s="32"/>
       <c r="N90" s="32"/>
       <c r="O90" s="32"/>
       <c r="P90" s="48"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="32"/>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
@@ -7048,7 +7099,7 @@
       <c r="O91" s="32"/>
       <c r="P91" s="48"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" s="32"/>
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
@@ -7065,7 +7116,7 @@
       <c r="O92" s="32"/>
       <c r="P92" s="48"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" s="32"/>
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
@@ -7082,7 +7133,7 @@
       <c r="O93" s="32"/>
       <c r="P93" s="48"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" s="32"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -7099,7 +7150,7 @@
       <c r="O94" s="32"/>
       <c r="P94" s="48"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" s="32"/>
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
@@ -7116,7 +7167,7 @@
       <c r="O95" s="32"/>
       <c r="P95" s="48"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" s="32"/>
       <c r="B96" s="32"/>
       <c r="C96" s="32"/>
@@ -7133,7 +7184,7 @@
       <c r="O96" s="32"/>
       <c r="P96" s="48"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" s="32"/>
       <c r="B97" s="32"/>
       <c r="C97" s="32"/>
@@ -7150,7 +7201,7 @@
       <c r="O97" s="32"/>
       <c r="P97" s="48"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98" s="32"/>
       <c r="B98" s="32"/>
       <c r="C98" s="32"/>
@@ -7167,7 +7218,7 @@
       <c r="O98" s="32"/>
       <c r="P98" s="48"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99" s="32"/>
       <c r="B99" s="32"/>
       <c r="C99" s="32"/>
@@ -7184,7 +7235,7 @@
       <c r="O99" s="32"/>
       <c r="P99" s="48"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100" s="32"/>
       <c r="B100" s="32"/>
       <c r="C100" s="32"/>
@@ -7201,7 +7252,7 @@
       <c r="O100" s="32"/>
       <c r="P100" s="48"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101" s="32"/>
       <c r="B101" s="32"/>
       <c r="C101" s="32"/>
@@ -7218,7 +7269,7 @@
       <c r="O101" s="32"/>
       <c r="P101" s="48"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102" s="32"/>
       <c r="B102" s="32"/>
       <c r="C102" s="32"/>
@@ -7235,7 +7286,7 @@
       <c r="O102" s="32"/>
       <c r="P102" s="48"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103" s="32"/>
       <c r="B103" s="32"/>
       <c r="C103" s="32"/>
@@ -7252,7 +7303,7 @@
       <c r="O103" s="32"/>
       <c r="P103" s="48"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104" s="32"/>
       <c r="B104" s="32"/>
       <c r="C104" s="32"/>
@@ -7269,7 +7320,7 @@
       <c r="O104" s="32"/>
       <c r="P104" s="48"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="32"/>
       <c r="B105" s="32"/>
       <c r="C105" s="32"/>
@@ -7286,7 +7337,7 @@
       <c r="O105" s="32"/>
       <c r="P105" s="48"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106" s="32"/>
       <c r="B106" s="32"/>
       <c r="C106" s="32"/>
@@ -7303,7 +7354,7 @@
       <c r="O106" s="32"/>
       <c r="P106" s="48"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107" s="32"/>
       <c r="B107" s="32"/>
       <c r="C107" s="32"/>
@@ -7320,7 +7371,7 @@
       <c r="O107" s="32"/>
       <c r="P107" s="48"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" s="32"/>
       <c r="B108" s="32"/>
       <c r="C108" s="32"/>
@@ -7337,7 +7388,7 @@
       <c r="O108" s="32"/>
       <c r="P108" s="48"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" s="49"/>
       <c r="B109" s="49"/>
       <c r="C109" s="49"/>
@@ -7354,7 +7405,7 @@
       <c r="O109" s="49"/>
       <c r="P109" s="50"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" s="32"/>
       <c r="B110" s="32"/>
       <c r="C110" s="32"/>
@@ -7371,7 +7422,7 @@
       <c r="O110" s="32"/>
       <c r="P110" s="48"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="32"/>
       <c r="B111" s="32"/>
       <c r="C111" s="32"/>
@@ -7388,7 +7439,7 @@
       <c r="O111" s="32"/>
       <c r="P111" s="48"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" s="32"/>
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
@@ -7405,7 +7456,7 @@
       <c r="O112" s="32"/>
       <c r="P112" s="48"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" s="32"/>
       <c r="B113" s="32"/>
       <c r="C113" s="32"/>
@@ -7422,7 +7473,7 @@
       <c r="O113" s="32"/>
       <c r="P113" s="48"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" s="32"/>
       <c r="B114" s="32"/>
       <c r="C114" s="32"/>
@@ -7439,7 +7490,7 @@
       <c r="O114" s="32"/>
       <c r="P114" s="48"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" s="32"/>
       <c r="B115" s="32"/>
       <c r="C115" s="32"/>
@@ -7456,7 +7507,7 @@
       <c r="O115" s="32"/>
       <c r="P115" s="48"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" s="32"/>
       <c r="B116" s="32"/>
       <c r="C116" s="32"/>
@@ -7473,7 +7524,7 @@
       <c r="O116" s="32"/>
       <c r="P116" s="48"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" s="32"/>
       <c r="B117" s="32"/>
       <c r="C117" s="32"/>
@@ -7490,7 +7541,7 @@
       <c r="O117" s="32"/>
       <c r="P117" s="48"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" s="32"/>
       <c r="B118" s="32"/>
       <c r="C118" s="32"/>
@@ -7507,7 +7558,7 @@
       <c r="O118" s="32"/>
       <c r="P118" s="48"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" s="32"/>
       <c r="B119" s="32"/>
       <c r="C119" s="32"/>
@@ -7524,7 +7575,7 @@
       <c r="O119" s="32"/>
       <c r="P119" s="48"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" s="32"/>
       <c r="B120" s="32"/>
       <c r="C120" s="32"/>
@@ -7541,7 +7592,7 @@
       <c r="O120" s="32"/>
       <c r="P120" s="48"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121" s="32"/>
       <c r="B121" s="32"/>
       <c r="C121" s="32"/>
@@ -7558,7 +7609,7 @@
       <c r="O121" s="32"/>
       <c r="P121" s="48"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16">
       <c r="A122" s="32"/>
       <c r="B122" s="32"/>
       <c r="C122" s="32"/>
@@ -7575,7 +7626,7 @@
       <c r="O122" s="32"/>
       <c r="P122" s="48"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="A123" s="32"/>
       <c r="B123" s="32"/>
       <c r="C123" s="32"/>
@@ -7592,7 +7643,7 @@
       <c r="O123" s="32"/>
       <c r="P123" s="48"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16">
       <c r="A124" s="32"/>
       <c r="B124" s="32"/>
       <c r="C124" s="32"/>
@@ -7609,7 +7660,7 @@
       <c r="O124" s="32"/>
       <c r="P124" s="48"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16">
       <c r="A125" s="32"/>
       <c r="B125" s="32"/>
       <c r="C125" s="32"/>
@@ -7626,7 +7677,7 @@
       <c r="O125" s="32"/>
       <c r="P125" s="48"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16">
       <c r="A126" s="32"/>
       <c r="B126" s="32"/>
       <c r="C126" s="32"/>
@@ -7643,7 +7694,7 @@
       <c r="O126" s="32"/>
       <c r="P126" s="48"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16">
       <c r="A127" s="32"/>
       <c r="B127" s="32"/>
       <c r="C127" s="32"/>
@@ -7660,7 +7711,7 @@
       <c r="O127" s="32"/>
       <c r="P127" s="48"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16">
       <c r="A128" s="32"/>
       <c r="B128" s="32"/>
       <c r="C128" s="32"/>
@@ -7677,7 +7728,7 @@
       <c r="O128" s="32"/>
       <c r="P128" s="48"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129" s="32"/>
       <c r="B129" s="32"/>
       <c r="C129" s="32"/>
@@ -7694,7 +7745,7 @@
       <c r="O129" s="32"/>
       <c r="P129" s="48"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130" s="32"/>
       <c r="B130" s="32"/>
       <c r="C130" s="32"/>
@@ -7711,7 +7762,7 @@
       <c r="O130" s="32"/>
       <c r="P130" s="48"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131" s="32"/>
       <c r="B131" s="32"/>
       <c r="C131" s="32"/>
@@ -7728,7 +7779,7 @@
       <c r="O131" s="32"/>
       <c r="P131" s="48"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" s="32"/>
       <c r="B132" s="32"/>
       <c r="C132" s="32"/>
@@ -7745,7 +7796,7 @@
       <c r="O132" s="32"/>
       <c r="P132" s="48"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" s="32"/>
       <c r="B133" s="32"/>
       <c r="C133" s="32"/>
@@ -7762,7 +7813,7 @@
       <c r="O133" s="32"/>
       <c r="P133" s="48"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" s="32"/>
       <c r="B134" s="32"/>
       <c r="C134" s="32"/>
@@ -7779,7 +7830,7 @@
       <c r="O134" s="32"/>
       <c r="P134" s="48"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" s="49"/>
       <c r="B135" s="49"/>
       <c r="C135" s="49"/>
@@ -7798,33 +7849,33 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:J66 H67:J88 G89:J1048576">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="5" stopIfTrue="1" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="7" operator="equal">
       <formula>"Branch"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="8" stopIfTrue="1" operator="equal">
       <formula>"On hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L135">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+      <formula>"Doorgevoerd"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
       <formula>"In pull request"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
-      <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7878,7 +7929,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
@@ -7894,7 +7945,7 @@
     <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -7929,13 +7980,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="16" customFormat="1">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -7950,7 +8001,7 @@
       <c r="L2" s="19"/>
       <c r="M2" s="23"/>
     </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="16" customFormat="1">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -7965,7 +8016,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="16" customFormat="1">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -7980,7 +8031,7 @@
       <c r="L4" s="19"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="16" customFormat="1">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -7995,7 +8046,7 @@
       <c r="L5" s="19"/>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="16" customFormat="1">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -8010,7 +8061,7 @@
       <c r="L6" s="19"/>
       <c r="M6" s="23"/>
     </row>
-    <row r="7" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="16" customFormat="1">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -8025,7 +8076,7 @@
       <c r="L7" s="19"/>
       <c r="M7" s="23"/>
     </row>
-    <row r="8" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="16" customFormat="1">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -8040,7 +8091,7 @@
       <c r="L8" s="19"/>
       <c r="M8" s="23"/>
     </row>
-    <row r="9" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="16" customFormat="1">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -8055,7 +8106,7 @@
       <c r="L9" s="19"/>
       <c r="M9" s="23"/>
     </row>
-    <row r="10" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="16" customFormat="1">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -8070,7 +8121,7 @@
       <c r="L10" s="19"/>
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="16" customFormat="1">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -8086,7 +8137,7 @@
       <c r="M11" s="23"/>
       <c r="O11" s="51"/>
     </row>
-    <row r="12" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="16" customFormat="1">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -8102,7 +8153,7 @@
       <c r="M12" s="23"/>
       <c r="O12" s="51"/>
     </row>
-    <row r="13" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="16" customFormat="1">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -8118,7 +8169,7 @@
       <c r="M13" s="23"/>
       <c r="O13" s="51"/>
     </row>
-    <row r="14" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="16" customFormat="1">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -8134,7 +8185,7 @@
       <c r="M14" s="23"/>
       <c r="O14" s="51"/>
     </row>
-    <row r="15" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="16" customFormat="1">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -8150,7 +8201,7 @@
       <c r="M15" s="23"/>
       <c r="O15" s="51"/>
     </row>
-    <row r="16" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="16" customFormat="1">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -8166,7 +8217,7 @@
       <c r="M16" s="23"/>
       <c r="O16" s="51"/>
     </row>
-    <row r="17" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="16" customFormat="1">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -8182,7 +8233,7 @@
       <c r="M17" s="23"/>
       <c r="O17" s="51"/>
     </row>
-    <row r="18" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="16" customFormat="1">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -8198,7 +8249,7 @@
       <c r="M18" s="23"/>
       <c r="O18" s="51"/>
     </row>
-    <row r="19" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="16" customFormat="1">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -8213,7 +8264,7 @@
       <c r="L19" s="19"/>
       <c r="M19" s="23"/>
     </row>
-    <row r="20" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="16" customFormat="1">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -8228,7 +8279,7 @@
       <c r="L20" s="19"/>
       <c r="M20" s="23"/>
     </row>
-    <row r="21" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="16" customFormat="1">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -8243,7 +8294,7 @@
       <c r="L21" s="19"/>
       <c r="M21" s="23"/>
     </row>
-    <row r="22" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="16" customFormat="1">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -8258,7 +8309,7 @@
       <c r="L22" s="19"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="16" customFormat="1">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -8273,7 +8324,7 @@
       <c r="L23" s="19"/>
       <c r="M23" s="23"/>
     </row>
-    <row r="24" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="16" customFormat="1">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -8288,7 +8339,7 @@
       <c r="L24" s="19"/>
       <c r="M24" s="23"/>
     </row>
-    <row r="25" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="16" customFormat="1">
       <c r="A25" s="52"/>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
@@ -8303,44 +8354,44 @@
       <c r="L25" s="52"/>
       <c r="M25" s="53"/>
     </row>
-    <row r="26" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:15" s="16" customFormat="1"/>
+    <row r="27" spans="1:15" s="16" customFormat="1"/>
+    <row r="28" spans="1:15" s="16" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="A1:O11 A12:D12 F12:O12 A13:O25">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>$N1="Les 1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="57" priority="9">
       <formula>$N14="Les 1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:J1">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" stopIfTrue="1" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
       <formula>"Branch"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="7" stopIfTrue="1" operator="equal">
       <formula>"On hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N25">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>"Les1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8389,7 +8440,7 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
@@ -8405,7 +8456,7 @@
     <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -8440,13 +8491,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -8461,7 +8512,7 @@
       <c r="L2" s="17"/>
       <c r="M2" s="21"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -8476,7 +8527,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="21"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -8491,7 +8542,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="21"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -8506,7 +8557,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -8521,7 +8572,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -8536,7 +8587,7 @@
       <c r="L7" s="18"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -8551,7 +8602,7 @@
       <c r="L8" s="18"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -8566,7 +8617,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -8581,7 +8632,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -8597,7 +8648,7 @@
       <c r="M11" s="23"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -8613,7 +8664,7 @@
       <c r="M12" s="23"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -8629,7 +8680,7 @@
       <c r="M13" s="23"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -8645,7 +8696,7 @@
       <c r="M14" s="23"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -8661,7 +8712,7 @@
       <c r="M15" s="22"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -8677,7 +8728,7 @@
       <c r="M16" s="22"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -8693,7 +8744,7 @@
       <c r="M17" s="22"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -8708,7 +8759,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -8723,7 +8774,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -8738,7 +8789,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="21"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -8753,7 +8804,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -8768,7 +8819,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -8783,7 +8834,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -8798,7 +8849,7 @@
       <c r="L24" s="17"/>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -8816,44 +8867,44 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:M11 A12:D12 F12:M12 A13:M25">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="32" priority="3">
       <formula>$N1="Les 1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="31" priority="10">
       <formula>$N14="Les 1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:J1">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" stopIfTrue="1" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>"Branch"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" stopIfTrue="1" operator="equal">
       <formula>"On hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N17">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>"Les1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O17">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$N1="Les 1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8902,7 +8953,7 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -8911,12 +8962,12 @@
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -8925,15 +8976,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>88</v>
@@ -8945,46 +8996,46 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="6">
         <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6">
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="7">
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -8996,12 +9047,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="7">
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>18</v>
@@ -9013,46 +9064,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="6">
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="7">
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>88</v>
@@ -9064,46 +9115,46 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="7">
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="6">
         <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>37</v>
@@ -9115,46 +9166,46 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="7">
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="7">
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="7">
         <v>19</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>37</v>
@@ -9166,12 +9217,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="7">
         <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>37</v>
@@ -9183,97 +9234,97 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4">
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="12">
         <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>72</v>
@@ -9285,12 +9336,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="6">
         <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>96</v>
@@ -9302,29 +9353,29 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4">
         <v>11</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="12">
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>96</v>
@@ -9336,12 +9387,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="12">
         <v>9</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>96</v>
@@ -9353,29 +9404,29 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="12">
         <v>8</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="12">
         <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>96</v>
@@ -9387,12 +9438,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="6">
         <v>22</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
@@ -9418,42 +9469,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="18.600000000000001">
       <c r="A1" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -9464,8 +9515,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8145e89f48f7544065c1631cfb4174b7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73b179456a9f02424ae4d9487a76703b" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="16" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f61f07c867748b0019541a657f349ad">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5688d83df968b8ed30cda1c17f9d8ac7" ns2:_="" ns3:_="">
     <xsd:import namespace="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
     <xsd:import namespace="030eaba2-629b-4e56-920e-8dcc1358a952"/>
     <xsd:element name="properties">
@@ -9488,6 +9550,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9598,6 +9661,11 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="23" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -9698,7 +9766,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9707,53 +9775,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{869E5174-4466-4E4F-B92A-08A1A2EBCF8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
-    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC9EA872-FAFA-49B6-9247-007AF2214F14}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
-    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim.sharepoint.com/sites/O365-OntwikkelgroepHoofdfase/Gedeelde documenten/General/Ontwikkelgroep SE/01. Besluiten, planningen, actiepunten, etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{923E889D-E71A-4CE3-ABDE-A3001F21729B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C902C48D-49F5-4323-A0F9-40AC70B19B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="217">
   <si>
     <t>TC-1</t>
   </si>
@@ -315,18 +315,18 @@
     <t>Teststrategie</t>
   </si>
   <si>
+    <t>tu-4</t>
+  </si>
+  <si>
+    <t>Uitvoeren test</t>
+  </si>
+  <si>
+    <t>Functioneel-Testen</t>
+  </si>
+  <si>
     <t>Ernst &amp; Ties</t>
   </si>
   <si>
-    <t>tu-4</t>
-  </si>
-  <si>
-    <t>Uitvoeren test</t>
-  </si>
-  <si>
-    <t>Functioneel-Testen</t>
-  </si>
-  <si>
     <t>rs-10</t>
   </si>
   <si>
@@ -564,7 +564,7 @@
     <t>Beheren ontwikkelstraat</t>
   </si>
   <si>
-    <t>Testen-in-pipeline</t>
+    <t>Pipeline-Testen</t>
   </si>
   <si>
     <t>Branching-Strategieën</t>
@@ -3257,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8AE46-0301-40E0-97E1-E2E70FD5D32D}">
   <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4864,10 +4864,10 @@
         <v>22</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M40" s="32"/>
       <c r="N40" s="32"/>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>17</v>
@@ -4885,10 +4885,10 @@
         <v>18</v>
       </c>
       <c r="D41" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="32" t="s">
         <v>93</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>94</v>
       </c>
       <c r="F41" s="32"/>
       <c r="G41" s="32" t="s">
@@ -4904,7 +4904,7 @@
         <v>22</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L41" s="34" t="s">
         <v>24</v>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="P67" s="48"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" ht="15">
       <c r="A68" s="32" t="s">
         <v>36</v>
       </c>
@@ -6038,8 +6038,8 @@
       <c r="K68" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="L68" s="35" t="s">
-        <v>43</v>
+      <c r="L68" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="M68" s="32" t="s">
         <v>138</v>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="P68" s="48"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" ht="15">
       <c r="A69" s="32" t="s">
         <v>36</v>
       </c>
@@ -6086,8 +6086,8 @@
       <c r="K69" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="L69" s="36" t="s">
-        <v>43</v>
+      <c r="L69" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="M69" s="32" t="s">
         <v>138</v>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="P69" s="48"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" ht="15">
       <c r="A70" s="32" t="s">
         <v>36</v>
       </c>
@@ -6134,8 +6134,8 @@
       <c r="K70" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="L70" s="35" t="s">
-        <v>43</v>
+      <c r="L70" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="M70" s="32" t="s">
         <v>138</v>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="P70" s="48"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" ht="15">
       <c r="A71" s="32" t="s">
         <v>36</v>
       </c>
@@ -6182,8 +6182,8 @@
       <c r="K71" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="L71" s="36" t="s">
-        <v>43</v>
+      <c r="L71" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="M71" s="32" t="s">
         <v>138</v>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="P71" s="48"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" ht="15">
       <c r="A72" s="32" t="s">
         <v>36</v>
       </c>
@@ -6230,8 +6230,8 @@
       <c r="K72" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="L72" s="35" t="s">
-        <v>43</v>
+      <c r="L72" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="M72" s="32"/>
       <c r="N72" s="32"/>
@@ -7082,12 +7082,14 @@
       <c r="O90" s="32"/>
       <c r="P90" s="48"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" ht="15">
       <c r="A91" s="32"/>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
+      <c r="E91" s="32" t="s">
+        <v>90</v>
+      </c>
       <c r="F91" s="32"/>
       <c r="G91" s="32"/>
       <c r="H91" s="32"/>
@@ -7926,7 +7928,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -9109,10 +9111,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim.sharepoint.com/sites/O365-OntwikkelgroepHoofdfase/Gedeelde documenten/General/Ontwikkelgroep SE/01. Besluiten, planningen, actiepunten, etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C902C48D-49F5-4323-A0F9-40AC70B19B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4DBADC-CCC6-44E3-8317-04EF358B3725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="219">
   <si>
     <t>TC-1</t>
   </si>
@@ -168,138 +168,138 @@
     <t>Switch</t>
   </si>
   <si>
+    <t>Doorgevoerd, todo</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>While</t>
+  </si>
+  <si>
+    <t>Jorrick</t>
+  </si>
+  <si>
+    <t>X,X,3</t>
+  </si>
+  <si>
+    <t>Recursie</t>
+  </si>
+  <si>
+    <t>Ties</t>
+  </si>
+  <si>
+    <t>Using</t>
+  </si>
+  <si>
+    <t>On hold</t>
+  </si>
+  <si>
+    <t>Async</t>
+  </si>
+  <si>
+    <t>Await</t>
+  </si>
+  <si>
+    <t>Declaratie</t>
+  </si>
+  <si>
+    <t>Jeroen &amp; Jorrick</t>
+  </si>
+  <si>
+    <t>In pull request</t>
+  </si>
+  <si>
+    <t>Initialisatie</t>
+  </si>
+  <si>
+    <t>Tupel</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Maarten</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Hashset</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Linkedlist</t>
+  </si>
+  <si>
+    <t>PriorityQueue</t>
+  </si>
+  <si>
+    <t>Datatype-Struct</t>
+  </si>
+  <si>
+    <t>Datatype-Null</t>
+  </si>
+  <si>
+    <t>oo-15</t>
+  </si>
+  <si>
+    <t>Ontwerpproces</t>
+  </si>
+  <si>
+    <t>Opstellen ontwerp</t>
+  </si>
+  <si>
+    <t>Klassendiagram</t>
+  </si>
+  <si>
+    <t>io-28</t>
+  </si>
+  <si>
+    <t>Oplossen fouten</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>X,2,X</t>
+  </si>
+  <si>
+    <t>Ernst</t>
+  </si>
+  <si>
+    <t>bb-25</t>
+  </si>
+  <si>
+    <t>Beschikbaarstellen software</t>
+  </si>
+  <si>
+    <t>OTAP-acceptatietest</t>
+  </si>
+  <si>
+    <t>ii-18</t>
+  </si>
+  <si>
+    <t>Inrichten ontwikkelomgeving</t>
+  </si>
+  <si>
+    <t>IDE-setup-en-build</t>
+  </si>
+  <si>
     <t>Jasper</t>
   </si>
   <si>
-    <t>Doorgevoerd, todo</t>
-  </si>
-  <si>
-    <t>For</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>While</t>
-  </si>
-  <si>
-    <t>Jorrick</t>
-  </si>
-  <si>
-    <t>X,X,3</t>
-  </si>
-  <si>
-    <t>Recursie</t>
-  </si>
-  <si>
-    <t>Ties</t>
-  </si>
-  <si>
-    <t>Using</t>
-  </si>
-  <si>
-    <t>On hold</t>
-  </si>
-  <si>
-    <t>Async</t>
-  </si>
-  <si>
-    <t>Await</t>
-  </si>
-  <si>
-    <t>Declaratie</t>
-  </si>
-  <si>
-    <t>Jeroen &amp; Jorrick</t>
-  </si>
-  <si>
-    <t>In pull request</t>
-  </si>
-  <si>
-    <t>Initialisatie</t>
-  </si>
-  <si>
-    <t>Tupel</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>Maarten</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t>Dictionary</t>
-  </si>
-  <si>
-    <t>Queue</t>
-  </si>
-  <si>
-    <t>Hashset</t>
-  </si>
-  <si>
-    <t>Stack</t>
-  </si>
-  <si>
-    <t>Linkedlist</t>
-  </si>
-  <si>
-    <t>PriorityQueue</t>
-  </si>
-  <si>
-    <t>Datatype-Struct</t>
-  </si>
-  <si>
-    <t>Datatype-Null</t>
-  </si>
-  <si>
-    <t>oo-15</t>
-  </si>
-  <si>
-    <t>Ontwerpproces</t>
-  </si>
-  <si>
-    <t>Opstellen ontwerp</t>
-  </si>
-  <si>
-    <t>Klassendiagram</t>
-  </si>
-  <si>
-    <t>io-28</t>
-  </si>
-  <si>
-    <t>Oplossen fouten</t>
-  </si>
-  <si>
-    <t>Debugging</t>
-  </si>
-  <si>
-    <t>X,2,X</t>
-  </si>
-  <si>
-    <t>Ernst</t>
-  </si>
-  <si>
-    <t>bb-25</t>
-  </si>
-  <si>
-    <t>Beschikbaarstellen software</t>
-  </si>
-  <si>
-    <t>OTAP-acceptatietest</t>
-  </si>
-  <si>
-    <t>ii-18</t>
-  </si>
-  <si>
-    <t>Inrichten ontwikkelomgeving</t>
-  </si>
-  <si>
-    <t>IDE-setup-en-build</t>
-  </si>
-  <si>
     <t>Acitviteitendiagram</t>
   </si>
   <si>
@@ -573,6 +573,18 @@
     <t>Branch</t>
   </si>
   <si>
+    <t>to-1</t>
+  </si>
+  <si>
+    <t>Opstellen teststrategie</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Martijn &amp; Teun &amp; Jasper</t>
+  </si>
+  <si>
     <t>Reviewer</t>
   </si>
   <si>
@@ -658,12 +670,6 @@
   </si>
   <si>
     <t>ov-16</t>
-  </si>
-  <si>
-    <t>Opstellen teststrategie</t>
-  </si>
-  <si>
-    <t>to-1</t>
   </si>
   <si>
     <t>Uitvoeren analyse</t>
@@ -697,7 +703,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,6 +796,13 @@
       <sz val="11"/>
       <color rgb="FF5B4310"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="28">
@@ -1136,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1195,6 +1208,7 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2755,21 +2769,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3257,16 +3271,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8AE46-0301-40E0-97E1-E2E70FD5D32D}">
   <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -3873,11 +3887,9 @@
       <c r="J15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="32"/>
+      <c r="L15" s="35" t="s">
         <v>42</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>43</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
@@ -3898,7 +3910,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32" t="s">
@@ -3915,7 +3927,7 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
@@ -3936,7 +3948,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32" t="s">
@@ -3952,7 +3964,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" s="34" t="s">
         <v>24</v>
@@ -3967,7 +3979,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>37</v>
@@ -3976,26 +3988,26 @@
         <v>38</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
@@ -4016,7 +4028,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="32" t="s">
@@ -4033,7 +4045,7 @@
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
@@ -4054,7 +4066,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32" t="s">
@@ -4071,7 +4083,7 @@
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
@@ -4092,7 +4104,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32" t="s">
@@ -4109,7 +4121,7 @@
       </c>
       <c r="K21" s="32"/>
       <c r="L21" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
@@ -4130,7 +4142,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32" t="s">
@@ -4146,10 +4158,10 @@
         <v>22</v>
       </c>
       <c r="K22" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="39" t="s">
         <v>56</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>57</v>
       </c>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
@@ -4170,7 +4182,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32" t="s">
@@ -4186,10 +4198,10 @@
         <v>22</v>
       </c>
       <c r="K23" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="35" t="s">
         <v>56</v>
-      </c>
-      <c r="L23" s="35" t="s">
-        <v>57</v>
       </c>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
@@ -4210,7 +4222,7 @@
         <v>38</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="32" t="s">
@@ -4227,7 +4239,7 @@
       </c>
       <c r="K24" s="32"/>
       <c r="L24" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="32"/>
@@ -4248,7 +4260,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="32" t="s">
@@ -4264,17 +4276,17 @@
         <v>22</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
       <c r="P25" s="48"/>
     </row>
-    <row r="26" spans="1:16" ht="15">
+    <row r="26" spans="1:16">
       <c r="A26" s="32" t="s">
         <v>36</v>
       </c>
@@ -4288,7 +4300,7 @@
         <v>38</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32" t="s">
@@ -4304,10 +4316,10 @@
         <v>22</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
@@ -4328,7 +4340,7 @@
         <v>38</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32" t="s">
@@ -4344,10 +4356,10 @@
         <v>22</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L27" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
@@ -4368,7 +4380,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32" t="s">
@@ -4384,17 +4396,17 @@
         <v>22</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
       <c r="P28" s="48"/>
     </row>
-    <row r="29" spans="1:16" ht="15">
+    <row r="29" spans="1:16">
       <c r="A29" s="32" t="s">
         <v>36</v>
       </c>
@@ -4408,7 +4420,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="32" t="s">
@@ -4425,7 +4437,7 @@
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
@@ -4446,7 +4458,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="32" t="s">
@@ -4462,10 +4474,10 @@
         <v>22</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
@@ -4477,7 +4489,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>37</v>
@@ -4486,14 +4498,14 @@
         <v>38</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" s="47" t="s">
         <v>22</v>
@@ -4503,7 +4515,7 @@
       </c>
       <c r="K31" s="32"/>
       <c r="L31" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
@@ -4515,7 +4527,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>37</v>
@@ -4524,14 +4536,14 @@
         <v>38</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" s="47" t="s">
         <v>22</v>
@@ -4540,10 +4552,10 @@
         <v>22</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
@@ -4564,7 +4576,7 @@
         <v>38</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>21</v>
@@ -4585,7 +4597,7 @@
         <v>21</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M33" s="32" t="s">
         <v>21</v>
@@ -4614,7 +4626,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32" t="s">
@@ -4631,28 +4643,28 @@
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M34" s="32"/>
       <c r="N34" s="32"/>
       <c r="O34" s="32"/>
       <c r="P34" s="48"/>
     </row>
-    <row r="35" spans="1:16" ht="15">
+    <row r="35" spans="1:16">
       <c r="A35" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="32" t="s">
+      <c r="D35" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="E35" s="32" t="s">
         <v>73</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>74</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="32" t="s">
@@ -4669,7 +4681,7 @@
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
@@ -4678,7 +4690,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="32" t="s">
         <v>17</v>
@@ -4687,29 +4699,29 @@
         <v>37</v>
       </c>
       <c r="D36" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>77</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="H36" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36" s="32" t="s">
-        <v>79</v>
-      </c>
       <c r="L36" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M36" s="32"/>
       <c r="N36" s="32"/>
@@ -4718,7 +4730,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="32" t="s">
         <v>17</v>
@@ -4727,10 +4739,10 @@
         <v>18</v>
       </c>
       <c r="D37" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="32" t="s">
         <v>81</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>82</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="32" t="s">
@@ -4746,10 +4758,10 @@
         <v>22</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L37" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M37" s="32"/>
       <c r="N37" s="32"/>
@@ -4758,7 +4770,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>17</v>
@@ -4767,17 +4779,17 @@
         <v>37</v>
       </c>
       <c r="D38" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="32" t="s">
         <v>84</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>85</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I38" s="47" t="s">
         <v>22</v>
@@ -4786,28 +4798,28 @@
         <v>22</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="L38" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M38" s="32"/>
       <c r="N38" s="32"/>
       <c r="O38" s="32"/>
       <c r="P38" s="48"/>
     </row>
-    <row r="39" spans="1:16" ht="15">
+    <row r="39" spans="1:16">
       <c r="A39" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="32" t="s">
+      <c r="D39" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>73</v>
       </c>
       <c r="E39" s="32" t="s">
         <v>86</v>
@@ -4827,7 +4839,7 @@
       </c>
       <c r="K39" s="32"/>
       <c r="L39" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
@@ -4864,10 +4876,10 @@
         <v>22</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M40" s="32"/>
       <c r="N40" s="32"/>
@@ -4914,7 +4926,7 @@
       <c r="O41" s="32"/>
       <c r="P41" s="48"/>
     </row>
-    <row r="42" spans="1:16" ht="15">
+    <row r="42" spans="1:16">
       <c r="A42" s="32" t="s">
         <v>95</v>
       </c>
@@ -4944,17 +4956,17 @@
         <v>22</v>
       </c>
       <c r="K42" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L42" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M42" s="32"/>
       <c r="N42" s="32"/>
       <c r="O42" s="32"/>
       <c r="P42" s="48"/>
     </row>
-    <row r="43" spans="1:16" ht="15">
+    <row r="43" spans="1:16">
       <c r="A43" s="32" t="s">
         <v>99</v>
       </c>
@@ -4984,17 +4996,17 @@
         <v>22</v>
       </c>
       <c r="K43" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L43" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M43" s="32"/>
       <c r="N43" s="32"/>
       <c r="O43" s="32"/>
       <c r="P43" s="48"/>
     </row>
-    <row r="44" spans="1:16" ht="15">
+    <row r="44" spans="1:16">
       <c r="A44" s="32" t="s">
         <v>102</v>
       </c>
@@ -5024,10 +5036,10 @@
         <v>22</v>
       </c>
       <c r="K44" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L44" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M44" s="32"/>
       <c r="N44" s="32"/>
@@ -5064,10 +5076,10 @@
         <v>22</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="L45" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
@@ -5104,17 +5116,17 @@
         <v>22</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M46" s="32"/>
       <c r="N46" s="32"/>
       <c r="O46" s="32"/>
       <c r="P46" s="48"/>
     </row>
-    <row r="47" spans="1:16" ht="15">
+    <row r="47" spans="1:16">
       <c r="A47" s="32" t="s">
         <v>109</v>
       </c>
@@ -5145,16 +5157,16 @@
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
       <c r="O47" s="32"/>
       <c r="P47" s="48"/>
     </row>
-    <row r="48" spans="1:16" ht="15">
+    <row r="48" spans="1:16">
       <c r="A48" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>17</v>
@@ -5163,7 +5175,7 @@
         <v>18</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="32" t="s">
         <v>112</v>
@@ -5183,14 +5195,14 @@
       </c>
       <c r="K48" s="32"/>
       <c r="L48" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M48" s="32"/>
       <c r="N48" s="32"/>
       <c r="O48" s="32"/>
       <c r="P48" s="48"/>
     </row>
-    <row r="49" spans="1:16" ht="15">
+    <row r="49" spans="1:16">
       <c r="A49" s="32" t="s">
         <v>87</v>
       </c>
@@ -5221,14 +5233,14 @@
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M49" s="32"/>
       <c r="N49" s="32"/>
       <c r="O49" s="32"/>
       <c r="P49" s="48"/>
     </row>
-    <row r="50" spans="1:16" ht="15">
+    <row r="50" spans="1:16">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -5243,14 +5255,14 @@
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M50" s="32"/>
       <c r="N50" s="32"/>
       <c r="O50" s="32"/>
       <c r="P50" s="48"/>
     </row>
-    <row r="51" spans="1:16" ht="15">
+    <row r="51" spans="1:16">
       <c r="A51" s="32" t="s">
         <v>102</v>
       </c>
@@ -5281,7 +5293,7 @@
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M51" s="32"/>
       <c r="N51" s="32"/>
@@ -5318,10 +5330,10 @@
         <v>17</v>
       </c>
       <c r="K52" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L52" s="35" t="s">
         <v>42</v>
-      </c>
-      <c r="L52" s="35" t="s">
-        <v>43</v>
       </c>
       <c r="M52" s="32"/>
       <c r="N52" s="32"/>
@@ -5360,10 +5372,10 @@
         <v>17</v>
       </c>
       <c r="K53" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L53" s="36" t="s">
         <v>42</v>
-      </c>
-      <c r="L53" s="36" t="s">
-        <v>43</v>
       </c>
       <c r="M53" s="32"/>
       <c r="N53" s="32"/>
@@ -5402,10 +5414,10 @@
         <v>17</v>
       </c>
       <c r="K54" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L54" s="35" t="s">
         <v>42</v>
-      </c>
-      <c r="L54" s="35" t="s">
-        <v>43</v>
       </c>
       <c r="M54" s="32"/>
       <c r="N54" s="32"/>
@@ -5414,7 +5426,7 @@
       </c>
       <c r="P54" s="48"/>
     </row>
-    <row r="55" spans="1:16" ht="15">
+    <row r="55" spans="1:16">
       <c r="A55" s="32" t="s">
         <v>36</v>
       </c>
@@ -5444,10 +5456,10 @@
         <v>17</v>
       </c>
       <c r="K55" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L55" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M55" s="32"/>
       <c r="N55" s="32"/>
@@ -5486,7 +5498,7 @@
         <v>17</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="L56" s="31" t="s">
         <v>24</v>
@@ -5578,7 +5590,7 @@
         <v>17</v>
       </c>
       <c r="K58" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L58" s="34" t="s">
         <v>24</v>
@@ -5624,7 +5636,7 @@
         <v>17</v>
       </c>
       <c r="K59" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L59" s="34" t="s">
         <v>24</v>
@@ -5670,7 +5682,7 @@
         <v>17</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="L60" s="34" t="s">
         <v>24</v>
@@ -5716,7 +5728,7 @@
         <v>17</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L61" s="34" t="s">
         <v>24</v>
@@ -5808,7 +5820,7 @@
         <v>17</v>
       </c>
       <c r="K63" s="32" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="L63" s="34" t="s">
         <v>24</v>
@@ -5870,7 +5882,7 @@
       </c>
       <c r="P64" s="48"/>
     </row>
-    <row r="65" spans="1:16" ht="15">
+    <row r="65" spans="1:16">
       <c r="A65" s="32" t="s">
         <v>36</v>
       </c>
@@ -5903,7 +5915,7 @@
         <v>134</v>
       </c>
       <c r="L65" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M65" s="32" t="s">
         <v>122</v>
@@ -5946,7 +5958,7 @@
         <v>17</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L66" s="31" t="s">
         <v>24</v>
@@ -5988,10 +6000,10 @@
         <v>17</v>
       </c>
       <c r="K67" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L67" s="30" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M67" s="32" t="s">
         <v>122</v>
@@ -6004,7 +6016,7 @@
       </c>
       <c r="P67" s="48"/>
     </row>
-    <row r="68" spans="1:16" ht="15">
+    <row r="68" spans="1:16">
       <c r="A68" s="32" t="s">
         <v>36</v>
       </c>
@@ -6036,10 +6048,10 @@
         <v>17</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L68" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M68" s="32" t="s">
         <v>138</v>
@@ -6052,7 +6064,7 @@
       </c>
       <c r="P68" s="48"/>
     </row>
-    <row r="69" spans="1:16" ht="15">
+    <row r="69" spans="1:16">
       <c r="A69" s="32" t="s">
         <v>36</v>
       </c>
@@ -6084,10 +6096,10 @@
         <v>17</v>
       </c>
       <c r="K69" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L69" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M69" s="32" t="s">
         <v>138</v>
@@ -6100,7 +6112,7 @@
       </c>
       <c r="P69" s="48"/>
     </row>
-    <row r="70" spans="1:16" ht="15">
+    <row r="70" spans="1:16">
       <c r="A70" s="32" t="s">
         <v>36</v>
       </c>
@@ -6132,10 +6144,10 @@
         <v>17</v>
       </c>
       <c r="K70" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L70" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M70" s="32" t="s">
         <v>138</v>
@@ -6148,7 +6160,7 @@
       </c>
       <c r="P70" s="48"/>
     </row>
-    <row r="71" spans="1:16" ht="15">
+    <row r="71" spans="1:16">
       <c r="A71" s="32" t="s">
         <v>36</v>
       </c>
@@ -6180,10 +6192,10 @@
         <v>17</v>
       </c>
       <c r="K71" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L71" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M71" s="32" t="s">
         <v>138</v>
@@ -6196,7 +6208,7 @@
       </c>
       <c r="P71" s="48"/>
     </row>
-    <row r="72" spans="1:16" ht="15">
+    <row r="72" spans="1:16">
       <c r="A72" s="32" t="s">
         <v>36</v>
       </c>
@@ -6228,10 +6240,10 @@
         <v>17</v>
       </c>
       <c r="K72" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L72" s="30" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M72" s="32"/>
       <c r="N72" s="32"/>
@@ -6272,10 +6284,10 @@
         <v>17</v>
       </c>
       <c r="K73" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="L73" s="31" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="L73" s="54" t="s">
+        <v>42</v>
       </c>
       <c r="M73" s="32" t="s">
         <v>138</v>
@@ -6320,7 +6332,7 @@
         <v>17</v>
       </c>
       <c r="K74" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L74" s="34" t="s">
         <v>24</v>
@@ -6336,7 +6348,7 @@
       </c>
       <c r="P74" s="48"/>
     </row>
-    <row r="75" spans="1:16" ht="15">
+    <row r="75" spans="1:16">
       <c r="A75" s="32" t="s">
         <v>36</v>
       </c>
@@ -6368,7 +6380,7 @@
         <v>17</v>
       </c>
       <c r="K75" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L75" s="31" t="s">
         <v>24</v>
@@ -6416,7 +6428,7 @@
         <v>17</v>
       </c>
       <c r="K76" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L76" s="34" t="s">
         <v>24</v>
@@ -6464,7 +6476,7 @@
         <v>17</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L77" s="31" t="s">
         <v>24</v>
@@ -6515,7 +6527,7 @@
         <v>23</v>
       </c>
       <c r="L78" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M78" s="32" t="s">
         <v>150</v>
@@ -6560,10 +6572,10 @@
         <v>17</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L79" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M79" s="32" t="s">
         <v>150</v>
@@ -6606,7 +6618,7 @@
         <v>17</v>
       </c>
       <c r="K80" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L80" s="34" t="s">
         <v>24</v>
@@ -6657,7 +6669,7 @@
         <v>156</v>
       </c>
       <c r="L81" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M81" s="32" t="s">
         <v>157</v>
@@ -6700,7 +6712,7 @@
         <v>17</v>
       </c>
       <c r="K82" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L82" s="41" t="s">
         <v>24</v>
@@ -6748,7 +6760,7 @@
         <v>17</v>
       </c>
       <c r="K83" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L83" s="40" t="s">
         <v>24</v>
@@ -6796,7 +6808,7 @@
         <v>17</v>
       </c>
       <c r="K84" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L84" s="41" t="s">
         <v>24</v>
@@ -6844,10 +6856,10 @@
         <v>17</v>
       </c>
       <c r="K85" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L85" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M85" s="32" t="s">
         <v>164</v>
@@ -6892,7 +6904,7 @@
         <v>17</v>
       </c>
       <c r="K86" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L86" s="41" t="s">
         <v>24</v>
@@ -6940,10 +6952,10 @@
         <v>17</v>
       </c>
       <c r="K87" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L87" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M87" s="32" t="s">
         <v>164</v>
@@ -6986,7 +6998,7 @@
         <v>17</v>
       </c>
       <c r="K88" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L88" s="45" t="s">
         <v>24</v>
@@ -7032,10 +7044,10 @@
         <v>22</v>
       </c>
       <c r="K89" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M89" s="32"/>
       <c r="N89" s="32"/>
@@ -7053,7 +7065,7 @@
         <v>18</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E90" s="32" t="s">
         <v>175</v>
@@ -7082,37 +7094,81 @@
       <c r="O90" s="32"/>
       <c r="P90" s="48"/>
     </row>
-    <row r="91" spans="1:16" ht="15">
-      <c r="A91" s="32"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
+    <row r="91" spans="1:16">
+      <c r="A91" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="E91" s="32" t="s">
         <v>90</v>
       </c>
       <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
+      <c r="G91" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H91" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I91" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K91" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L91" t="s">
+        <v>24</v>
+      </c>
       <c r="M91" s="32"/>
       <c r="N91" s="32"/>
       <c r="O91" s="32"/>
       <c r="P91" s="48"/>
     </row>
     <row r="92" spans="1:16">
-      <c r="A92" s="32"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
+      <c r="A92" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" s="32" t="s">
+        <v>179</v>
+      </c>
       <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="32"/>
+      <c r="G92" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="L92" t="s">
+        <v>176</v>
+      </c>
       <c r="M92" s="32"/>
       <c r="N92" s="32"/>
       <c r="O92" s="32"/>
@@ -7873,11 +7929,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L135">
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+      <formula>"In pull request"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
       <formula>"Doorgevoerd"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
-      <formula>"In pull request"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7891,7 +7947,7 @@
           <x14:formula1>
             <xm:f>Taxonomiecodes!$E$2:$E$29</xm:f>
           </x14:formula1>
-          <xm:sqref>A1</xm:sqref>
+          <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6213AD96-A2C1-45C5-A18E-B15DBDEE7B20}">
           <x14:formula1>
@@ -7931,7 +7987,7 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
@@ -7982,7 +8038,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>11</v>
@@ -8442,7 +8498,7 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
@@ -8493,7 +8549,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>11</v>
@@ -8951,11 +9007,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415DE74F-AEED-4214-AED9-C4A99E562FBF}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -8966,10 +9022,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -8978,7 +9034,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8986,7 +9042,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>88</v>
@@ -9003,16 +9059,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9020,16 +9076,16 @@
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9037,16 +9093,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9054,7 +9110,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>18</v>
@@ -9071,7 +9127,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
@@ -9088,16 +9144,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9105,7 +9161,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>88</v>
@@ -9122,16 +9178,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9139,16 +9195,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9156,16 +9212,16 @@
         <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9173,16 +9229,16 @@
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9190,16 +9246,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9207,7 +9263,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>37</v>
@@ -9224,16 +9280,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9241,16 +9297,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9258,16 +9314,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9275,16 +9331,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9292,16 +9348,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9309,16 +9365,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9326,16 +9382,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9343,7 +9399,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>96</v>
@@ -9360,16 +9416,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9377,7 +9433,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>96</v>
@@ -9394,7 +9450,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>96</v>
@@ -9411,16 +9467,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9428,7 +9484,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>96</v>
@@ -9445,7 +9501,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
@@ -9471,19 +9527,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.600000000000001">
+    <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -9493,12 +9549,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -9508,7 +9564,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -9517,14 +9573,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9769,16 +9823,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9786,7 +9842,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim.sharepoint.com/sites/O365-OntwikkelgroepHoofdfase/Gedeelde documenten/General/Ontwikkelgroep SE/01. Besluiten, planningen, actiepunten, etc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim.sharepoint.com/sites/O365-OntwikkelgroepHoofdfase/Gedeelde documenten/General/Ontwikkelgroep SE/01. Besluiten, planningen, actiepunten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4DBADC-CCC6-44E3-8317-04EF358B3725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EBDAD61-0EF9-439B-AE99-D18C4CD4744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="252">
   <si>
     <t>TC-1</t>
   </si>
@@ -150,6 +150,24 @@
     <t>Git-Flow</t>
   </si>
   <si>
+    <t>bb-23</t>
+  </si>
+  <si>
+    <t>Beheren ontwikkelstraat</t>
+  </si>
+  <si>
+    <t>Git-Gitignore</t>
+  </si>
+  <si>
+    <t>Git-Release-maken</t>
+  </si>
+  <si>
+    <t>X,2,X</t>
+  </si>
+  <si>
+    <t>Git-Forken</t>
+  </si>
+  <si>
     <t>ib-19</t>
   </si>
   <si>
@@ -171,6 +189,9 @@
     <t>Doorgevoerd, todo</t>
   </si>
   <si>
+    <t>Nog DT</t>
+  </si>
+  <si>
     <t>For</t>
   </si>
   <si>
@@ -192,6 +213,9 @@
     <t>Ties</t>
   </si>
   <si>
+    <t>Nog PI, DT</t>
+  </si>
+  <si>
     <t>Using</t>
   </si>
   <si>
@@ -273,9 +297,6 @@
     <t>Debugging</t>
   </si>
   <si>
-    <t>X,2,X</t>
-  </si>
-  <si>
     <t>Ernst</t>
   </si>
   <si>
@@ -300,7 +321,7 @@
     <t>Jasper</t>
   </si>
   <si>
-    <t>Acitviteitendiagram</t>
+    <t>Activiteitendiagram</t>
   </si>
   <si>
     <t>ta-6</t>
@@ -312,7 +333,7 @@
     <t>Adviseren testproces</t>
   </si>
   <si>
-    <t>Teststrategie</t>
+    <t>Adviseren-teststrategie</t>
   </si>
   <si>
     <t>tu-4</t>
@@ -558,36 +579,165 @@
     <t>Week7</t>
   </si>
   <si>
-    <t>bb-23</t>
-  </si>
-  <si>
-    <t>Beheren ontwikkelstraat</t>
-  </si>
-  <si>
-    <t>Pipeline-Testen</t>
+    <t>Pipeline-testen</t>
   </si>
   <si>
     <t>Branching-Strategieën</t>
   </si>
   <si>
+    <t>to-1</t>
+  </si>
+  <si>
+    <t>Opstellen teststrategie</t>
+  </si>
+  <si>
+    <t>Gebruiken-teststrategie</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Martijn &amp; Teun &amp; Jasper</t>
+  </si>
+  <si>
+    <t>to-2</t>
+  </si>
+  <si>
+    <t>Opstellen testontwerp</t>
+  </si>
+  <si>
+    <t>Testscenarios</t>
+  </si>
+  <si>
+    <t>to-3</t>
+  </si>
+  <si>
+    <t>Opstellen test</t>
+  </si>
+  <si>
+    <t>Opstellen-schriftelijke-testcase</t>
+  </si>
+  <si>
+    <t>Verzamelen-testcases</t>
+  </si>
+  <si>
+    <t>Selecteren-testsoort</t>
+  </si>
+  <si>
+    <t>Uitvoeren-handmatige-test</t>
+  </si>
+  <si>
+    <t>te-5</t>
+  </si>
+  <si>
+    <t>Evalueren test</t>
+  </si>
+  <si>
+    <t>Evalueren-testresultaat</t>
+  </si>
+  <si>
+    <t>Toepassen-taalconcepten</t>
+  </si>
+  <si>
+    <t>Structureren-project</t>
+  </si>
+  <si>
+    <t>Structureren-code</t>
+  </si>
+  <si>
+    <t>ir-20</t>
+  </si>
+  <si>
+    <t>Refactoren applicatie</t>
+  </si>
+  <si>
+    <t>Refactoren-applicatie</t>
+  </si>
+  <si>
+    <t>Beredeneren bouwkeuzes</t>
+  </si>
+  <si>
+    <t>Beredeneren-bouwkeuzes</t>
+  </si>
+  <si>
+    <t>Oplossen-fouten</t>
+  </si>
+  <si>
+    <t>Peerreviewen-code</t>
+  </si>
+  <si>
+    <t>Iterfatief-verfijnen-ontwerp</t>
+  </si>
+  <si>
+    <t>Toepassen-modelleertechnieken</t>
+  </si>
+  <si>
+    <t>Uitleg-werking-systeem</t>
+  </si>
+  <si>
     <t>Branch</t>
   </si>
   <si>
-    <t>to-1</t>
-  </si>
-  <si>
-    <t>Opstellen teststrategie</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
-    <t>Martijn &amp; Teun &amp; Jasper</t>
+    <t>ov-16</t>
+  </si>
+  <si>
+    <t>Vaststellen kwaliteit</t>
+  </si>
+  <si>
+    <t>Controle-communiceerbaarheid-ontwerp</t>
+  </si>
+  <si>
+    <t>Controle-toepassing-ontwerptechnieken</t>
+  </si>
+  <si>
+    <t>oa-17</t>
+  </si>
+  <si>
+    <t>Adviseren architectuur</t>
+  </si>
+  <si>
+    <t>Presenteren-aanbevelingen</t>
+  </si>
+  <si>
+    <t>Ondersteunen-bij-ontwerpkeuzes</t>
+  </si>
+  <si>
+    <t>Definiëren-probleemdomein</t>
+  </si>
+  <si>
+    <t>rv-8</t>
+  </si>
+  <si>
+    <t>Verzamelen requirements</t>
+  </si>
+  <si>
+    <t>Beschrijven-stakeholders</t>
+  </si>
+  <si>
+    <t>Uitvragen-requirements</t>
+  </si>
+  <si>
+    <t>rv-11</t>
+  </si>
+  <si>
+    <t>Valideren requirements</t>
   </si>
   <si>
     <t>Reviewer</t>
   </si>
   <si>
+    <t>Talstelsels</t>
+  </si>
+  <si>
+    <t>Eltjo</t>
+  </si>
+  <si>
+    <t>Martijn tS, Martijn S, Teun</t>
+  </si>
+  <si>
+    <t>Bewerkingen op getallen</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -615,48 +765,15 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Evalueren test</t>
-  </si>
-  <si>
-    <t>te-5</t>
-  </si>
-  <si>
-    <t>Opstellen test</t>
-  </si>
-  <si>
-    <t>to-3</t>
-  </si>
-  <si>
-    <t>Opstellen testontwerp</t>
-  </si>
-  <si>
-    <t>to-2</t>
-  </si>
-  <si>
     <t>Development</t>
   </si>
   <si>
-    <t>Beredeneren bouwkeuzes</t>
-  </si>
-  <si>
     <t>ib-21</t>
   </si>
   <si>
-    <t>Refactoren applicatie</t>
-  </si>
-  <si>
-    <t>ir-20</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
-    <t>Adviseren architectuur</t>
-  </si>
-  <si>
-    <t>oa-17</t>
-  </si>
-  <si>
     <t>Pakketselectieproces</t>
   </si>
   <si>
@@ -666,12 +783,6 @@
     <t>pa-14</t>
   </si>
   <si>
-    <t>Vaststellen kwaliteit</t>
-  </si>
-  <si>
-    <t>ov-16</t>
-  </si>
-  <si>
     <t>Uitvoeren analyse</t>
   </si>
   <si>
@@ -679,18 +790,6 @@
   </si>
   <si>
     <t>Requirements</t>
-  </si>
-  <si>
-    <t>Valideren requirements</t>
-  </si>
-  <si>
-    <t>rv-11</t>
-  </si>
-  <si>
-    <t>Verzamelen requirements</t>
-  </si>
-  <si>
-    <t>rv-8</t>
   </si>
   <si>
     <t>Overkoepelend</t>
@@ -798,9 +897,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1149,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1208,7 +1306,10 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2870,8 +2971,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P135" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76" headerRowBorderDxfId="74" tableBorderDxfId="75">
-  <autoFilter ref="A1:P135" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P152" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76" headerRowBorderDxfId="74" tableBorderDxfId="75">
+  <autoFilter ref="A1:P152" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}"/>
   <tableColumns count="16">
     <tableColumn id="2" xr3:uid="{F8A50546-3BB2-41F8-99A7-821FFAEA9EA0}" name="TC-1" dataDxfId="73"/>
     <tableColumn id="3" xr3:uid="{41734F87-6DB1-4AC3-80CE-250B23378554}" name="TC-2" dataDxfId="72"/>
@@ -3269,17 +3370,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8AE46-0301-40E0-97E1-E2E70FD5D32D}">
-  <dimension ref="A1:P135"/>
+  <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -3435,8 +3536,8 @@
         <v>26</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
-        <v>17</v>
+      <c r="G4" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>17</v>
@@ -3795,8 +3896,8 @@
         <v>35</v>
       </c>
       <c r="F13" s="32"/>
-      <c r="G13" s="32" t="s">
-        <v>17</v>
+      <c r="G13" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H13" s="32" t="s">
         <v>17</v>
@@ -3826,17 +3927,17 @@
         <v>17</v>
       </c>
       <c r="C14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="E14" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="32"/>
-      <c r="G14" s="32" t="s">
-        <v>17</v>
+      <c r="G14" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>17</v>
@@ -3844,13 +3945,13 @@
       <c r="I14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="32" t="s">
-        <v>17</v>
+      <c r="J14" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M14" s="32"/>
@@ -3860,23 +3961,23 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="32" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="32" t="s">
-        <v>17</v>
+      <c r="G15" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H15" s="32" t="s">
         <v>17</v>
@@ -3884,12 +3985,14 @@
       <c r="I15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="35" t="s">
-        <v>42</v>
+      <c r="J15" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
@@ -3897,62 +4000,64 @@
       <c r="P15" s="48"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="56" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C16" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32" t="s">
-        <v>17</v>
+      <c r="E16" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="48"/>
+        <v>40</v>
+      </c>
+      <c r="J16" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="57"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="32" t="s">
-        <v>17</v>
+      <c r="G17" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H17" s="32" t="s">
         <v>17</v>
@@ -3966,7 +4071,7 @@
       <c r="K17" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="31" t="s">
         <v>24</v>
       </c>
       <c r="M17" s="32"/>
@@ -3976,63 +4081,63 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="32" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="35" t="s">
         <v>48</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>42</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="48"/>
+      <c r="P18" s="48" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="32" t="s">
-        <v>17</v>
+      <c r="G19" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H19" s="32" t="s">
         <v>17</v>
@@ -4044,7 +4149,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="32"/>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="30" t="s">
         <v>51</v>
       </c>
       <c r="M19" s="32"/>
@@ -4054,23 +4159,23 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="32" t="s">
-        <v>17</v>
+      <c r="G20" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>17</v>
@@ -4081,9 +4186,11 @@
       <c r="J20" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="38" t="s">
-        <v>51</v>
+      <c r="K20" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
@@ -4092,76 +4199,78 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="32" t="s">
-        <v>17</v>
+      <c r="G21" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="37" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>48</v>
       </c>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
-      <c r="P21" s="48"/>
+      <c r="P21" s="48" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="32" t="s">
-        <v>17</v>
+      <c r="G22" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H22" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="47" t="s">
-        <v>22</v>
+      <c r="I22" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="K22" s="32"/>
+      <c r="L22" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
@@ -4170,38 +4279,36 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="32" t="s">
-        <v>17</v>
+      <c r="G23" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H23" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="47" t="s">
-        <v>22</v>
+      <c r="I23" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" s="35" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="K23" s="32"/>
+      <c r="L23" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
@@ -4210,36 +4317,36 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F24" s="32"/>
-      <c r="G24" s="32" t="s">
-        <v>17</v>
+      <c r="G24" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H24" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="47" t="s">
-        <v>22</v>
+      <c r="I24" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="K24" s="32"/>
-      <c r="L24" s="38" t="s">
-        <v>51</v>
+      <c r="L24" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="32"/>
@@ -4248,23 +4355,23 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F25" s="32"/>
-      <c r="G25" s="32" t="s">
-        <v>17</v>
+      <c r="G25" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H25" s="32" t="s">
         <v>17</v>
@@ -4272,14 +4379,14 @@
       <c r="I25" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="47" t="s">
+      <c r="J25" s="32" t="s">
         <v>22</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" s="33" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
@@ -4288,23 +4395,23 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F26" s="32"/>
-      <c r="G26" s="32" t="s">
-        <v>17</v>
+      <c r="G26" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H26" s="32" t="s">
         <v>17</v>
@@ -4312,14 +4419,14 @@
       <c r="I26" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="47" t="s">
+      <c r="J26" s="32" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="37" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
@@ -4328,23 +4435,23 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B27" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="32" t="s">
-        <v>17</v>
+      <c r="G27" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H27" s="32" t="s">
         <v>17</v>
@@ -4355,11 +4462,9 @@
       <c r="J27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="33" t="s">
-        <v>44</v>
+      <c r="K27" s="32"/>
+      <c r="L27" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
@@ -4368,23 +4473,23 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F28" s="32"/>
-      <c r="G28" s="32" t="s">
-        <v>17</v>
+      <c r="G28" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H28" s="32" t="s">
         <v>17</v>
@@ -4396,10 +4501,10 @@
         <v>22</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="30" t="s">
-        <v>44</v>
+        <v>68</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
@@ -4408,23 +4513,23 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F29" s="32"/>
-      <c r="G29" s="32" t="s">
-        <v>17</v>
+      <c r="G29" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H29" s="32" t="s">
         <v>17</v>
@@ -4436,8 +4541,8 @@
         <v>22</v>
       </c>
       <c r="K29" s="32"/>
-      <c r="L29" s="36" t="s">
-        <v>42</v>
+      <c r="L29" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
@@ -4446,23 +4551,23 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F30" s="32"/>
-      <c r="G30" s="32" t="s">
-        <v>17</v>
+      <c r="G30" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H30" s="32" t="s">
         <v>17</v>
@@ -4473,11 +4578,9 @@
       <c r="J30" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="L30" s="36" t="s">
-        <v>42</v>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
@@ -4486,26 +4589,26 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F31" s="32"/>
-      <c r="G31" s="32" t="s">
-        <v>47</v>
+      <c r="G31" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I31" s="47" t="s">
         <v>22</v>
@@ -4514,7 +4617,7 @@
         <v>22</v>
       </c>
       <c r="K31" s="32"/>
-      <c r="L31" s="37" t="s">
+      <c r="L31" s="30" t="s">
         <v>51</v>
       </c>
       <c r="M31" s="32"/>
@@ -4524,65 +4627,63 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F32" s="32"/>
-      <c r="G32" s="32" t="s">
-        <v>47</v>
+      <c r="G32" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I32" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="L32" s="37" t="s">
-        <v>51</v>
+      <c r="J32" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="32"/>
+      <c r="L32" s="36" t="s">
+        <v>48</v>
       </c>
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
-      <c r="P32" s="48"/>
+      <c r="P32" s="48" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>17</v>
+        <v>73</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H33" s="32" t="s">
         <v>17</v>
@@ -4590,50 +4691,44 @@
       <c r="I33" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="47" t="s">
-        <v>22</v>
+      <c r="J33" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="M33" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="O33" s="32" t="s">
-        <v>21</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
       <c r="P33" s="48" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F34" s="32"/>
-      <c r="G34" s="32" t="s">
-        <v>17</v>
+      <c r="G34" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I34" s="47" t="s">
         <v>22</v>
@@ -4642,8 +4737,8 @@
         <v>22</v>
       </c>
       <c r="K34" s="32"/>
-      <c r="L34" s="38" t="s">
-        <v>51</v>
+      <c r="L34" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="M34" s="32"/>
       <c r="N34" s="32"/>
@@ -4652,36 +4747,36 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F35" s="32"/>
-      <c r="G35" s="32" t="s">
-        <v>17</v>
+      <c r="G35" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="I35" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="J35" s="47" t="s">
         <v>22</v>
       </c>
       <c r="K35" s="32"/>
-      <c r="L35" s="38" t="s">
-        <v>51</v>
+      <c r="L35" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
@@ -4690,63 +4785,73 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="32" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B36" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32" t="s">
-        <v>77</v>
+      <c r="F36" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H36" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="32" t="s">
-        <v>77</v>
+      <c r="I36" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="48"/>
+        <v>59</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="48" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="32" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B37" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F37" s="32"/>
-      <c r="G37" s="32" t="s">
-        <v>17</v>
+      <c r="G37" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H37" s="32" t="s">
         <v>17</v>
@@ -4757,11 +4862,9 @@
       <c r="J37" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L37" s="33" t="s">
-        <v>44</v>
+      <c r="K37" s="32"/>
+      <c r="L37" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="M37" s="32"/>
       <c r="N37" s="32"/>
@@ -4770,38 +4873,36 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F38" s="32"/>
-      <c r="G38" s="32" t="s">
-        <v>77</v>
+      <c r="G38" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" s="47" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="J38" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="L38" s="30" t="s">
-        <v>44</v>
+      <c r="K38" s="32"/>
+      <c r="L38" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="M38" s="32"/>
       <c r="N38" s="32"/>
@@ -4810,23 +4911,23 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="32" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F39" s="32"/>
-      <c r="G39" s="32" t="s">
-        <v>17</v>
+      <c r="G39" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H39" s="32" t="s">
         <v>17</v>
@@ -4834,12 +4935,14 @@
       <c r="I39" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="32"/>
-      <c r="L39" s="38" t="s">
-        <v>51</v>
+      <c r="J39" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L39" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
@@ -4848,23 +4951,23 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="32" t="s">
+      <c r="E40" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>90</v>
-      </c>
       <c r="F40" s="32"/>
-      <c r="G40" s="32" t="s">
-        <v>17</v>
+      <c r="G40" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H40" s="32" t="s">
         <v>17</v>
@@ -4876,10 +4979,10 @@
         <v>22</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L40" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="M40" s="32"/>
       <c r="N40" s="32"/>
@@ -4888,38 +4991,38 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="32" t="s">
+      <c r="F41" s="32"/>
+      <c r="G41" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="L41" s="34" t="s">
-        <v>24</v>
+      <c r="L41" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="M41" s="32"/>
       <c r="N41" s="32"/>
@@ -4928,38 +5031,36 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="32" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B42" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F42" s="32"/>
-      <c r="G42" s="32" t="s">
-        <v>17</v>
+      <c r="G42" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H42" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="47" t="s">
-        <v>22</v>
+      <c r="I42" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="J42" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L42" s="37" t="s">
-        <v>51</v>
+      <c r="K42" s="32"/>
+      <c r="L42" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="M42" s="32"/>
       <c r="N42" s="32"/>
@@ -4968,26 +5069,26 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F43" s="32"/>
-      <c r="G43" s="32" t="s">
-        <v>17</v>
+      <c r="G43" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H43" s="32" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I43" s="47" t="s">
         <v>22</v>
@@ -4995,10 +5096,8 @@
       <c r="J43" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L43" s="37" t="s">
+      <c r="K43" s="32"/>
+      <c r="L43" s="54" t="s">
         <v>51</v>
       </c>
       <c r="M43" s="32"/>
@@ -5007,40 +5106,18 @@
       <c r="P43" s="48"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>104</v>
-      </c>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L44" s="37" t="s">
-        <v>51</v>
-      </c>
+      <c r="G44" s="47"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="54"/>
       <c r="M44" s="32"/>
       <c r="N44" s="32"/>
       <c r="O44" s="32"/>
@@ -5048,23 +5125,23 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="32" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F45" s="32"/>
-      <c r="G45" s="32" t="s">
-        <v>17</v>
+      <c r="G45" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H45" s="32" t="s">
         <v>17</v>
@@ -5076,10 +5153,10 @@
         <v>22</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="L45" s="33" t="s">
-        <v>44</v>
+        <v>101</v>
+      </c>
+      <c r="L45" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
@@ -5088,23 +5165,23 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F46" s="32"/>
-      <c r="G46" s="32" t="s">
-        <v>17</v>
+      <c r="G46" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H46" s="32" t="s">
         <v>17</v>
@@ -5115,11 +5192,9 @@
       <c r="J46" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L46" s="30" t="s">
-        <v>44</v>
+      <c r="K46" s="32"/>
+      <c r="L46" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="M46" s="32"/>
       <c r="N46" s="32"/>
@@ -5128,23 +5203,23 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F47" s="32"/>
-      <c r="G47" s="32" t="s">
-        <v>17</v>
+      <c r="G47" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H47" s="32" t="s">
         <v>17</v>
@@ -5157,7 +5232,7 @@
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
@@ -5166,36 +5241,36 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="32" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F48" s="32"/>
-      <c r="G48" s="32" t="s">
-        <v>17</v>
+      <c r="G48" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H48" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="32" t="s">
-        <v>17</v>
+      <c r="I48" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="J48" s="47" t="s">
         <v>22</v>
       </c>
       <c r="K48" s="32"/>
       <c r="L48" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M48" s="32"/>
       <c r="N48" s="32"/>
@@ -5204,35 +5279,35 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="32" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F49" s="32"/>
-      <c r="G49" s="32" t="s">
-        <v>17</v>
+      <c r="G49" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="32" t="s">
-        <v>17</v>
+      <c r="I49" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="J49" s="47" t="s">
         <v>22</v>
       </c>
       <c r="K49" s="32"/>
-      <c r="L49" s="37" t="s">
+      <c r="L49" s="33" t="s">
         <v>51</v>
       </c>
       <c r="M49" s="32"/>
@@ -5241,20 +5316,36 @@
       <c r="P49" s="48"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+      <c r="A50" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>114</v>
+      </c>
       <c r="E50" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
+      <c r="G50" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="K50" s="32"/>
-      <c r="L50" s="37" t="s">
+      <c r="L50" s="30" t="s">
         <v>51</v>
       </c>
       <c r="M50" s="32"/>
@@ -5264,36 +5355,36 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="32" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F51" s="32"/>
-      <c r="G51" s="32" t="s">
-        <v>17</v>
+      <c r="G51" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H51" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="32" t="s">
-        <v>17</v>
+      <c r="I51" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="J51" s="47" t="s">
         <v>22</v>
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M51" s="32"/>
       <c r="N51" s="32"/>
@@ -5302,190 +5393,158 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="32" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F52" s="32"/>
-      <c r="G52" s="32" t="s">
+      <c r="G52" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H52" s="32" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J52" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="L52" s="35" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="J52" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="32"/>
+      <c r="L52" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="M52" s="32"/>
       <c r="N52" s="32"/>
-      <c r="O52" s="32" t="s">
-        <v>117</v>
-      </c>
+      <c r="O52" s="32"/>
       <c r="P52" s="48"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="32" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F53" s="32"/>
-      <c r="G53" s="32" t="s">
+      <c r="G53" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H53" s="32" t="s">
         <v>17</v>
       </c>
       <c r="I53" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="L53" s="36" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="J53" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="32"/>
+      <c r="L53" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="M53" s="32"/>
       <c r="N53" s="32"/>
-      <c r="O53" s="32" t="s">
-        <v>117</v>
-      </c>
+      <c r="O53" s="32"/>
       <c r="P53" s="48"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>38</v>
-      </c>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F54" s="32"/>
-      <c r="G54" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J54" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="L54" s="35" t="s">
-        <v>42</v>
+      <c r="G54" s="47"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="M54" s="32"/>
       <c r="N54" s="32"/>
-      <c r="O54" s="32" t="s">
-        <v>117</v>
-      </c>
+      <c r="O54" s="32"/>
       <c r="P54" s="48"/>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="32" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B55" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F55" s="32"/>
-      <c r="G55" s="32" t="s">
+      <c r="G55" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H55" s="32" t="s">
         <v>17</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J55" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="L55" s="35" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="J55" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="32"/>
+      <c r="L55" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="M55" s="32"/>
       <c r="N55" s="32"/>
-      <c r="O55" s="32" t="s">
-        <v>117</v>
-      </c>
+      <c r="O55" s="32"/>
       <c r="P55" s="48"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B56" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F56" s="32"/>
-      <c r="G56" s="32" t="s">
+      <c r="G56" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H56" s="32" t="s">
@@ -5497,226 +5556,210 @@
       <c r="J56" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="L56" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M56" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="N56" s="32" t="s">
-        <v>123</v>
-      </c>
+      <c r="K56" s="32"/>
+      <c r="L56" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
       <c r="O56" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="P56" s="48"/>
+        <v>124</v>
+      </c>
+      <c r="P56" s="48" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B57" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E57" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="32"/>
+      <c r="G57" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="32"/>
+      <c r="L57" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="L57" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="M57" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="N57" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="O57" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="P57" s="48"/>
+      <c r="P57" s="48" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B58" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E58" s="32" t="s">
         <v>126</v>
       </c>
       <c r="F58" s="32"/>
-      <c r="G58" s="32" t="s">
-        <v>17</v>
+      <c r="G58" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H58" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="47" t="s">
+      <c r="I58" s="32" t="s">
         <v>22</v>
       </c>
       <c r="J58" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L58" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="M58" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="N58" s="32" t="s">
-        <v>123</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K58" s="32"/>
+      <c r="L58" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
       <c r="O58" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P58" s="48"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B59" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E59" s="32" t="s">
         <v>127</v>
       </c>
       <c r="F59" s="32"/>
-      <c r="G59" s="32" t="s">
-        <v>17</v>
+      <c r="G59" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H59" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="47" t="s">
+      <c r="I59" s="32" t="s">
         <v>22</v>
       </c>
       <c r="J59" s="32" t="s">
         <v>17</v>
       </c>
       <c r="K59" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L59" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="P59" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="L59" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="M59" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="N59" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="O59" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="P59" s="48"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B60" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E60" s="32" t="s">
         <v>128</v>
       </c>
       <c r="F60" s="32"/>
-      <c r="G60" s="32" t="s">
-        <v>17</v>
+      <c r="G60" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H60" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="47" t="s">
+      <c r="I60" s="32" t="s">
         <v>22</v>
       </c>
       <c r="J60" s="32" t="s">
         <v>17</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="L60" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="L60" s="31" t="s">
         <v>24</v>
       </c>
       <c r="M60" s="32" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N60" s="32" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P60" s="48"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B61" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F61" s="32"/>
-      <c r="G61" s="32" t="s">
-        <v>17</v>
+      <c r="G61" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H61" s="32" t="s">
         <v>17</v>
@@ -5728,41 +5771,41 @@
         <v>17</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="L61" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N61" s="32" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O61" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P61" s="48"/>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B62" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F62" s="32"/>
-      <c r="G62" s="32" t="s">
-        <v>17</v>
+      <c r="G62" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H62" s="32" t="s">
         <v>17</v>
@@ -5774,41 +5817,41 @@
         <v>17</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="L62" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M62" s="32" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N62" s="32" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O62" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P62" s="48"/>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B63" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F63" s="32"/>
-      <c r="G63" s="32" t="s">
-        <v>17</v>
+      <c r="G63" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H63" s="32" t="s">
         <v>17</v>
@@ -5820,41 +5863,41 @@
         <v>17</v>
       </c>
       <c r="K63" s="32" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L63" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M63" s="32" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N63" s="32" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O63" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P63" s="48"/>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F64" s="32"/>
-      <c r="G64" s="32" t="s">
-        <v>17</v>
+      <c r="G64" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H64" s="32" t="s">
         <v>17</v>
@@ -5866,41 +5909,41 @@
         <v>17</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="L64" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M64" s="32" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N64" s="32" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O64" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P64" s="48"/>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F65" s="32"/>
-      <c r="G65" s="32" t="s">
-        <v>17</v>
+      <c r="G65" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H65" s="32" t="s">
         <v>17</v>
@@ -5912,41 +5955,41 @@
         <v>17</v>
       </c>
       <c r="K65" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="L65" s="35" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="L65" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="M65" s="32" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N65" s="32" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O65" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P65" s="48"/>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B66" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F66" s="32"/>
-      <c r="G66" s="32" t="s">
-        <v>17</v>
+      <c r="G66" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="H66" s="32" t="s">
         <v>17</v>
@@ -5958,228 +6001,220 @@
         <v>17</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="L66" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="L66" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
+      <c r="M66" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="N66" s="32" t="s">
+        <v>130</v>
+      </c>
       <c r="O66" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P66" s="48"/>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B67" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F67" s="32"/>
-      <c r="G67" s="32" t="s">
+      <c r="G67" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H67" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I67" s="32" t="s">
+      <c r="I67" s="47" t="s">
         <v>22</v>
       </c>
       <c r="J67" s="32" t="s">
         <v>17</v>
       </c>
       <c r="K67" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="L67" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="L67" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M67" s="32" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N67" s="32" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O67" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P67" s="48"/>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B68" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="F68" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" s="32"/>
+      <c r="G68" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H68" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="32" t="s">
+      <c r="I68" s="47" t="s">
         <v>22</v>
       </c>
       <c r="J68" s="32" t="s">
         <v>17</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="L68" s="30" t="s">
-        <v>56</v>
+        <v>132</v>
+      </c>
+      <c r="L68" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="M68" s="32" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="N68" s="32" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O68" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P68" s="48"/>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B69" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F69" s="32"/>
+      <c r="G69" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="32" t="s">
+      <c r="I69" s="47" t="s">
         <v>22</v>
       </c>
       <c r="J69" s="32" t="s">
         <v>17</v>
       </c>
       <c r="K69" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="L69" s="30" t="s">
-        <v>56</v>
+        <v>141</v>
+      </c>
+      <c r="L69" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="M69" s="32" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="N69" s="32" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O69" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P69" s="48"/>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B70" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="F70" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F70" s="32"/>
+      <c r="G70" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="32" t="s">
+      <c r="I70" s="47" t="s">
         <v>22</v>
       </c>
       <c r="J70" s="32" t="s">
         <v>17</v>
       </c>
       <c r="K70" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="L70" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="M70" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="N70" s="32" t="s">
-        <v>123</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="L70" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
       <c r="O70" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P70" s="48"/>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B71" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F71" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="32"/>
+      <c r="G71" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H71" s="32" t="s">
@@ -6192,42 +6227,42 @@
         <v>17</v>
       </c>
       <c r="K71" s="32" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="L71" s="30" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M71" s="32" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="N71" s="32" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O71" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P71" s="48"/>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B72" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G72" s="32" t="s">
+      <c r="G72" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="32" t="s">
@@ -6240,38 +6275,42 @@
         <v>17</v>
       </c>
       <c r="K72" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L72" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
+        <v>64</v>
+      </c>
+      <c r="M72" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="N72" s="32" t="s">
+        <v>130</v>
+      </c>
       <c r="O72" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P72" s="48"/>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B73" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F73" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="32" t="s">
+      <c r="G73" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H73" s="32" t="s">
@@ -6284,42 +6323,42 @@
         <v>17</v>
       </c>
       <c r="K73" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="L73" s="54" t="s">
-        <v>42</v>
+        <v>68</v>
+      </c>
+      <c r="L73" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="M73" s="32" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="N73" s="32" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O73" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P73" s="48"/>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B74" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F74" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G74" s="32" t="s">
+      <c r="G74" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="32" t="s">
@@ -6332,42 +6371,42 @@
         <v>17</v>
       </c>
       <c r="K74" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L74" s="34" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="L74" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="M74" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N74" s="32" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="O74" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P74" s="48"/>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B75" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F75" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G75" s="32" t="s">
+      <c r="G75" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H75" s="32" t="s">
@@ -6380,42 +6419,42 @@
         <v>17</v>
       </c>
       <c r="K75" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L75" s="31" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="L75" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="M75" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N75" s="32" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="O75" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P75" s="48"/>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B76" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G76" s="32" t="s">
+      <c r="G76" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H76" s="32" t="s">
@@ -6428,42 +6467,38 @@
         <v>17</v>
       </c>
       <c r="K76" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L76" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L76" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M76" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="N76" s="32" t="s">
-        <v>145</v>
-      </c>
+      <c r="M76" s="32"/>
+      <c r="N76" s="32"/>
       <c r="O76" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P76" s="48"/>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B77" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F77" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="32" t="s">
+      <c r="G77" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="32" t="s">
@@ -6476,42 +6511,42 @@
         <v>17</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L77" s="31" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="L77" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="M77" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N77" s="32" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="O77" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P77" s="48"/>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B78" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F78" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G78" s="32" t="s">
+      <c r="G78" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H78" s="32" t="s">
@@ -6524,42 +6559,42 @@
         <v>17</v>
       </c>
       <c r="K78" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="L78" s="35" t="s">
-        <v>42</v>
+        <v>85</v>
+      </c>
+      <c r="L78" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="M78" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N78" s="32" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="O78" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P78" s="48"/>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B79" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F79" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G79" s="32" t="s">
+      <c r="G79" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H79" s="32" t="s">
@@ -6572,40 +6607,42 @@
         <v>17</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L79" s="40" t="s">
-        <v>56</v>
+        <v>85</v>
+      </c>
+      <c r="L79" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="M79" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N79" s="32" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="O79" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P79" s="48"/>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B80" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H80" s="32" t="s">
@@ -6618,34 +6655,34 @@
         <v>17</v>
       </c>
       <c r="K80" s="32" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L80" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M80" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N80" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O80" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P80" s="48"/>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B81" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E81" s="32" t="s">
         <v>155</v>
@@ -6653,7 +6690,7 @@
       <c r="F81" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G81" s="32" t="s">
+      <c r="G81" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H81" s="32" t="s">
@@ -6666,40 +6703,42 @@
         <v>17</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="L81" s="30" t="s">
-        <v>44</v>
+        <v>85</v>
+      </c>
+      <c r="L81" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="M81" s="32" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="N81" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O81" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P81" s="48"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B82" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H82" s="32" t="s">
@@ -6712,42 +6751,42 @@
         <v>17</v>
       </c>
       <c r="K82" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L82" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="31" t="s">
         <v>24</v>
       </c>
       <c r="M82" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="O82" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P82" s="48"/>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B83" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F83" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G83" s="32" t="s">
+      <c r="G83" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H83" s="32" t="s">
@@ -6760,42 +6799,40 @@
         <v>17</v>
       </c>
       <c r="K83" s="32" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="L83" s="40" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="M83" s="32" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="N83" s="32" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="O83" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P83" s="48"/>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B84" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E84" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="F84" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F84" s="32"/>
+      <c r="G84" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H84" s="32" t="s">
@@ -6808,42 +6845,42 @@
         <v>17</v>
       </c>
       <c r="K84" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L84" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="L84" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M84" s="32" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N84" s="32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O84" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P84" s="48"/>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B85" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F85" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G85" s="32" t="s">
+      <c r="G85" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H85" s="32" t="s">
@@ -6856,42 +6893,40 @@
         <v>17</v>
       </c>
       <c r="K85" s="32" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="L85" s="30" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M85" s="32" t="s">
         <v>164</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O85" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P85" s="48"/>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B86" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E86" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="F86" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="F86" s="32"/>
+      <c r="G86" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H86" s="32" t="s">
@@ -6904,34 +6939,34 @@
         <v>17</v>
       </c>
       <c r="K86" s="32" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L86" s="41" t="s">
         <v>24</v>
       </c>
       <c r="M86" s="32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N86" s="32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O86" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P86" s="48"/>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B87" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E87" s="32" t="s">
         <v>168</v>
@@ -6939,7 +6974,7 @@
       <c r="F87" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G87" s="32" t="s">
+      <c r="G87" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H87" s="32" t="s">
@@ -6952,750 +6987,1487 @@
         <v>17</v>
       </c>
       <c r="K87" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L87" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="L87" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M87" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="N87" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="O87" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="P87" s="48"/>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="M87" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="N87" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="O87" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="P87" s="48"/>
-    </row>
-    <row r="88" spans="1:16">
-      <c r="A88" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B88" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D88" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E88" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="F88" s="49"/>
-      <c r="G88" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I88" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J88" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="K88" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="L88" s="45" t="s">
+      <c r="E88" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L88" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M88" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="N88" s="49" t="s">
+      <c r="M88" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="O88" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="P88" s="50"/>
+      <c r="N88" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="O88" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="P88" s="48"/>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F89" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L89" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="M89" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="N89" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B89" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="E89" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I89" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J89" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K89" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L89" t="s">
-        <v>56</v>
-      </c>
-      <c r="M89" s="32"/>
-      <c r="N89" s="32"/>
-      <c r="O89" s="32"/>
+      <c r="O89" s="32" t="s">
+        <v>124</v>
+      </c>
       <c r="P89" s="48"/>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="32" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B90" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H90" s="32" t="s">
         <v>17</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J90" s="32" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K90" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="L90" t="s">
-        <v>176</v>
-      </c>
-      <c r="M90" s="32"/>
-      <c r="N90" s="32"/>
-      <c r="O90" s="32"/>
+        <v>85</v>
+      </c>
+      <c r="L90" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M90" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="N90" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="O90" s="32" t="s">
+        <v>124</v>
+      </c>
       <c r="P90" s="48"/>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F91" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L91" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="M91" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="N91" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="O91" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="P91" s="48"/>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" s="49"/>
+      <c r="G92" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="L92" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M92" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="B91" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="N92" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="E91" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H91" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="I91" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J91" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K91" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L91" t="s">
+      <c r="O92" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="P92" s="50"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="F93" s="32"/>
+      <c r="G93" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L93" t="s">
         <v>24</v>
       </c>
-      <c r="M91" s="32"/>
-      <c r="N91" s="32"/>
-      <c r="O91" s="32"/>
-      <c r="P91" s="48"/>
-    </row>
-    <row r="92" spans="1:16">
-      <c r="A92" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B92" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D92" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E92" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I92" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J92" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="L92" t="s">
-        <v>176</v>
-      </c>
-      <c r="M92" s="32"/>
-      <c r="N92" s="32"/>
-      <c r="O92" s="32"/>
-      <c r="P92" s="48"/>
-    </row>
-    <row r="93" spans="1:16">
-      <c r="A93" s="32"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
       <c r="M93" s="32"/>
       <c r="N93" s="32"/>
       <c r="O93" s="32"/>
       <c r="P93" s="48"/>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="32"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
+      <c r="A94" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E94" s="32" t="s">
+        <v>180</v>
+      </c>
       <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="32"/>
+      <c r="G94" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" t="s">
+        <v>24</v>
+      </c>
       <c r="M94" s="32"/>
       <c r="N94" s="32"/>
       <c r="O94" s="32"/>
       <c r="P94" s="48"/>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="32"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
+      <c r="A95" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E95" s="32" t="s">
+        <v>183</v>
+      </c>
       <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="32"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="32"/>
+      <c r="G95" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I95" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L95" t="s">
+        <v>24</v>
+      </c>
       <c r="M95" s="32"/>
       <c r="N95" s="32"/>
       <c r="O95" s="32"/>
       <c r="P95" s="48"/>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="32"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
+      <c r="A96" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E96" s="32" t="s">
+        <v>184</v>
+      </c>
       <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="32"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="32"/>
+      <c r="G96" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="L96" t="s">
+        <v>64</v>
+      </c>
       <c r="M96" s="32"/>
       <c r="N96" s="32"/>
       <c r="O96" s="32"/>
       <c r="P96" s="48"/>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="32"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
+      <c r="A97" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97" s="32" t="s">
+        <v>188</v>
+      </c>
       <c r="F97" s="32"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="32"/>
+      <c r="G97" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I97" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K97" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L97" t="s">
+        <v>24</v>
+      </c>
       <c r="M97" s="32"/>
       <c r="N97" s="32"/>
       <c r="O97" s="32"/>
       <c r="P97" s="48"/>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
+      <c r="A98" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="32" t="s">
+        <v>191</v>
+      </c>
       <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
+      <c r="G98" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I98" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K98" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L98" t="s">
+        <v>24</v>
+      </c>
       <c r="M98" s="32"/>
       <c r="N98" s="32"/>
       <c r="O98" s="32"/>
       <c r="P98" s="48"/>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="32"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
+      <c r="A99" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E99" s="32" t="s">
+        <v>192</v>
+      </c>
       <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="32"/>
+      <c r="G99" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I99" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K99" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L99" t="s">
+        <v>24</v>
+      </c>
       <c r="M99" s="32"/>
       <c r="N99" s="32"/>
       <c r="O99" s="32"/>
       <c r="P99" s="48"/>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
+      <c r="A100" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>193</v>
+      </c>
       <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="32"/>
+      <c r="G100" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I100" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K100" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L100" t="s">
+        <v>24</v>
+      </c>
       <c r="M100" s="32"/>
       <c r="N100" s="32"/>
       <c r="O100" s="32"/>
       <c r="P100" s="48"/>
     </row>
     <row r="101" spans="1:16">
-      <c r="A101" s="32"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
+      <c r="A101" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>194</v>
+      </c>
       <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
+      <c r="G101" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I101" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L101" t="s">
+        <v>24</v>
+      </c>
       <c r="M101" s="32"/>
       <c r="N101" s="32"/>
       <c r="O101" s="32"/>
       <c r="P101" s="48"/>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
+      <c r="A102" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102" s="32" t="s">
+        <v>197</v>
+      </c>
       <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="32"/>
+      <c r="G102" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I102" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K102" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L102" t="s">
+        <v>24</v>
+      </c>
       <c r="M102" s="32"/>
       <c r="N102" s="32"/>
       <c r="O102" s="32"/>
       <c r="P102" s="48"/>
     </row>
     <row r="103" spans="1:16">
-      <c r="A103" s="32"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
+      <c r="A103" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>198</v>
+      </c>
       <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="32"/>
+      <c r="G103" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I103" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K103" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L103" t="s">
+        <v>24</v>
+      </c>
       <c r="M103" s="32"/>
       <c r="N103" s="32"/>
       <c r="O103" s="32"/>
       <c r="P103" s="48"/>
     </row>
     <row r="104" spans="1:16">
-      <c r="A104" s="32"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
+      <c r="A104" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>199</v>
+      </c>
       <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
+      <c r="G104" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I104" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J104" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L104" t="s">
+        <v>24</v>
+      </c>
       <c r="M104" s="32"/>
       <c r="N104" s="32"/>
       <c r="O104" s="32"/>
       <c r="P104" s="48"/>
     </row>
     <row r="105" spans="1:16">
-      <c r="A105" s="32"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
+      <c r="A105" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>200</v>
+      </c>
       <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="32"/>
+      <c r="G105" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I105" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J105" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K105" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L105" t="s">
+        <v>24</v>
+      </c>
       <c r="M105" s="32"/>
       <c r="N105" s="32"/>
       <c r="O105" s="32"/>
       <c r="P105" s="48"/>
     </row>
     <row r="106" spans="1:16">
-      <c r="A106" s="32"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
+      <c r="A106" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>203</v>
+      </c>
       <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="32"/>
+      <c r="G106" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I106" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K106" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L106" t="s">
+        <v>24</v>
+      </c>
       <c r="M106" s="32"/>
       <c r="N106" s="32"/>
       <c r="O106" s="32"/>
       <c r="P106" s="48"/>
     </row>
     <row r="107" spans="1:16">
-      <c r="A107" s="32"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
+      <c r="A107" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" s="32" t="s">
+        <v>205</v>
+      </c>
       <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="32"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="32"/>
+      <c r="G107" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I107" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L107" t="s">
+        <v>24</v>
+      </c>
       <c r="M107" s="32"/>
       <c r="N107" s="32"/>
       <c r="O107" s="32"/>
       <c r="P107" s="48"/>
     </row>
     <row r="108" spans="1:16">
-      <c r="A108" s="32"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
+      <c r="A108" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>206</v>
+      </c>
       <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="32"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="32"/>
+      <c r="G108" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I108" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J108" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K108" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L108" t="s">
+        <v>24</v>
+      </c>
       <c r="M108" s="32"/>
       <c r="N108" s="32"/>
       <c r="O108" s="32"/>
       <c r="P108" s="48"/>
     </row>
     <row r="109" spans="1:16">
-      <c r="A109" s="49"/>
-      <c r="B109" s="49"/>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="49"/>
-      <c r="J109" s="49"/>
-      <c r="K109" s="49"/>
-      <c r="M109" s="49"/>
-      <c r="N109" s="49"/>
-      <c r="O109" s="49"/>
-      <c r="P109" s="50"/>
+      <c r="A109" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F109" s="32"/>
+      <c r="G109" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I109" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K109" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L109" t="s">
+        <v>24</v>
+      </c>
+      <c r="M109" s="32"/>
+      <c r="N109" s="32"/>
+      <c r="O109" s="32"/>
+      <c r="P109" s="48"/>
     </row>
     <row r="110" spans="1:16">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
+      <c r="A110" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" s="32" t="s">
+        <v>208</v>
+      </c>
       <c r="F110" s="32"/>
-      <c r="G110" s="32"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="32"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="32"/>
+      <c r="G110" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I110" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J110" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K110" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L110" t="s">
+        <v>24</v>
+      </c>
       <c r="M110" s="32"/>
       <c r="N110" s="32"/>
       <c r="O110" s="32"/>
       <c r="P110" s="48"/>
     </row>
     <row r="111" spans="1:16">
-      <c r="A111" s="32"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="32"/>
+      <c r="A111" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>209</v>
+      </c>
       <c r="F111" s="32"/>
-      <c r="G111" s="32"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="32"/>
-      <c r="J111" s="32"/>
-      <c r="K111" s="32"/>
+      <c r="G111" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I111" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J111" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K111" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L111" t="s">
+        <v>24</v>
+      </c>
       <c r="M111" s="32"/>
       <c r="N111" s="32"/>
       <c r="O111" s="32"/>
       <c r="P111" s="48"/>
     </row>
     <row r="112" spans="1:16">
-      <c r="A112" s="32"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
+      <c r="A112" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D112" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>210</v>
+      </c>
       <c r="F112" s="32"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="32"/>
-      <c r="J112" s="32"/>
-      <c r="K112" s="32"/>
+      <c r="G112" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I112" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J112" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K112" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L112" t="s">
+        <v>211</v>
+      </c>
       <c r="M112" s="32"/>
       <c r="N112" s="32"/>
       <c r="O112" s="32"/>
       <c r="P112" s="48"/>
     </row>
     <row r="113" spans="1:16">
-      <c r="A113" s="32"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
+      <c r="A113" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D113" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E113" s="32" t="s">
+        <v>214</v>
+      </c>
       <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="32"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="32"/>
+      <c r="G113" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I113" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K113" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L113" t="s">
+        <v>24</v>
+      </c>
       <c r="M113" s="32"/>
       <c r="N113" s="32"/>
       <c r="O113" s="32"/>
       <c r="P113" s="48"/>
     </row>
     <row r="114" spans="1:16">
-      <c r="A114" s="32"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
+      <c r="A114" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D114" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>215</v>
+      </c>
       <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="32"/>
-      <c r="J114" s="32"/>
-      <c r="K114" s="32"/>
+      <c r="G114" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I114" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K114" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L114" t="s">
+        <v>24</v>
+      </c>
       <c r="M114" s="32"/>
       <c r="N114" s="32"/>
       <c r="O114" s="32"/>
       <c r="P114" s="48"/>
     </row>
     <row r="115" spans="1:16">
-      <c r="A115" s="32"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="32"/>
-      <c r="J115" s="32"/>
-      <c r="K115" s="32"/>
-      <c r="M115" s="32"/>
-      <c r="N115" s="32"/>
-      <c r="O115" s="32"/>
-      <c r="P115" s="48"/>
+      <c r="A115" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D115" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E115" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" s="49"/>
+      <c r="G115" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I115" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L115" t="s">
+        <v>24</v>
+      </c>
+      <c r="M115" s="49"/>
+      <c r="N115" s="49"/>
+      <c r="O115" s="49"/>
+      <c r="P115" s="50"/>
     </row>
     <row r="116" spans="1:16">
-      <c r="A116" s="32"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
+      <c r="A116" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D116" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E116" s="32" t="s">
+        <v>219</v>
+      </c>
       <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
-      <c r="J116" s="32"/>
-      <c r="K116" s="32"/>
+      <c r="G116" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I116" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K116" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L116" t="s">
+        <v>24</v>
+      </c>
       <c r="M116" s="32"/>
       <c r="N116" s="32"/>
       <c r="O116" s="32"/>
       <c r="P116" s="48"/>
     </row>
     <row r="117" spans="1:16">
-      <c r="A117" s="32"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
+      <c r="A117" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E117" s="32" t="s">
+        <v>220</v>
+      </c>
       <c r="F117" s="32"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="32"/>
+      <c r="G117" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I117" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K117" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L117" t="s">
+        <v>24</v>
+      </c>
       <c r="M117" s="32"/>
       <c r="N117" s="32"/>
       <c r="O117" s="32"/>
       <c r="P117" s="48"/>
     </row>
     <row r="118" spans="1:16">
-      <c r="A118" s="32"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
+      <c r="A118" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D118" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>223</v>
+      </c>
       <c r="F118" s="32"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="32"/>
-      <c r="J118" s="32"/>
-      <c r="K118" s="32"/>
+      <c r="G118" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I118" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K118" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L118" t="s">
+        <v>24</v>
+      </c>
       <c r="M118" s="32"/>
       <c r="N118" s="32"/>
       <c r="O118" s="32"/>
       <c r="P118" s="48"/>
     </row>
     <row r="119" spans="1:16">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
+      <c r="A119" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D119" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>224</v>
+      </c>
       <c r="F119" s="32"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="32"/>
-      <c r="K119" s="32"/>
+      <c r="G119" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I119" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K119" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L119" t="s">
+        <v>24</v>
+      </c>
       <c r="M119" s="32"/>
       <c r="N119" s="32"/>
       <c r="O119" s="32"/>
       <c r="P119" s="48"/>
     </row>
     <row r="120" spans="1:16">
-      <c r="A120" s="32"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
+      <c r="A120" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D120" s="32" t="s">
+        <v>110</v>
+      </c>
       <c r="E120" s="32"/>
       <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="32"/>
-      <c r="J120" s="32"/>
-      <c r="K120" s="32"/>
+      <c r="G120" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I120" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K120" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L120" t="s">
+        <v>51</v>
+      </c>
       <c r="M120" s="32"/>
       <c r="N120" s="32"/>
       <c r="O120" s="32"/>
       <c r="P120" s="48"/>
     </row>
     <row r="121" spans="1:16">
-      <c r="A121" s="32"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
+      <c r="A121" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="E121" s="32"/>
       <c r="F121" s="32"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="32"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="32"/>
+      <c r="G121" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H121" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I121" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K121" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L121" t="s">
+        <v>51</v>
+      </c>
       <c r="M121" s="32"/>
       <c r="N121" s="32"/>
       <c r="O121" s="32"/>
       <c r="P121" s="48"/>
     </row>
     <row r="122" spans="1:16">
-      <c r="A122" s="32"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
+      <c r="A122" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D122" s="32" t="s">
+        <v>226</v>
+      </c>
       <c r="E122" s="32"/>
       <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
-      <c r="J122" s="32"/>
-      <c r="K122" s="32"/>
+      <c r="G122" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I122" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K122" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L122" t="s">
+        <v>51</v>
+      </c>
       <c r="M122" s="32"/>
       <c r="N122" s="32"/>
       <c r="O122" s="32"/>
       <c r="P122" s="48"/>
     </row>
     <row r="123" spans="1:16">
-      <c r="A123" s="32"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
+      <c r="A123" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D123" s="32" t="s">
+        <v>117</v>
+      </c>
       <c r="E123" s="32"/>
       <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="32"/>
-      <c r="J123" s="32"/>
-      <c r="K123" s="32"/>
+      <c r="G123" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I123" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K123" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L123" t="s">
+        <v>51</v>
+      </c>
       <c r="M123" s="32"/>
       <c r="N123" s="32"/>
       <c r="O123" s="32"/>
@@ -7889,50 +8661,339 @@
       <c r="P134" s="48"/>
     </row>
     <row r="135" spans="1:16">
-      <c r="A135" s="49"/>
-      <c r="B135" s="49"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="49"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="49"/>
-      <c r="G135" s="49"/>
-      <c r="H135" s="49"/>
-      <c r="I135" s="49"/>
-      <c r="J135" s="49"/>
-      <c r="K135" s="49"/>
-      <c r="M135" s="49"/>
-      <c r="N135" s="49"/>
-      <c r="O135" s="49"/>
-      <c r="P135" s="50"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="32"/>
+      <c r="J135" s="32"/>
+      <c r="K135" s="32"/>
+      <c r="M135" s="32"/>
+      <c r="N135" s="32"/>
+      <c r="O135" s="32"/>
+      <c r="P135" s="48"/>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" s="32"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="32"/>
+      <c r="J136" s="32"/>
+      <c r="K136" s="32"/>
+      <c r="M136" s="32"/>
+      <c r="N136" s="32"/>
+      <c r="O136" s="32"/>
+      <c r="P136" s="48"/>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="32"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32"/>
+      <c r="M137" s="32"/>
+      <c r="N137" s="32"/>
+      <c r="O137" s="32"/>
+      <c r="P137" s="48"/>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="32"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="32"/>
+      <c r="K138" s="32"/>
+      <c r="M138" s="32"/>
+      <c r="N138" s="32"/>
+      <c r="O138" s="32"/>
+      <c r="P138" s="48"/>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="32"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="32"/>
+      <c r="K139" s="32"/>
+      <c r="M139" s="32"/>
+      <c r="N139" s="32"/>
+      <c r="O139" s="32"/>
+      <c r="P139" s="48"/>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="32"/>
+      <c r="J140" s="32"/>
+      <c r="K140" s="32"/>
+      <c r="M140" s="32"/>
+      <c r="N140" s="32"/>
+      <c r="O140" s="32"/>
+      <c r="P140" s="48"/>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="32"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="32"/>
+      <c r="I141" s="32"/>
+      <c r="J141" s="32"/>
+      <c r="K141" s="32"/>
+      <c r="M141" s="32"/>
+      <c r="N141" s="32"/>
+      <c r="O141" s="32"/>
+      <c r="P141" s="48"/>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="32"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="32"/>
+      <c r="K142" s="32"/>
+      <c r="M142" s="32"/>
+      <c r="N142" s="32"/>
+      <c r="O142" s="32"/>
+      <c r="P142" s="48"/>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="49"/>
+      <c r="B143" s="49"/>
+      <c r="C143" s="49"/>
+      <c r="D143" s="49"/>
+      <c r="E143" s="49"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="49"/>
+      <c r="H143" s="49"/>
+      <c r="I143" s="49"/>
+      <c r="J143" s="49"/>
+      <c r="K143" s="49"/>
+      <c r="M143" s="49"/>
+      <c r="N143" s="49"/>
+      <c r="O143" s="49"/>
+      <c r="P143" s="50"/>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="32"/>
+      <c r="B144" s="32"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32"/>
+      <c r="I144" s="32"/>
+      <c r="J144" s="32"/>
+      <c r="K144" s="32"/>
+      <c r="M144" s="32"/>
+      <c r="N144" s="32"/>
+      <c r="O144" s="32"/>
+      <c r="P144" s="50"/>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" s="32"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="32"/>
+      <c r="I145" s="32"/>
+      <c r="J145" s="32"/>
+      <c r="K145" s="32"/>
+      <c r="M145" s="32"/>
+      <c r="N145" s="32"/>
+      <c r="O145" s="32"/>
+      <c r="P145" s="50"/>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" s="32"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32"/>
+      <c r="I146" s="32"/>
+      <c r="J146" s="32"/>
+      <c r="K146" s="32"/>
+      <c r="M146" s="32"/>
+      <c r="N146" s="32"/>
+      <c r="O146" s="32"/>
+      <c r="P146" s="50"/>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" s="32"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
+      <c r="I147" s="32"/>
+      <c r="J147" s="32"/>
+      <c r="K147" s="32"/>
+      <c r="M147" s="32"/>
+      <c r="N147" s="32"/>
+      <c r="O147" s="32"/>
+      <c r="P147" s="50"/>
+    </row>
+    <row r="148" spans="1:16">
+      <c r="A148" s="32"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="32"/>
+      <c r="J148" s="32"/>
+      <c r="K148" s="32"/>
+      <c r="M148" s="32"/>
+      <c r="N148" s="32"/>
+      <c r="O148" s="32"/>
+      <c r="P148" s="50"/>
+    </row>
+    <row r="149" spans="1:16">
+      <c r="A149" s="32"/>
+      <c r="B149" s="32"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="32"/>
+      <c r="J149" s="32"/>
+      <c r="K149" s="32"/>
+      <c r="M149" s="32"/>
+      <c r="N149" s="32"/>
+      <c r="O149" s="32"/>
+      <c r="P149" s="50"/>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" s="32"/>
+      <c r="B150" s="32"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="32"/>
+      <c r="J150" s="32"/>
+      <c r="K150" s="32"/>
+      <c r="M150" s="32"/>
+      <c r="N150" s="32"/>
+      <c r="O150" s="32"/>
+      <c r="P150" s="50"/>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" s="32"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="32"/>
+      <c r="I151" s="32"/>
+      <c r="J151" s="32"/>
+      <c r="K151" s="32"/>
+      <c r="M151" s="32"/>
+      <c r="N151" s="32"/>
+      <c r="O151" s="32"/>
+      <c r="P151" s="50"/>
+    </row>
+    <row r="152" spans="1:16">
+      <c r="A152" s="32"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="32"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
+      <c r="J152" s="32"/>
+      <c r="K152" s="32"/>
+      <c r="M152" s="32"/>
+      <c r="N152" s="32"/>
+      <c r="O152" s="32"/>
+      <c r="P152" s="50"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:J66 H67:J88 G89:J1048576">
-    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
+  <conditionalFormatting sqref="B43 G1:J15 G17:J1048576 G16 J16">
+    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="84" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="6" stopIfTrue="1" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="8" operator="equal">
       <formula>"Branch"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="9" stopIfTrue="1" operator="equal">
       <formula>"On hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L135">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+  <conditionalFormatting sqref="L2:L152">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7943,17 +9004,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6213AD96-A2C1-45C5-A18E-B15DBDEE7B20}">
+          <x14:formula1>
+            <xm:f>Configuratie!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1 L93:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A99B45A-3469-41B9-95C3-9470E9A47E8F}">
+          <x14:formula1>
+            <xm:f>Configuratie!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L92</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2067B2B-AAB7-4BB4-AB95-6ECCB20F9551}">
           <x14:formula1>
             <xm:f>Taxonomiecodes!$E$2:$E$29</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6213AD96-A2C1-45C5-A18E-B15DBDEE7B20}">
-          <x14:formula1>
-            <xm:f>Configuratie!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>L1 L89:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2D9F141-DCFD-4E17-B98A-F2E3B12F7BFB}">
           <x14:formula1>
@@ -7967,12 +9034,6 @@
           </x14:formula1>
           <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A99B45A-3469-41B9-95C3-9470E9A47E8F}">
-          <x14:formula1>
-            <xm:f>Configuratie!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L88</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -7984,7 +9045,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="E6" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7999,7 +9060,7 @@
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8038,33 +9099,65 @@
         <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>228</v>
+      </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="23"/>
+      <c r="H2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>231</v>
+      </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -8416,7 +9509,7 @@
     <row r="27" spans="1:15" s="16" customFormat="1"/>
     <row r="28" spans="1:15" s="16" customFormat="1"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:O11 A12:D12 F12:O12 A13:O25">
+  <conditionalFormatting sqref="A1:O11 A2:E12 F12:O12 A13:O25">
     <cfRule type="expression" dxfId="58" priority="1">
       <formula>$N1="Les 1"</formula>
     </cfRule>
@@ -8549,7 +9642,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>11</v>
@@ -9008,7 +10101,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9022,10 +10115,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -9034,7 +10127,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9042,16 +10135,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9059,16 +10152,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9076,16 +10169,16 @@
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9093,16 +10186,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9110,7 +10203,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>18</v>
@@ -9127,16 +10220,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9144,16 +10237,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9161,16 +10254,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9178,16 +10271,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9195,16 +10288,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9212,16 +10305,16 @@
         <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9229,16 +10322,16 @@
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9246,13 +10339,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>201</v>
@@ -9263,16 +10356,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9280,16 +10373,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9297,16 +10390,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9314,16 +10407,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9331,16 +10424,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9348,16 +10441,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9365,16 +10458,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9382,16 +10475,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9399,16 +10492,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9416,16 +10509,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9433,16 +10526,16 @@
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9450,16 +10543,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9467,16 +10560,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9484,16 +10577,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9501,16 +10594,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -9534,27 +10627,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="3" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -9564,7 +10657,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -9582,6 +10675,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="16" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f61f07c867748b0019541a657f349ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5688d83df968b8ed30cda1c17f9d8ac7" ns2:_="" ns3:_="">
     <xsd:import namespace="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
@@ -9822,27 +10926,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC9EA872-FAFA-49B6-9247-007AF2214F14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC9EA872-FAFA-49B6-9247-007AF2214F14}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim.sharepoint.com/sites/O365-OntwikkelgroepHoofdfase/Gedeelde documenten/General/Ontwikkelgroep SE/01. Besluiten, planningen, actiepunten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EBDAD61-0EF9-439B-AE99-D18C4CD4744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F183AE-9FCD-4D8A-A95B-AE15C571AB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="265">
   <si>
     <t>TC-1</t>
   </si>
@@ -255,15 +255,24 @@
     <t>Dictionary</t>
   </si>
   <si>
+    <t>Branch</t>
+  </si>
+  <si>
     <t>Queue</t>
   </si>
   <si>
+    <t>Martijn</t>
+  </si>
+  <si>
     <t>Hashset</t>
   </si>
   <si>
     <t>Stack</t>
   </si>
   <si>
+    <t>Ties &amp; Teun</t>
+  </si>
+  <si>
     <t>Linkedlist</t>
   </si>
   <si>
@@ -321,6 +330,9 @@
     <t>Jasper</t>
   </si>
   <si>
+    <t>Alleen Rider, Visual Studio mist nog</t>
+  </si>
+  <si>
     <t>Activiteitendiagram</t>
   </si>
   <si>
@@ -426,6 +438,9 @@
     <t>Access-modifiers</t>
   </si>
   <si>
+    <t>Ties &amp; Martijn</t>
+  </si>
+  <si>
     <t>Integer</t>
   </si>
   <si>
@@ -486,9 +501,15 @@
     <t>Properties</t>
   </si>
   <si>
+    <t>Mist nog OI</t>
+  </si>
+  <si>
     <t>Methods</t>
   </si>
   <si>
+    <t>Mist nog DT</t>
+  </si>
+  <si>
     <t>Enums</t>
   </si>
   <si>
@@ -675,7 +696,7 @@
     <t>Uitleg-werking-systeem</t>
   </si>
   <si>
-    <t>Branch</t>
+    <t>Freek</t>
   </si>
   <si>
     <t>ov-16</t>
@@ -717,19 +738,37 @@
     <t>Uitvragen-requirements</t>
   </si>
   <si>
+    <t>Detecteren-gebreken-in-requirements</t>
+  </si>
+  <si>
+    <t>Prioriteren-requirements</t>
+  </si>
+  <si>
+    <t>Bepalen-haalbaarheid-requirements</t>
+  </si>
+  <si>
+    <t>Specificeren-requirements</t>
+  </si>
+  <si>
     <t>rv-11</t>
   </si>
   <si>
     <t>Valideren requirements</t>
   </si>
   <si>
+    <t>Valideren-requirements</t>
+  </si>
+  <si>
+    <t>Beheren-van-requirements</t>
+  </si>
+  <si>
+    <t>Talstelsels</t>
+  </si>
+  <si>
+    <t>Eltjo</t>
+  </si>
+  <si>
     <t>Reviewer</t>
-  </si>
-  <si>
-    <t>Talstelsels</t>
-  </si>
-  <si>
-    <t>Eltjo</t>
   </si>
   <si>
     <t>Martijn tS, Martijn S, Teun</t>
@@ -1247,7 +1286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1308,8 +1347,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -3372,8 +3409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8AE46-0301-40E0-97E1-E2E70FD5D32D}">
   <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4000,7 +4037,7 @@
       <c r="P15" s="48"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="32" t="s">
@@ -4009,13 +4046,13 @@
       <c r="C16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="47" t="s">
         <v>22</v>
       </c>
@@ -4034,10 +4071,10 @@
       <c r="L16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="48"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="32" t="s">
@@ -4497,8 +4534,8 @@
       <c r="I28" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="47" t="s">
-        <v>22</v>
+      <c r="J28" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>68</v>
@@ -4572,15 +4609,17 @@
       <c r="H30" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="32"/>
+      <c r="I30" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>23</v>
+      </c>
       <c r="L30" s="33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
@@ -4601,7 +4640,7 @@
         <v>44</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="47" t="s">
@@ -4610,15 +4649,17 @@
       <c r="H31" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="32"/>
+      <c r="I31" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="L31" s="30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
@@ -4639,7 +4680,7 @@
         <v>44</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="47" t="s">
@@ -4648,22 +4689,22 @@
       <c r="H32" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="47" t="s">
-        <v>22</v>
+      <c r="I32" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="J32" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="36" t="s">
-        <v>48</v>
+      <c r="K32" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
-      <c r="P32" s="48" t="s">
-        <v>49</v>
-      </c>
+      <c r="P32" s="48"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="32" t="s">
@@ -4679,7 +4720,7 @@
         <v>44</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="47" t="s">
@@ -4688,24 +4729,22 @@
       <c r="H33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="47" t="s">
-        <v>22</v>
+      <c r="I33" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="J33" s="32" t="s">
         <v>17</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="36" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="L33" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
       <c r="O33" s="32"/>
-      <c r="P33" s="48" t="s">
-        <v>49</v>
-      </c>
+      <c r="P33" s="48"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="32" t="s">
@@ -4721,7 +4760,7 @@
         <v>44</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="47" t="s">
@@ -4759,7 +4798,7 @@
         <v>44</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="47" t="s">
@@ -4797,7 +4836,7 @@
         <v>44</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>21</v>
@@ -4847,7 +4886,7 @@
         <v>44</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="47" t="s">
@@ -4873,19 +4912,19 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="47" t="s">
@@ -4911,7 +4950,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>17</v>
@@ -4920,10 +4959,10 @@
         <v>43</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="47" t="s">
@@ -4939,7 +4978,7 @@
         <v>40</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L39" s="37" t="s">
         <v>59</v>
@@ -4951,7 +4990,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>17</v>
@@ -4960,10 +4999,10 @@
         <v>18</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="47" t="s">
@@ -4991,7 +5030,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>17</v>
@@ -5000,10 +5039,10 @@
         <v>43</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F41" s="32"/>
       <c r="G41" s="47" t="s">
@@ -5019,31 +5058,33 @@
         <v>22</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L41" s="30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M41" s="32"/>
       <c r="N41" s="32"/>
       <c r="O41" s="32"/>
-      <c r="P41" s="48"/>
+      <c r="P41" s="48" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B42" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="47" t="s">
@@ -5059,8 +5100,8 @@
         <v>22</v>
       </c>
       <c r="K42" s="32"/>
-      <c r="L42" s="38" t="s">
-        <v>59</v>
+      <c r="L42" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="M42" s="32"/>
       <c r="N42" s="32"/>
@@ -5069,19 +5110,19 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="47" t="s">
@@ -5097,7 +5138,7 @@
         <v>22</v>
       </c>
       <c r="K43" s="32"/>
-      <c r="L43" s="54" t="s">
+      <c r="L43" s="30" t="s">
         <v>51</v>
       </c>
       <c r="M43" s="32"/>
@@ -5125,7 +5166,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>17</v>
@@ -5134,10 +5175,10 @@
         <v>18</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F45" s="32"/>
       <c r="G45" s="47" t="s">
@@ -5153,7 +5194,7 @@
         <v>22</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L45" s="34" t="s">
         <v>24</v>
@@ -5165,19 +5206,19 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F46" s="32"/>
       <c r="G46" s="47" t="s">
@@ -5203,7 +5244,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>17</v>
@@ -5212,10 +5253,10 @@
         <v>18</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F47" s="32"/>
       <c r="G47" s="47" t="s">
@@ -5241,19 +5282,19 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F48" s="32"/>
       <c r="G48" s="47" t="s">
@@ -5291,7 +5332,7 @@
         <v>44</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="47" t="s">
@@ -5317,19 +5358,19 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="32" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="47" t="s">
@@ -5355,19 +5396,19 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="47" t="s">
@@ -5393,7 +5434,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>17</v>
@@ -5402,10 +5443,10 @@
         <v>18</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F52" s="32"/>
       <c r="G52" s="47" t="s">
@@ -5431,19 +5472,19 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F53" s="32"/>
       <c r="G53" s="47" t="s">
@@ -5473,7 +5514,7 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="47"/>
@@ -5491,19 +5532,19 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B55" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F55" s="32"/>
       <c r="G55" s="47" t="s">
@@ -5541,7 +5582,7 @@
         <v>44</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="47" t="s">
@@ -5563,7 +5604,7 @@
       <c r="M56" s="32"/>
       <c r="N56" s="32"/>
       <c r="O56" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P56" s="48" t="s">
         <v>49</v>
@@ -5583,7 +5624,7 @@
         <v>44</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="47" t="s">
@@ -5605,7 +5646,7 @@
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
       <c r="O57" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P57" s="48" t="s">
         <v>49</v>
@@ -5625,7 +5666,7 @@
         <v>44</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="47" t="s">
@@ -5641,13 +5682,13 @@
         <v>22</v>
       </c>
       <c r="K58" s="32"/>
-      <c r="L58" s="54" t="s">
+      <c r="L58" s="30" t="s">
         <v>51</v>
       </c>
       <c r="M58" s="32"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P58" s="48"/>
     </row>
@@ -5665,7 +5706,7 @@
         <v>44</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="47" t="s">
@@ -5681,19 +5722,15 @@
         <v>17</v>
       </c>
       <c r="K59" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="L59" s="35" t="s">
-        <v>48</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="L59" s="30"/>
       <c r="M59" s="32"/>
       <c r="N59" s="32"/>
       <c r="O59" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="P59" s="48" t="s">
-        <v>49</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P59" s="48"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="32" t="s">
@@ -5709,7 +5746,7 @@
         <v>44</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="47" t="s">
@@ -5725,19 +5762,19 @@
         <v>17</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L60" s="31" t="s">
         <v>24</v>
       </c>
       <c r="M60" s="32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N60" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P60" s="48"/>
     </row>
@@ -5755,7 +5792,7 @@
         <v>44</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="47" t="s">
@@ -5771,19 +5808,19 @@
         <v>17</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L61" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N61" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O61" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P61" s="48"/>
     </row>
@@ -5801,7 +5838,7 @@
         <v>44</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="47" t="s">
@@ -5823,13 +5860,13 @@
         <v>24</v>
       </c>
       <c r="M62" s="32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N62" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O62" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P62" s="48"/>
     </row>
@@ -5847,7 +5884,7 @@
         <v>44</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="47" t="s">
@@ -5869,13 +5906,13 @@
         <v>24</v>
       </c>
       <c r="M63" s="32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N63" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O63" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P63" s="48"/>
     </row>
@@ -5893,7 +5930,7 @@
         <v>44</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F64" s="32"/>
       <c r="G64" s="47" t="s">
@@ -5909,19 +5946,19 @@
         <v>17</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L64" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M64" s="32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N64" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O64" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P64" s="48"/>
     </row>
@@ -5939,7 +5976,7 @@
         <v>44</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="47" t="s">
@@ -5961,13 +5998,13 @@
         <v>24</v>
       </c>
       <c r="M65" s="32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N65" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O65" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P65" s="48"/>
     </row>
@@ -5985,7 +6022,7 @@
         <v>44</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="47" t="s">
@@ -6001,19 +6038,19 @@
         <v>17</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L66" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M66" s="32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O66" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P66" s="48"/>
     </row>
@@ -6031,7 +6068,7 @@
         <v>44</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="47" t="s">
@@ -6047,19 +6084,19 @@
         <v>17</v>
       </c>
       <c r="K67" s="32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L67" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M67" s="32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N67" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O67" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P67" s="48"/>
     </row>
@@ -6077,7 +6114,7 @@
         <v>44</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="47" t="s">
@@ -6093,19 +6130,19 @@
         <v>17</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L68" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M68" s="32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N68" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O68" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P68" s="48"/>
     </row>
@@ -6123,7 +6160,7 @@
         <v>44</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="47" t="s">
@@ -6139,19 +6176,19 @@
         <v>17</v>
       </c>
       <c r="K69" s="32" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L69" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M69" s="32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N69" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O69" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P69" s="48"/>
     </row>
@@ -6169,7 +6206,7 @@
         <v>44</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="47" t="s">
@@ -6185,7 +6222,7 @@
         <v>17</v>
       </c>
       <c r="K70" s="32" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L70" s="31" t="s">
         <v>24</v>
@@ -6193,7 +6230,7 @@
       <c r="M70" s="32"/>
       <c r="N70" s="32"/>
       <c r="O70" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P70" s="48"/>
     </row>
@@ -6211,7 +6248,7 @@
         <v>44</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F71" s="32"/>
       <c r="G71" s="47" t="s">
@@ -6233,13 +6270,13 @@
         <v>24</v>
       </c>
       <c r="M71" s="32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N71" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O71" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P71" s="48"/>
     </row>
@@ -6257,7 +6294,7 @@
         <v>44</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>21</v>
@@ -6278,16 +6315,16 @@
         <v>56</v>
       </c>
       <c r="L72" s="30" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="M72" s="32" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N72" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O72" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P72" s="48"/>
     </row>
@@ -6305,7 +6342,7 @@
         <v>44</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F73" s="32" t="s">
         <v>21</v>
@@ -6326,16 +6363,16 @@
         <v>68</v>
       </c>
       <c r="L73" s="30" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="M73" s="32" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N73" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O73" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P73" s="48"/>
     </row>
@@ -6353,7 +6390,7 @@
         <v>44</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F74" s="32" t="s">
         <v>21</v>
@@ -6374,18 +6411,20 @@
         <v>68</v>
       </c>
       <c r="L74" s="30" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M74" s="32" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N74" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O74" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="P74" s="48"/>
+        <v>128</v>
+      </c>
+      <c r="P74" s="48" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="32" t="s">
@@ -6401,7 +6440,7 @@
         <v>44</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F75" s="32" t="s">
         <v>21</v>
@@ -6422,18 +6461,20 @@
         <v>68</v>
       </c>
       <c r="L75" s="30" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M75" s="32" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N75" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O75" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="P75" s="48"/>
+        <v>128</v>
+      </c>
+      <c r="P75" s="48" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="32" t="s">
@@ -6449,7 +6490,7 @@
         <v>44</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>21</v>
@@ -6475,7 +6516,7 @@
       <c r="M76" s="32"/>
       <c r="N76" s="32"/>
       <c r="O76" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P76" s="48"/>
     </row>
@@ -6493,7 +6534,7 @@
         <v>44</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F77" s="32" t="s">
         <v>21</v>
@@ -6514,16 +6555,16 @@
         <v>68</v>
       </c>
       <c r="L77" s="30" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="M77" s="32" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N77" s="32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O77" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P77" s="48"/>
     </row>
@@ -6541,7 +6582,7 @@
         <v>44</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F78" s="32" t="s">
         <v>21</v>
@@ -6559,19 +6600,19 @@
         <v>17</v>
       </c>
       <c r="K78" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L78" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M78" s="32" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N78" s="32" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O78" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P78" s="48"/>
     </row>
@@ -6589,7 +6630,7 @@
         <v>44</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F79" s="32" t="s">
         <v>21</v>
@@ -6607,19 +6648,19 @@
         <v>17</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L79" s="31" t="s">
         <v>24</v>
       </c>
       <c r="M79" s="32" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N79" s="32" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O79" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P79" s="48"/>
     </row>
@@ -6637,7 +6678,7 @@
         <v>44</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>21</v>
@@ -6655,19 +6696,19 @@
         <v>17</v>
       </c>
       <c r="K80" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L80" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M80" s="32" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N80" s="32" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O80" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P80" s="48"/>
     </row>
@@ -6685,7 +6726,7 @@
         <v>44</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F81" s="32" t="s">
         <v>21</v>
@@ -6703,19 +6744,19 @@
         <v>17</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L81" s="31" t="s">
         <v>24</v>
       </c>
       <c r="M81" s="32" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N81" s="32" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O81" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P81" s="48"/>
     </row>
@@ -6733,7 +6774,7 @@
         <v>44</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F82" s="32" t="s">
         <v>21</v>
@@ -6757,13 +6798,13 @@
         <v>24</v>
       </c>
       <c r="M82" s="32" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O82" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P82" s="48"/>
     </row>
@@ -6781,7 +6822,7 @@
         <v>44</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F83" s="32" t="s">
         <v>21</v>
@@ -6805,13 +6846,13 @@
         <v>64</v>
       </c>
       <c r="M83" s="32" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="N83" s="32" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O83" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P83" s="48"/>
     </row>
@@ -6829,7 +6870,7 @@
         <v>44</v>
       </c>
       <c r="E84" s="32" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="47" t="s">
@@ -6845,19 +6886,19 @@
         <v>17</v>
       </c>
       <c r="K84" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L84" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M84" s="32" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="N84" s="32" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="O84" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P84" s="48"/>
     </row>
@@ -6875,7 +6916,7 @@
         <v>44</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F85" s="32" t="s">
         <v>21</v>
@@ -6893,19 +6934,19 @@
         <v>17</v>
       </c>
       <c r="K85" s="32" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L85" s="30" t="s">
         <v>51</v>
       </c>
       <c r="M85" s="32" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="O85" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P85" s="48"/>
     </row>
@@ -6923,7 +6964,7 @@
         <v>44</v>
       </c>
       <c r="E86" s="32" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="47" t="s">
@@ -6939,19 +6980,19 @@
         <v>17</v>
       </c>
       <c r="K86" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L86" s="41" t="s">
         <v>24</v>
       </c>
       <c r="M86" s="32" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="N86" s="32" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="O86" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P86" s="48"/>
     </row>
@@ -6969,7 +7010,7 @@
         <v>44</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F87" s="32" t="s">
         <v>21</v>
@@ -6987,19 +7028,19 @@
         <v>17</v>
       </c>
       <c r="K87" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L87" s="40" t="s">
         <v>24</v>
       </c>
       <c r="M87" s="32" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="N87" s="32" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="O87" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P87" s="48"/>
     </row>
@@ -7017,7 +7058,7 @@
         <v>44</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F88" s="32" t="s">
         <v>21</v>
@@ -7035,19 +7076,19 @@
         <v>17</v>
       </c>
       <c r="K88" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L88" s="41" t="s">
         <v>24</v>
       </c>
       <c r="M88" s="32" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="N88" s="32" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="O88" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P88" s="48"/>
     </row>
@@ -7065,7 +7106,7 @@
         <v>44</v>
       </c>
       <c r="E89" s="32" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F89" s="32" t="s">
         <v>21</v>
@@ -7083,19 +7124,19 @@
         <v>17</v>
       </c>
       <c r="K89" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L89" s="30" t="s">
         <v>51</v>
       </c>
       <c r="M89" s="32" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="N89" s="32" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="O89" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P89" s="48"/>
     </row>
@@ -7113,7 +7154,7 @@
         <v>44</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F90" s="32" t="s">
         <v>21</v>
@@ -7131,19 +7172,19 @@
         <v>17</v>
       </c>
       <c r="K90" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L90" s="41" t="s">
         <v>24</v>
       </c>
       <c r="M90" s="32" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="N90" s="32" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="O90" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P90" s="48"/>
     </row>
@@ -7161,7 +7202,7 @@
         <v>44</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F91" s="32" t="s">
         <v>21</v>
@@ -7179,19 +7220,19 @@
         <v>17</v>
       </c>
       <c r="K91" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L91" s="30" t="s">
         <v>51</v>
       </c>
       <c r="M91" s="32" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="N91" s="32" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="O91" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P91" s="48"/>
     </row>
@@ -7209,7 +7250,7 @@
         <v>44</v>
       </c>
       <c r="E92" s="49" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F92" s="49"/>
       <c r="G92" s="47" t="s">
@@ -7225,19 +7266,19 @@
         <v>17</v>
       </c>
       <c r="K92" s="49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L92" s="45" t="s">
         <v>24</v>
       </c>
       <c r="M92" s="49" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N92" s="49" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="O92" s="49" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P92" s="50"/>
     </row>
@@ -7255,7 +7296,7 @@
         <v>37</v>
       </c>
       <c r="E93" s="32" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F93" s="32"/>
       <c r="G93" s="47" t="s">
@@ -7271,7 +7312,7 @@
         <v>22</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L93" t="s">
         <v>24</v>
@@ -7292,10 +7333,10 @@
         <v>18</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="47" t="s">
@@ -7323,19 +7364,19 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="32" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B95" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F95" s="32"/>
       <c r="G95" s="47" t="s">
@@ -7351,7 +7392,7 @@
         <v>22</v>
       </c>
       <c r="K95" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L95" t="s">
         <v>24</v>
@@ -7372,10 +7413,10 @@
         <v>43</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F96" s="32"/>
       <c r="G96" s="47" t="s">
@@ -7391,7 +7432,7 @@
         <v>17</v>
       </c>
       <c r="K96" s="32" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L96" t="s">
         <v>64</v>
@@ -7403,19 +7444,19 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="32" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B97" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F97" s="32"/>
       <c r="G97" s="47" t="s">
@@ -7431,7 +7472,7 @@
         <v>22</v>
       </c>
       <c r="K97" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L97" t="s">
         <v>24</v>
@@ -7443,19 +7484,19 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="32" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B98" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F98" s="32"/>
       <c r="G98" s="47" t="s">
@@ -7471,7 +7512,7 @@
         <v>22</v>
       </c>
       <c r="K98" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L98" t="s">
         <v>24</v>
@@ -7483,19 +7524,19 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="32" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B99" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F99" s="32"/>
       <c r="G99" s="47" t="s">
@@ -7511,7 +7552,7 @@
         <v>22</v>
       </c>
       <c r="K99" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L99" t="s">
         <v>24</v>
@@ -7523,19 +7564,19 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="32" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B100" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F100" s="32"/>
       <c r="G100" s="47" t="s">
@@ -7551,7 +7592,7 @@
         <v>22</v>
       </c>
       <c r="K100" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L100" t="s">
         <v>24</v>
@@ -7563,19 +7604,19 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B101" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F101" s="32"/>
       <c r="G101" s="47" t="s">
@@ -7591,7 +7632,7 @@
         <v>22</v>
       </c>
       <c r="K101" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L101" t="s">
         <v>24</v>
@@ -7603,19 +7644,19 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="32" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B102" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F102" s="32"/>
       <c r="G102" s="47" t="s">
@@ -7631,7 +7672,7 @@
         <v>22</v>
       </c>
       <c r="K102" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L102" t="s">
         <v>24</v>
@@ -7655,7 +7696,7 @@
         <v>44</v>
       </c>
       <c r="E103" s="32" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F103" s="32"/>
       <c r="G103" s="47" t="s">
@@ -7671,7 +7712,7 @@
         <v>40</v>
       </c>
       <c r="K103" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L103" t="s">
         <v>24</v>
@@ -7695,7 +7736,7 @@
         <v>44</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="47" t="s">
@@ -7711,7 +7752,7 @@
         <v>22</v>
       </c>
       <c r="K104" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L104" t="s">
         <v>24</v>
@@ -7735,7 +7776,7 @@
         <v>44</v>
       </c>
       <c r="E105" s="32" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F105" s="32"/>
       <c r="G105" s="47" t="s">
@@ -7751,7 +7792,7 @@
         <v>40</v>
       </c>
       <c r="K105" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L105" t="s">
         <v>24</v>
@@ -7763,7 +7804,7 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="32" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B106" s="32" t="s">
         <v>54</v>
@@ -7772,10 +7813,10 @@
         <v>43</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="47" t="s">
@@ -7791,7 +7832,7 @@
         <v>22</v>
       </c>
       <c r="K106" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L106" t="s">
         <v>24</v>
@@ -7812,10 +7853,10 @@
         <v>43</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="47" t="s">
@@ -7831,7 +7872,7 @@
         <v>22</v>
       </c>
       <c r="K107" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L107" t="s">
         <v>24</v>
@@ -7843,7 +7884,7 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B108" s="32" t="s">
         <v>40</v>
@@ -7852,10 +7893,10 @@
         <v>43</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="47" t="s">
@@ -7871,7 +7912,7 @@
         <v>22</v>
       </c>
       <c r="K108" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L108" t="s">
         <v>24</v>
@@ -7895,7 +7936,7 @@
         <v>44</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F109" s="32"/>
       <c r="G109" s="47" t="s">
@@ -7911,7 +7952,7 @@
         <v>22</v>
       </c>
       <c r="K109" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L109" t="s">
         <v>24</v>
@@ -7923,19 +7964,19 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B110" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F110" s="32"/>
       <c r="G110" s="47" t="s">
@@ -7951,7 +7992,7 @@
         <v>22</v>
       </c>
       <c r="K110" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L110" t="s">
         <v>24</v>
@@ -7963,19 +8004,19 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B111" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F111" s="32"/>
       <c r="G111" s="47" t="s">
@@ -7991,7 +8032,7 @@
         <v>22</v>
       </c>
       <c r="K111" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L111" t="s">
         <v>24</v>
@@ -8003,19 +8044,19 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B112" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="47" t="s">
@@ -8031,10 +8072,10 @@
         <v>22</v>
       </c>
       <c r="K112" s="32" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="L112" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="M112" s="32"/>
       <c r="N112" s="32"/>
@@ -8043,19 +8084,19 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="32" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B113" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F113" s="32"/>
       <c r="G113" s="47" t="s">
@@ -8071,7 +8112,7 @@
         <v>22</v>
       </c>
       <c r="K113" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L113" t="s">
         <v>24</v>
@@ -8083,19 +8124,19 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="32" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B114" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E114" s="32" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="47" t="s">
@@ -8111,7 +8152,7 @@
         <v>22</v>
       </c>
       <c r="K114" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L114" t="s">
         <v>24</v>
@@ -8123,19 +8164,19 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="49" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B115" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D115" s="49" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E115" s="55" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F115" s="49"/>
       <c r="G115" s="47" t="s">
@@ -8151,7 +8192,7 @@
         <v>22</v>
       </c>
       <c r="K115" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L115" t="s">
         <v>24</v>
@@ -8163,19 +8204,19 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="32" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B116" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D116" s="49" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E116" s="32" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F116" s="32"/>
       <c r="G116" s="47" t="s">
@@ -8191,7 +8232,7 @@
         <v>22</v>
       </c>
       <c r="K116" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L116" t="s">
         <v>24</v>
@@ -8203,19 +8244,19 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="32" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B117" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D117" s="32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E117" s="32" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F117" s="32"/>
       <c r="G117" s="47" t="s">
@@ -8231,7 +8272,7 @@
         <v>22</v>
       </c>
       <c r="K117" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L117" t="s">
         <v>24</v>
@@ -8243,19 +8284,19 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="32" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B118" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F118" s="32"/>
       <c r="G118" s="47" t="s">
@@ -8271,7 +8312,7 @@
         <v>22</v>
       </c>
       <c r="K118" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L118" t="s">
         <v>24</v>
@@ -8283,19 +8324,19 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="32" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B119" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F119" s="32"/>
       <c r="G119" s="47" t="s">
@@ -8311,7 +8352,7 @@
         <v>22</v>
       </c>
       <c r="K119" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L119" t="s">
         <v>24</v>
@@ -8323,18 +8364,20 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B120" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="E120" s="32"/>
+        <v>114</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>232</v>
+      </c>
       <c r="F120" s="32"/>
       <c r="G120" s="47" t="s">
         <v>22</v>
@@ -8349,10 +8392,10 @@
         <v>22</v>
       </c>
       <c r="K120" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L120" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M120" s="32"/>
       <c r="N120" s="32"/>
@@ -8361,18 +8404,20 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="32" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B121" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E121" s="32"/>
+        <v>114</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>233</v>
+      </c>
       <c r="F121" s="32"/>
       <c r="G121" s="47" t="s">
         <v>22</v>
@@ -8387,10 +8432,10 @@
         <v>22</v>
       </c>
       <c r="K121" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L121" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M121" s="32"/>
       <c r="N121" s="32"/>
@@ -8399,18 +8444,20 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="32" t="s">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="B122" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="E122" s="32"/>
+        <v>114</v>
+      </c>
+      <c r="E122" s="32" t="s">
+        <v>234</v>
+      </c>
       <c r="F122" s="32"/>
       <c r="G122" s="47" t="s">
         <v>22</v>
@@ -8425,10 +8472,10 @@
         <v>22</v>
       </c>
       <c r="K122" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L122" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M122" s="32"/>
       <c r="N122" s="32"/>
@@ -8437,18 +8484,20 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="32" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B123" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E123" s="32"/>
+        <v>108</v>
+      </c>
+      <c r="E123" s="32" t="s">
+        <v>235</v>
+      </c>
       <c r="F123" s="32"/>
       <c r="G123" s="47" t="s">
         <v>22</v>
@@ -8463,10 +8512,10 @@
         <v>22</v>
       </c>
       <c r="K123" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L123" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M123" s="32"/>
       <c r="N123" s="32"/>
@@ -8474,34 +8523,80 @@
       <c r="P123" s="48"/>
     </row>
     <row r="124" spans="1:16">
-      <c r="A124" s="32"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
-      <c r="E124" s="32"/>
+      <c r="A124" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D124" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E124" s="32" t="s">
+        <v>238</v>
+      </c>
       <c r="F124" s="32"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="32"/>
-      <c r="J124" s="32"/>
-      <c r="K124" s="32"/>
+      <c r="G124" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I124" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K124" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="L124" t="s">
+        <v>24</v>
+      </c>
       <c r="M124" s="32"/>
       <c r="N124" s="32"/>
       <c r="O124" s="32"/>
       <c r="P124" s="48"/>
     </row>
     <row r="125" spans="1:16">
-      <c r="A125" s="32"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
+      <c r="A125" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D125" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E125" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="32"/>
-      <c r="J125" s="32"/>
-      <c r="K125" s="32"/>
+      <c r="G125" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I125" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K125" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="L125" t="s">
+        <v>24</v>
+      </c>
       <c r="M125" s="32"/>
       <c r="N125" s="32"/>
       <c r="O125" s="32"/>
@@ -8525,17 +8620,40 @@
       <c r="P126" s="48"/>
     </row>
     <row r="127" spans="1:16">
-      <c r="A127" s="32"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
+      <c r="A127" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="32"/>
-      <c r="J127" s="32"/>
-      <c r="K127" s="32"/>
+      <c r="G127" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I127" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J127" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K127" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="L127" t="s">
+        <v>24</v>
+      </c>
       <c r="M127" s="32"/>
       <c r="N127" s="32"/>
       <c r="O127" s="32"/>
@@ -8967,7 +9085,7 @@
       <c r="P152" s="50"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B43 G1:J15 G17:J1048576 G16 J16">
+  <conditionalFormatting sqref="G1:J15 G16 J16 B43 G17:J1048576">
     <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
@@ -9099,7 +9217,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>11</v>
@@ -9119,7 +9237,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -9133,10 +9251,10 @@
         <v>17</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="M2" s="23" t="s">
         <v>24</v>
@@ -9156,7 +9274,7 @@
         <v>44</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -9642,7 +9760,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>11</v>
@@ -10101,7 +10219,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10115,10 +10233,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -10127,7 +10245,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10135,16 +10253,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10152,16 +10270,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10169,16 +10287,16 @@
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10186,16 +10304,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10203,7 +10321,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>18</v>
@@ -10220,7 +10338,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
@@ -10237,16 +10355,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10254,16 +10372,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10271,16 +10389,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10288,16 +10406,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10305,16 +10423,16 @@
         <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10322,16 +10440,16 @@
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10339,16 +10457,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10356,7 +10474,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>43</v>
@@ -10373,16 +10491,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10390,16 +10508,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10407,16 +10525,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10424,16 +10542,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10441,16 +10559,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10458,16 +10576,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10475,16 +10593,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10492,16 +10610,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10509,16 +10627,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10526,16 +10644,16 @@
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10543,16 +10661,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10560,16 +10678,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10577,16 +10695,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -10594,16 +10712,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -10627,7 +10745,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -10637,7 +10755,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -10675,17 +10793,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="16" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f61f07c867748b0019541a657f349ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5688d83df968b8ed30cda1c17f9d8ac7" ns2:_="" ns3:_="">
     <xsd:import namespace="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
@@ -10926,16 +11033,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FF6D437-CC37-4CBE-9DFE-67A70FDDA4C9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC9EA872-FAFA-49B6-9247-007AF2214F14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim.sharepoint.com/sites/O365-OntwikkelgroepHoofdfase/Gedeelde documenten/General/Ontwikkelgroep SE/01. Besluiten, planningen, actiepunten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F183AE-9FCD-4D8A-A95B-AE15C571AB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA7D58CC-41B9-4D52-AA38-E3C7D611E566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="266">
   <si>
     <t>TC-1</t>
   </si>
@@ -709,6 +709,9 @@
   </si>
   <si>
     <t>Controle-toepassing-ontwerptechnieken</t>
+  </si>
+  <si>
+    <t>Controle-aansluiting-requirements</t>
   </si>
   <si>
     <t>oa-17</t>
@@ -1286,7 +1289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1347,6 +1350,8 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -3008,8 +3013,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P152" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76" headerRowBorderDxfId="74" tableBorderDxfId="75">
-  <autoFilter ref="A1:P152" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P153" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76" headerRowBorderDxfId="74" tableBorderDxfId="75">
+  <autoFilter ref="A1:P153" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}"/>
   <tableColumns count="16">
     <tableColumn id="2" xr3:uid="{F8A50546-3BB2-41F8-99A7-821FFAEA9EA0}" name="TC-1" dataDxfId="73"/>
     <tableColumn id="3" xr3:uid="{41734F87-6DB1-4AC3-80CE-250B23378554}" name="TC-2" dataDxfId="72"/>
@@ -3407,10 +3412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8AE46-0301-40E0-97E1-E2E70FD5D32D}">
-  <dimension ref="A1:P152"/>
+  <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8163,8 +8168,8 @@
       <c r="P114" s="48"/>
     </row>
     <row r="115" spans="1:16">
-      <c r="A115" s="49" t="s">
-        <v>223</v>
+      <c r="A115" s="32" t="s">
+        <v>219</v>
       </c>
       <c r="B115" s="32" t="s">
         <v>40</v>
@@ -8172,13 +8177,13 @@
       <c r="C115" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D115" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="E115" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="F115" s="49"/>
+      <c r="D115" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F115" s="32"/>
       <c r="G115" s="47" t="s">
         <v>22</v>
       </c>
@@ -8197,14 +8202,14 @@
       <c r="L115" t="s">
         <v>24</v>
       </c>
-      <c r="M115" s="49"/>
-      <c r="N115" s="49"/>
-      <c r="O115" s="49"/>
-      <c r="P115" s="50"/>
+      <c r="M115" s="32"/>
+      <c r="N115" s="32"/>
+      <c r="O115" s="32"/>
+      <c r="P115" s="48"/>
     </row>
     <row r="116" spans="1:16">
-      <c r="A116" s="32" t="s">
-        <v>223</v>
+      <c r="A116" s="49" t="s">
+        <v>224</v>
       </c>
       <c r="B116" s="32" t="s">
         <v>40</v>
@@ -8213,12 +8218,12 @@
         <v>82</v>
       </c>
       <c r="D116" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="E116" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="E116" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="F116" s="32"/>
+      <c r="F116" s="49"/>
       <c r="G116" s="47" t="s">
         <v>22</v>
       </c>
@@ -8237,23 +8242,23 @@
       <c r="L116" t="s">
         <v>24</v>
       </c>
-      <c r="M116" s="32"/>
-      <c r="N116" s="32"/>
-      <c r="O116" s="32"/>
-      <c r="P116" s="48"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="49"/>
+      <c r="O116" s="49"/>
+      <c r="P116" s="50"/>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="32" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="B117" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D117" s="32" t="s">
-        <v>118</v>
+        <v>82</v>
+      </c>
+      <c r="D117" s="49" t="s">
+        <v>225</v>
       </c>
       <c r="E117" s="32" t="s">
         <v>227</v>
@@ -8284,7 +8289,7 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="32" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="B118" s="32" t="s">
         <v>40</v>
@@ -8293,10 +8298,10 @@
         <v>107</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F118" s="32"/>
       <c r="G118" s="47" t="s">
@@ -8324,7 +8329,7 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B119" s="32" t="s">
         <v>40</v>
@@ -8333,7 +8338,7 @@
         <v>107</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E119" s="32" t="s">
         <v>231</v>
@@ -8364,7 +8369,7 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="32" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="B120" s="32" t="s">
         <v>40</v>
@@ -8373,7 +8378,7 @@
         <v>107</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="E120" s="32" t="s">
         <v>232</v>
@@ -8484,7 +8489,7 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B123" s="32" t="s">
         <v>40</v>
@@ -8493,7 +8498,7 @@
         <v>107</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E123" s="32" t="s">
         <v>235</v>
@@ -8524,7 +8529,7 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="32" t="s">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="B124" s="32" t="s">
         <v>40</v>
@@ -8533,10 +8538,10 @@
         <v>107</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="E124" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="47" t="s">
@@ -8564,7 +8569,7 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="32" t="s">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="B125" s="32" t="s">
         <v>40</v>
@@ -8573,7 +8578,7 @@
         <v>107</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="E125" s="32" t="s">
         <v>239</v>
@@ -8603,74 +8608,97 @@
       <c r="P125" s="48"/>
     </row>
     <row r="126" spans="1:16">
-      <c r="A126" s="32"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
+      <c r="A126" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D126" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E126" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="32"/>
-      <c r="J126" s="32"/>
-      <c r="K126" s="32"/>
+      <c r="G126" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I126" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K126" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="L126" t="s">
+        <v>24</v>
+      </c>
       <c r="M126" s="32"/>
       <c r="N126" s="32"/>
       <c r="O126" s="32"/>
       <c r="P126" s="48"/>
     </row>
     <row r="127" spans="1:16">
-      <c r="A127" s="32" t="s">
+      <c r="A127" s="56"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="56"/>
+      <c r="F127" s="56"/>
+      <c r="G127" s="56"/>
+      <c r="H127" s="56"/>
+      <c r="I127" s="56"/>
+      <c r="J127" s="56"/>
+      <c r="K127" s="56"/>
+      <c r="M127" s="56"/>
+      <c r="N127" s="56"/>
+      <c r="O127" s="56"/>
+      <c r="P127" s="57"/>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B127" s="32" t="s">
+      <c r="B128" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C127" s="32" t="s">
+      <c r="C128" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D127" s="32" t="s">
+      <c r="D128" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E127" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F127" s="32"/>
-      <c r="G127" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H127" s="32" t="s">
+      <c r="E128" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F128" s="32"/>
+      <c r="G128" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="I127" s="32" t="s">
+      <c r="I128" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J127" s="32" t="s">
+      <c r="J128" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K127" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="L127" t="s">
+      <c r="K128" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L128" t="s">
         <v>24</v>
       </c>
-      <c r="M127" s="32"/>
-      <c r="N127" s="32"/>
-      <c r="O127" s="32"/>
-      <c r="P127" s="48"/>
-    </row>
-    <row r="128" spans="1:16">
-      <c r="A128" s="32"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
-      <c r="J128" s="32"/>
-      <c r="K128" s="32"/>
       <c r="M128" s="32"/>
       <c r="N128" s="32"/>
       <c r="O128" s="32"/>
@@ -8915,37 +8943,37 @@
       <c r="P142" s="48"/>
     </row>
     <row r="143" spans="1:16">
-      <c r="A143" s="49"/>
-      <c r="B143" s="49"/>
-      <c r="C143" s="49"/>
-      <c r="D143" s="49"/>
-      <c r="E143" s="49"/>
-      <c r="F143" s="49"/>
-      <c r="G143" s="49"/>
-      <c r="H143" s="49"/>
-      <c r="I143" s="49"/>
-      <c r="J143" s="49"/>
-      <c r="K143" s="49"/>
-      <c r="M143" s="49"/>
-      <c r="N143" s="49"/>
-      <c r="O143" s="49"/>
-      <c r="P143" s="50"/>
+      <c r="A143" s="32"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
+      <c r="I143" s="32"/>
+      <c r="J143" s="32"/>
+      <c r="K143" s="32"/>
+      <c r="M143" s="32"/>
+      <c r="N143" s="32"/>
+      <c r="O143" s="32"/>
+      <c r="P143" s="48"/>
     </row>
     <row r="144" spans="1:16">
-      <c r="A144" s="32"/>
-      <c r="B144" s="32"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="32"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="32"/>
-      <c r="I144" s="32"/>
-      <c r="J144" s="32"/>
-      <c r="K144" s="32"/>
-      <c r="M144" s="32"/>
-      <c r="N144" s="32"/>
-      <c r="O144" s="32"/>
+      <c r="A144" s="49"/>
+      <c r="B144" s="49"/>
+      <c r="C144" s="49"/>
+      <c r="D144" s="49"/>
+      <c r="E144" s="49"/>
+      <c r="F144" s="49"/>
+      <c r="G144" s="49"/>
+      <c r="H144" s="49"/>
+      <c r="I144" s="49"/>
+      <c r="J144" s="49"/>
+      <c r="K144" s="49"/>
+      <c r="M144" s="49"/>
+      <c r="N144" s="49"/>
+      <c r="O144" s="49"/>
       <c r="P144" s="50"/>
     </row>
     <row r="145" spans="1:16">
@@ -9083,6 +9111,23 @@
       <c r="N152" s="32"/>
       <c r="O152" s="32"/>
       <c r="P152" s="50"/>
+    </row>
+    <row r="153" spans="1:16">
+      <c r="A153" s="32"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="32"/>
+      <c r="G153" s="32"/>
+      <c r="H153" s="32"/>
+      <c r="I153" s="32"/>
+      <c r="J153" s="32"/>
+      <c r="K153" s="32"/>
+      <c r="M153" s="32"/>
+      <c r="N153" s="32"/>
+      <c r="O153" s="32"/>
+      <c r="P153" s="50"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:J15 G16 J16 B43 G17:J1048576">
@@ -9107,7 +9152,7 @@
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L152">
+  <conditionalFormatting sqref="L2:L153">
     <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
@@ -9126,7 +9171,7 @@
           <x14:formula1>
             <xm:f>Configuratie!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L1 L93:L1048576</xm:sqref>
+          <xm:sqref>L1 L127:L1048576 L93:L126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A99B45A-3469-41B9-95C3-9470E9A47E8F}">
           <x14:formula1>
@@ -9138,19 +9183,19 @@
           <x14:formula1>
             <xm:f>Taxonomiecodes!$E$2:$E$29</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048576</xm:sqref>
+          <xm:sqref>A127:A1048576 A1:A126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2D9F141-DCFD-4E17-B98A-F2E3B12F7BFB}">
           <x14:formula1>
             <xm:f>Taxonomiecodes!$D$2:$D$29</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>D127:D1048576 D1:D126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6DF7EA8C-9CB4-405C-9F50-029862207885}">
           <x14:formula1>
             <xm:f>Taxonomiecodes!$C$2:$C$29</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C127:C1048576 C1:C126</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9217,7 +9262,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>11</v>
@@ -9237,7 +9282,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -9251,10 +9296,10 @@
         <v>17</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M2" s="23" t="s">
         <v>24</v>
@@ -9274,7 +9319,7 @@
         <v>44</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -9760,7 +9805,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>11</v>
@@ -10219,7 +10264,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10233,10 +10278,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -10245,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10253,7 +10298,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>99</v>
@@ -10270,16 +10315,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10287,16 +10332,16 @@
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10304,7 +10349,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -10321,7 +10366,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>18</v>
@@ -10338,7 +10383,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
@@ -10355,7 +10400,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>99</v>
@@ -10372,7 +10417,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>99</v>
@@ -10389,7 +10434,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>99</v>
@@ -10406,7 +10451,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>99</v>
@@ -10423,7 +10468,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>43</v>
@@ -10440,7 +10485,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>43</v>
@@ -10449,7 +10494,7 @@
         <v>211</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10457,7 +10502,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>43</v>
@@ -10474,7 +10519,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>43</v>
@@ -10491,7 +10536,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>43</v>
@@ -10508,16 +10553,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10525,16 +10570,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10542,7 +10587,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>82</v>
@@ -10559,7 +10604,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>99</v>
@@ -10576,16 +10621,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10593,7 +10638,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>82</v>
@@ -10610,7 +10655,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>107</v>
@@ -10627,16 +10672,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10644,7 +10689,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>107</v>
@@ -10661,7 +10706,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>107</v>
@@ -10678,16 +10723,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10695,7 +10740,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>107</v>
@@ -10712,7 +10757,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
@@ -10745,7 +10790,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim.sharepoint.com/sites/O365-OntwikkelgroepHoofdfase/Gedeelde documenten/General/Ontwikkelgroep SE/01. Besluiten, planningen, actiepunten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BAD8ADA-FFE9-488E-9040-EB5DA8C8E929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3852BB1-67C9-42E3-92B6-9C0B131C1B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="280">
   <si>
     <t>TC-1</t>
   </si>
@@ -212,15 +212,12 @@
     <t>Nog PI, DT</t>
   </si>
   <si>
-    <t>Using</t>
+    <t>Async</t>
   </si>
   <si>
     <t>On hold</t>
   </si>
   <si>
-    <t>Async</t>
-  </si>
-  <si>
     <t>Await</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
     <t>Set</t>
   </si>
   <si>
+    <t>Set en HashSet?</t>
+  </si>
+  <si>
     <t>Dictionary</t>
   </si>
   <si>
@@ -263,12 +263,6 @@
     <t>Ties &amp; Teun</t>
   </si>
   <si>
-    <t>Linkedlist</t>
-  </si>
-  <si>
-    <t>PriorityQueue</t>
-  </si>
-  <si>
     <t>Datatype-Struct</t>
   </si>
   <si>
@@ -383,7 +377,10 @@
     <t>Domein-Analyse</t>
   </si>
   <si>
-    <t>Multidimensionale-Array</t>
+    <t xml:space="preserve">Jorrick </t>
+  </si>
+  <si>
+    <t>Multidimensionale-Arrays</t>
   </si>
   <si>
     <t>rd-7</t>
@@ -437,9 +434,6 @@
     <t>Continue</t>
   </si>
   <si>
-    <t>Return</t>
-  </si>
-  <si>
     <t>Access-modifiers</t>
   </si>
   <si>
@@ -770,13 +764,10 @@
     <t>Beheren-van-requirements</t>
   </si>
   <si>
-    <t>Talstelsels</t>
+    <t>Getal-bewerkingen</t>
   </si>
   <si>
     <t>Eltjo</t>
-  </si>
-  <si>
-    <t>Getal-bewerkingen</t>
   </si>
   <si>
     <t>Getalverzamelingen</t>
@@ -2621,8 +2612,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P155" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" headerRowBorderDxfId="48" tableBorderDxfId="49">
-  <autoFilter ref="A1:P155" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P148" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" headerRowBorderDxfId="48" tableBorderDxfId="49">
+  <autoFilter ref="A1:P148" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}"/>
   <tableColumns count="16">
     <tableColumn id="2" xr3:uid="{F8A50546-3BB2-41F8-99A7-821FFAEA9EA0}" name="TC-1" dataDxfId="47"/>
     <tableColumn id="3" xr3:uid="{41734F87-6DB1-4AC3-80CE-250B23378554}" name="TC-2" dataDxfId="46"/>
@@ -2998,10 +2989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8AE46-0301-40E0-97E1-E2E70FD5D32D}">
-  <dimension ref="A1:P155"/>
+  <dimension ref="A1:P148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:XFD135"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3899,7 +3890,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="31"/>
-      <c r="L22" s="36" t="s">
+      <c r="L22" s="37" t="s">
         <v>58</v>
       </c>
       <c r="M22" s="31"/>
@@ -3937,7 +3928,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="31"/>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="36" t="s">
         <v>58</v>
       </c>
       <c r="M23" s="31"/>
@@ -3968,15 +3959,17 @@
       <c r="H24" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="31" t="s">
-        <v>17</v>
+      <c r="I24" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="36" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
@@ -3997,7 +3990,7 @@
         <v>44</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="46" t="s">
@@ -4013,10 +4006,10 @@
         <v>22</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
@@ -4037,7 +4030,7 @@
         <v>44</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="46" t="s">
@@ -4049,14 +4042,14 @@
       <c r="I26" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="46" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="38" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="L26" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
@@ -4089,14 +4082,14 @@
       <c r="I27" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="46" t="s">
-        <v>22</v>
+      <c r="J27" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="37" t="s">
-        <v>58</v>
+        <v>66</v>
+      </c>
+      <c r="L27" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="M27" s="31"/>
       <c r="N27" s="31"/>
@@ -4117,7 +4110,7 @@
         <v>44</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="46" t="s">
@@ -4129,19 +4122,19 @@
       <c r="I28" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" s="32" t="s">
-        <v>24</v>
+      <c r="J28" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="31"/>
+      <c r="L28" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
       <c r="O28" s="31"/>
-      <c r="P28" s="47"/>
+      <c r="P28" s="47" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="31" t="s">
@@ -4157,7 +4150,7 @@
         <v>44</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="46" t="s">
@@ -4166,15 +4159,17 @@
       <c r="H29" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="36" t="s">
-        <v>58</v>
+      <c r="I29" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
@@ -4195,7 +4190,7 @@
         <v>44</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="46" t="s">
@@ -4211,7 +4206,7 @@
         <v>17</v>
       </c>
       <c r="K30" s="31" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="L30" s="32" t="s">
         <v>24</v>
@@ -4235,7 +4230,7 @@
         <v>44</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="46" t="s">
@@ -4251,7 +4246,7 @@
         <v>17</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="L31" s="32" t="s">
         <v>24</v>
@@ -4275,7 +4270,7 @@
         <v>44</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="46" t="s">
@@ -4291,7 +4286,7 @@
         <v>17</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="L32" s="32" t="s">
         <v>24</v>
@@ -4315,38 +4310,48 @@
         <v>44</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="31"/>
+        <v>74</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G33" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="31" t="s">
-        <v>17</v>
+      <c r="I33" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="K33" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="L33" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="47" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>43</v>
@@ -4355,14 +4360,14 @@
         <v>44</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I34" s="46" t="s">
         <v>22</v>
@@ -4370,9 +4375,11 @@
       <c r="J34" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="36" t="s">
-        <v>58</v>
+      <c r="K34" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
@@ -4381,36 +4388,36 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="31" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35" s="46" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="J35" s="46" t="s">
         <v>22</v>
       </c>
       <c r="K35" s="31"/>
-      <c r="L35" s="36" t="s">
-        <v>58</v>
+      <c r="L35" s="37" t="s">
+        <v>24</v>
       </c>
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
@@ -4419,7 +4426,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="31" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>17</v>
@@ -4428,60 +4435,50 @@
         <v>43</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>21</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F36" s="31"/>
       <c r="G36" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="46" t="s">
-        <v>22</v>
+      <c r="I36" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>40</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="L36" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="M36" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O36" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" s="47" t="s">
-        <v>21</v>
-      </c>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="47"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="31" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="46" t="s">
@@ -4496,11 +4493,9 @@
       <c r="J37" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" s="37" t="s">
-        <v>64</v>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="M37" s="31"/>
       <c r="N37" s="31"/>
@@ -4509,57 +4504,61 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="31" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="J38" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="31"/>
-      <c r="L38" s="37" t="s">
-        <v>24</v>
+      <c r="K38" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
-      <c r="P38" s="47"/>
+      <c r="P38" s="47" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="31" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="46" t="s">
@@ -4571,14 +4570,14 @@
       <c r="I39" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="31" t="s">
-        <v>40</v>
+      <c r="J39" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L39" s="36" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="M39" s="31"/>
       <c r="N39" s="31"/>
@@ -4587,26 +4586,26 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="31" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I40" s="46" t="s">
         <v>22</v>
@@ -4615,8 +4614,8 @@
         <v>22</v>
       </c>
       <c r="K40" s="31"/>
-      <c r="L40" s="32" t="s">
-        <v>89</v>
+      <c r="L40" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="M40" s="31"/>
       <c r="N40" s="31"/>
@@ -4624,62 +4623,38 @@
       <c r="P40" s="47"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>92</v>
-      </c>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="L41" s="34" t="s">
-        <v>55</v>
-      </c>
+      <c r="G41" s="46"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="50"/>
       <c r="M41" s="31"/>
       <c r="N41" s="31"/>
       <c r="O41" s="31"/>
-      <c r="P41" s="47" t="s">
-        <v>94</v>
-      </c>
+      <c r="P41" s="47"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="31" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="46" t="s">
@@ -4688,16 +4663,16 @@
       <c r="H42" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="31" t="s">
-        <v>17</v>
+      <c r="I42" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="J42" s="46" t="s">
         <v>22</v>
       </c>
       <c r="K42" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="L42" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M42" s="31"/>
@@ -4707,26 +4682,26 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="31" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H43" s="31" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I43" s="46" t="s">
         <v>22</v>
@@ -4734,9 +4709,11 @@
       <c r="J43" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="31"/>
-      <c r="L43" s="29" t="s">
-        <v>89</v>
+      <c r="K43" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
@@ -4744,18 +4721,40 @@
       <c r="P43" s="47"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
+      <c r="A44" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>108</v>
+      </c>
       <c r="F44" s="31"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="50"/>
+      <c r="G44" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="M44" s="31"/>
       <c r="N44" s="31"/>
       <c r="O44" s="31"/>
@@ -4763,19 +4762,19 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="31" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="46" t="s">
@@ -4791,9 +4790,9 @@
         <v>22</v>
       </c>
       <c r="K45" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="L45" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="L45" s="36" t="s">
         <v>24</v>
       </c>
       <c r="M45" s="31"/>
@@ -4803,19 +4802,19 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="31" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="46" t="s">
@@ -4827,14 +4826,14 @@
       <c r="I46" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J46" s="46" t="s">
-        <v>22</v>
+      <c r="J46" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="L46" s="36" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="L46" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="M46" s="31"/>
       <c r="N46" s="31"/>
@@ -4843,19 +4842,19 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="31" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="46" t="s">
@@ -4870,11 +4869,9 @@
       <c r="J47" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L47" s="36" t="s">
-        <v>24</v>
+      <c r="K47" s="31"/>
+      <c r="L47" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="M47" s="31"/>
       <c r="N47" s="31"/>
@@ -4883,19 +4880,19 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="31" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="46" t="s">
@@ -4910,9 +4907,11 @@
       <c r="J48" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K48" s="31"/>
+      <c r="K48" s="31" t="s">
+        <v>120</v>
+      </c>
       <c r="L48" s="36" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M48" s="31"/>
       <c r="N48" s="31"/>
@@ -4921,19 +4920,19 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="31" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="46" t="s">
@@ -4949,10 +4948,10 @@
         <v>22</v>
       </c>
       <c r="K49" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="L49" s="32" t="s">
-        <v>89</v>
+        <v>122</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="M49" s="31"/>
       <c r="N49" s="31"/>
@@ -4961,19 +4960,19 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="31" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="46" t="s">
@@ -4988,9 +4987,11 @@
       <c r="J50" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K50" s="31"/>
-      <c r="L50" s="29" t="s">
-        <v>89</v>
+      <c r="K50" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="M50" s="31"/>
       <c r="N50" s="31"/>
@@ -4999,19 +5000,19 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="31" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="46" t="s">
@@ -5020,17 +5021,15 @@
       <c r="H51" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="46" t="s">
-        <v>22</v>
+      <c r="I51" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="J51" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K51" s="31" t="s">
-        <v>121</v>
-      </c>
+      <c r="K51" s="31"/>
       <c r="L51" s="36" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M51" s="31"/>
       <c r="N51" s="31"/>
@@ -5039,19 +5038,19 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="31" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="46" t="s">
@@ -5060,17 +5059,15 @@
       <c r="H52" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="46" t="s">
-        <v>22</v>
+      <c r="I52" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="J52" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K52" s="31" t="s">
-        <v>123</v>
-      </c>
+      <c r="K52" s="31"/>
       <c r="L52" s="36" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M52" s="31"/>
       <c r="N52" s="31"/>
@@ -5078,39 +5075,21 @@
       <c r="P52" s="47"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>109</v>
-      </c>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F53" s="31"/>
-      <c r="G53" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="31" t="s">
-        <v>121</v>
-      </c>
+      <c r="G53" s="46"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
       <c r="L53" s="36" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M53" s="31"/>
       <c r="N53" s="31"/>
@@ -5119,19 +5098,19 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="31" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="46" t="s">
@@ -5141,14 +5120,16 @@
         <v>17</v>
       </c>
       <c r="I54" s="31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J54" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="31"/>
+      <c r="K54" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="L54" s="36" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M54" s="31"/>
       <c r="N54" s="31"/>
@@ -5157,19 +5138,19 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="31" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="46" t="s">
@@ -5179,57 +5160,77 @@
         <v>17</v>
       </c>
       <c r="I55" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="31" t="s">
         <v>22</v>
       </c>
       <c r="K55" s="31"/>
-      <c r="L55" s="36" t="s">
-        <v>58</v>
+      <c r="L55" s="52" t="s">
+        <v>24</v>
       </c>
       <c r="M55" s="31"/>
       <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
+      <c r="O55" s="31" t="s">
+        <v>129</v>
+      </c>
       <c r="P55" s="47"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
+      <c r="A56" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>44</v>
+      </c>
       <c r="E56" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F56" s="31"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
+      <c r="G56" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="31" t="s">
+        <v>22</v>
+      </c>
       <c r="K56" s="31"/>
-      <c r="L56" s="36" t="s">
-        <v>58</v>
+      <c r="L56" s="53" t="s">
+        <v>24</v>
       </c>
       <c r="M56" s="31"/>
       <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
+      <c r="O56" s="31" t="s">
+        <v>129</v>
+      </c>
       <c r="P56" s="47"/>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="31" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="46" t="s">
@@ -5241,18 +5242,20 @@
       <c r="I57" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="46" t="s">
-        <v>22</v>
+      <c r="J57" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="K57" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="L57" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="L57" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M57" s="31"/>
       <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
+      <c r="O57" s="31" t="s">
+        <v>129</v>
+      </c>
       <c r="P57" s="47"/>
     </row>
     <row r="58" spans="1:16">
@@ -5269,7 +5272,7 @@
         <v>44</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="46" t="s">
@@ -5282,16 +5285,22 @@
         <v>22</v>
       </c>
       <c r="J58" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" s="31"/>
-      <c r="L58" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="L58" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
+      <c r="M58" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="N58" s="31" t="s">
+        <v>135</v>
+      </c>
       <c r="O58" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P58" s="47"/>
     </row>
@@ -5309,7 +5318,7 @@
         <v>44</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="46" t="s">
@@ -5318,20 +5327,26 @@
       <c r="H59" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="31" t="s">
+      <c r="I59" s="46" t="s">
         <v>22</v>
       </c>
       <c r="J59" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="31"/>
-      <c r="L59" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="L59" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
+      <c r="M59" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="N59" s="31" t="s">
+        <v>135</v>
+      </c>
       <c r="O59" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P59" s="47"/>
     </row>
@@ -5349,7 +5364,7 @@
         <v>44</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F60" s="31"/>
       <c r="G60" s="46" t="s">
@@ -5358,20 +5373,26 @@
       <c r="H60" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="31" t="s">
+      <c r="I60" s="46" t="s">
         <v>22</v>
       </c>
       <c r="J60" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K60" s="31"/>
-      <c r="L60" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
+        <v>17</v>
+      </c>
+      <c r="K60" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L60" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="N60" s="31" t="s">
+        <v>135</v>
+      </c>
       <c r="O60" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P60" s="47"/>
     </row>
@@ -5389,7 +5410,7 @@
         <v>44</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F61" s="31"/>
       <c r="G61" s="46" t="s">
@@ -5398,22 +5419,26 @@
       <c r="H61" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="31" t="s">
+      <c r="I61" s="46" t="s">
         <v>22</v>
       </c>
       <c r="J61" s="31" t="s">
         <v>17</v>
       </c>
       <c r="K61" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="L61" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="L61" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
+      <c r="N61" s="31" t="s">
+        <v>135</v>
+      </c>
       <c r="O61" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P61" s="47"/>
     </row>
@@ -5431,7 +5456,7 @@
         <v>44</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F62" s="31"/>
       <c r="G62" s="46" t="s">
@@ -5440,26 +5465,26 @@
       <c r="H62" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="31" t="s">
+      <c r="I62" s="46" t="s">
         <v>22</v>
       </c>
       <c r="J62" s="31" t="s">
         <v>17</v>
       </c>
       <c r="K62" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L62" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="L62" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M62" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N62" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O62" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P62" s="47"/>
     </row>
@@ -5477,7 +5502,7 @@
         <v>44</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F63" s="31"/>
       <c r="G63" s="46" t="s">
@@ -5493,19 +5518,19 @@
         <v>17</v>
       </c>
       <c r="K63" s="31" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="L63" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M63" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N63" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O63" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P63" s="47"/>
     </row>
@@ -5523,7 +5548,7 @@
         <v>44</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="46" t="s">
@@ -5539,19 +5564,19 @@
         <v>17</v>
       </c>
       <c r="K64" s="31" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="L64" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M64" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N64" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O64" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P64" s="47"/>
     </row>
@@ -5569,7 +5594,7 @@
         <v>44</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="46" t="s">
@@ -5585,19 +5610,19 @@
         <v>17</v>
       </c>
       <c r="K65" s="31" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="L65" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M65" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N65" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O65" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P65" s="47"/>
     </row>
@@ -5615,7 +5640,7 @@
         <v>44</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="46" t="s">
@@ -5631,19 +5656,19 @@
         <v>17</v>
       </c>
       <c r="K66" s="31" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L66" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M66" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N66" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O66" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P66" s="47"/>
     </row>
@@ -5661,7 +5686,7 @@
         <v>44</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="46" t="s">
@@ -5677,19 +5702,19 @@
         <v>17</v>
       </c>
       <c r="K67" s="31" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="L67" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M67" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N67" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O67" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P67" s="47"/>
     </row>
@@ -5707,7 +5732,7 @@
         <v>44</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="46" t="s">
@@ -5723,19 +5748,15 @@
         <v>17</v>
       </c>
       <c r="K68" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="L68" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="L68" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M68" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="N68" s="31" t="s">
-        <v>137</v>
-      </c>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
       <c r="O68" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P68" s="47"/>
     </row>
@@ -5753,7 +5774,7 @@
         <v>44</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="46" t="s">
@@ -5762,26 +5783,26 @@
       <c r="H69" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="46" t="s">
+      <c r="I69" s="31" t="s">
         <v>22</v>
       </c>
       <c r="J69" s="31" t="s">
         <v>17</v>
       </c>
       <c r="K69" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L69" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="L69" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M69" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N69" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O69" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P69" s="47"/>
     </row>
@@ -5799,35 +5820,37 @@
         <v>44</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="F70" s="31"/>
+        <v>150</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G70" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="46" t="s">
+      <c r="I70" s="31" t="s">
         <v>22</v>
       </c>
       <c r="J70" s="31" t="s">
         <v>17</v>
       </c>
       <c r="K70" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="L70" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="L70" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M70" s="31" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N70" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O70" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P70" s="47"/>
     </row>
@@ -5845,35 +5868,37 @@
         <v>44</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="F71" s="31"/>
+        <v>152</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G71" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H71" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I71" s="46" t="s">
+      <c r="I71" s="31" t="s">
         <v>22</v>
       </c>
       <c r="J71" s="31" t="s">
         <v>17</v>
       </c>
       <c r="K71" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="L71" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="L71" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M71" s="31" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N71" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O71" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P71" s="47"/>
     </row>
@@ -5891,31 +5916,37 @@
         <v>44</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F72" s="31"/>
+        <v>153</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G72" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I72" s="46" t="s">
+      <c r="I72" s="31" t="s">
         <v>22</v>
       </c>
       <c r="J72" s="31" t="s">
         <v>17</v>
       </c>
       <c r="K72" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="L72" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="L72" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
+      <c r="M72" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="N72" s="31" t="s">
+        <v>135</v>
+      </c>
       <c r="O72" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P72" s="47"/>
     </row>
@@ -5933,35 +5964,37 @@
         <v>44</v>
       </c>
       <c r="E73" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L73" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H73" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I73" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J73" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="L73" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M73" s="31" t="s">
-        <v>136</v>
-      </c>
       <c r="N73" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O73" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P73" s="47"/>
     </row>
@@ -5979,7 +6012,7 @@
         <v>44</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F74" s="31" t="s">
         <v>21</v>
@@ -5997,19 +6030,15 @@
         <v>17</v>
       </c>
       <c r="K74" s="31" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="L74" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M74" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="N74" s="31" t="s">
-        <v>137</v>
-      </c>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
       <c r="O74" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P74" s="47"/>
     </row>
@@ -6027,7 +6056,7 @@
         <v>44</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F75" s="31" t="s">
         <v>21</v>
@@ -6045,19 +6074,19 @@
         <v>17</v>
       </c>
       <c r="K75" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L75" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M75" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N75" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O75" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P75" s="47"/>
     </row>
@@ -6075,7 +6104,7 @@
         <v>44</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F76" s="31" t="s">
         <v>21</v>
@@ -6093,19 +6122,19 @@
         <v>17</v>
       </c>
       <c r="K76" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="L76" s="34" t="s">
-        <v>64</v>
+        <v>83</v>
+      </c>
+      <c r="L76" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="M76" s="31" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="N76" s="31" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="O76" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P76" s="47"/>
     </row>
@@ -6123,7 +6152,7 @@
         <v>44</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F77" s="31" t="s">
         <v>21</v>
@@ -6141,19 +6170,19 @@
         <v>17</v>
       </c>
       <c r="K77" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="L77" s="34" t="s">
-        <v>64</v>
+        <v>83</v>
+      </c>
+      <c r="L77" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="M77" s="31" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="N77" s="31" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="O77" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P77" s="47"/>
     </row>
@@ -6171,7 +6200,7 @@
         <v>44</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F78" s="31" t="s">
         <v>21</v>
@@ -6189,15 +6218,19 @@
         <v>17</v>
       </c>
       <c r="K78" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="L78" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="L78" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
+      <c r="M78" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="N78" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="O78" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P78" s="47"/>
     </row>
@@ -6215,7 +6248,7 @@
         <v>44</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F79" s="31" t="s">
         <v>21</v>
@@ -6233,19 +6266,19 @@
         <v>17</v>
       </c>
       <c r="K79" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="L79" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="L79" s="30" t="s">
         <v>24</v>
       </c>
       <c r="M79" s="31" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="N79" s="31" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="O79" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P79" s="47"/>
     </row>
@@ -6263,7 +6296,7 @@
         <v>44</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F80" s="31" t="s">
         <v>21</v>
@@ -6281,19 +6314,19 @@
         <v>17</v>
       </c>
       <c r="K80" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L80" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="30" t="s">
         <v>24</v>
       </c>
       <c r="M80" s="31" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N80" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O80" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P80" s="47"/>
     </row>
@@ -6311,7 +6344,7 @@
         <v>44</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F81" s="31" t="s">
         <v>21</v>
@@ -6323,25 +6356,25 @@
         <v>17</v>
       </c>
       <c r="I81" s="31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J81" s="31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K81" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L81" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="L81" s="39" t="s">
         <v>24</v>
       </c>
       <c r="M81" s="31" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N81" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O81" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P81" s="47"/>
     </row>
@@ -6359,11 +6392,9 @@
         <v>44</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F82" s="31" t="s">
-        <v>21</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="F82" s="31"/>
       <c r="G82" s="46" t="s">
         <v>22</v>
       </c>
@@ -6377,19 +6408,19 @@
         <v>17</v>
       </c>
       <c r="K82" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L82" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M82" s="31" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="N82" s="31" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="O82" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P82" s="47"/>
     </row>
@@ -6407,7 +6438,7 @@
         <v>44</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F83" s="31" t="s">
         <v>21</v>
@@ -6425,19 +6456,19 @@
         <v>17</v>
       </c>
       <c r="K83" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L83" s="30" t="s">
-        <v>24</v>
+        <v>171</v>
+      </c>
+      <c r="L83" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="M83" s="31" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="N83" s="31" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="O83" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P83" s="47"/>
     </row>
@@ -6455,11 +6486,9 @@
         <v>44</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="F84" s="31" t="s">
-        <v>21</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F84" s="31"/>
       <c r="G84" s="46" t="s">
         <v>22</v>
       </c>
@@ -6473,19 +6502,19 @@
         <v>17</v>
       </c>
       <c r="K84" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L84" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="L84" s="40" t="s">
         <v>24</v>
       </c>
       <c r="M84" s="31" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="N84" s="31" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="O84" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P84" s="47"/>
     </row>
@@ -6503,7 +6532,7 @@
         <v>44</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F85" s="31" t="s">
         <v>21</v>
@@ -6515,25 +6544,25 @@
         <v>17</v>
       </c>
       <c r="I85" s="31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J85" s="31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K85" s="31" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="L85" s="39" t="s">
         <v>24</v>
       </c>
       <c r="M85" s="31" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="N85" s="31" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="O85" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P85" s="47"/>
     </row>
@@ -6551,9 +6580,11 @@
         <v>44</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="F86" s="31"/>
+        <v>178</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G86" s="46" t="s">
         <v>22</v>
       </c>
@@ -6567,19 +6598,19 @@
         <v>17</v>
       </c>
       <c r="K86" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L86" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="L86" s="40" t="s">
         <v>24</v>
       </c>
       <c r="M86" s="31" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="N86" s="31" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="O86" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P86" s="47"/>
     </row>
@@ -6597,7 +6628,7 @@
         <v>44</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F87" s="31" t="s">
         <v>21</v>
@@ -6615,19 +6646,19 @@
         <v>17</v>
       </c>
       <c r="K87" s="31" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="L87" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M87" s="31" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N87" s="31" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="O87" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P87" s="47"/>
     </row>
@@ -6645,9 +6676,11 @@
         <v>44</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F88" s="31"/>
+        <v>182</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="G88" s="46" t="s">
         <v>22</v>
       </c>
@@ -6661,19 +6694,19 @@
         <v>17</v>
       </c>
       <c r="K88" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L88" s="40" t="s">
         <v>24</v>
       </c>
       <c r="M88" s="31" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N88" s="31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O88" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P88" s="47"/>
     </row>
@@ -6691,7 +6724,7 @@
         <v>44</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F89" s="31" t="s">
         <v>21</v>
@@ -6709,89 +6742,85 @@
         <v>17</v>
       </c>
       <c r="K89" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L89" s="39" t="s">
-        <v>24</v>
+        <v>83</v>
+      </c>
+      <c r="L89" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="M89" s="31" t="s">
         <v>179</v>
       </c>
       <c r="N89" s="31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O89" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P89" s="47"/>
     </row>
     <row r="90" spans="1:16">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B90" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="31" t="s">
+      <c r="B90" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E90" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="F90" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="E90" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="F90" s="48"/>
       <c r="G90" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H90" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J90" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="K90" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L90" s="40" t="s">
+      <c r="H90" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L90" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="M90" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="N90" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="O90" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="P90" s="47"/>
+      <c r="M90" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="N90" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="O90" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="P90" s="49"/>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="F91" s="31" t="s">
-        <v>21</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="F91" s="31"/>
       <c r="G91" s="46" t="s">
         <v>22</v>
       </c>
@@ -6799,47 +6828,39 @@
         <v>17</v>
       </c>
       <c r="I91" s="31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J91" s="31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K91" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L91" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="M91" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="N91" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="O91" s="31" t="s">
-        <v>130</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="L91" t="s">
+        <v>24</v>
+      </c>
+      <c r="M91" s="31"/>
+      <c r="N91" s="31"/>
+      <c r="O91" s="31"/>
       <c r="P91" s="47"/>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="31" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B92" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>21</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F92" s="31"/>
       <c r="G92" s="46" t="s">
         <v>22</v>
       </c>
@@ -6847,153 +6868,133 @@
         <v>17</v>
       </c>
       <c r="I92" s="31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J92" s="31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K92" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L92" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="L92" t="s">
         <v>24</v>
       </c>
-      <c r="M92" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="N92" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="O92" s="31" t="s">
-        <v>130</v>
-      </c>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
       <c r="P92" s="47"/>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="31" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="F93" s="31" t="s">
-        <v>21</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="F93" s="31"/>
       <c r="G93" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H93" s="31" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I93" s="31" t="s">
         <v>22</v>
       </c>
       <c r="J93" s="31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K93" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L93" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="M93" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="N93" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="O93" s="31" t="s">
-        <v>130</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="L93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" s="31"/>
+      <c r="N93" s="31"/>
+      <c r="O93" s="31"/>
       <c r="P93" s="47"/>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B94" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D94" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E94" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="F94" s="48"/>
+      <c r="A94" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F94" s="31"/>
       <c r="G94" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H94" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I94" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K94" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="L94" s="44" t="s">
+      <c r="H94" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I94" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="L94" t="s">
         <v>24</v>
       </c>
-      <c r="M94" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="N94" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="O94" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="P94" s="49"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="47"/>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="31" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F95" s="31"/>
       <c r="G95" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H95" s="31" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I95" s="31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J95" s="31" t="s">
         <v>22</v>
       </c>
       <c r="K95" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L95" t="s">
         <v>24</v>
@@ -7005,35 +7006,35 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="31" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F96" s="31"/>
       <c r="G96" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H96" s="31" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I96" s="31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J96" s="31" t="s">
         <v>22</v>
       </c>
       <c r="K96" s="31" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="L96" t="s">
         <v>24</v>
@@ -7045,19 +7046,19 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B97" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>192</v>
+      <c r="C97" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F97" s="31"/>
       <c r="G97" s="46" t="s">
@@ -7073,7 +7074,7 @@
         <v>22</v>
       </c>
       <c r="K97" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L97" t="s">
         <v>24</v>
@@ -7085,19 +7086,19 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="31" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="B98" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F98" s="31"/>
       <c r="G98" s="46" t="s">
@@ -7113,7 +7114,7 @@
         <v>22</v>
       </c>
       <c r="K98" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L98" t="s">
         <v>24</v>
@@ -7125,19 +7126,19 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="31" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B99" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F99" s="31"/>
       <c r="G99" s="46" t="s">
@@ -7153,7 +7154,7 @@
         <v>22</v>
       </c>
       <c r="K99" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L99" t="s">
         <v>24</v>
@@ -7165,19 +7166,19 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="31" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="B100" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F100" s="31"/>
       <c r="G100" s="46" t="s">
@@ -7190,10 +7191,10 @@
         <v>22</v>
       </c>
       <c r="J100" s="31" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K100" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L100" t="s">
         <v>24</v>
@@ -7205,19 +7206,19 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="31" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="B101" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F101" s="31"/>
       <c r="G101" s="46" t="s">
@@ -7233,7 +7234,7 @@
         <v>22</v>
       </c>
       <c r="K101" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L101" t="s">
         <v>24</v>
@@ -7245,19 +7246,19 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="31" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="B102" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F102" s="31"/>
       <c r="G102" s="46" t="s">
@@ -7270,10 +7271,10 @@
         <v>22</v>
       </c>
       <c r="J102" s="31" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K102" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L102" t="s">
         <v>24</v>
@@ -7285,26 +7286,26 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="31" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F103" s="31"/>
       <c r="G103" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H103" s="31" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I103" s="31" t="s">
         <v>22</v>
@@ -7313,7 +7314,7 @@
         <v>22</v>
       </c>
       <c r="K103" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L103" t="s">
         <v>24</v>
@@ -7334,10 +7335,10 @@
         <v>43</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F104" s="31"/>
       <c r="G104" s="46" t="s">
@@ -7350,10 +7351,10 @@
         <v>22</v>
       </c>
       <c r="J104" s="31" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K104" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L104" t="s">
         <v>24</v>
@@ -7365,7 +7366,7 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="31" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B105" s="31" t="s">
         <v>40</v>
@@ -7374,10 +7375,10 @@
         <v>43</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F105" s="31"/>
       <c r="G105" s="46" t="s">
@@ -7393,7 +7394,7 @@
         <v>22</v>
       </c>
       <c r="K105" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L105" t="s">
         <v>24</v>
@@ -7417,7 +7418,7 @@
         <v>44</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F106" s="31"/>
       <c r="G106" s="46" t="s">
@@ -7430,10 +7431,10 @@
         <v>22</v>
       </c>
       <c r="J106" s="31" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K106" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L106" t="s">
         <v>24</v>
@@ -7445,26 +7446,26 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="31" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F107" s="31"/>
       <c r="G107" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H107" s="31" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I107" s="31" t="s">
         <v>22</v>
@@ -7473,7 +7474,7 @@
         <v>22</v>
       </c>
       <c r="K107" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L107" t="s">
         <v>24</v>
@@ -7485,19 +7486,19 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="31" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B108" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F108" s="31"/>
       <c r="G108" s="46" t="s">
@@ -7513,7 +7514,7 @@
         <v>22</v>
       </c>
       <c r="K108" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L108" t="s">
         <v>24</v>
@@ -7525,19 +7526,19 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="31" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B109" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F109" s="31"/>
       <c r="G109" s="46" t="s">
@@ -7553,10 +7554,10 @@
         <v>22</v>
       </c>
       <c r="K109" s="31" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="L109" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="M109" s="31"/>
       <c r="N109" s="31"/>
@@ -7565,19 +7566,19 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="31" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="B110" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F110" s="31"/>
       <c r="G110" s="46" t="s">
@@ -7593,7 +7594,7 @@
         <v>22</v>
       </c>
       <c r="K110" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L110" t="s">
         <v>24</v>
@@ -7605,19 +7606,19 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="31" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="B111" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F111" s="31"/>
       <c r="G111" s="46" t="s">
@@ -7633,7 +7634,7 @@
         <v>22</v>
       </c>
       <c r="K111" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L111" t="s">
         <v>24</v>
@@ -7645,19 +7646,19 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="31" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D112" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F112" s="31"/>
       <c r="G112" s="46" t="s">
@@ -7673,7 +7674,7 @@
         <v>22</v>
       </c>
       <c r="K112" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L112" t="s">
         <v>24</v>
@@ -7684,22 +7685,22 @@
       <c r="P112" s="47"/>
     </row>
     <row r="113" spans="1:16">
-      <c r="A113" s="31" t="s">
-        <v>78</v>
+      <c r="A113" s="48" t="s">
+        <v>224</v>
       </c>
       <c r="B113" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D113" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E113" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="F113" s="31"/>
+        <v>77</v>
+      </c>
+      <c r="D113" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="E113" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="F113" s="48"/>
       <c r="G113" s="46" t="s">
         <v>22</v>
       </c>
@@ -7713,31 +7714,31 @@
         <v>22</v>
       </c>
       <c r="K113" s="31" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="L113" t="s">
-        <v>220</v>
-      </c>
-      <c r="M113" s="31"/>
-      <c r="N113" s="31"/>
-      <c r="O113" s="31"/>
-      <c r="P113" s="47"/>
+        <v>24</v>
+      </c>
+      <c r="M113" s="48"/>
+      <c r="N113" s="48"/>
+      <c r="O113" s="48"/>
+      <c r="P113" s="49"/>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B114" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D114" s="31" t="s">
-        <v>222</v>
+        <v>77</v>
+      </c>
+      <c r="D114" s="48" t="s">
+        <v>225</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F114" s="31"/>
       <c r="G114" s="46" t="s">
@@ -7753,7 +7754,7 @@
         <v>22</v>
       </c>
       <c r="K114" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L114" t="s">
         <v>24</v>
@@ -7765,19 +7766,19 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="31" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="B115" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F115" s="31"/>
       <c r="G115" s="46" t="s">
@@ -7793,7 +7794,7 @@
         <v>22</v>
       </c>
       <c r="K115" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L115" t="s">
         <v>24</v>
@@ -7805,19 +7806,19 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="31" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>222</v>
+        <v>103</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>230</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F116" s="31"/>
       <c r="G116" s="46" t="s">
@@ -7833,7 +7834,7 @@
         <v>22</v>
       </c>
       <c r="K116" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L116" t="s">
         <v>24</v>
@@ -7844,22 +7845,22 @@
       <c r="P116" s="47"/>
     </row>
     <row r="117" spans="1:16">
-      <c r="A117" s="48" t="s">
-        <v>226</v>
+      <c r="A117" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D117" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="E117" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="F117" s="48"/>
+        <v>103</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" s="31"/>
       <c r="G117" s="46" t="s">
         <v>22</v>
       </c>
@@ -7873,31 +7874,31 @@
         <v>22</v>
       </c>
       <c r="K117" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L117" t="s">
         <v>24</v>
       </c>
-      <c r="M117" s="48"/>
-      <c r="N117" s="48"/>
-      <c r="O117" s="48"/>
-      <c r="P117" s="49"/>
+      <c r="M117" s="31"/>
+      <c r="N117" s="31"/>
+      <c r="O117" s="31"/>
+      <c r="P117" s="47"/>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="31" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="B118" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D118" s="48" t="s">
-        <v>227</v>
+        <v>103</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>110</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F118" s="31"/>
       <c r="G118" s="46" t="s">
@@ -7913,7 +7914,7 @@
         <v>22</v>
       </c>
       <c r="K118" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L118" t="s">
         <v>24</v>
@@ -7925,19 +7926,19 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="31" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B119" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F119" s="31"/>
       <c r="G119" s="46" t="s">
@@ -7953,7 +7954,7 @@
         <v>22</v>
       </c>
       <c r="K119" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L119" t="s">
         <v>24</v>
@@ -7965,19 +7966,19 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="31" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="B120" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F120" s="31"/>
       <c r="G120" s="46" t="s">
@@ -7993,7 +7994,7 @@
         <v>22</v>
       </c>
       <c r="K120" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L120" t="s">
         <v>24</v>
@@ -8005,19 +8006,19 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="31" t="s">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="B121" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F121" s="31"/>
       <c r="G121" s="46" t="s">
@@ -8033,7 +8034,7 @@
         <v>22</v>
       </c>
       <c r="K121" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L121" t="s">
         <v>24</v>
@@ -8045,19 +8046,19 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="31" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F122" s="31"/>
       <c r="G122" s="46" t="s">
@@ -8073,7 +8074,7 @@
         <v>22</v>
       </c>
       <c r="K122" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L122" t="s">
         <v>24</v>
@@ -8085,19 +8086,19 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="31" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F123" s="31"/>
       <c r="G123" s="46" t="s">
@@ -8113,7 +8114,7 @@
         <v>22</v>
       </c>
       <c r="K123" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L123" t="s">
         <v>24</v>
@@ -8125,19 +8126,19 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="31" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="B124" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F124" s="31"/>
       <c r="G124" s="46" t="s">
@@ -8147,13 +8148,13 @@
         <v>40</v>
       </c>
       <c r="I124" s="31" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J124" s="31" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K124" s="31" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="L124" t="s">
         <v>24</v>
@@ -8165,19 +8166,19 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="31" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="B125" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F125" s="31"/>
       <c r="G125" s="46" t="s">
@@ -8187,37 +8188,39 @@
         <v>40</v>
       </c>
       <c r="I125" s="31" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J125" s="31" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K125" s="31" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="L125" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M125" s="31"/>
       <c r="N125" s="31"/>
       <c r="O125" s="31"/>
-      <c r="P125" s="47"/>
+      <c r="P125" s="47" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="31" t="s">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="B126" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F126" s="31"/>
       <c r="G126" s="46" t="s">
@@ -8227,16 +8230,16 @@
         <v>40</v>
       </c>
       <c r="I126" s="31" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J126" s="31" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K126" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L126" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="L126" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="M126" s="31"/>
       <c r="N126" s="31"/>
@@ -8245,19 +8248,19 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="31" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="B127" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>242</v>
+        <v>64</v>
       </c>
       <c r="F127" s="31"/>
       <c r="G127" s="46" t="s">
@@ -8267,16 +8270,16 @@
         <v>40</v>
       </c>
       <c r="I127" s="31" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J127" s="31" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K127" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L127" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="L127" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="M127" s="31"/>
       <c r="N127" s="31"/>
@@ -8284,136 +8287,149 @@
       <c r="P127" s="47"/>
     </row>
     <row r="128" spans="1:16">
-      <c r="A128" s="31"/>
-      <c r="B128" s="31"/>
+      <c r="A128" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C128" s="31"/>
       <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
+      <c r="E128" s="31" t="s">
+        <v>246</v>
+      </c>
       <c r="F128" s="31"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="31"/>
-      <c r="K128" s="31"/>
+      <c r="G128" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K128" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="L128" s="29" t="s">
+        <v>63</v>
+      </c>
       <c r="M128" s="31"/>
       <c r="N128" s="31"/>
       <c r="O128" s="31"/>
-      <c r="P128" s="47"/>
+      <c r="P128" s="47" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="31" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C129" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D129" s="31" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
       <c r="E129" s="31" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F129" s="31"/>
       <c r="G129" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H129" s="31" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I129" s="31" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J129" s="31" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K129" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="L129" t="s">
-        <v>24</v>
+        <v>122</v>
+      </c>
+      <c r="L129" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="M129" s="31"/>
       <c r="N129" s="31"/>
       <c r="O129" s="31"/>
-      <c r="P129" s="47"/>
+      <c r="P129" s="47" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="31" t="s">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C130" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D130" s="31" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
       <c r="E130" s="31" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F130" s="31"/>
       <c r="G130" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H130" s="31" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I130" s="31" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J130" s="31" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K130" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="L130" t="s">
-        <v>24</v>
+        <v>122</v>
+      </c>
+      <c r="L130" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="M130" s="31"/>
       <c r="N130" s="31"/>
       <c r="O130" s="31"/>
-      <c r="P130" s="47"/>
+      <c r="P130" s="47" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="31" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C131" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D131" s="31" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
       <c r="E131" s="31" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F131" s="31"/>
       <c r="G131" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H131" s="31" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I131" s="31" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J131" s="31" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K131" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="L131" t="s">
-        <v>64</v>
+        <v>122</v>
+      </c>
+      <c r="L131" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="M131" s="31"/>
       <c r="N131" s="31"/>
@@ -8424,395 +8440,236 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="31" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C132" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D132" s="31" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
       <c r="E132" s="31" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F132" s="31"/>
       <c r="G132" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H132" s="31" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I132" s="31" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J132" s="31" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K132" s="31" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="L132" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M132" s="31"/>
       <c r="N132" s="31"/>
       <c r="O132" s="31"/>
-      <c r="P132" s="47"/>
+      <c r="P132" s="47" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="31" t="s">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C133" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D133" s="31" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
       <c r="E133" s="31" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="F133" s="31"/>
       <c r="G133" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H133" s="31" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I133" s="31" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J133" s="31" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K133" s="31" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="L133" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M133" s="31"/>
       <c r="N133" s="31"/>
       <c r="O133" s="31"/>
-      <c r="P133" s="47"/>
+      <c r="P133" s="47" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="134" spans="1:16">
-      <c r="A134" s="31"/>
-      <c r="B134" s="31"/>
+      <c r="A134" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C134" s="31"/>
       <c r="D134" s="31"/>
-      <c r="E134" s="31"/>
+      <c r="E134" s="31" t="s">
+        <v>259</v>
+      </c>
       <c r="F134" s="31"/>
-      <c r="G134" s="31"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="31"/>
-      <c r="J134" s="31"/>
-      <c r="K134" s="31"/>
-      <c r="L134" s="31"/>
+      <c r="G134" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H134" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K134" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="L134" s="29" t="s">
+        <v>63</v>
+      </c>
       <c r="M134" s="31"/>
       <c r="N134" s="31"/>
       <c r="O134" s="31"/>
-      <c r="P134" s="47"/>
+      <c r="P134" s="47" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="135" spans="1:16">
-      <c r="A135" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B135" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C135" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D135" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E135" s="31" t="s">
-        <v>249</v>
-      </c>
+      <c r="A135" s="31"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
       <c r="F135" s="31"/>
-      <c r="G135" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H135" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I135" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J135" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K135" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L135" s="29" t="s">
-        <v>64</v>
-      </c>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="31"/>
+      <c r="J135" s="31"/>
+      <c r="K135" s="31"/>
       <c r="M135" s="31"/>
       <c r="N135" s="31"/>
       <c r="O135" s="31"/>
-      <c r="P135" s="47" t="s">
-        <v>250</v>
-      </c>
+      <c r="P135" s="47"/>
     </row>
     <row r="136" spans="1:16">
-      <c r="A136" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="B136" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C136" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D136" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E136" s="31" t="s">
-        <v>252</v>
-      </c>
+      <c r="A136" s="31"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
       <c r="F136" s="31"/>
-      <c r="G136" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H136" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I136" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J136" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K136" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L136" s="29" t="s">
-        <v>64</v>
-      </c>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
+      <c r="I136" s="31"/>
+      <c r="J136" s="31"/>
+      <c r="K136" s="31"/>
       <c r="M136" s="31"/>
       <c r="N136" s="31"/>
       <c r="O136" s="31"/>
-      <c r="P136" s="47" t="s">
-        <v>250</v>
-      </c>
+      <c r="P136" s="47"/>
     </row>
     <row r="137" spans="1:16">
-      <c r="A137" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="B137" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C137" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D137" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E137" s="31" t="s">
-        <v>254</v>
-      </c>
+      <c r="A137" s="31"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
       <c r="F137" s="31"/>
-      <c r="G137" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H137" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I137" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J137" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K137" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L137" s="29" t="s">
-        <v>64</v>
-      </c>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="31"/>
+      <c r="J137" s="31"/>
+      <c r="K137" s="31"/>
       <c r="M137" s="31"/>
       <c r="N137" s="31"/>
       <c r="O137" s="31"/>
-      <c r="P137" s="47" t="s">
-        <v>250</v>
-      </c>
+      <c r="P137" s="47"/>
     </row>
     <row r="138" spans="1:16">
-      <c r="A138" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B138" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D138" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E138" s="31" t="s">
-        <v>256</v>
-      </c>
+      <c r="A138" s="31"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
       <c r="F138" s="31"/>
-      <c r="G138" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H138" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I138" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J138" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K138" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L138" s="29" t="s">
-        <v>64</v>
-      </c>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="31"/>
+      <c r="J138" s="31"/>
+      <c r="K138" s="31"/>
       <c r="M138" s="31"/>
       <c r="N138" s="31"/>
       <c r="O138" s="31"/>
-      <c r="P138" s="47" t="s">
-        <v>250</v>
-      </c>
+      <c r="P138" s="47"/>
     </row>
     <row r="139" spans="1:16">
-      <c r="A139" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="B139" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C139" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D139" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E139" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="F139" s="31"/>
-      <c r="G139" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H139" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I139" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J139" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K139" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L139" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="M139" s="31"/>
-      <c r="N139" s="31"/>
-      <c r="O139" s="31"/>
-      <c r="P139" s="47" t="s">
-        <v>250</v>
-      </c>
+      <c r="A139" s="48"/>
+      <c r="B139" s="48"/>
+      <c r="C139" s="48"/>
+      <c r="D139" s="48"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="48"/>
+      <c r="G139" s="48"/>
+      <c r="H139" s="48"/>
+      <c r="I139" s="48"/>
+      <c r="J139" s="48"/>
+      <c r="K139" s="48"/>
+      <c r="M139" s="48"/>
+      <c r="N139" s="48"/>
+      <c r="O139" s="48"/>
+      <c r="P139" s="49"/>
     </row>
     <row r="140" spans="1:16">
-      <c r="A140" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="B140" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C140" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D140" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E140" s="31" t="s">
-        <v>260</v>
-      </c>
+      <c r="A140" s="31"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
       <c r="F140" s="31"/>
-      <c r="G140" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H140" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I140" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J140" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K140" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L140" s="29" t="s">
-        <v>64</v>
-      </c>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="I140" s="31"/>
+      <c r="J140" s="31"/>
+      <c r="K140" s="31"/>
       <c r="M140" s="31"/>
       <c r="N140" s="31"/>
       <c r="O140" s="31"/>
-      <c r="P140" s="47" t="s">
-        <v>250</v>
-      </c>
+      <c r="P140" s="49"/>
     </row>
     <row r="141" spans="1:16">
-      <c r="A141" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="B141" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C141" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D141" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E141" s="31" t="s">
-        <v>262</v>
-      </c>
+      <c r="A141" s="31"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
       <c r="F141" s="31"/>
-      <c r="G141" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H141" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I141" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J141" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K141" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L141" s="29" t="s">
-        <v>64</v>
-      </c>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="31"/>
+      <c r="J141" s="31"/>
+      <c r="K141" s="31"/>
       <c r="M141" s="31"/>
       <c r="N141" s="31"/>
       <c r="O141" s="31"/>
-      <c r="P141" s="47" t="s">
-        <v>250</v>
-      </c>
+      <c r="P141" s="49"/>
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="31"/>
@@ -8829,7 +8686,7 @@
       <c r="M142" s="31"/>
       <c r="N142" s="31"/>
       <c r="O142" s="31"/>
-      <c r="P142" s="47"/>
+      <c r="P142" s="49"/>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="31"/>
@@ -8846,7 +8703,7 @@
       <c r="M143" s="31"/>
       <c r="N143" s="31"/>
       <c r="O143" s="31"/>
-      <c r="P143" s="47"/>
+      <c r="P143" s="49"/>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="31"/>
@@ -8863,7 +8720,7 @@
       <c r="M144" s="31"/>
       <c r="N144" s="31"/>
       <c r="O144" s="31"/>
-      <c r="P144" s="47"/>
+      <c r="P144" s="49"/>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="31"/>
@@ -8880,23 +8737,23 @@
       <c r="M145" s="31"/>
       <c r="N145" s="31"/>
       <c r="O145" s="31"/>
-      <c r="P145" s="47"/>
+      <c r="P145" s="49"/>
     </row>
     <row r="146" spans="1:16">
-      <c r="A146" s="48"/>
-      <c r="B146" s="48"/>
-      <c r="C146" s="48"/>
-      <c r="D146" s="48"/>
-      <c r="E146" s="48"/>
-      <c r="F146" s="48"/>
-      <c r="G146" s="48"/>
-      <c r="H146" s="48"/>
-      <c r="I146" s="48"/>
-      <c r="J146" s="48"/>
-      <c r="K146" s="48"/>
-      <c r="M146" s="48"/>
-      <c r="N146" s="48"/>
-      <c r="O146" s="48"/>
+      <c r="A146" s="31"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="31"/>
+      <c r="K146" s="31"/>
+      <c r="M146" s="31"/>
+      <c r="N146" s="31"/>
+      <c r="O146" s="31"/>
       <c r="P146" s="49"/>
     </row>
     <row r="147" spans="1:16">
@@ -8933,127 +8790,8 @@
       <c r="O148" s="31"/>
       <c r="P148" s="49"/>
     </row>
-    <row r="149" spans="1:16">
-      <c r="A149" s="31"/>
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="31"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="31"/>
-      <c r="H149" s="31"/>
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
-      <c r="K149" s="31"/>
-      <c r="M149" s="31"/>
-      <c r="N149" s="31"/>
-      <c r="O149" s="31"/>
-      <c r="P149" s="49"/>
-    </row>
-    <row r="150" spans="1:16">
-      <c r="A150" s="31"/>
-      <c r="B150" s="31"/>
-      <c r="C150" s="31"/>
-      <c r="D150" s="31"/>
-      <c r="E150" s="31"/>
-      <c r="F150" s="31"/>
-      <c r="G150" s="31"/>
-      <c r="H150" s="31"/>
-      <c r="I150" s="31"/>
-      <c r="J150" s="31"/>
-      <c r="K150" s="31"/>
-      <c r="M150" s="31"/>
-      <c r="N150" s="31"/>
-      <c r="O150" s="31"/>
-      <c r="P150" s="49"/>
-    </row>
-    <row r="151" spans="1:16">
-      <c r="A151" s="31"/>
-      <c r="B151" s="31"/>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="31"/>
-      <c r="F151" s="31"/>
-      <c r="G151" s="31"/>
-      <c r="H151" s="31"/>
-      <c r="I151" s="31"/>
-      <c r="J151" s="31"/>
-      <c r="K151" s="31"/>
-      <c r="M151" s="31"/>
-      <c r="N151" s="31"/>
-      <c r="O151" s="31"/>
-      <c r="P151" s="49"/>
-    </row>
-    <row r="152" spans="1:16">
-      <c r="A152" s="31"/>
-      <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="31"/>
-      <c r="F152" s="31"/>
-      <c r="G152" s="31"/>
-      <c r="H152" s="31"/>
-      <c r="I152" s="31"/>
-      <c r="J152" s="31"/>
-      <c r="K152" s="31"/>
-      <c r="M152" s="31"/>
-      <c r="N152" s="31"/>
-      <c r="O152" s="31"/>
-      <c r="P152" s="49"/>
-    </row>
-    <row r="153" spans="1:16">
-      <c r="A153" s="31"/>
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="31"/>
-      <c r="G153" s="31"/>
-      <c r="H153" s="31"/>
-      <c r="I153" s="31"/>
-      <c r="J153" s="31"/>
-      <c r="K153" s="31"/>
-      <c r="M153" s="31"/>
-      <c r="N153" s="31"/>
-      <c r="O153" s="31"/>
-      <c r="P153" s="49"/>
-    </row>
-    <row r="154" spans="1:16">
-      <c r="A154" s="31"/>
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="31"/>
-      <c r="G154" s="31"/>
-      <c r="H154" s="31"/>
-      <c r="I154" s="31"/>
-      <c r="J154" s="31"/>
-      <c r="K154" s="31"/>
-      <c r="M154" s="31"/>
-      <c r="N154" s="31"/>
-      <c r="O154" s="31"/>
-      <c r="P154" s="49"/>
-    </row>
-    <row r="155" spans="1:16">
-      <c r="A155" s="31"/>
-      <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="31"/>
-      <c r="F155" s="31"/>
-      <c r="G155" s="31"/>
-      <c r="H155" s="31"/>
-      <c r="I155" s="31"/>
-      <c r="J155" s="31"/>
-      <c r="K155" s="31"/>
-      <c r="M155" s="31"/>
-      <c r="N155" s="31"/>
-      <c r="O155" s="31"/>
-      <c r="P155" s="49"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:J15 G16 J16 B43 G17:J1048576">
+  <conditionalFormatting sqref="G1:J15 G16 J16 B40 G17:J1048576">
     <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
@@ -9075,7 +8813,7 @@
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L133 L135:L155">
+  <conditionalFormatting sqref="L2:L148">
     <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
@@ -9094,13 +8832,13 @@
           <x14:formula1>
             <xm:f>Configuratie!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L1 L142:L1048576 L95:L131</xm:sqref>
+          <xm:sqref>L1 L135:L1048576 L91:L125</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A99B45A-3469-41B9-95C3-9470E9A47E8F}">
           <x14:formula1>
             <xm:f>Configuratie!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L135:L141 L2:L94 L132:L133</xm:sqref>
+          <xm:sqref>L128:L134 L126:L127 L2:L90</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2067B2B-AAB7-4BB4-AB95-6ECCB20F9551}">
           <x14:formula1>
@@ -9185,7 +8923,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M1" s="26" t="s">
         <v>11</v>
@@ -9658,10 +9396,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -9670,7 +9408,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9678,16 +9416,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9695,16 +9433,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9712,16 +9450,16 @@
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9729,16 +9467,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9746,7 +9484,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>18</v>
@@ -9763,7 +9501,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
@@ -9780,16 +9518,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9797,16 +9535,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9814,16 +9552,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9831,16 +9569,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9848,16 +9586,16 @@
         <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9865,16 +9603,16 @@
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9882,16 +9620,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9899,7 +9637,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>43</v>
@@ -9916,16 +9654,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9933,16 +9671,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9950,16 +9688,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9967,16 +9705,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9984,16 +9722,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10001,16 +9739,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>278</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10018,16 +9756,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10035,16 +9773,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10052,16 +9790,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10069,16 +9807,16 @@
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10086,16 +9824,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10103,16 +9841,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10120,16 +9858,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -10137,16 +9875,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -10170,17 +9908,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -10190,7 +9928,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:1">

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim.sharepoint.com/sites/O365-OntwikkelgroepHoofdfase/Gedeelde documenten/General/Ontwikkelgroep SE/01. Besluiten, planningen, actiepunten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D1CEC8E-3EDC-4209-A168-5A65D640485E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2322A32-A942-4DE5-AF92-6C32A018EE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="288">
   <si>
     <t>TC-1</t>
   </si>
@@ -293,583 +293,613 @@
     <t>Jasper &amp; Jorrick &amp; Martijn</t>
   </si>
   <si>
+    <t>Activiteitendiagram</t>
+  </si>
+  <si>
+    <t>ta-6</t>
+  </si>
+  <si>
+    <t>Testproces</t>
+  </si>
+  <si>
+    <t>Adviseren testproces</t>
+  </si>
+  <si>
+    <t>Adviseren-teststrategie</t>
+  </si>
+  <si>
+    <t>tu-4</t>
+  </si>
+  <si>
+    <t>Uitvoeren test</t>
+  </si>
+  <si>
+    <t>Functioneel-Testen</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Ties</t>
+  </si>
+  <si>
+    <t>rs-10</t>
+  </si>
+  <si>
+    <t>Requirementsanalyseproces</t>
+  </si>
+  <si>
+    <t>Specifieren requirements</t>
+  </si>
+  <si>
+    <t>Use-Case-Diagram</t>
+  </si>
+  <si>
+    <t>bm-22</t>
+  </si>
+  <si>
+    <t>Managen ontwikkelproces</t>
+  </si>
+  <si>
+    <t>Product-Backlog</t>
+  </si>
+  <si>
+    <t>Ernst</t>
+  </si>
+  <si>
+    <t>ra-9</t>
+  </si>
+  <si>
+    <t>Analyseren requirements</t>
+  </si>
+  <si>
+    <t>Domein-Analyse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorrick </t>
+  </si>
+  <si>
+    <t>Multidimensionale-Arrays</t>
+  </si>
+  <si>
+    <t>Scrum-Framework</t>
+  </si>
+  <si>
+    <t>Jasper &amp; Jorrick</t>
+  </si>
+  <si>
+    <t>Scrum-Commitment</t>
+  </si>
+  <si>
+    <t>Scrum-Events</t>
+  </si>
+  <si>
+    <t>Scrum-Pilars</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Scrum-Artifacts</t>
+  </si>
+  <si>
+    <t>Scrum-Refinement</t>
+  </si>
+  <si>
+    <t>Scrum-Sprint-Planning</t>
+  </si>
+  <si>
+    <t>Scrum-Sprint-Review</t>
+  </si>
+  <si>
+    <t>Scrum-Retrospective</t>
+  </si>
+  <si>
+    <t>Scrum-Accountabilities</t>
+  </si>
+  <si>
+    <t>Gebruikerstesten</t>
+  </si>
+  <si>
+    <t>Testrapportage</t>
+  </si>
+  <si>
+    <t>Vrijgaveadvies</t>
+  </si>
+  <si>
+    <t>Toestandsdiagram</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Access-modifiers</t>
+  </si>
+  <si>
+    <t>Ties &amp; Martijn</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Les1</t>
+  </si>
+  <si>
+    <t>WEEK2</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Bas &amp; Jorrick</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Ties</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Uint</t>
+  </si>
+  <si>
+    <t>ULong</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Ties &amp; Maarten</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Les2</t>
+  </si>
+  <si>
+    <t>Constructors</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Maarten, Martijn</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Enums</t>
+  </si>
+  <si>
+    <t>Inheritance-AbstractClasses</t>
+  </si>
+  <si>
+    <t>Les3</t>
+  </si>
+  <si>
+    <t>WEEK3</t>
+  </si>
+  <si>
+    <t>Polymorfisme-Interfaces</t>
+  </si>
+  <si>
+    <t>Generic-Type</t>
+  </si>
+  <si>
+    <t>Generic-Methods</t>
+  </si>
+  <si>
+    <t>Unit-Testing</t>
+  </si>
+  <si>
+    <t>Les4</t>
+  </si>
+  <si>
+    <t>Mocking</t>
+  </si>
+  <si>
+    <t>Jorrick, Teun</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>Les5</t>
+  </si>
+  <si>
+    <t>WEEK4</t>
+  </si>
+  <si>
+    <t>X,2,X</t>
+  </si>
+  <si>
+    <t>MAUI</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Les6</t>
+  </si>
+  <si>
+    <t>Events-Delegates</t>
+  </si>
+  <si>
+    <t>Les7</t>
+  </si>
+  <si>
+    <t>WEEK5</t>
+  </si>
+  <si>
+    <t>Code-review</t>
+  </si>
+  <si>
+    <t>Les8</t>
+  </si>
+  <si>
+    <t>LINQ-query-syntax</t>
+  </si>
+  <si>
+    <t>Les10</t>
+  </si>
+  <si>
+    <t>Week6</t>
+  </si>
+  <si>
+    <t>Anonymous-object</t>
+  </si>
+  <si>
+    <t>LINQ-method-syntax</t>
+  </si>
+  <si>
+    <t>Let-en-anonieme-typen</t>
+  </si>
+  <si>
+    <t>Lambda-expressies</t>
+  </si>
+  <si>
+    <t>Les11</t>
+  </si>
+  <si>
+    <t>Week7</t>
+  </si>
+  <si>
+    <t>Pipeline-testen</t>
+  </si>
+  <si>
+    <t>Branching-Strategieën</t>
+  </si>
+  <si>
+    <t>to-1</t>
+  </si>
+  <si>
+    <t>Opstellen teststrategie</t>
+  </si>
+  <si>
+    <t>Gebruiken-teststrategie</t>
+  </si>
+  <si>
+    <t>Ontwikkelen-teststrategie</t>
+  </si>
+  <si>
+    <t>to-2</t>
+  </si>
+  <si>
+    <t>Opstellen testontwerp</t>
+  </si>
+  <si>
+    <t>Testscenarios</t>
+  </si>
+  <si>
+    <t>to-3</t>
+  </si>
+  <si>
+    <t>Opstellen test</t>
+  </si>
+  <si>
+    <t>Opstellen-schriftelijke-testcase</t>
+  </si>
+  <si>
+    <t>Verzamelen-testcases</t>
+  </si>
+  <si>
+    <t>Selecteren-testsoort</t>
+  </si>
+  <si>
+    <t>Uitvoeren-handmatige-test</t>
+  </si>
+  <si>
+    <t>te-5</t>
+  </si>
+  <si>
+    <t>Evalueren test</t>
+  </si>
+  <si>
+    <t>Evalueren-testresultaat</t>
+  </si>
+  <si>
+    <t>Toepassen-taalconcepten</t>
+  </si>
+  <si>
+    <t>Structureren-project</t>
+  </si>
+  <si>
+    <t>Structureren-code</t>
+  </si>
+  <si>
+    <t>ir-20</t>
+  </si>
+  <si>
+    <t>Refactoren applicatie</t>
+  </si>
+  <si>
+    <t>Refactoren-applicatie</t>
+  </si>
+  <si>
+    <t>Beredeneren bouwkeuzes</t>
+  </si>
+  <si>
+    <t>Beredeneren-bouwkeuzes</t>
+  </si>
+  <si>
+    <t>Oplossen-fouten</t>
+  </si>
+  <si>
+    <t>Peerreviewen-code</t>
+  </si>
+  <si>
+    <t>Iterfatief-verfijnen-ontwerp</t>
+  </si>
+  <si>
+    <t>Toepassen-modelleertechnieken</t>
+  </si>
+  <si>
+    <t>Uitleg-werking-systeem</t>
+  </si>
+  <si>
+    <t>Freek</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>ov-16</t>
+  </si>
+  <si>
+    <t>Vaststellen kwaliteit</t>
+  </si>
+  <si>
+    <t>Controle-communiceerbaarheid-ontwerp</t>
+  </si>
+  <si>
+    <t>Controle-toepassing-ontwerptechnieken</t>
+  </si>
+  <si>
+    <t>Controle-aansluiting-requirements</t>
+  </si>
+  <si>
+    <t>oa-17</t>
+  </si>
+  <si>
+    <t>Adviseren architectuur</t>
+  </si>
+  <si>
+    <t>Presenteren-aanbevelingen</t>
+  </si>
+  <si>
+    <t>Ondersteunen-bij-ontwerpkeuzes</t>
+  </si>
+  <si>
+    <t>rd-7</t>
+  </si>
+  <si>
+    <t>Definiëren probleemdomein</t>
+  </si>
+  <si>
+    <t>Definiëren-probleemdomein</t>
+  </si>
+  <si>
+    <t>rv-8</t>
+  </si>
+  <si>
+    <t>Verzamelen requirements</t>
+  </si>
+  <si>
+    <t>Beschrijven-stakeholders</t>
+  </si>
+  <si>
+    <t>Uitvragen-requirements</t>
+  </si>
+  <si>
+    <t>Detecteren-gebreken-in-requirements</t>
+  </si>
+  <si>
+    <t>Prioriteren-requirements</t>
+  </si>
+  <si>
+    <t>Bepalen-haalbaarheid-requirements</t>
+  </si>
+  <si>
+    <t>Specificeren-requirements</t>
+  </si>
+  <si>
+    <t>rv-11</t>
+  </si>
+  <si>
+    <t>Valideren requirements</t>
+  </si>
+  <si>
+    <t>Valideren-requirements</t>
+  </si>
+  <si>
+    <t>rb-12</t>
+  </si>
+  <si>
+    <t>Beheren requirements</t>
+  </si>
+  <si>
+    <t>Beheren-van-requirements</t>
+  </si>
+  <si>
+    <t>Talstelsels</t>
+  </si>
+  <si>
+    <t>Getal-bewerkingen</t>
+  </si>
+  <si>
+    <t>Eltjo</t>
+  </si>
+  <si>
+    <t>Verzamelingen</t>
+  </si>
+  <si>
+    <t>Logica</t>
+  </si>
+  <si>
+    <t>Docker-framework</t>
+  </si>
+  <si>
+    <t>Docker-images</t>
+  </si>
+  <si>
+    <t>Docker-containers</t>
+  </si>
+  <si>
+    <t>Docker-dockerfile</t>
+  </si>
+  <si>
+    <t>Docker-compose</t>
+  </si>
+  <si>
+    <t>Docker-volumes</t>
+  </si>
+  <si>
+    <t>Docker-environment</t>
+  </si>
+  <si>
+    <t>Docker-desktop</t>
+  </si>
+  <si>
+    <t>C4-model-niveau-1</t>
+  </si>
+  <si>
+    <t>C4-model-niveau-2</t>
+  </si>
+  <si>
+    <t>C4-model-niveau-3</t>
+  </si>
+  <si>
+    <t>C4-model-niveau-4</t>
+  </si>
+  <si>
+    <t>SSDLC-requirement-fase</t>
+  </si>
+  <si>
+    <t>Teun &amp; Ernst</t>
+  </si>
+  <si>
+    <t>SSDLC-design-fase</t>
+  </si>
+  <si>
+    <t>SSDLC-development-fase</t>
+  </si>
+  <si>
+    <t>SSDLC-testing-fase</t>
+  </si>
+  <si>
+    <t>SSDLC-deployment-fase</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>SSDLC</t>
+  </si>
+  <si>
+    <t>Taxonomiecode-deel-1</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Uitvoeren configuratie-, change- en releasemangement</t>
+  </si>
+  <si>
+    <t>bu-27</t>
+  </si>
+  <si>
+    <t>Evalueren ontwikkelstraat</t>
+  </si>
+  <si>
+    <t>be-26</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>ib-21</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Pakketselectieproces</t>
+  </si>
+  <si>
+    <t>Adviseren onderdeelselectie</t>
+  </si>
+  <si>
+    <t>pa-14</t>
+  </si>
+  <si>
+    <t>Uitvoeren analyse</t>
+  </si>
+  <si>
+    <t>pu-13</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Overkoepelend</t>
+  </si>
+  <si>
+    <t>Status opties</t>
+  </si>
+  <si>
     <t>In pull request</t>
-  </si>
-  <si>
-    <t>Activiteitendiagram</t>
-  </si>
-  <si>
-    <t>ta-6</t>
-  </si>
-  <si>
-    <t>Testproces</t>
-  </si>
-  <si>
-    <t>Adviseren testproces</t>
-  </si>
-  <si>
-    <t>Adviseren-teststrategie</t>
-  </si>
-  <si>
-    <t>tu-4</t>
-  </si>
-  <si>
-    <t>Uitvoeren test</t>
-  </si>
-  <si>
-    <t>Functioneel-Testen</t>
-  </si>
-  <si>
-    <t>Ernst &amp; Ties</t>
-  </si>
-  <si>
-    <t>rs-10</t>
-  </si>
-  <si>
-    <t>Requirementsanalyseproces</t>
-  </si>
-  <si>
-    <t>Specifieren requirements</t>
-  </si>
-  <si>
-    <t>Use-Case-Diagram</t>
-  </si>
-  <si>
-    <t>bm-22</t>
-  </si>
-  <si>
-    <t>Managen ontwikkelproces</t>
-  </si>
-  <si>
-    <t>Product-Backlog</t>
-  </si>
-  <si>
-    <t>Ernst</t>
-  </si>
-  <si>
-    <t>ra-9</t>
-  </si>
-  <si>
-    <t>Analyseren requirements</t>
-  </si>
-  <si>
-    <t>Domein-Analyse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorrick </t>
-  </si>
-  <si>
-    <t>Multidimensionale-Arrays</t>
-  </si>
-  <si>
-    <t>Scrum-Framework</t>
-  </si>
-  <si>
-    <t>Jasper &amp; Jorrick</t>
-  </si>
-  <si>
-    <t>Scrum-Commitment</t>
-  </si>
-  <si>
-    <t>Scrum-Events</t>
-  </si>
-  <si>
-    <t>Scrum-Pilars</t>
-  </si>
-  <si>
-    <t>Jasper</t>
-  </si>
-  <si>
-    <t>Scrum-Artifacts</t>
-  </si>
-  <si>
-    <t>Scrum-Refinement</t>
-  </si>
-  <si>
-    <t>Scrum-Sprint-Planning</t>
-  </si>
-  <si>
-    <t>Scrum-Sprint-Review</t>
-  </si>
-  <si>
-    <t>Scrum-Retrospective</t>
-  </si>
-  <si>
-    <t>Scrum-Accountabilities</t>
-  </si>
-  <si>
-    <t>Gebruikerstesten</t>
-  </si>
-  <si>
-    <t>Testrapportage</t>
-  </si>
-  <si>
-    <t>Vrijgaveadvies</t>
-  </si>
-  <si>
-    <t>Toestandsdiagram</t>
-  </si>
-  <si>
-    <t>Break</t>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
-    <t>Continue</t>
-  </si>
-  <si>
-    <t>Access-modifiers</t>
-  </si>
-  <si>
-    <t>Ties &amp; Martijn</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>Les1</t>
-  </si>
-  <si>
-    <t>WEEK2</t>
-  </si>
-  <si>
-    <t>Float</t>
-  </si>
-  <si>
-    <t>Bas &amp; Jorrick</t>
-  </si>
-  <si>
-    <t>Double</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Ties</t>
-  </si>
-  <si>
-    <t>Char</t>
-  </si>
-  <si>
-    <t>Byte</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Uint</t>
-  </si>
-  <si>
-    <t>ULong</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Ties &amp; Maarten</t>
-  </si>
-  <si>
-    <t>Types</t>
-  </si>
-  <si>
-    <t>Arrays</t>
-  </si>
-  <si>
-    <t>Classes</t>
-  </si>
-  <si>
-    <t>Les2</t>
-  </si>
-  <si>
-    <t>Constructors</t>
-  </si>
-  <si>
-    <t>Properties</t>
-  </si>
-  <si>
-    <t>Maarten, Martijn</t>
-  </si>
-  <si>
-    <t>Methods</t>
-  </si>
-  <si>
-    <t>Enums</t>
-  </si>
-  <si>
-    <t>Inheritance-AbstractClasses</t>
-  </si>
-  <si>
-    <t>Les3</t>
-  </si>
-  <si>
-    <t>WEEK3</t>
-  </si>
-  <si>
-    <t>Polymorfisme-Interfaces</t>
-  </si>
-  <si>
-    <t>Generic-Type</t>
-  </si>
-  <si>
-    <t>Generic-Methods</t>
-  </si>
-  <si>
-    <t>Unit-Testing</t>
-  </si>
-  <si>
-    <t>Les4</t>
-  </si>
-  <si>
-    <t>Mocking</t>
-  </si>
-  <si>
-    <t>Jorrick, Teun</t>
-  </si>
-  <si>
-    <t>Exceptions</t>
-  </si>
-  <si>
-    <t>Les5</t>
-  </si>
-  <si>
-    <t>WEEK4</t>
-  </si>
-  <si>
-    <t>X,2,X</t>
-  </si>
-  <si>
-    <t>MAUI</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Les6</t>
-  </si>
-  <si>
-    <t>Events-Delegates</t>
-  </si>
-  <si>
-    <t>Les7</t>
-  </si>
-  <si>
-    <t>WEEK5</t>
-  </si>
-  <si>
-    <t>Code-review</t>
-  </si>
-  <si>
-    <t>Les8</t>
-  </si>
-  <si>
-    <t>LINQ-query-syntax</t>
-  </si>
-  <si>
-    <t>Les10</t>
-  </si>
-  <si>
-    <t>Week6</t>
-  </si>
-  <si>
-    <t>Anonymous-object</t>
-  </si>
-  <si>
-    <t>LINQ-method-syntax</t>
-  </si>
-  <si>
-    <t>Let-en-anonieme-typen</t>
-  </si>
-  <si>
-    <t>Lambda-expressies</t>
-  </si>
-  <si>
-    <t>Les11</t>
-  </si>
-  <si>
-    <t>Week7</t>
-  </si>
-  <si>
-    <t>Pipeline-testen</t>
-  </si>
-  <si>
-    <t>Branching-Strategieën</t>
-  </si>
-  <si>
-    <t>to-1</t>
-  </si>
-  <si>
-    <t>Opstellen teststrategie</t>
-  </si>
-  <si>
-    <t>Gebruiken-teststrategie</t>
-  </si>
-  <si>
-    <t>Ontwikkelen-teststrategie</t>
-  </si>
-  <si>
-    <t>to-2</t>
-  </si>
-  <si>
-    <t>Opstellen testontwerp</t>
-  </si>
-  <si>
-    <t>Testscenarios</t>
-  </si>
-  <si>
-    <t>to-3</t>
-  </si>
-  <si>
-    <t>Opstellen test</t>
-  </si>
-  <si>
-    <t>Opstellen-schriftelijke-testcase</t>
-  </si>
-  <si>
-    <t>Verzamelen-testcases</t>
-  </si>
-  <si>
-    <t>Selecteren-testsoort</t>
-  </si>
-  <si>
-    <t>Uitvoeren-handmatige-test</t>
-  </si>
-  <si>
-    <t>te-5</t>
-  </si>
-  <si>
-    <t>Evalueren test</t>
-  </si>
-  <si>
-    <t>Evalueren-testresultaat</t>
-  </si>
-  <si>
-    <t>Toepassen-taalconcepten</t>
-  </si>
-  <si>
-    <t>Structureren-project</t>
-  </si>
-  <si>
-    <t>Structureren-code</t>
-  </si>
-  <si>
-    <t>ir-20</t>
-  </si>
-  <si>
-    <t>Refactoren applicatie</t>
-  </si>
-  <si>
-    <t>Refactoren-applicatie</t>
-  </si>
-  <si>
-    <t>Beredeneren bouwkeuzes</t>
-  </si>
-  <si>
-    <t>Beredeneren-bouwkeuzes</t>
-  </si>
-  <si>
-    <t>Oplossen-fouten</t>
-  </si>
-  <si>
-    <t>Peerreviewen-code</t>
-  </si>
-  <si>
-    <t>Iterfatief-verfijnen-ontwerp</t>
-  </si>
-  <si>
-    <t>Toepassen-modelleertechnieken</t>
-  </si>
-  <si>
-    <t>Uitleg-werking-systeem</t>
-  </si>
-  <si>
-    <t>Freek</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>ov-16</t>
-  </si>
-  <si>
-    <t>Vaststellen kwaliteit</t>
-  </si>
-  <si>
-    <t>Controle-communiceerbaarheid-ontwerp</t>
-  </si>
-  <si>
-    <t>Controle-toepassing-ontwerptechnieken</t>
-  </si>
-  <si>
-    <t>Controle-aansluiting-requirements</t>
-  </si>
-  <si>
-    <t>oa-17</t>
-  </si>
-  <si>
-    <t>Adviseren architectuur</t>
-  </si>
-  <si>
-    <t>Presenteren-aanbevelingen</t>
-  </si>
-  <si>
-    <t>Ondersteunen-bij-ontwerpkeuzes</t>
-  </si>
-  <si>
-    <t>rd-7</t>
-  </si>
-  <si>
-    <t>Definiëren probleemdomein</t>
-  </si>
-  <si>
-    <t>Definiëren-probleemdomein</t>
-  </si>
-  <si>
-    <t>rv-8</t>
-  </si>
-  <si>
-    <t>Verzamelen requirements</t>
-  </si>
-  <si>
-    <t>Beschrijven-stakeholders</t>
-  </si>
-  <si>
-    <t>Uitvragen-requirements</t>
-  </si>
-  <si>
-    <t>Detecteren-gebreken-in-requirements</t>
-  </si>
-  <si>
-    <t>Prioriteren-requirements</t>
-  </si>
-  <si>
-    <t>Bepalen-haalbaarheid-requirements</t>
-  </si>
-  <si>
-    <t>Specificeren-requirements</t>
-  </si>
-  <si>
-    <t>rv-11</t>
-  </si>
-  <si>
-    <t>Valideren requirements</t>
-  </si>
-  <si>
-    <t>Valideren-requirements</t>
-  </si>
-  <si>
-    <t>rb-12</t>
-  </si>
-  <si>
-    <t>Beheren requirements</t>
-  </si>
-  <si>
-    <t>Beheren-van-requirements</t>
-  </si>
-  <si>
-    <t>Talstelsels</t>
-  </si>
-  <si>
-    <t>Getal-bewerkingen</t>
-  </si>
-  <si>
-    <t>Eltjo</t>
-  </si>
-  <si>
-    <t>Verzamelingen</t>
-  </si>
-  <si>
-    <t>Logica</t>
-  </si>
-  <si>
-    <t>Docker-framework</t>
-  </si>
-  <si>
-    <t>Docker-images</t>
-  </si>
-  <si>
-    <t>Docker-containers</t>
-  </si>
-  <si>
-    <t>Docker-dockerfile</t>
-  </si>
-  <si>
-    <t>Docker-compose</t>
-  </si>
-  <si>
-    <t>Docker-volumes</t>
-  </si>
-  <si>
-    <t>Docker-environment</t>
-  </si>
-  <si>
-    <t>Docker-desktop</t>
-  </si>
-  <si>
-    <t>Reviewer</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>SSDLC</t>
-  </si>
-  <si>
-    <t>Taxonomiecode-deel-1</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>Uitvoeren configuratie-, change- en releasemangement</t>
-  </si>
-  <si>
-    <t>bu-27</t>
-  </si>
-  <si>
-    <t>Evalueren ontwikkelstraat</t>
-  </si>
-  <si>
-    <t>be-26</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>ib-21</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Pakketselectieproces</t>
-  </si>
-  <si>
-    <t>Adviseren onderdeelselectie</t>
-  </si>
-  <si>
-    <t>pa-14</t>
-  </si>
-  <si>
-    <t>Uitvoeren analyse</t>
-  </si>
-  <si>
-    <t>pu-13</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Overkoepelend</t>
-  </si>
-  <si>
-    <t>Status opties</t>
   </si>
   <si>
     <t>Doorgevoerd, todo</t>
@@ -3022,8 +3052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8AE46-0301-40E0-97E1-E2E70FD5D32D}">
   <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K147" sqref="K147:K152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4526,7 +4556,7 @@
         <v>83</v>
       </c>
       <c r="L37" s="34" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M37" s="31"/>
       <c r="N37" s="31"/>
@@ -4547,7 +4577,7 @@
         <v>70</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="44" t="s">
@@ -4575,19 +4605,19 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="E39" s="31" t="s">
         <v>88</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>89</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="44" t="s">
@@ -4613,7 +4643,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>17</v>
@@ -4622,10 +4652,10 @@
         <v>18</v>
       </c>
       <c r="D40" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="31" t="s">
         <v>91</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>92</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="44" t="s">
@@ -4641,7 +4671,7 @@
         <v>22</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L40" s="33" t="s">
         <v>24</v>
@@ -4653,19 +4683,19 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="31" t="s">
+      <c r="D41" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="E41" s="31" t="s">
         <v>96</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>97</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="44" t="s">
@@ -4705,7 +4735,7 @@
         <v>70</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="44" t="s">
@@ -4733,7 +4763,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>17</v>
@@ -4742,10 +4772,10 @@
         <v>18</v>
       </c>
       <c r="D43" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="31" t="s">
         <v>99</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>100</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="44" t="s">
@@ -4761,7 +4791,7 @@
         <v>22</v>
       </c>
       <c r="K43" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L43" s="34" t="s">
         <v>24</v>
@@ -4773,19 +4803,19 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="31" t="s">
+      <c r="E44" s="31" t="s">
         <v>103</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>104</v>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="44" t="s">
@@ -4801,7 +4831,7 @@
         <v>22</v>
       </c>
       <c r="K44" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L44" s="34" t="s">
         <v>24</v>
@@ -4825,7 +4855,7 @@
         <v>43</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="44" t="s">
@@ -4853,7 +4883,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>17</v>
@@ -4862,10 +4892,10 @@
         <v>18</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="44" t="s">
@@ -4881,7 +4911,7 @@
         <v>22</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L46" s="37" t="s">
         <v>24</v>
@@ -4893,7 +4923,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>17</v>
@@ -4902,10 +4932,10 @@
         <v>18</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="44" t="s">
@@ -4921,7 +4951,7 @@
         <v>22</v>
       </c>
       <c r="K47" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L47" s="37" t="s">
         <v>24</v>
@@ -4933,7 +4963,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>17</v>
@@ -4942,10 +4972,10 @@
         <v>18</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="44" t="s">
@@ -4961,7 +4991,7 @@
         <v>22</v>
       </c>
       <c r="K48" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L48" s="37" t="s">
         <v>24</v>
@@ -4973,7 +5003,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>17</v>
@@ -4982,10 +5012,10 @@
         <v>18</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="44" t="s">
@@ -5001,7 +5031,7 @@
         <v>22</v>
       </c>
       <c r="K49" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L49" s="37" t="s">
         <v>24</v>
@@ -5013,7 +5043,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>17</v>
@@ -5022,10 +5052,10 @@
         <v>18</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="44" t="s">
@@ -5041,7 +5071,7 @@
         <v>22</v>
       </c>
       <c r="K50" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L50" s="37" t="s">
         <v>24</v>
@@ -5053,7 +5083,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>17</v>
@@ -5062,10 +5092,10 @@
         <v>18</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="44" t="s">
@@ -5081,7 +5111,7 @@
         <v>22</v>
       </c>
       <c r="K51" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L51" s="37" t="s">
         <v>24</v>
@@ -5093,7 +5123,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>17</v>
@@ -5102,10 +5132,10 @@
         <v>18</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="44" t="s">
@@ -5121,7 +5151,7 @@
         <v>22</v>
       </c>
       <c r="K52" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L52" s="37" t="s">
         <v>24</v>
@@ -5133,7 +5163,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>17</v>
@@ -5142,10 +5172,10 @@
         <v>18</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="44" t="s">
@@ -5161,7 +5191,7 @@
         <v>22</v>
       </c>
       <c r="K53" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L53" s="37" t="s">
         <v>24</v>
@@ -5173,7 +5203,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>17</v>
@@ -5182,10 +5212,10 @@
         <v>18</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="44" t="s">
@@ -5201,7 +5231,7 @@
         <v>22</v>
       </c>
       <c r="K54" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L54" s="37" t="s">
         <v>24</v>
@@ -5213,7 +5243,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>17</v>
@@ -5222,10 +5252,10 @@
         <v>18</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="44" t="s">
@@ -5241,7 +5271,7 @@
         <v>22</v>
       </c>
       <c r="K55" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L55" s="37" t="s">
         <v>24</v>
@@ -5265,7 +5295,7 @@
         <v>77</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="44" t="s">
@@ -5291,19 +5321,19 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C57" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D57" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="E57" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="44" t="s">
@@ -5329,19 +5359,19 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C58" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="E58" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="44" t="s">
@@ -5379,7 +5409,7 @@
         <v>70</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="44" t="s">
@@ -5419,7 +5449,7 @@
         <v>43</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F60" s="31"/>
       <c r="G60" s="44" t="s">
@@ -5441,7 +5471,7 @@
       <c r="M60" s="31"/>
       <c r="N60" s="31"/>
       <c r="O60" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P60" s="45"/>
     </row>
@@ -5459,7 +5489,7 @@
         <v>43</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F61" s="31"/>
       <c r="G61" s="44" t="s">
@@ -5481,7 +5511,7 @@
       <c r="M61" s="31"/>
       <c r="N61" s="31"/>
       <c r="O61" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P61" s="45"/>
     </row>
@@ -5499,7 +5529,7 @@
         <v>43</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F62" s="31"/>
       <c r="G62" s="44" t="s">
@@ -5515,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="K62" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L62" s="29" t="s">
         <v>24</v>
@@ -5523,7 +5553,7 @@
       <c r="M62" s="31"/>
       <c r="N62" s="31"/>
       <c r="O62" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P62" s="45"/>
     </row>
@@ -5541,7 +5571,7 @@
         <v>43</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F63" s="31"/>
       <c r="G63" s="44" t="s">
@@ -5557,19 +5587,19 @@
         <v>17</v>
       </c>
       <c r="K63" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L63" s="30" t="s">
         <v>24</v>
       </c>
       <c r="M63" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N63" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N63" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="O63" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P63" s="45"/>
     </row>
@@ -5587,7 +5617,7 @@
         <v>43</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="44" t="s">
@@ -5603,19 +5633,19 @@
         <v>17</v>
       </c>
       <c r="K64" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L64" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M64" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N64" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N64" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="O64" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P64" s="45"/>
     </row>
@@ -5633,7 +5663,7 @@
         <v>43</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="44" t="s">
@@ -5655,13 +5685,13 @@
         <v>24</v>
       </c>
       <c r="M65" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N65" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N65" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="O65" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P65" s="45"/>
     </row>
@@ -5679,7 +5709,7 @@
         <v>43</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="44" t="s">
@@ -5695,19 +5725,19 @@
         <v>17</v>
       </c>
       <c r="K66" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L66" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M66" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N66" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N66" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="O66" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P66" s="45"/>
     </row>
@@ -5725,7 +5755,7 @@
         <v>43</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="44" t="s">
@@ -5741,19 +5771,19 @@
         <v>17</v>
       </c>
       <c r="K67" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L67" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M67" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N67" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N67" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="O67" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P67" s="45"/>
     </row>
@@ -5771,7 +5801,7 @@
         <v>43</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="44" t="s">
@@ -5793,13 +5823,13 @@
         <v>24</v>
       </c>
       <c r="M68" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N68" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N68" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="O68" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P68" s="45"/>
     </row>
@@ -5817,7 +5847,7 @@
         <v>43</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="44" t="s">
@@ -5833,19 +5863,19 @@
         <v>17</v>
       </c>
       <c r="K69" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L69" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M69" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N69" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N69" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="O69" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P69" s="45"/>
     </row>
@@ -5863,7 +5893,7 @@
         <v>43</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="44" t="s">
@@ -5879,19 +5909,19 @@
         <v>17</v>
       </c>
       <c r="K70" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L70" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M70" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N70" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N70" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="O70" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P70" s="45"/>
     </row>
@@ -5909,7 +5939,7 @@
         <v>43</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="44" t="s">
@@ -5925,19 +5955,19 @@
         <v>17</v>
       </c>
       <c r="K71" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L71" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M71" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N71" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N71" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="O71" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P71" s="45"/>
     </row>
@@ -5955,7 +5985,7 @@
         <v>43</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="44" t="s">
@@ -5971,19 +6001,19 @@
         <v>17</v>
       </c>
       <c r="K72" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L72" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M72" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N72" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N72" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="O72" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P72" s="45"/>
     </row>
@@ -6001,7 +6031,7 @@
         <v>43</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F73" s="31"/>
       <c r="G73" s="44" t="s">
@@ -6017,7 +6047,7 @@
         <v>17</v>
       </c>
       <c r="K73" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L73" s="30" t="s">
         <v>24</v>
@@ -6025,7 +6055,7 @@
       <c r="M73" s="31"/>
       <c r="N73" s="31"/>
       <c r="O73" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P73" s="45"/>
     </row>
@@ -6043,7 +6073,7 @@
         <v>43</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="44" t="s">
@@ -6065,13 +6095,13 @@
         <v>24</v>
       </c>
       <c r="M74" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N74" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N74" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="O74" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P74" s="45"/>
     </row>
@@ -6089,7 +6119,7 @@
         <v>43</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F75" s="31" t="s">
         <v>21</v>
@@ -6107,19 +6137,19 @@
         <v>17</v>
       </c>
       <c r="K75" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L75" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M75" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N75" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O75" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P75" s="45"/>
     </row>
@@ -6137,7 +6167,7 @@
         <v>43</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F76" s="31" t="s">
         <v>21</v>
@@ -6161,13 +6191,13 @@
         <v>24</v>
       </c>
       <c r="M76" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N76" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O76" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P76" s="45"/>
     </row>
@@ -6185,7 +6215,7 @@
         <v>43</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F77" s="31" t="s">
         <v>21</v>
@@ -6203,19 +6233,19 @@
         <v>17</v>
       </c>
       <c r="K77" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L77" s="49" t="s">
         <v>24</v>
       </c>
       <c r="M77" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N77" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O77" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P77" s="45"/>
     </row>
@@ -6233,7 +6263,7 @@
         <v>43</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F78" s="31" t="s">
         <v>21</v>
@@ -6257,13 +6287,13 @@
         <v>24</v>
       </c>
       <c r="M78" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N78" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O78" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P78" s="45"/>
     </row>
@@ -6281,7 +6311,7 @@
         <v>43</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F79" s="31" t="s">
         <v>21</v>
@@ -6307,7 +6337,7 @@
       <c r="M79" s="31"/>
       <c r="N79" s="31"/>
       <c r="O79" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P79" s="45"/>
     </row>
@@ -6325,7 +6355,7 @@
         <v>43</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F80" s="31" t="s">
         <v>21</v>
@@ -6349,13 +6379,13 @@
         <v>24</v>
       </c>
       <c r="M80" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N80" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O80" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P80" s="45"/>
     </row>
@@ -6373,7 +6403,7 @@
         <v>43</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F81" s="31" t="s">
         <v>21</v>
@@ -6391,19 +6421,19 @@
         <v>17</v>
       </c>
       <c r="K81" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L81" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M81" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="N81" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="N81" s="31" t="s">
-        <v>154</v>
-      </c>
       <c r="O81" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P81" s="45"/>
     </row>
@@ -6421,7 +6451,7 @@
         <v>43</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F82" s="31" t="s">
         <v>21</v>
@@ -6439,19 +6469,19 @@
         <v>17</v>
       </c>
       <c r="K82" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L82" s="30" t="s">
         <v>24</v>
       </c>
       <c r="M82" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="N82" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="N82" s="31" t="s">
-        <v>154</v>
-      </c>
       <c r="O82" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P82" s="45"/>
     </row>
@@ -6469,7 +6499,7 @@
         <v>43</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F83" s="31" t="s">
         <v>21</v>
@@ -6487,19 +6517,19 @@
         <v>17</v>
       </c>
       <c r="K83" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L83" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M83" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="N83" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="N83" s="31" t="s">
-        <v>154</v>
-      </c>
       <c r="O83" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P83" s="45"/>
     </row>
@@ -6517,7 +6547,7 @@
         <v>43</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F84" s="31" t="s">
         <v>21</v>
@@ -6535,19 +6565,19 @@
         <v>17</v>
       </c>
       <c r="K84" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L84" s="30" t="s">
         <v>24</v>
       </c>
       <c r="M84" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="N84" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="N84" s="31" t="s">
-        <v>154</v>
-      </c>
       <c r="O84" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P84" s="45"/>
     </row>
@@ -6565,7 +6595,7 @@
         <v>43</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F85" s="31" t="s">
         <v>21</v>
@@ -6589,13 +6619,13 @@
         <v>24</v>
       </c>
       <c r="M85" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N85" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O85" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P85" s="45"/>
     </row>
@@ -6613,7 +6643,7 @@
         <v>43</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F86" s="31" t="s">
         <v>21</v>
@@ -6631,19 +6661,19 @@
         <v>22</v>
       </c>
       <c r="K86" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L86" s="37" t="s">
         <v>24</v>
       </c>
       <c r="M86" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N86" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O86" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P86" s="45"/>
     </row>
@@ -6661,7 +6691,7 @@
         <v>43</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F87" s="31"/>
       <c r="G87" s="44" t="s">
@@ -6677,19 +6707,19 @@
         <v>17</v>
       </c>
       <c r="K87" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L87" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M87" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="N87" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="N87" s="31" t="s">
-        <v>164</v>
-      </c>
       <c r="O87" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P87" s="45"/>
     </row>
@@ -6698,7 +6728,7 @@
         <v>41</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C88" s="31" t="s">
         <v>42</v>
@@ -6707,7 +6737,7 @@
         <v>43</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F88" s="31" t="s">
         <v>21</v>
@@ -6716,7 +6746,7 @@
         <v>22</v>
       </c>
       <c r="H88" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I88" s="31" t="s">
         <v>22</v>
@@ -6725,19 +6755,19 @@
         <v>22</v>
       </c>
       <c r="K88" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="L88" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="L88" s="29" t="s">
+      <c r="M88" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="M88" s="31" t="s">
-        <v>169</v>
-      </c>
       <c r="N88" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O88" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P88" s="45"/>
     </row>
@@ -6755,7 +6785,7 @@
         <v>43</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F89" s="31"/>
       <c r="G89" s="44" t="s">
@@ -6771,19 +6801,19 @@
         <v>17</v>
       </c>
       <c r="K89" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L89" s="38" t="s">
         <v>24</v>
       </c>
       <c r="M89" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="N89" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="N89" s="31" t="s">
-        <v>172</v>
-      </c>
       <c r="O89" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P89" s="45"/>
     </row>
@@ -6801,7 +6831,7 @@
         <v>43</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F90" s="31" t="s">
         <v>21</v>
@@ -6819,19 +6849,19 @@
         <v>17</v>
       </c>
       <c r="K90" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L90" s="37" t="s">
         <v>24</v>
       </c>
       <c r="M90" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N90" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O90" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P90" s="45"/>
     </row>
@@ -6849,7 +6879,7 @@
         <v>43</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F91" s="31" t="s">
         <v>21</v>
@@ -6867,19 +6897,19 @@
         <v>17</v>
       </c>
       <c r="K91" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L91" s="38" t="s">
         <v>24</v>
       </c>
       <c r="M91" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="N91" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="N91" s="31" t="s">
-        <v>177</v>
-      </c>
       <c r="O91" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P91" s="45"/>
     </row>
@@ -6897,7 +6927,7 @@
         <v>43</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F92" s="31" t="s">
         <v>21</v>
@@ -6915,19 +6945,19 @@
         <v>17</v>
       </c>
       <c r="K92" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L92" s="29" t="s">
         <v>24</v>
       </c>
       <c r="M92" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="N92" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="N92" s="31" t="s">
-        <v>177</v>
-      </c>
       <c r="O92" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P92" s="45"/>
     </row>
@@ -6945,7 +6975,7 @@
         <v>43</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F93" s="31" t="s">
         <v>21</v>
@@ -6963,19 +6993,19 @@
         <v>17</v>
       </c>
       <c r="K93" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L93" s="38" t="s">
         <v>24</v>
       </c>
       <c r="M93" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="N93" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="N93" s="31" t="s">
-        <v>177</v>
-      </c>
       <c r="O93" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P93" s="45"/>
     </row>
@@ -6993,7 +7023,7 @@
         <v>43</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F94" s="31" t="s">
         <v>21</v>
@@ -7001,8 +7031,8 @@
       <c r="G94" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H94" s="44" t="s">
-        <v>22</v>
+      <c r="H94" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="I94" s="31" t="s">
         <v>22</v>
@@ -7011,19 +7041,19 @@
         <v>22</v>
       </c>
       <c r="K94" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L94" s="34" t="s">
         <v>79</v>
       </c>
       <c r="M94" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="N94" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="N94" s="31" t="s">
-        <v>177</v>
-      </c>
       <c r="O94" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P94" s="45"/>
     </row>
@@ -7041,7 +7071,7 @@
         <v>43</v>
       </c>
       <c r="E95" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F95" s="46"/>
       <c r="G95" s="44" t="s">
@@ -7057,19 +7087,19 @@
         <v>17</v>
       </c>
       <c r="K95" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L95" s="42" t="s">
         <v>24</v>
       </c>
       <c r="M95" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="N95" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="N95" s="46" t="s">
-        <v>183</v>
-      </c>
       <c r="O95" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P95" s="47"/>
     </row>
@@ -7087,7 +7117,7 @@
         <v>37</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F96" s="31"/>
       <c r="G96" s="44" t="s">
@@ -7103,7 +7133,7 @@
         <v>22</v>
       </c>
       <c r="K96" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L96" t="s">
         <v>24</v>
@@ -7127,7 +7157,7 @@
         <v>77</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F97" s="31"/>
       <c r="G97" s="44" t="s">
@@ -7155,19 +7185,19 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B98" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="31" t="s">
         <v>187</v>
-      </c>
-      <c r="E98" s="31" t="s">
-        <v>188</v>
       </c>
       <c r="F98" s="31"/>
       <c r="G98" s="44" t="s">
@@ -7183,7 +7213,7 @@
         <v>22</v>
       </c>
       <c r="K98" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L98" t="s">
         <v>24</v>
@@ -7195,19 +7225,19 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B99" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F99" s="31"/>
       <c r="G99" s="31" t="s">
@@ -7233,19 +7263,19 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B100" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D100" s="31" t="s">
+      <c r="E100" s="31" t="s">
         <v>191</v>
-      </c>
-      <c r="E100" s="31" t="s">
-        <v>192</v>
       </c>
       <c r="F100" s="31"/>
       <c r="G100" s="44" t="s">
@@ -7261,7 +7291,7 @@
         <v>22</v>
       </c>
       <c r="K100" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L100" t="s">
         <v>24</v>
@@ -7273,19 +7303,19 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="B101" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" s="31" t="s">
+      <c r="E101" s="31" t="s">
         <v>194</v>
-      </c>
-      <c r="E101" s="31" t="s">
-        <v>195</v>
       </c>
       <c r="F101" s="31"/>
       <c r="G101" s="44" t="s">
@@ -7301,7 +7331,7 @@
         <v>22</v>
       </c>
       <c r="K101" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L101" t="s">
         <v>24</v>
@@ -7313,19 +7343,19 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D102" s="31" t="s">
-        <v>191</v>
-      </c>
       <c r="E102" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F102" s="31"/>
       <c r="G102" s="44" t="s">
@@ -7341,7 +7371,7 @@
         <v>22</v>
       </c>
       <c r="K102" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L102" t="s">
         <v>24</v>
@@ -7353,19 +7383,19 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B103" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>191</v>
-      </c>
       <c r="E103" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F103" s="31"/>
       <c r="G103" s="44" t="s">
@@ -7381,7 +7411,7 @@
         <v>22</v>
       </c>
       <c r="K103" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L103" t="s">
         <v>24</v>
@@ -7393,19 +7423,19 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B104" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>91</v>
-      </c>
       <c r="E104" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F104" s="31"/>
       <c r="G104" s="44" t="s">
@@ -7421,7 +7451,7 @@
         <v>22</v>
       </c>
       <c r="K104" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L104" t="s">
         <v>24</v>
@@ -7433,19 +7463,19 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D105" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B105" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" s="31" t="s">
+      <c r="E105" s="31" t="s">
         <v>200</v>
-      </c>
-      <c r="E105" s="31" t="s">
-        <v>201</v>
       </c>
       <c r="F105" s="31"/>
       <c r="G105" s="44" t="s">
@@ -7461,7 +7491,7 @@
         <v>22</v>
       </c>
       <c r="K105" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L105" t="s">
         <v>24</v>
@@ -7485,7 +7515,7 @@
         <v>43</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F106" s="31"/>
       <c r="G106" s="44" t="s">
@@ -7501,7 +7531,7 @@
         <v>17</v>
       </c>
       <c r="K106" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L106" t="s">
         <v>24</v>
@@ -7525,7 +7555,7 @@
         <v>43</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F107" s="31"/>
       <c r="G107" s="44" t="s">
@@ -7541,7 +7571,7 @@
         <v>22</v>
       </c>
       <c r="K107" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L107" t="s">
         <v>24</v>
@@ -7565,7 +7595,7 @@
         <v>43</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F108" s="31"/>
       <c r="G108" s="44" t="s">
@@ -7581,7 +7611,7 @@
         <v>17</v>
       </c>
       <c r="K108" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L108" t="s">
         <v>24</v>
@@ -7593,7 +7623,7 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B109" s="31" t="s">
         <v>51</v>
@@ -7602,10 +7632,10 @@
         <v>42</v>
       </c>
       <c r="D109" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E109" s="31" t="s">
         <v>206</v>
-      </c>
-      <c r="E109" s="31" t="s">
-        <v>207</v>
       </c>
       <c r="F109" s="31"/>
       <c r="G109" s="44" t="s">
@@ -7621,7 +7651,7 @@
         <v>22</v>
       </c>
       <c r="K109" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L109" t="s">
         <v>24</v>
@@ -7642,10 +7672,10 @@
         <v>42</v>
       </c>
       <c r="D110" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E110" s="31" t="s">
         <v>208</v>
-      </c>
-      <c r="E110" s="31" t="s">
-        <v>209</v>
       </c>
       <c r="F110" s="31"/>
       <c r="G110" s="44" t="s">
@@ -7661,7 +7691,7 @@
         <v>22</v>
       </c>
       <c r="K110" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L110" t="s">
         <v>24</v>
@@ -7685,7 +7715,7 @@
         <v>74</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F111" s="31"/>
       <c r="G111" s="44" t="s">
@@ -7701,7 +7731,7 @@
         <v>22</v>
       </c>
       <c r="K111" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L111" t="s">
         <v>24</v>
@@ -7725,7 +7755,7 @@
         <v>43</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F112" s="31"/>
       <c r="G112" s="44" t="s">
@@ -7741,7 +7771,7 @@
         <v>22</v>
       </c>
       <c r="K112" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L112" t="s">
         <v>24</v>
@@ -7765,7 +7795,7 @@
         <v>70</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F113" s="31"/>
       <c r="G113" s="44" t="s">
@@ -7781,7 +7811,7 @@
         <v>22</v>
       </c>
       <c r="K113" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L113" t="s">
         <v>24</v>
@@ -7805,7 +7835,7 @@
         <v>70</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F114" s="31"/>
       <c r="G114" s="44" t="s">
@@ -7821,7 +7851,7 @@
         <v>22</v>
       </c>
       <c r="K114" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L114" t="s">
         <v>24</v>
@@ -7845,7 +7875,7 @@
         <v>70</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F115" s="31"/>
       <c r="G115" s="44" t="s">
@@ -7861,10 +7891,10 @@
         <v>22</v>
       </c>
       <c r="K115" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="L115" s="29" t="s">
         <v>215</v>
-      </c>
-      <c r="L115" s="29" t="s">
-        <v>216</v>
       </c>
       <c r="M115" s="31"/>
       <c r="N115" s="31"/>
@@ -7873,7 +7903,7 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>17</v>
@@ -7882,10 +7912,10 @@
         <v>69</v>
       </c>
       <c r="D116" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E116" s="31" t="s">
         <v>218</v>
-      </c>
-      <c r="E116" s="31" t="s">
-        <v>219</v>
       </c>
       <c r="F116" s="31"/>
       <c r="G116" s="44" t="s">
@@ -7901,7 +7931,7 @@
         <v>22</v>
       </c>
       <c r="K116" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L116" t="s">
         <v>24</v>
@@ -7913,7 +7943,7 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>17</v>
@@ -7922,10 +7952,10 @@
         <v>69</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F117" s="31"/>
       <c r="G117" s="44" t="s">
@@ -7941,7 +7971,7 @@
         <v>22</v>
       </c>
       <c r="K117" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L117" t="s">
         <v>24</v>
@@ -7953,7 +7983,7 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B118" s="31" t="s">
         <v>17</v>
@@ -7962,10 +7992,10 @@
         <v>69</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F118" s="31"/>
       <c r="G118" s="44" t="s">
@@ -7981,7 +8011,7 @@
         <v>22</v>
       </c>
       <c r="K118" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L118" t="s">
         <v>24</v>
@@ -7993,7 +8023,7 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B119" s="31" t="s">
         <v>17</v>
@@ -8002,10 +8032,10 @@
         <v>69</v>
       </c>
       <c r="D119" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E119" s="48" t="s">
         <v>223</v>
-      </c>
-      <c r="E119" s="48" t="s">
-        <v>224</v>
       </c>
       <c r="F119" s="46"/>
       <c r="G119" s="44" t="s">
@@ -8021,7 +8051,7 @@
         <v>22</v>
       </c>
       <c r="K119" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L119" t="s">
         <v>24</v>
@@ -8033,7 +8063,7 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B120" s="31" t="s">
         <v>17</v>
@@ -8042,10 +8072,10 @@
         <v>69</v>
       </c>
       <c r="D120" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F120" s="31"/>
       <c r="G120" s="44" t="s">
@@ -8061,7 +8091,7 @@
         <v>22</v>
       </c>
       <c r="K120" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L120" t="s">
         <v>24</v>
@@ -8073,19 +8103,19 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B121" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C121" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D121" s="31" t="s">
+      <c r="E121" s="31" t="s">
         <v>227</v>
-      </c>
-      <c r="E121" s="31" t="s">
-        <v>228</v>
       </c>
       <c r="F121" s="31"/>
       <c r="G121" s="44" t="s">
@@ -8101,7 +8131,7 @@
         <v>22</v>
       </c>
       <c r="K121" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L121" t="s">
         <v>24</v>
@@ -8113,19 +8143,19 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D122" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="B122" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C122" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D122" s="31" t="s">
+      <c r="E122" s="31" t="s">
         <v>230</v>
-      </c>
-      <c r="E122" s="31" t="s">
-        <v>231</v>
       </c>
       <c r="F122" s="31"/>
       <c r="G122" s="44" t="s">
@@ -8141,7 +8171,7 @@
         <v>22</v>
       </c>
       <c r="K122" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L122" t="s">
         <v>24</v>
@@ -8153,19 +8183,19 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D123" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="B123" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D123" s="31" t="s">
-        <v>230</v>
-      </c>
       <c r="E123" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F123" s="31"/>
       <c r="G123" s="44" t="s">
@@ -8181,7 +8211,7 @@
         <v>22</v>
       </c>
       <c r="K123" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L123" t="s">
         <v>24</v>
@@ -8193,19 +8223,19 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D124" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B124" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C124" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D124" s="31" t="s">
-        <v>103</v>
-      </c>
       <c r="E124" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F124" s="31"/>
       <c r="G124" s="44" t="s">
@@ -8221,7 +8251,7 @@
         <v>22</v>
       </c>
       <c r="K124" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L124" t="s">
         <v>24</v>
@@ -8233,19 +8263,19 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D125" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B125" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D125" s="31" t="s">
-        <v>103</v>
-      </c>
       <c r="E125" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F125" s="31"/>
       <c r="G125" s="44" t="s">
@@ -8261,7 +8291,7 @@
         <v>22</v>
       </c>
       <c r="K125" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L125" t="s">
         <v>24</v>
@@ -8273,19 +8303,19 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D126" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B126" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>103</v>
-      </c>
       <c r="E126" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F126" s="31"/>
       <c r="G126" s="44" t="s">
@@ -8301,7 +8331,7 @@
         <v>22</v>
       </c>
       <c r="K126" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L126" t="s">
         <v>24</v>
@@ -8313,19 +8343,19 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B127" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" s="31" t="s">
+      <c r="D127" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D127" s="31" t="s">
-        <v>96</v>
-      </c>
       <c r="E127" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F127" s="31"/>
       <c r="G127" s="44" t="s">
@@ -8341,7 +8371,7 @@
         <v>22</v>
       </c>
       <c r="K127" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L127" t="s">
         <v>24</v>
@@ -8353,19 +8383,19 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="B128" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C128" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D128" s="31" t="s">
+      <c r="E128" s="31" t="s">
         <v>238</v>
-      </c>
-      <c r="E128" s="31" t="s">
-        <v>239</v>
       </c>
       <c r="F128" s="31"/>
       <c r="G128" s="44" t="s">
@@ -8381,7 +8411,7 @@
         <v>22</v>
       </c>
       <c r="K128" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L128" t="s">
         <v>24</v>
@@ -8393,19 +8423,19 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D129" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="B129" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C129" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D129" s="31" t="s">
+      <c r="E129" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="E129" s="31" t="s">
-        <v>242</v>
       </c>
       <c r="F129" s="31"/>
       <c r="G129" s="44" t="s">
@@ -8421,7 +8451,7 @@
         <v>22</v>
       </c>
       <c r="K129" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L129" t="s">
         <v>24</v>
@@ -8445,7 +8475,7 @@
         <v>43</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F130" s="31"/>
       <c r="G130" s="44" t="s">
@@ -8461,7 +8491,7 @@
         <v>17</v>
       </c>
       <c r="K130" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L130" t="s">
         <v>24</v>
@@ -8485,7 +8515,7 @@
         <v>43</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F131" s="31"/>
       <c r="G131" s="44" t="s">
@@ -8501,7 +8531,7 @@
         <v>17</v>
       </c>
       <c r="K131" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L131" t="s">
         <v>24</v>
@@ -8525,7 +8555,7 @@
         <v>43</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F132" s="31"/>
       <c r="G132" s="44" t="s">
@@ -8605,7 +8635,7 @@
         <v>43</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F134" s="31"/>
       <c r="G134" s="44" t="s">
@@ -8645,7 +8675,7 @@
         <v>43</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F135" s="31"/>
       <c r="G135" s="44" t="s">
@@ -8661,7 +8691,7 @@
         <v>22</v>
       </c>
       <c r="K135" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L135" s="29" t="s">
         <v>24</v>
@@ -8685,7 +8715,7 @@
         <v>43</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F136" s="31"/>
       <c r="G136" s="44" t="s">
@@ -8701,7 +8731,7 @@
         <v>22</v>
       </c>
       <c r="K136" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L136" s="29" t="s">
         <v>24</v>
@@ -8725,7 +8755,7 @@
         <v>43</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F137" s="31"/>
       <c r="G137" s="44" t="s">
@@ -8741,7 +8771,7 @@
         <v>22</v>
       </c>
       <c r="K137" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L137" s="29" t="s">
         <v>24</v>
@@ -8765,7 +8795,7 @@
         <v>43</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F138" s="31"/>
       <c r="G138" s="44" t="s">
@@ -8781,7 +8811,7 @@
         <v>22</v>
       </c>
       <c r="K138" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L138" s="29" t="s">
         <v>24</v>
@@ -8805,7 +8835,7 @@
         <v>43</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F139" s="31"/>
       <c r="G139" s="44" t="s">
@@ -8821,7 +8851,7 @@
         <v>22</v>
       </c>
       <c r="K139" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L139" s="29" t="s">
         <v>24</v>
@@ -8845,7 +8875,7 @@
         <v>43</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F140" s="31"/>
       <c r="G140" s="44" t="s">
@@ -8861,7 +8891,7 @@
         <v>22</v>
       </c>
       <c r="K140" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L140" s="29" t="s">
         <v>24</v>
@@ -8885,7 +8915,7 @@
         <v>43</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F141" s="31"/>
       <c r="G141" s="44" t="s">
@@ -8901,7 +8931,7 @@
         <v>22</v>
       </c>
       <c r="K141" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L141" s="29" t="s">
         <v>24</v>
@@ -8925,7 +8955,7 @@
         <v>43</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F142" s="31"/>
       <c r="G142" s="44" t="s">
@@ -8952,68 +8982,160 @@
       <c r="P142" s="45"/>
     </row>
     <row r="143" spans="1:16">
-      <c r="A143" s="31"/>
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31"/>
-      <c r="E143" s="31"/>
+      <c r="A143" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B143" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D143" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E143" s="31" t="s">
+        <v>255</v>
+      </c>
       <c r="F143" s="31"/>
-      <c r="G143" s="31"/>
-      <c r="H143" s="31"/>
-      <c r="I143" s="31"/>
-      <c r="J143" s="31"/>
-      <c r="K143" s="31"/>
+      <c r="G143" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H143" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I143" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J143" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K143" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L143" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="M143" s="31"/>
       <c r="N143" s="31"/>
       <c r="O143" s="31"/>
       <c r="P143" s="45"/>
     </row>
     <row r="144" spans="1:16">
-      <c r="A144" s="31"/>
-      <c r="B144" s="31"/>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="31"/>
+      <c r="A144" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E144" s="31" t="s">
+        <v>256</v>
+      </c>
       <c r="F144" s="31"/>
-      <c r="G144" s="31"/>
-      <c r="H144" s="31"/>
-      <c r="I144" s="31"/>
-      <c r="J144" s="31"/>
-      <c r="K144" s="31"/>
+      <c r="G144" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H144" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J144" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K144" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L144" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="M144" s="31"/>
       <c r="N144" s="31"/>
       <c r="O144" s="31"/>
       <c r="P144" s="45"/>
     </row>
     <row r="145" spans="1:16">
-      <c r="A145" s="31"/>
-      <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="31"/>
+      <c r="A145" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B145" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E145" s="31" t="s">
+        <v>257</v>
+      </c>
       <c r="F145" s="31"/>
-      <c r="G145" s="31"/>
-      <c r="H145" s="31"/>
-      <c r="I145" s="31"/>
-      <c r="J145" s="31"/>
-      <c r="K145" s="31"/>
+      <c r="G145" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J145" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K145" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L145" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="M145" s="31"/>
       <c r="N145" s="31"/>
       <c r="O145" s="31"/>
       <c r="P145" s="45"/>
     </row>
     <row r="146" spans="1:16">
-      <c r="A146" s="46"/>
-      <c r="B146" s="46"/>
-      <c r="C146" s="46"/>
-      <c r="D146" s="46"/>
-      <c r="E146" s="46"/>
+      <c r="A146" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B146" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E146" s="31" t="s">
+        <v>258</v>
+      </c>
       <c r="F146" s="46"/>
-      <c r="G146" s="46"/>
-      <c r="H146" s="46"/>
-      <c r="I146" s="46"/>
-      <c r="J146" s="46"/>
-      <c r="K146" s="46"/>
+      <c r="G146" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J146" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K146" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L146" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="M146" s="46"/>
       <c r="N146" s="46"/>
       <c r="O146" s="46"/>
@@ -9021,16 +9143,33 @@
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="31"/>
-      <c r="B147" s="31"/>
+      <c r="B147" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C147" s="31"/>
       <c r="D147" s="31"/>
-      <c r="E147" s="31"/>
+      <c r="E147" s="31" t="s">
+        <v>259</v>
+      </c>
       <c r="F147" s="31"/>
-      <c r="G147" s="31"/>
-      <c r="H147" s="31"/>
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
-      <c r="K147" s="31"/>
+      <c r="G147" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J147" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K147" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L147" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="M147" s="31"/>
       <c r="N147" s="31"/>
       <c r="O147" s="31"/>
@@ -9038,16 +9177,33 @@
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="31"/>
-      <c r="B148" s="31"/>
+      <c r="B148" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C148" s="31"/>
       <c r="D148" s="31"/>
-      <c r="E148" s="31"/>
+      <c r="E148" s="31" t="s">
+        <v>261</v>
+      </c>
       <c r="F148" s="31"/>
-      <c r="G148" s="31"/>
-      <c r="H148" s="31"/>
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
-      <c r="K148" s="31"/>
+      <c r="G148" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H148" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I148" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J148" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K148" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L148" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="M148" s="31"/>
       <c r="N148" s="31"/>
       <c r="O148" s="31"/>
@@ -9055,16 +9211,33 @@
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="31"/>
-      <c r="B149" s="31"/>
+      <c r="B149" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C149" s="31"/>
       <c r="D149" s="31"/>
-      <c r="E149" s="31"/>
+      <c r="E149" s="31" t="s">
+        <v>262</v>
+      </c>
       <c r="F149" s="31"/>
-      <c r="G149" s="31"/>
-      <c r="H149" s="31"/>
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
-      <c r="K149" s="31"/>
+      <c r="G149" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J149" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K149" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L149" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="M149" s="31"/>
       <c r="N149" s="31"/>
       <c r="O149" s="31"/>
@@ -9072,16 +9245,33 @@
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="31"/>
-      <c r="B150" s="31"/>
+      <c r="B150" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C150" s="31"/>
       <c r="D150" s="31"/>
-      <c r="E150" s="31"/>
+      <c r="E150" s="31" t="s">
+        <v>263</v>
+      </c>
       <c r="F150" s="31"/>
-      <c r="G150" s="31"/>
-      <c r="H150" s="31"/>
-      <c r="I150" s="31"/>
-      <c r="J150" s="31"/>
-      <c r="K150" s="31"/>
+      <c r="G150" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H150" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J150" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L150" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="M150" s="31"/>
       <c r="N150" s="31"/>
       <c r="O150" s="31"/>
@@ -9089,16 +9279,33 @@
     </row>
     <row r="151" spans="1:16">
       <c r="A151" s="31"/>
-      <c r="B151" s="31"/>
+      <c r="B151" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C151" s="31"/>
       <c r="D151" s="31"/>
-      <c r="E151" s="31"/>
+      <c r="E151" s="31" t="s">
+        <v>264</v>
+      </c>
       <c r="F151" s="31"/>
-      <c r="G151" s="31"/>
-      <c r="H151" s="31"/>
-      <c r="I151" s="31"/>
-      <c r="J151" s="31"/>
-      <c r="K151" s="31"/>
+      <c r="G151" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J151" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K151" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L151" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="M151" s="31"/>
       <c r="N151" s="31"/>
       <c r="O151" s="31"/>
@@ -9111,11 +9318,24 @@
       <c r="D152" s="31"/>
       <c r="E152" s="31"/>
       <c r="F152" s="31"/>
-      <c r="G152" s="31"/>
-      <c r="H152" s="31"/>
-      <c r="I152" s="31"/>
-      <c r="J152" s="31"/>
-      <c r="K152" s="31"/>
+      <c r="G152" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H152" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J152" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K152" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L152" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="M152" s="31"/>
       <c r="N152" s="31"/>
       <c r="O152" s="31"/>
@@ -9229,13 +9449,13 @@
           <x14:formula1>
             <xm:f>Configuratie!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L1 L116:L134 L96:L98 L100:L114 L143:L1048576</xm:sqref>
+          <xm:sqref>L1 L116:L134 L96:L98 L100:L114 L153:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A99B45A-3469-41B9-95C3-9470E9A47E8F}">
           <x14:formula1>
             <xm:f>Configuratie!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L135:L142 L99 L115 L2:L95</xm:sqref>
+          <xm:sqref>L135:L152 L99 L115 L2:L95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2067B2B-AAB7-4BB4-AB95-6ECCB20F9551}">
           <x14:formula1>
@@ -9320,7 +9540,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M1" s="26" t="s">
         <v>11</v>
@@ -9779,7 +9999,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9793,10 +10013,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -9805,7 +10025,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9813,16 +10033,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9830,16 +10050,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9847,16 +10067,16 @@
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9864,7 +10084,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -9881,7 +10101,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>18</v>
@@ -9898,7 +10118,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
@@ -9915,16 +10135,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9932,16 +10152,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9949,16 +10169,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9966,16 +10186,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9983,7 +10203,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>42</v>
@@ -10000,16 +10220,16 @@
         <v>21</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10017,16 +10237,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10034,7 +10254,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>42</v>
@@ -10051,7 +10271,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>42</v>
@@ -10068,16 +10288,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10085,16 +10305,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10102,16 +10322,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10119,16 +10339,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10136,16 +10356,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10153,7 +10373,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>69</v>
@@ -10170,16 +10390,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10187,16 +10407,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10204,16 +10424,16 @@
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="E25" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10221,16 +10441,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10238,16 +10458,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10255,16 +10475,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -10272,16 +10492,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -10305,17 +10525,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="3" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -10325,7 +10545,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -10335,7 +10555,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -10585,15 +10805,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
@@ -10604,16 +10815,25 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FF6D437-CC37-4CBE-9DFE-67A70FDDA4C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveadminwindesheim.sharepoint.com/sites/O365-OntwikkelgroepHoofdfase/Gedeelde documenten/General/Ontwikkelgroep SE/01. Besluiten, planningen, actiepunten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eb0095856\Projecten\Leerlijn-Content-SE-Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2322A32-A942-4DE5-AF92-6C32A018EE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B9D039-4F04-4A6F-A498-5C853ACBEAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="289">
   <si>
     <t>TC-1</t>
   </si>
@@ -903,13 +903,16 @@
   </si>
   <si>
     <t>Doorgevoerd, todo</t>
+  </si>
+  <si>
+    <t>Vaststellen-doelen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1424,7 +1427,207 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF395766"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B4310"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF395766"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B4310"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1821,13 +2024,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="2" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="2" tint="-0.499984740745262"/>
         </left>
@@ -1837,6 +2033,13 @@
         <top style="thin">
           <color theme="2" tint="-0.499984740745262"/>
         </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="2" tint="-0.499984740745262"/>
         </bottom>
@@ -1874,106 +2077,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF395766"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B4310"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2474,13 +2577,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -2505,6 +2601,13 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2540,116 +2643,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF395766"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B4310"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2673,61 +2666,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P155" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" headerRowBorderDxfId="48" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P155" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58">
   <autoFilter ref="A1:P155" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}"/>
   <tableColumns count="16">
-    <tableColumn id="2" xr3:uid="{F8A50546-3BB2-41F8-99A7-821FFAEA9EA0}" name="TC-1" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{41734F87-6DB1-4AC3-80CE-250B23378554}" name="TC-2" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{5B30DF97-0362-47CA-9FEB-983BDA2DF844}" name="Proces" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{DDC7FBE8-1A18-4596-8FBD-1F40B9F94AA0}" name="Processtap" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{15170496-2005-43A7-AD43-CFD4F0B25656}" name="Onderwerp" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{AD473AEC-8FAD-46C0-A48A-A65E296DBE11}" name="PS" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{1591AA9A-3ED6-44E5-A48A-E9910C5A2DDC}" name="LT" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{343866B0-4820-4E45-9596-524C0A3E0DB4}" name="OI" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{B3D04D72-920A-4859-8170-8854154E6BEE}" name="PI" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{DAE26EF7-02E2-4493-9827-F044C9947102}" name="DT" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{66861921-DC42-4E48-9995-22D71902D0E6}" name="Auteur" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{F8A50546-3BB2-41F8-99A7-821FFAEA9EA0}" name="TC-1" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{41734F87-6DB1-4AC3-80CE-250B23378554}" name="TC-2" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{5B30DF97-0362-47CA-9FEB-983BDA2DF844}" name="Proces" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{DDC7FBE8-1A18-4596-8FBD-1F40B9F94AA0}" name="Processtap" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{15170496-2005-43A7-AD43-CFD4F0B25656}" name="Onderwerp" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{AD473AEC-8FAD-46C0-A48A-A65E296DBE11}" name="PS" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{1591AA9A-3ED6-44E5-A48A-E9910C5A2DDC}" name="LT" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{343866B0-4820-4E45-9596-524C0A3E0DB4}" name="OI" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{B3D04D72-920A-4859-8170-8854154E6BEE}" name="PI" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{DAE26EF7-02E2-4493-9827-F044C9947102}" name="DT" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{66861921-DC42-4E48-9995-22D71902D0E6}" name="Auteur" dataDxfId="47"/>
     <tableColumn id="13" xr3:uid="{41E829DC-30B4-4ED6-A23E-6E86A90CC847}" name="Status"/>
-    <tableColumn id="14" xr3:uid="{4DEA7C20-4CDB-4765-A2ED-2DAE0C74EA88}" name="Les" dataDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{BA1A1DC9-E1C8-41C8-8B22-98655139BA61}" name="Week" dataDxfId="35"/>
-    <tableColumn id="16" xr3:uid="{FEFBF060-7975-4841-BB25-4FD9EA20FCE9}" name="Vak" dataDxfId="34"/>
-    <tableColumn id="17" xr3:uid="{DC49865F-5E2A-4A41-9018-4460A5231335}" name="Opmerking" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{4DEA7C20-4CDB-4765-A2ED-2DAE0C74EA88}" name="Les" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{BA1A1DC9-E1C8-41C8-8B22-98655139BA61}" name="Week" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{FEFBF060-7975-4841-BB25-4FD9EA20FCE9}" name="Vak" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{DC49865F-5E2A-4A41-9018-4460A5231335}" name="Opmerking" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}" name="Tabel46" displayName="Tabel46" ref="A1:M25" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}" name="Tabel46" displayName="Tabel46" ref="A1:M25" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="A1:M25" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{1535D98C-E0EE-4D42-BCEB-E5B9CE3EB61D}" name="TC-1" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{626D3CCE-98FA-446A-9492-EFF5B77FBEE7}" name="TC-2" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{7D9467F0-D231-479A-AC4D-EFCFCDA0F355}" name="Proces" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{563F1A23-B95F-4820-8982-FD4C397E7132}" name="Processtap" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{6EB4EFB7-2E6E-49E8-8B36-E5A953066F34}" name="Onderwerp" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{952C00F6-C03B-46BB-8BDD-48716B660A03}" name="PS" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{905E3EDF-F38D-471C-BAF6-5E4C96FF3FB2}" name="LT" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{8DFE5EC7-2595-4617-8FC0-FDDA89438F44}" name="OI" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{557B5D16-5B65-4AF7-BD7B-FB0218A7C1B3}" name="PI" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{9F6BDCD6-BD58-4752-B392-4BDB07F65BF9}" name="DT" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{265C90D0-C2F9-46F3-BC15-46853C80AE44}" name="Auteur" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{56238B06-B929-4176-9193-3DBF61BD24F4}" name="Reviewer" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{5A7CC1D3-6CDF-46C8-BAD6-5021F68425FC}" name="Status" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1535D98C-E0EE-4D42-BCEB-E5B9CE3EB61D}" name="TC-1" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{626D3CCE-98FA-446A-9492-EFF5B77FBEE7}" name="TC-2" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{7D9467F0-D231-479A-AC4D-EFCFCDA0F355}" name="Proces" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{563F1A23-B95F-4820-8982-FD4C397E7132}" name="Processtap" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{6EB4EFB7-2E6E-49E8-8B36-E5A953066F34}" name="Onderwerp" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{952C00F6-C03B-46BB-8BDD-48716B660A03}" name="PS" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{905E3EDF-F38D-471C-BAF6-5E4C96FF3FB2}" name="LT" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{8DFE5EC7-2595-4617-8FC0-FDDA89438F44}" name="OI" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{557B5D16-5B65-4AF7-BD7B-FB0218A7C1B3}" name="PI" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{9F6BDCD6-BD58-4752-B392-4BDB07F65BF9}" name="DT" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{265C90D0-C2F9-46F3-BC15-46853C80AE44}" name="Auteur" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{56238B06-B929-4176-9193-3DBF61BD24F4}" name="Reviewer" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{5A7CC1D3-6CDF-46C8-BAD6-5021F68425FC}" name="Status" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}" name="Tabel2" displayName="Tabel2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}" name="Tabel2" displayName="Tabel2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:E29" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E0D87A47-D7F7-498A-A22E-05A996992FE5}" name="Id" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A3888C5B-B532-4621-A573-477CB568DA88}" name="SSDLC" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E1227983-22D3-4B85-9382-7BE0428CF806}" name="Proces" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{25EAD8F8-D89A-4F34-8AE3-23D6D7363D47}" name="Processtap" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{DCD8D2DD-F7D1-48E7-8B06-F484930BAD1C}" name="Taxonomiecode-deel-1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E0D87A47-D7F7-498A-A22E-05A996992FE5}" name="Id" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{A3888C5B-B532-4621-A573-477CB568DA88}" name="SSDLC" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{E1227983-22D3-4B85-9382-7BE0428CF806}" name="Proces" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{25EAD8F8-D89A-4F34-8AE3-23D6D7363D47}" name="Processtap" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{DCD8D2DD-F7D1-48E7-8B06-F484930BAD1C}" name="Taxonomiecode-deel-1" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3052,11 +3045,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8AE46-0301-40E0-97E1-E2E70FD5D32D}">
   <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K147" sqref="K147:K152"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA137" sqref="AA137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
@@ -3067,7 +3060,7 @@
     <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3117,7 +3110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>16</v>
       </c>
@@ -3159,7 +3152,7 @@
       <c r="O2" s="31"/>
       <c r="P2" s="45"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>16</v>
       </c>
@@ -3199,7 +3192,7 @@
       <c r="O3" s="31"/>
       <c r="P3" s="45"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>16</v>
       </c>
@@ -3239,7 +3232,7 @@
       <c r="O4" s="31"/>
       <c r="P4" s="45"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>16</v>
       </c>
@@ -3279,7 +3272,7 @@
       <c r="O5" s="31"/>
       <c r="P5" s="45"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>16</v>
       </c>
@@ -3319,7 +3312,7 @@
       <c r="O6" s="31"/>
       <c r="P6" s="45"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>16</v>
       </c>
@@ -3359,7 +3352,7 @@
       <c r="O7" s="31"/>
       <c r="P7" s="45"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>16</v>
       </c>
@@ -3399,7 +3392,7 @@
       <c r="O8" s="31"/>
       <c r="P8" s="45"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>16</v>
       </c>
@@ -3439,7 +3432,7 @@
       <c r="O9" s="31"/>
       <c r="P9" s="45"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>16</v>
       </c>
@@ -3479,7 +3472,7 @@
       <c r="O10" s="31"/>
       <c r="P10" s="45"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>16</v>
       </c>
@@ -3519,7 +3512,7 @@
       <c r="O11" s="31"/>
       <c r="P11" s="45"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>16</v>
       </c>
@@ -3559,7 +3552,7 @@
       <c r="O12" s="31"/>
       <c r="P12" s="45"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>16</v>
       </c>
@@ -3599,7 +3592,7 @@
       <c r="O13" s="31"/>
       <c r="P13" s="45"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>36</v>
       </c>
@@ -3639,7 +3632,7 @@
       <c r="O14" s="31"/>
       <c r="P14" s="45"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>16</v>
       </c>
@@ -3679,7 +3672,7 @@
       <c r="O15" s="31"/>
       <c r="P15" s="45"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>36</v>
       </c>
@@ -3719,7 +3712,7 @@
       <c r="O16" s="31"/>
       <c r="P16" s="45"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>41</v>
       </c>
@@ -3759,7 +3752,7 @@
       <c r="O17" s="31"/>
       <c r="P17" s="45"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>41</v>
       </c>
@@ -3799,7 +3792,7 @@
       <c r="O18" s="31"/>
       <c r="P18" s="45"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>41</v>
       </c>
@@ -3839,7 +3832,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="45"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
@@ -3879,7 +3872,7 @@
       <c r="O20" s="31"/>
       <c r="P20" s="45"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>41</v>
       </c>
@@ -3919,7 +3912,7 @@
       <c r="O21" s="31"/>
       <c r="P21" s="45"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>41</v>
       </c>
@@ -3959,7 +3952,7 @@
       <c r="O22" s="31"/>
       <c r="P22" s="45"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>41</v>
       </c>
@@ -3999,7 +3992,7 @@
       <c r="O23" s="31"/>
       <c r="P23" s="45"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>41</v>
       </c>
@@ -4039,7 +4032,7 @@
       <c r="O24" s="31"/>
       <c r="P24" s="45"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>41</v>
       </c>
@@ -4079,7 +4072,7 @@
       <c r="O25" s="31"/>
       <c r="P25" s="45"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>41</v>
       </c>
@@ -4119,7 +4112,7 @@
       <c r="O26" s="31"/>
       <c r="P26" s="45"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>41</v>
       </c>
@@ -4159,7 +4152,7 @@
       <c r="O27" s="31"/>
       <c r="P27" s="45"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>41</v>
       </c>
@@ -4199,7 +4192,7 @@
       <c r="O28" s="31"/>
       <c r="P28" s="45"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>41</v>
       </c>
@@ -4239,7 +4232,7 @@
       <c r="O29" s="31"/>
       <c r="P29" s="45"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>41</v>
       </c>
@@ -4279,7 +4272,7 @@
       <c r="O30" s="31"/>
       <c r="P30" s="45"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>41</v>
       </c>
@@ -4329,7 +4322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>41</v>
       </c>
@@ -4369,7 +4362,7 @@
       <c r="O32" s="31"/>
       <c r="P32" s="45"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>68</v>
       </c>
@@ -4407,7 +4400,7 @@
       <c r="O33" s="31"/>
       <c r="P33" s="45"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>68</v>
       </c>
@@ -4445,7 +4438,7 @@
       <c r="O34" s="31"/>
       <c r="P34" s="45"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>73</v>
       </c>
@@ -4485,7 +4478,7 @@
       <c r="O35" s="31"/>
       <c r="P35" s="45"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>76</v>
       </c>
@@ -4523,7 +4516,7 @@
       <c r="O36" s="31"/>
       <c r="P36" s="45"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>80</v>
       </c>
@@ -4563,7 +4556,7 @@
       <c r="O37" s="31"/>
       <c r="P37" s="45"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>68</v>
       </c>
@@ -4603,7 +4596,7 @@
       <c r="O38" s="31"/>
       <c r="P38" s="45"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>85</v>
       </c>
@@ -4641,7 +4634,7 @@
       <c r="O39" s="31"/>
       <c r="P39" s="45"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>89</v>
       </c>
@@ -4681,7 +4674,7 @@
       <c r="O40" s="31"/>
       <c r="P40" s="45"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>93</v>
       </c>
@@ -4721,7 +4714,7 @@
       <c r="O41" s="31"/>
       <c r="P41" s="45"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>68</v>
       </c>
@@ -4761,7 +4754,7 @@
       <c r="O42" s="31"/>
       <c r="P42" s="45"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>97</v>
       </c>
@@ -4801,7 +4794,7 @@
       <c r="O43" s="31"/>
       <c r="P43" s="45"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>101</v>
       </c>
@@ -4841,7 +4834,7 @@
       <c r="O44" s="31"/>
       <c r="P44" s="45"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>41</v>
       </c>
@@ -4881,7 +4874,7 @@
       <c r="O45" s="31"/>
       <c r="P45" s="45"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>97</v>
       </c>
@@ -4921,7 +4914,7 @@
       <c r="O46" s="31"/>
       <c r="P46" s="45"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>97</v>
       </c>
@@ -4961,7 +4954,7 @@
       <c r="O47" s="31"/>
       <c r="P47" s="45"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>97</v>
       </c>
@@ -5001,7 +4994,7 @@
       <c r="O48" s="31"/>
       <c r="P48" s="45"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>97</v>
       </c>
@@ -5041,7 +5034,7 @@
       <c r="O49" s="31"/>
       <c r="P49" s="45"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>97</v>
       </c>
@@ -5081,7 +5074,7 @@
       <c r="O50" s="31"/>
       <c r="P50" s="45"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>97</v>
       </c>
@@ -5121,7 +5114,7 @@
       <c r="O51" s="31"/>
       <c r="P51" s="45"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>97</v>
       </c>
@@ -5161,7 +5154,7 @@
       <c r="O52" s="31"/>
       <c r="P52" s="45"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>97</v>
       </c>
@@ -5201,7 +5194,7 @@
       <c r="O53" s="31"/>
       <c r="P53" s="45"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>97</v>
       </c>
@@ -5241,7 +5234,7 @@
       <c r="O54" s="31"/>
       <c r="P54" s="45"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>97</v>
       </c>
@@ -5281,7 +5274,7 @@
       <c r="O55" s="31"/>
       <c r="P55" s="45"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>76</v>
       </c>
@@ -5319,7 +5312,7 @@
       <c r="O56" s="31"/>
       <c r="P56" s="45"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>85</v>
       </c>
@@ -5357,7 +5350,7 @@
       <c r="O57" s="31"/>
       <c r="P57" s="45"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>85</v>
       </c>
@@ -5395,7 +5388,7 @@
       <c r="O58" s="31"/>
       <c r="P58" s="45"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>68</v>
       </c>
@@ -5435,7 +5428,7 @@
       <c r="O59" s="31"/>
       <c r="P59" s="45"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>41</v>
       </c>
@@ -5475,7 +5468,7 @@
       </c>
       <c r="P60" s="45"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>41</v>
       </c>
@@ -5515,7 +5508,7 @@
       </c>
       <c r="P61" s="45"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>41</v>
       </c>
@@ -5557,7 +5550,7 @@
       </c>
       <c r="P62" s="45"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>41</v>
       </c>
@@ -5603,7 +5596,7 @@
       </c>
       <c r="P63" s="45"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>41</v>
       </c>
@@ -5649,7 +5642,7 @@
       </c>
       <c r="P64" s="45"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>41</v>
       </c>
@@ -5695,7 +5688,7 @@
       </c>
       <c r="P65" s="45"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>41</v>
       </c>
@@ -5741,7 +5734,7 @@
       </c>
       <c r="P66" s="45"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
         <v>41</v>
       </c>
@@ -5787,7 +5780,7 @@
       </c>
       <c r="P67" s="45"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
         <v>41</v>
       </c>
@@ -5833,7 +5826,7 @@
       </c>
       <c r="P68" s="45"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>41</v>
       </c>
@@ -5879,7 +5872,7 @@
       </c>
       <c r="P69" s="45"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
         <v>41</v>
       </c>
@@ -5925,7 +5918,7 @@
       </c>
       <c r="P70" s="45"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>41</v>
       </c>
@@ -5971,7 +5964,7 @@
       </c>
       <c r="P71" s="45"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>41</v>
       </c>
@@ -6017,7 +6010,7 @@
       </c>
       <c r="P72" s="45"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>41</v>
       </c>
@@ -6059,7 +6052,7 @@
       </c>
       <c r="P73" s="45"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
         <v>41</v>
       </c>
@@ -6105,7 +6098,7 @@
       </c>
       <c r="P74" s="45"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>41</v>
       </c>
@@ -6153,7 +6146,7 @@
       </c>
       <c r="P75" s="45"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>41</v>
       </c>
@@ -6201,7 +6194,7 @@
       </c>
       <c r="P76" s="45"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>41</v>
       </c>
@@ -6249,7 +6242,7 @@
       </c>
       <c r="P77" s="45"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>41</v>
       </c>
@@ -6297,7 +6290,7 @@
       </c>
       <c r="P78" s="45"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
         <v>41</v>
       </c>
@@ -6341,7 +6334,7 @@
       </c>
       <c r="P79" s="45"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
         <v>41</v>
       </c>
@@ -6389,7 +6382,7 @@
       </c>
       <c r="P80" s="45"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
         <v>41</v>
       </c>
@@ -6437,7 +6430,7 @@
       </c>
       <c r="P81" s="45"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>41</v>
       </c>
@@ -6485,7 +6478,7 @@
       </c>
       <c r="P82" s="45"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
         <v>41</v>
       </c>
@@ -6533,7 +6526,7 @@
       </c>
       <c r="P83" s="45"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
         <v>41</v>
       </c>
@@ -6581,7 +6574,7 @@
       </c>
       <c r="P84" s="45"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
         <v>41</v>
       </c>
@@ -6629,7 +6622,7 @@
       </c>
       <c r="P85" s="45"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
         <v>41</v>
       </c>
@@ -6677,7 +6670,7 @@
       </c>
       <c r="P86" s="45"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>41</v>
       </c>
@@ -6723,7 +6716,7 @@
       </c>
       <c r="P87" s="45"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>41</v>
       </c>
@@ -6771,7 +6764,7 @@
       </c>
       <c r="P88" s="45"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>41</v>
       </c>
@@ -6817,7 +6810,7 @@
       </c>
       <c r="P89" s="45"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
         <v>41</v>
       </c>
@@ -6865,7 +6858,7 @@
       </c>
       <c r="P90" s="45"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
         <v>41</v>
       </c>
@@ -6913,7 +6906,7 @@
       </c>
       <c r="P91" s="45"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
         <v>41</v>
       </c>
@@ -6961,7 +6954,7 @@
       </c>
       <c r="P92" s="45"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
         <v>41</v>
       </c>
@@ -7009,7 +7002,7 @@
       </c>
       <c r="P93" s="45"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
         <v>41</v>
       </c>
@@ -7057,7 +7050,7 @@
       </c>
       <c r="P94" s="45"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="46" t="s">
         <v>41</v>
       </c>
@@ -7103,7 +7096,7 @@
       </c>
       <c r="P95" s="47"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
         <v>36</v>
       </c>
@@ -7143,7 +7136,7 @@
       <c r="O96" s="31"/>
       <c r="P96" s="45"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
         <v>16</v>
       </c>
@@ -7183,7 +7176,7 @@
       <c r="O97" s="31"/>
       <c r="P97" s="45"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
         <v>185</v>
       </c>
@@ -7223,7 +7216,7 @@
       <c r="O98" s="31"/>
       <c r="P98" s="45"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
         <v>185</v>
       </c>
@@ -7261,7 +7254,7 @@
       <c r="O99" s="31"/>
       <c r="P99" s="45"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
         <v>189</v>
       </c>
@@ -7301,7 +7294,7 @@
       <c r="O100" s="31"/>
       <c r="P100" s="45"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>192</v>
       </c>
@@ -7341,7 +7334,7 @@
       <c r="O101" s="31"/>
       <c r="P101" s="45"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
         <v>189</v>
       </c>
@@ -7381,7 +7374,7 @@
       <c r="O102" s="31"/>
       <c r="P102" s="45"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
         <v>189</v>
       </c>
@@ -7421,7 +7414,7 @@
       <c r="O103" s="31"/>
       <c r="P103" s="45"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>89</v>
       </c>
@@ -7461,7 +7454,7 @@
       <c r="O104" s="31"/>
       <c r="P104" s="45"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>198</v>
       </c>
@@ -7501,7 +7494,7 @@
       <c r="O105" s="31"/>
       <c r="P105" s="45"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>41</v>
       </c>
@@ -7541,7 +7534,7 @@
       <c r="O106" s="31"/>
       <c r="P106" s="45"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>41</v>
       </c>
@@ -7581,7 +7574,7 @@
       <c r="O107" s="31"/>
       <c r="P107" s="45"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
         <v>41</v>
       </c>
@@ -7621,7 +7614,7 @@
       <c r="O108" s="31"/>
       <c r="P108" s="45"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>204</v>
       </c>
@@ -7661,7 +7654,7 @@
       <c r="O109" s="31"/>
       <c r="P109" s="45"/>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="31" t="s">
         <v>41</v>
       </c>
@@ -7701,7 +7694,7 @@
       <c r="O110" s="31"/>
       <c r="P110" s="45"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="31" t="s">
         <v>73</v>
       </c>
@@ -7741,7 +7734,7 @@
       <c r="O111" s="31"/>
       <c r="P111" s="45"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
         <v>41</v>
       </c>
@@ -7781,7 +7774,7 @@
       <c r="O112" s="31"/>
       <c r="P112" s="45"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
         <v>68</v>
       </c>
@@ -7821,7 +7814,7 @@
       <c r="O113" s="31"/>
       <c r="P113" s="45"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
         <v>68</v>
       </c>
@@ -7861,7 +7854,7 @@
       <c r="O114" s="31"/>
       <c r="P114" s="45"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
         <v>68</v>
       </c>
@@ -7901,7 +7894,7 @@
       <c r="O115" s="31"/>
       <c r="P115" s="45"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
         <v>216</v>
       </c>
@@ -7941,7 +7934,7 @@
       <c r="O116" s="31"/>
       <c r="P116" s="45"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
         <v>216</v>
       </c>
@@ -7981,7 +7974,7 @@
       <c r="O117" s="31"/>
       <c r="P117" s="45"/>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="31" t="s">
         <v>216</v>
       </c>
@@ -8021,7 +8014,7 @@
       <c r="O118" s="31"/>
       <c r="P118" s="45"/>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="46" t="s">
         <v>221</v>
       </c>
@@ -8061,7 +8054,7 @@
       <c r="O119" s="46"/>
       <c r="P119" s="47"/>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="31" t="s">
         <v>221</v>
       </c>
@@ -8101,7 +8094,7 @@
       <c r="O120" s="31"/>
       <c r="P120" s="45"/>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
         <v>225</v>
       </c>
@@ -8141,7 +8134,7 @@
       <c r="O121" s="31"/>
       <c r="P121" s="45"/>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="31" t="s">
         <v>228</v>
       </c>
@@ -8181,7 +8174,7 @@
       <c r="O122" s="31"/>
       <c r="P122" s="45"/>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="31" t="s">
         <v>228</v>
       </c>
@@ -8221,7 +8214,7 @@
       <c r="O123" s="31"/>
       <c r="P123" s="45"/>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="31" t="s">
         <v>101</v>
       </c>
@@ -8261,7 +8254,7 @@
       <c r="O124" s="31"/>
       <c r="P124" s="45"/>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="31" t="s">
         <v>101</v>
       </c>
@@ -8301,7 +8294,7 @@
       <c r="O125" s="31"/>
       <c r="P125" s="45"/>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="31" t="s">
         <v>101</v>
       </c>
@@ -8341,7 +8334,7 @@
       <c r="O126" s="31"/>
       <c r="P126" s="45"/>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="s">
         <v>93</v>
       </c>
@@ -8381,7 +8374,7 @@
       <c r="O127" s="31"/>
       <c r="P127" s="45"/>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="31" t="s">
         <v>236</v>
       </c>
@@ -8421,7 +8414,7 @@
       <c r="O128" s="31"/>
       <c r="P128" s="45"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="31" t="s">
         <v>239</v>
       </c>
@@ -8461,7 +8454,7 @@
       <c r="O129" s="31"/>
       <c r="P129" s="45"/>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="31" t="s">
         <v>41</v>
       </c>
@@ -8501,7 +8494,7 @@
       <c r="O130" s="31"/>
       <c r="P130" s="45"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="31" t="s">
         <v>41</v>
       </c>
@@ -8541,7 +8534,7 @@
       <c r="O131" s="31"/>
       <c r="P131" s="45"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
         <v>41</v>
       </c>
@@ -8581,7 +8574,7 @@
       <c r="O132" s="31"/>
       <c r="P132" s="45"/>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="31" t="s">
         <v>41</v>
       </c>
@@ -8621,7 +8614,7 @@
       <c r="O133" s="31"/>
       <c r="P133" s="45"/>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="31" t="s">
         <v>41</v>
       </c>
@@ -8661,7 +8654,7 @@
       <c r="O134" s="31"/>
       <c r="P134" s="45"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="31" t="s">
         <v>41</v>
       </c>
@@ -8701,7 +8694,7 @@
       <c r="O135" s="31"/>
       <c r="P135" s="45"/>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
         <v>41</v>
       </c>
@@ -8741,7 +8734,7 @@
       <c r="O136" s="31"/>
       <c r="P136" s="45"/>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="31" t="s">
         <v>41</v>
       </c>
@@ -8781,7 +8774,7 @@
       <c r="O137" s="31"/>
       <c r="P137" s="45"/>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="31" t="s">
         <v>41</v>
       </c>
@@ -8821,7 +8814,7 @@
       <c r="O138" s="31"/>
       <c r="P138" s="45"/>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="31" t="s">
         <v>41</v>
       </c>
@@ -8861,7 +8854,7 @@
       <c r="O139" s="31"/>
       <c r="P139" s="45"/>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="31" t="s">
         <v>41</v>
       </c>
@@ -8901,7 +8894,7 @@
       <c r="O140" s="31"/>
       <c r="P140" s="45"/>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="31" t="s">
         <v>41</v>
       </c>
@@ -8941,7 +8934,7 @@
       <c r="O141" s="31"/>
       <c r="P141" s="45"/>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="31" t="s">
         <v>41</v>
       </c>
@@ -8981,7 +8974,7 @@
       <c r="O142" s="31"/>
       <c r="P142" s="45"/>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="31" t="s">
         <v>68</v>
       </c>
@@ -9021,7 +9014,7 @@
       <c r="O143" s="31"/>
       <c r="P143" s="45"/>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="31" t="s">
         <v>68</v>
       </c>
@@ -9061,7 +9054,7 @@
       <c r="O144" s="31"/>
       <c r="P144" s="45"/>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="31" t="s">
         <v>68</v>
       </c>
@@ -9101,7 +9094,7 @@
       <c r="O145" s="31"/>
       <c r="P145" s="45"/>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="31" t="s">
         <v>68</v>
       </c>
@@ -9141,7 +9134,7 @@
       <c r="O146" s="46"/>
       <c r="P146" s="47"/>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="31"/>
       <c r="B147" s="31" t="s">
         <v>17</v>
@@ -9175,7 +9168,7 @@
       <c r="O147" s="31"/>
       <c r="P147" s="47"/>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="31"/>
       <c r="B148" s="31" t="s">
         <v>17</v>
@@ -9209,7 +9202,7 @@
       <c r="O148" s="31"/>
       <c r="P148" s="47"/>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="31"/>
       <c r="B149" s="31" t="s">
         <v>17</v>
@@ -9243,7 +9236,7 @@
       <c r="O149" s="31"/>
       <c r="P149" s="47"/>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="31"/>
       <c r="B150" s="31" t="s">
         <v>17</v>
@@ -9277,7 +9270,7 @@
       <c r="O150" s="31"/>
       <c r="P150" s="47"/>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="31"/>
       <c r="B151" s="31" t="s">
         <v>17</v>
@@ -9311,12 +9304,22 @@
       <c r="O151" s="31"/>
       <c r="P151" s="47"/>
     </row>
-    <row r="152" spans="1:16">
-      <c r="A152" s="31"/>
-      <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="31"/>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E152" s="31" t="s">
+        <v>288</v>
+      </c>
       <c r="F152" s="31"/>
       <c r="G152" s="31" t="s">
         <v>22</v>
@@ -9331,17 +9334,15 @@
         <v>22</v>
       </c>
       <c r="K152" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="L152" s="29" t="s">
-        <v>24</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L152" s="29"/>
       <c r="M152" s="31"/>
       <c r="N152" s="31"/>
       <c r="O152" s="31"/>
       <c r="P152" s="47"/>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="31"/>
       <c r="B153" s="31"/>
       <c r="C153" s="31"/>
@@ -9358,7 +9359,7 @@
       <c r="O153" s="31"/>
       <c r="P153" s="47"/>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="31"/>
       <c r="B154" s="31"/>
       <c r="C154" s="31"/>
@@ -9375,7 +9376,7 @@
       <c r="O154" s="31"/>
       <c r="P154" s="47"/>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="31"/>
       <c r="B155" s="31"/>
       <c r="C155" s="31"/>
@@ -9393,49 +9394,44 @@
       <c r="P155" s="47"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B39 B110:B134 G1:J1048576">
-    <cfRule type="cellIs" dxfId="62" priority="5" operator="equal">
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+      <formula>"X,X,X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98:B108">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>"X,X,X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:J1048576 B39 B110:B134">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="61" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"Branch"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
       <formula>"On hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L155">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Doorgevoerd"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B98:B99">
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
-      <formula>"X,X,X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B108">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
-      <formula>"X,X,X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
-      <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9489,7 +9485,7 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
@@ -9505,7 +9501,7 @@
     <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -9546,7 +9542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -9561,7 +9557,7 @@
       <c r="L2" s="16"/>
       <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -9576,7 +9572,7 @@
       <c r="L3" s="16"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -9591,7 +9587,7 @@
       <c r="L4" s="16"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -9606,7 +9602,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="21"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -9621,7 +9617,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -9636,7 +9632,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -9651,7 +9647,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -9666,7 +9662,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -9681,7 +9677,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="21"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -9697,7 +9693,7 @@
       <c r="M11" s="22"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -9713,7 +9709,7 @@
       <c r="M12" s="22"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -9729,7 +9725,7 @@
       <c r="M13" s="22"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -9745,7 +9741,7 @@
       <c r="M14" s="22"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -9761,7 +9757,7 @@
       <c r="M15" s="21"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -9777,7 +9773,7 @@
       <c r="M16" s="21"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -9793,7 +9789,7 @@
       <c r="M17" s="21"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -9808,7 +9804,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="20"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -9823,7 +9819,7 @@
       <c r="L19" s="16"/>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -9838,7 +9834,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -9853,7 +9849,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="20"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -9868,7 +9864,7 @@
       <c r="L22" s="16"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -9883,7 +9879,7 @@
       <c r="L23" s="16"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -9898,7 +9894,7 @@
       <c r="L24" s="16"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -9916,44 +9912,44 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:M11 A12:D12 F12:M12 A13:M25">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$N1="Les 1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="31" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$N14="Les 1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:J1">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="29" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Branch"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="equal">
       <formula>"On hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N17">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>"Les1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O17">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$N1="Les 1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9999,10 +9995,10 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -10011,7 +10007,7 @@
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>266</v>
       </c>
@@ -10028,7 +10024,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>6</v>
       </c>
@@ -10045,7 +10041,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>27</v>
       </c>
@@ -10062,7 +10058,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>26</v>
       </c>
@@ -10079,7 +10075,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>25</v>
       </c>
@@ -10096,7 +10092,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>24</v>
       </c>
@@ -10113,7 +10109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>23</v>
       </c>
@@ -10130,7 +10126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -10147,7 +10143,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -10164,7 +10160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -10181,7 +10177,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -10198,7 +10194,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>28</v>
       </c>
@@ -10215,7 +10211,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>21</v>
       </c>
@@ -10232,7 +10228,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>20</v>
       </c>
@@ -10249,7 +10245,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>19</v>
       </c>
@@ -10266,7 +10262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>18</v>
       </c>
@@ -10283,7 +10279,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -10300,7 +10296,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -10317,7 +10313,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -10334,7 +10330,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -10351,7 +10347,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>13</v>
       </c>
@@ -10368,7 +10364,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -10385,7 +10381,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>12</v>
       </c>
@@ -10402,7 +10398,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>11</v>
       </c>
@@ -10419,7 +10415,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>10</v>
       </c>
@@ -10436,7 +10432,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>9</v>
       </c>
@@ -10453,7 +10449,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>8</v>
       </c>
@@ -10470,7 +10466,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>7</v>
       </c>
@@ -10487,7 +10483,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>22</v>
       </c>
@@ -10518,42 +10514,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75">
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>287</v>
       </c>
@@ -10564,6 +10560,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="16" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f61f07c867748b0019541a657f349ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5688d83df968b8ed30cda1c17f9d8ac7" ns2:_="" ns3:_="">
     <xsd:import namespace="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
@@ -10804,36 +10820,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FF6D437-CC37-4CBE-9DFE-67A70FDDA4C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
+    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FF6D437-CC37-4CBE-9DFE-67A70FDDA4C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
+    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eb0095856\Projecten\Leerlijn-Content-SE-Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B9D039-4F04-4A6F-A498-5C853ACBEAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DDF457-4D4B-4536-83CC-D00885F13F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="314">
   <si>
     <t>TC-1</t>
   </si>
@@ -906,6 +906,81 @@
   </si>
   <si>
     <t>Vaststellen-doelen</t>
+  </si>
+  <si>
+    <t>Bepalen-werklast</t>
+  </si>
+  <si>
+    <t>In-kaart-brengen-afhankelijkheden</t>
+  </si>
+  <si>
+    <t>Kiezen-user-stories</t>
+  </si>
+  <si>
+    <t>Toevoegen taken aan user story</t>
+  </si>
+  <si>
+    <t>Opstellen-product-backlog</t>
+  </si>
+  <si>
+    <t>Prioriteren-product-backlog</t>
+  </si>
+  <si>
+    <t>Toevoegen-acceptatiecriteria</t>
+  </si>
+  <si>
+    <t>Monitoren-voortgang-sprintdoel</t>
+  </si>
+  <si>
+    <t>Uiten-belemmeringen</t>
+  </si>
+  <si>
+    <t>Inzichtelijk-maken-voortgang</t>
+  </si>
+  <si>
+    <t>Oplossen-belemmeringen</t>
+  </si>
+  <si>
+    <t>Ondersteunen-teamlid</t>
+  </si>
+  <si>
+    <t>Peerreviewen-werk</t>
+  </si>
+  <si>
+    <t>Werk-presenteren</t>
+  </si>
+  <si>
+    <t>Ophalen-feedback</t>
+  </si>
+  <si>
+    <t>Feedback-verwerken</t>
+  </si>
+  <si>
+    <t>Kiezen-werkvorm</t>
+  </si>
+  <si>
+    <t>Feedback-geven</t>
+  </si>
+  <si>
+    <t>Feedback-ontvangen</t>
+  </si>
+  <si>
+    <t>Noteren-actiepunten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Aangeven-behoeften</t>
+  </si>
+  <si>
+    <t>Aangeven-grenzen</t>
+  </si>
+  <si>
+    <t>Afstemmen-op-behoeften-omgeving</t>
+  </si>
+  <si>
+    <t>Opstellen-productafspraken</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1423,11 +1498,16 @@
     <xf numFmtId="0" fontId="9" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="76">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1625,6 +1705,146 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2666,61 +2886,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P155" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58">
-  <autoFilter ref="A1:P155" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P176" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
+  <autoFilter ref="A1:P176" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}"/>
   <tableColumns count="16">
-    <tableColumn id="2" xr3:uid="{F8A50546-3BB2-41F8-99A7-821FFAEA9EA0}" name="TC-1" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{41734F87-6DB1-4AC3-80CE-250B23378554}" name="TC-2" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{5B30DF97-0362-47CA-9FEB-983BDA2DF844}" name="Proces" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{DDC7FBE8-1A18-4596-8FBD-1F40B9F94AA0}" name="Processtap" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{15170496-2005-43A7-AD43-CFD4F0B25656}" name="Onderwerp" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{AD473AEC-8FAD-46C0-A48A-A65E296DBE11}" name="PS" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{1591AA9A-3ED6-44E5-A48A-E9910C5A2DDC}" name="LT" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{343866B0-4820-4E45-9596-524C0A3E0DB4}" name="OI" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{B3D04D72-920A-4859-8170-8854154E6BEE}" name="PI" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{DAE26EF7-02E2-4493-9827-F044C9947102}" name="DT" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{66861921-DC42-4E48-9995-22D71902D0E6}" name="Auteur" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{F8A50546-3BB2-41F8-99A7-821FFAEA9EA0}" name="TC-1" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{41734F87-6DB1-4AC3-80CE-250B23378554}" name="TC-2" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{5B30DF97-0362-47CA-9FEB-983BDA2DF844}" name="Proces" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{DDC7FBE8-1A18-4596-8FBD-1F40B9F94AA0}" name="Processtap" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{15170496-2005-43A7-AD43-CFD4F0B25656}" name="Onderwerp" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{AD473AEC-8FAD-46C0-A48A-A65E296DBE11}" name="PS" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{1591AA9A-3ED6-44E5-A48A-E9910C5A2DDC}" name="LT" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{343866B0-4820-4E45-9596-524C0A3E0DB4}" name="OI" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{B3D04D72-920A-4859-8170-8854154E6BEE}" name="PI" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{DAE26EF7-02E2-4493-9827-F044C9947102}" name="DT" dataDxfId="62"/>
+    <tableColumn id="12" xr3:uid="{66861921-DC42-4E48-9995-22D71902D0E6}" name="Auteur" dataDxfId="61"/>
     <tableColumn id="13" xr3:uid="{41E829DC-30B4-4ED6-A23E-6E86A90CC847}" name="Status"/>
-    <tableColumn id="14" xr3:uid="{4DEA7C20-4CDB-4765-A2ED-2DAE0C74EA88}" name="Les" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{BA1A1DC9-E1C8-41C8-8B22-98655139BA61}" name="Week" dataDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{FEFBF060-7975-4841-BB25-4FD9EA20FCE9}" name="Vak" dataDxfId="44"/>
-    <tableColumn id="17" xr3:uid="{DC49865F-5E2A-4A41-9018-4460A5231335}" name="Opmerking" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{4DEA7C20-4CDB-4765-A2ED-2DAE0C74EA88}" name="Les" dataDxfId="60"/>
+    <tableColumn id="15" xr3:uid="{BA1A1DC9-E1C8-41C8-8B22-98655139BA61}" name="Week" dataDxfId="59"/>
+    <tableColumn id="16" xr3:uid="{FEFBF060-7975-4841-BB25-4FD9EA20FCE9}" name="Vak" dataDxfId="58"/>
+    <tableColumn id="17" xr3:uid="{DC49865F-5E2A-4A41-9018-4460A5231335}" name="Opmerking" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}" name="Tabel46" displayName="Tabel46" ref="A1:M25" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}" name="Tabel46" displayName="Tabel46" ref="A1:M25" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54">
   <autoFilter ref="A1:M25" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{1535D98C-E0EE-4D42-BCEB-E5B9CE3EB61D}" name="TC-1" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{626D3CCE-98FA-446A-9492-EFF5B77FBEE7}" name="TC-2" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{7D9467F0-D231-479A-AC4D-EFCFCDA0F355}" name="Proces" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{563F1A23-B95F-4820-8982-FD4C397E7132}" name="Processtap" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{6EB4EFB7-2E6E-49E8-8B36-E5A953066F34}" name="Onderwerp" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{952C00F6-C03B-46BB-8BDD-48716B660A03}" name="PS" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{905E3EDF-F38D-471C-BAF6-5E4C96FF3FB2}" name="LT" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{8DFE5EC7-2595-4617-8FC0-FDDA89438F44}" name="OI" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{557B5D16-5B65-4AF7-BD7B-FB0218A7C1B3}" name="PI" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{9F6BDCD6-BD58-4752-B392-4BDB07F65BF9}" name="DT" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{265C90D0-C2F9-46F3-BC15-46853C80AE44}" name="Auteur" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{56238B06-B929-4176-9193-3DBF61BD24F4}" name="Reviewer" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{5A7CC1D3-6CDF-46C8-BAD6-5021F68425FC}" name="Status" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{1535D98C-E0EE-4D42-BCEB-E5B9CE3EB61D}" name="TC-1" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{626D3CCE-98FA-446A-9492-EFF5B77FBEE7}" name="TC-2" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{7D9467F0-D231-479A-AC4D-EFCFCDA0F355}" name="Proces" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{563F1A23-B95F-4820-8982-FD4C397E7132}" name="Processtap" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{6EB4EFB7-2E6E-49E8-8B36-E5A953066F34}" name="Onderwerp" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{952C00F6-C03B-46BB-8BDD-48716B660A03}" name="PS" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{905E3EDF-F38D-471C-BAF6-5E4C96FF3FB2}" name="LT" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{8DFE5EC7-2595-4617-8FC0-FDDA89438F44}" name="OI" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{557B5D16-5B65-4AF7-BD7B-FB0218A7C1B3}" name="PI" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{9F6BDCD6-BD58-4752-B392-4BDB07F65BF9}" name="DT" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{265C90D0-C2F9-46F3-BC15-46853C80AE44}" name="Auteur" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{56238B06-B929-4176-9193-3DBF61BD24F4}" name="Reviewer" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{5A7CC1D3-6CDF-46C8-BAD6-5021F68425FC}" name="Status" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}" name="Tabel2" displayName="Tabel2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}" name="Tabel2" displayName="Tabel2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:E29" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E0D87A47-D7F7-498A-A22E-05A996992FE5}" name="Id" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A3888C5B-B532-4621-A573-477CB568DA88}" name="SSDLC" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{E1227983-22D3-4B85-9382-7BE0428CF806}" name="Proces" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{25EAD8F8-D89A-4F34-8AE3-23D6D7363D47}" name="Processtap" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{DCD8D2DD-F7D1-48E7-8B06-F484930BAD1C}" name="Taxonomiecode-deel-1" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{E0D87A47-D7F7-498A-A22E-05A996992FE5}" name="Id" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{A3888C5B-B532-4621-A573-477CB568DA88}" name="SSDLC" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{E1227983-22D3-4B85-9382-7BE0428CF806}" name="Proces" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{25EAD8F8-D89A-4F34-8AE3-23D6D7363D47}" name="Processtap" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{DCD8D2DD-F7D1-48E7-8B06-F484930BAD1C}" name="Taxonomiecode-deel-1" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3043,24 +3263,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8AE46-0301-40E0-97E1-E2E70FD5D32D}">
-  <dimension ref="A1:P155"/>
+  <dimension ref="A1:P181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA137" sqref="AA137"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3110,7 +3330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>16</v>
       </c>
@@ -3152,7 +3372,7 @@
       <c r="O2" s="31"/>
       <c r="P2" s="45"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>16</v>
       </c>
@@ -3192,7 +3412,7 @@
       <c r="O3" s="31"/>
       <c r="P3" s="45"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>16</v>
       </c>
@@ -3232,7 +3452,7 @@
       <c r="O4" s="31"/>
       <c r="P4" s="45"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>16</v>
       </c>
@@ -3272,7 +3492,7 @@
       <c r="O5" s="31"/>
       <c r="P5" s="45"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>16</v>
       </c>
@@ -3312,7 +3532,7 @@
       <c r="O6" s="31"/>
       <c r="P6" s="45"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>16</v>
       </c>
@@ -3352,7 +3572,7 @@
       <c r="O7" s="31"/>
       <c r="P7" s="45"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>16</v>
       </c>
@@ -3392,7 +3612,7 @@
       <c r="O8" s="31"/>
       <c r="P8" s="45"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>16</v>
       </c>
@@ -3432,7 +3652,7 @@
       <c r="O9" s="31"/>
       <c r="P9" s="45"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>16</v>
       </c>
@@ -3472,7 +3692,7 @@
       <c r="O10" s="31"/>
       <c r="P10" s="45"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>16</v>
       </c>
@@ -3512,7 +3732,7 @@
       <c r="O11" s="31"/>
       <c r="P11" s="45"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>16</v>
       </c>
@@ -3552,7 +3772,7 @@
       <c r="O12" s="31"/>
       <c r="P12" s="45"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>16</v>
       </c>
@@ -3592,7 +3812,7 @@
       <c r="O13" s="31"/>
       <c r="P13" s="45"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>36</v>
       </c>
@@ -3632,7 +3852,7 @@
       <c r="O14" s="31"/>
       <c r="P14" s="45"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>16</v>
       </c>
@@ -3672,7 +3892,7 @@
       <c r="O15" s="31"/>
       <c r="P15" s="45"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>36</v>
       </c>
@@ -3712,7 +3932,7 @@
       <c r="O16" s="31"/>
       <c r="P16" s="45"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>41</v>
       </c>
@@ -3752,7 +3972,7 @@
       <c r="O17" s="31"/>
       <c r="P17" s="45"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>41</v>
       </c>
@@ -3792,7 +4012,7 @@
       <c r="O18" s="31"/>
       <c r="P18" s="45"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>41</v>
       </c>
@@ -3832,7 +4052,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="45"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
@@ -3872,7 +4092,7 @@
       <c r="O20" s="31"/>
       <c r="P20" s="45"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>41</v>
       </c>
@@ -3912,7 +4132,7 @@
       <c r="O21" s="31"/>
       <c r="P21" s="45"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>41</v>
       </c>
@@ -3952,7 +4172,7 @@
       <c r="O22" s="31"/>
       <c r="P22" s="45"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>41</v>
       </c>
@@ -3992,7 +4212,7 @@
       <c r="O23" s="31"/>
       <c r="P23" s="45"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>41</v>
       </c>
@@ -4032,7 +4252,7 @@
       <c r="O24" s="31"/>
       <c r="P24" s="45"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>41</v>
       </c>
@@ -4072,7 +4292,7 @@
       <c r="O25" s="31"/>
       <c r="P25" s="45"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>41</v>
       </c>
@@ -4112,7 +4332,7 @@
       <c r="O26" s="31"/>
       <c r="P26" s="45"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>41</v>
       </c>
@@ -4152,7 +4372,7 @@
       <c r="O27" s="31"/>
       <c r="P27" s="45"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>41</v>
       </c>
@@ -4192,7 +4412,7 @@
       <c r="O28" s="31"/>
       <c r="P28" s="45"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>41</v>
       </c>
@@ -4232,7 +4452,7 @@
       <c r="O29" s="31"/>
       <c r="P29" s="45"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>41</v>
       </c>
@@ -4272,7 +4492,7 @@
       <c r="O30" s="31"/>
       <c r="P30" s="45"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>41</v>
       </c>
@@ -4322,7 +4542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>41</v>
       </c>
@@ -4362,7 +4582,7 @@
       <c r="O32" s="31"/>
       <c r="P32" s="45"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>68</v>
       </c>
@@ -4400,7 +4620,7 @@
       <c r="O33" s="31"/>
       <c r="P33" s="45"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>68</v>
       </c>
@@ -4438,7 +4658,7 @@
       <c r="O34" s="31"/>
       <c r="P34" s="45"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>73</v>
       </c>
@@ -4478,7 +4698,7 @@
       <c r="O35" s="31"/>
       <c r="P35" s="45"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>76</v>
       </c>
@@ -4516,7 +4736,7 @@
       <c r="O36" s="31"/>
       <c r="P36" s="45"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>80</v>
       </c>
@@ -4556,7 +4776,7 @@
       <c r="O37" s="31"/>
       <c r="P37" s="45"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>68</v>
       </c>
@@ -4596,7 +4816,7 @@
       <c r="O38" s="31"/>
       <c r="P38" s="45"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>85</v>
       </c>
@@ -4634,7 +4854,7 @@
       <c r="O39" s="31"/>
       <c r="P39" s="45"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>89</v>
       </c>
@@ -4674,7 +4894,7 @@
       <c r="O40" s="31"/>
       <c r="P40" s="45"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>93</v>
       </c>
@@ -4714,7 +4934,7 @@
       <c r="O41" s="31"/>
       <c r="P41" s="45"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
         <v>68</v>
       </c>
@@ -4754,7 +4974,7 @@
       <c r="O42" s="31"/>
       <c r="P42" s="45"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>97</v>
       </c>
@@ -4794,7 +5014,7 @@
       <c r="O43" s="31"/>
       <c r="P43" s="45"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>101</v>
       </c>
@@ -4834,7 +5054,7 @@
       <c r="O44" s="31"/>
       <c r="P44" s="45"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>41</v>
       </c>
@@ -4874,7 +5094,7 @@
       <c r="O45" s="31"/>
       <c r="P45" s="45"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
         <v>97</v>
       </c>
@@ -4914,7 +5134,7 @@
       <c r="O46" s="31"/>
       <c r="P46" s="45"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
         <v>97</v>
       </c>
@@ -4954,7 +5174,7 @@
       <c r="O47" s="31"/>
       <c r="P47" s="45"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>97</v>
       </c>
@@ -4994,7 +5214,7 @@
       <c r="O48" s="31"/>
       <c r="P48" s="45"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>97</v>
       </c>
@@ -5034,7 +5254,7 @@
       <c r="O49" s="31"/>
       <c r="P49" s="45"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>97</v>
       </c>
@@ -5074,7 +5294,7 @@
       <c r="O50" s="31"/>
       <c r="P50" s="45"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
         <v>97</v>
       </c>
@@ -5114,7 +5334,7 @@
       <c r="O51" s="31"/>
       <c r="P51" s="45"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
         <v>97</v>
       </c>
@@ -5154,7 +5374,7 @@
       <c r="O52" s="31"/>
       <c r="P52" s="45"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
         <v>97</v>
       </c>
@@ -5194,7 +5414,7 @@
       <c r="O53" s="31"/>
       <c r="P53" s="45"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
         <v>97</v>
       </c>
@@ -5234,7 +5454,7 @@
       <c r="O54" s="31"/>
       <c r="P54" s="45"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="31" t="s">
         <v>97</v>
       </c>
@@ -5274,7 +5494,7 @@
       <c r="O55" s="31"/>
       <c r="P55" s="45"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
         <v>76</v>
       </c>
@@ -5312,7 +5532,7 @@
       <c r="O56" s="31"/>
       <c r="P56" s="45"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
         <v>85</v>
       </c>
@@ -5350,7 +5570,7 @@
       <c r="O57" s="31"/>
       <c r="P57" s="45"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
         <v>85</v>
       </c>
@@ -5388,7 +5608,7 @@
       <c r="O58" s="31"/>
       <c r="P58" s="45"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="31" t="s">
         <v>68</v>
       </c>
@@ -5428,7 +5648,7 @@
       <c r="O59" s="31"/>
       <c r="P59" s="45"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
         <v>41</v>
       </c>
@@ -5468,7 +5688,7 @@
       </c>
       <c r="P60" s="45"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
         <v>41</v>
       </c>
@@ -5508,7 +5728,7 @@
       </c>
       <c r="P61" s="45"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
         <v>41</v>
       </c>
@@ -5550,7 +5770,7 @@
       </c>
       <c r="P62" s="45"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
         <v>41</v>
       </c>
@@ -5596,7 +5816,7 @@
       </c>
       <c r="P63" s="45"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="31" t="s">
         <v>41</v>
       </c>
@@ -5642,7 +5862,7 @@
       </c>
       <c r="P64" s="45"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
         <v>41</v>
       </c>
@@ -5688,7 +5908,7 @@
       </c>
       <c r="P65" s="45"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="31" t="s">
         <v>41</v>
       </c>
@@ -5734,7 +5954,7 @@
       </c>
       <c r="P66" s="45"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
         <v>41</v>
       </c>
@@ -5780,7 +6000,7 @@
       </c>
       <c r="P67" s="45"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="31" t="s">
         <v>41</v>
       </c>
@@ -5826,7 +6046,7 @@
       </c>
       <c r="P68" s="45"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
         <v>41</v>
       </c>
@@ -5872,7 +6092,7 @@
       </c>
       <c r="P69" s="45"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="31" t="s">
         <v>41</v>
       </c>
@@ -5918,7 +6138,7 @@
       </c>
       <c r="P70" s="45"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="31" t="s">
         <v>41</v>
       </c>
@@ -5964,7 +6184,7 @@
       </c>
       <c r="P71" s="45"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="31" t="s">
         <v>41</v>
       </c>
@@ -6010,7 +6230,7 @@
       </c>
       <c r="P72" s="45"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>41</v>
       </c>
@@ -6052,7 +6272,7 @@
       </c>
       <c r="P73" s="45"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="31" t="s">
         <v>41</v>
       </c>
@@ -6098,7 +6318,7 @@
       </c>
       <c r="P74" s="45"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
         <v>41</v>
       </c>
@@ -6146,7 +6366,7 @@
       </c>
       <c r="P75" s="45"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="31" t="s">
         <v>41</v>
       </c>
@@ -6194,7 +6414,7 @@
       </c>
       <c r="P76" s="45"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="31" t="s">
         <v>41</v>
       </c>
@@ -6242,7 +6462,7 @@
       </c>
       <c r="P77" s="45"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="31" t="s">
         <v>41</v>
       </c>
@@ -6290,7 +6510,7 @@
       </c>
       <c r="P78" s="45"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="31" t="s">
         <v>41</v>
       </c>
@@ -6334,7 +6554,7 @@
       </c>
       <c r="P79" s="45"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
         <v>41</v>
       </c>
@@ -6382,7 +6602,7 @@
       </c>
       <c r="P80" s="45"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="31" t="s">
         <v>41</v>
       </c>
@@ -6430,7 +6650,7 @@
       </c>
       <c r="P81" s="45"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="31" t="s">
         <v>41</v>
       </c>
@@ -6478,7 +6698,7 @@
       </c>
       <c r="P82" s="45"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="31" t="s">
         <v>41</v>
       </c>
@@ -6526,7 +6746,7 @@
       </c>
       <c r="P83" s="45"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="31" t="s">
         <v>41</v>
       </c>
@@ -6574,7 +6794,7 @@
       </c>
       <c r="P84" s="45"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="31" t="s">
         <v>41</v>
       </c>
@@ -6622,7 +6842,7 @@
       </c>
       <c r="P85" s="45"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="31" t="s">
         <v>41</v>
       </c>
@@ -6670,7 +6890,7 @@
       </c>
       <c r="P86" s="45"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="31" t="s">
         <v>41</v>
       </c>
@@ -6716,7 +6936,7 @@
       </c>
       <c r="P87" s="45"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="31" t="s">
         <v>41</v>
       </c>
@@ -6764,7 +6984,7 @@
       </c>
       <c r="P88" s="45"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="31" t="s">
         <v>41</v>
       </c>
@@ -6810,7 +7030,7 @@
       </c>
       <c r="P89" s="45"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="31" t="s">
         <v>41</v>
       </c>
@@ -6858,7 +7078,7 @@
       </c>
       <c r="P90" s="45"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="31" t="s">
         <v>41</v>
       </c>
@@ -6906,7 +7126,7 @@
       </c>
       <c r="P91" s="45"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="31" t="s">
         <v>41</v>
       </c>
@@ -6954,7 +7174,7 @@
       </c>
       <c r="P92" s="45"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
         <v>41</v>
       </c>
@@ -7002,7 +7222,7 @@
       </c>
       <c r="P93" s="45"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="31" t="s">
         <v>41</v>
       </c>
@@ -7050,7 +7270,7 @@
       </c>
       <c r="P94" s="45"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="46" t="s">
         <v>41</v>
       </c>
@@ -7096,7 +7316,7 @@
       </c>
       <c r="P95" s="47"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="31" t="s">
         <v>36</v>
       </c>
@@ -7136,7 +7356,7 @@
       <c r="O96" s="31"/>
       <c r="P96" s="45"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="31" t="s">
         <v>16</v>
       </c>
@@ -7176,7 +7396,7 @@
       <c r="O97" s="31"/>
       <c r="P97" s="45"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="31" t="s">
         <v>185</v>
       </c>
@@ -7216,7 +7436,7 @@
       <c r="O98" s="31"/>
       <c r="P98" s="45"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="31" t="s">
         <v>185</v>
       </c>
@@ -7254,7 +7474,7 @@
       <c r="O99" s="31"/>
       <c r="P99" s="45"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="31" t="s">
         <v>189</v>
       </c>
@@ -7294,7 +7514,7 @@
       <c r="O100" s="31"/>
       <c r="P100" s="45"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="31" t="s">
         <v>192</v>
       </c>
@@ -7334,7 +7554,7 @@
       <c r="O101" s="31"/>
       <c r="P101" s="45"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="31" t="s">
         <v>189</v>
       </c>
@@ -7374,7 +7594,7 @@
       <c r="O102" s="31"/>
       <c r="P102" s="45"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="31" t="s">
         <v>189</v>
       </c>
@@ -7414,7 +7634,7 @@
       <c r="O103" s="31"/>
       <c r="P103" s="45"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="31" t="s">
         <v>89</v>
       </c>
@@ -7454,7 +7674,7 @@
       <c r="O104" s="31"/>
       <c r="P104" s="45"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="31" t="s">
         <v>198</v>
       </c>
@@ -7494,7 +7714,7 @@
       <c r="O105" s="31"/>
       <c r="P105" s="45"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
         <v>41</v>
       </c>
@@ -7534,7 +7754,7 @@
       <c r="O106" s="31"/>
       <c r="P106" s="45"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="31" t="s">
         <v>41</v>
       </c>
@@ -7574,7 +7794,7 @@
       <c r="O107" s="31"/>
       <c r="P107" s="45"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="31" t="s">
         <v>41</v>
       </c>
@@ -7614,7 +7834,7 @@
       <c r="O108" s="31"/>
       <c r="P108" s="45"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="31" t="s">
         <v>204</v>
       </c>
@@ -7654,7 +7874,7 @@
       <c r="O109" s="31"/>
       <c r="P109" s="45"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="31" t="s">
         <v>41</v>
       </c>
@@ -7694,7 +7914,7 @@
       <c r="O110" s="31"/>
       <c r="P110" s="45"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="31" t="s">
         <v>73</v>
       </c>
@@ -7734,7 +7954,7 @@
       <c r="O111" s="31"/>
       <c r="P111" s="45"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="31" t="s">
         <v>41</v>
       </c>
@@ -7774,7 +7994,7 @@
       <c r="O112" s="31"/>
       <c r="P112" s="45"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="31" t="s">
         <v>68</v>
       </c>
@@ -7814,7 +8034,7 @@
       <c r="O113" s="31"/>
       <c r="P113" s="45"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="31" t="s">
         <v>68</v>
       </c>
@@ -7854,7 +8074,7 @@
       <c r="O114" s="31"/>
       <c r="P114" s="45"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="31" t="s">
         <v>68</v>
       </c>
@@ -7894,7 +8114,7 @@
       <c r="O115" s="31"/>
       <c r="P115" s="45"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="31" t="s">
         <v>216</v>
       </c>
@@ -7934,7 +8154,7 @@
       <c r="O116" s="31"/>
       <c r="P116" s="45"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="31" t="s">
         <v>216</v>
       </c>
@@ -7974,7 +8194,7 @@
       <c r="O117" s="31"/>
       <c r="P117" s="45"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="31" t="s">
         <v>216</v>
       </c>
@@ -8014,7 +8234,7 @@
       <c r="O118" s="31"/>
       <c r="P118" s="45"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="46" t="s">
         <v>221</v>
       </c>
@@ -8054,7 +8274,7 @@
       <c r="O119" s="46"/>
       <c r="P119" s="47"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="31" t="s">
         <v>221</v>
       </c>
@@ -8094,7 +8314,7 @@
       <c r="O120" s="31"/>
       <c r="P120" s="45"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="31" t="s">
         <v>225</v>
       </c>
@@ -8134,7 +8354,7 @@
       <c r="O121" s="31"/>
       <c r="P121" s="45"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="31" t="s">
         <v>228</v>
       </c>
@@ -8174,7 +8394,7 @@
       <c r="O122" s="31"/>
       <c r="P122" s="45"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="31" t="s">
         <v>228</v>
       </c>
@@ -8214,7 +8434,7 @@
       <c r="O123" s="31"/>
       <c r="P123" s="45"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="31" t="s">
         <v>101</v>
       </c>
@@ -8254,7 +8474,7 @@
       <c r="O124" s="31"/>
       <c r="P124" s="45"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="31" t="s">
         <v>101</v>
       </c>
@@ -8294,7 +8514,7 @@
       <c r="O125" s="31"/>
       <c r="P125" s="45"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="31" t="s">
         <v>101</v>
       </c>
@@ -8334,7 +8554,7 @@
       <c r="O126" s="31"/>
       <c r="P126" s="45"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="31" t="s">
         <v>93</v>
       </c>
@@ -8374,7 +8594,7 @@
       <c r="O127" s="31"/>
       <c r="P127" s="45"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="31" t="s">
         <v>236</v>
       </c>
@@ -8414,7 +8634,7 @@
       <c r="O128" s="31"/>
       <c r="P128" s="45"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="31" t="s">
         <v>239</v>
       </c>
@@ -8454,7 +8674,7 @@
       <c r="O129" s="31"/>
       <c r="P129" s="45"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="31" t="s">
         <v>41</v>
       </c>
@@ -8494,7 +8714,7 @@
       <c r="O130" s="31"/>
       <c r="P130" s="45"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="31" t="s">
         <v>41</v>
       </c>
@@ -8534,7 +8754,7 @@
       <c r="O131" s="31"/>
       <c r="P131" s="45"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="31" t="s">
         <v>41</v>
       </c>
@@ -8574,7 +8794,7 @@
       <c r="O132" s="31"/>
       <c r="P132" s="45"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="31" t="s">
         <v>41</v>
       </c>
@@ -8614,7 +8834,7 @@
       <c r="O133" s="31"/>
       <c r="P133" s="45"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="31" t="s">
         <v>41</v>
       </c>
@@ -8654,7 +8874,7 @@
       <c r="O134" s="31"/>
       <c r="P134" s="45"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="31" t="s">
         <v>41</v>
       </c>
@@ -8694,7 +8914,7 @@
       <c r="O135" s="31"/>
       <c r="P135" s="45"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="31" t="s">
         <v>41</v>
       </c>
@@ -8734,7 +8954,7 @@
       <c r="O136" s="31"/>
       <c r="P136" s="45"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="31" t="s">
         <v>41</v>
       </c>
@@ -8774,7 +8994,7 @@
       <c r="O137" s="31"/>
       <c r="P137" s="45"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="31" t="s">
         <v>41</v>
       </c>
@@ -8814,7 +9034,7 @@
       <c r="O138" s="31"/>
       <c r="P138" s="45"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="31" t="s">
         <v>41</v>
       </c>
@@ -8854,7 +9074,7 @@
       <c r="O139" s="31"/>
       <c r="P139" s="45"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="31" t="s">
         <v>41</v>
       </c>
@@ -8894,7 +9114,7 @@
       <c r="O140" s="31"/>
       <c r="P140" s="45"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="31" t="s">
         <v>41</v>
       </c>
@@ -8934,7 +9154,7 @@
       <c r="O141" s="31"/>
       <c r="P141" s="45"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="31" t="s">
         <v>41</v>
       </c>
@@ -8974,7 +9194,7 @@
       <c r="O142" s="31"/>
       <c r="P142" s="45"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="31" t="s">
         <v>68</v>
       </c>
@@ -9014,7 +9234,7 @@
       <c r="O143" s="31"/>
       <c r="P143" s="45"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="31" t="s">
         <v>68</v>
       </c>
@@ -9054,7 +9274,7 @@
       <c r="O144" s="31"/>
       <c r="P144" s="45"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="31" t="s">
         <v>68</v>
       </c>
@@ -9094,7 +9314,7 @@
       <c r="O145" s="31"/>
       <c r="P145" s="45"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="31" t="s">
         <v>68</v>
       </c>
@@ -9134,7 +9354,7 @@
       <c r="O146" s="46"/>
       <c r="P146" s="47"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="31"/>
       <c r="B147" s="31" t="s">
         <v>17</v>
@@ -9168,7 +9388,7 @@
       <c r="O147" s="31"/>
       <c r="P147" s="47"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="31"/>
       <c r="B148" s="31" t="s">
         <v>17</v>
@@ -9202,7 +9422,7 @@
       <c r="O148" s="31"/>
       <c r="P148" s="47"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="31"/>
       <c r="B149" s="31" t="s">
         <v>17</v>
@@ -9236,7 +9456,7 @@
       <c r="O149" s="31"/>
       <c r="P149" s="47"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="31"/>
       <c r="B150" s="31" t="s">
         <v>17</v>
@@ -9270,7 +9490,7 @@
       <c r="O150" s="31"/>
       <c r="P150" s="47"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="31"/>
       <c r="B151" s="31" t="s">
         <v>17</v>
@@ -9304,7 +9524,7 @@
       <c r="O151" s="31"/>
       <c r="P151" s="47"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="31" t="s">
         <v>97</v>
       </c>
@@ -9317,10 +9537,10 @@
       <c r="D152" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E152" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="F152" s="31"/>
+      <c r="E152" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="F152" s="53"/>
       <c r="G152" s="31" t="s">
         <v>22</v>
       </c>
@@ -9337,63 +9557,930 @@
         <v>100</v>
       </c>
       <c r="L152" s="29"/>
-      <c r="M152" s="31"/>
-      <c r="N152" s="31"/>
-      <c r="O152" s="31"/>
-      <c r="P152" s="47"/>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="31"/>
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="31"/>
-      <c r="G153" s="31"/>
-      <c r="H153" s="31"/>
-      <c r="I153" s="31"/>
-      <c r="J153" s="31"/>
-      <c r="K153" s="31"/>
-      <c r="M153" s="31"/>
-      <c r="N153" s="31"/>
-      <c r="O153" s="31"/>
-      <c r="P153" s="47"/>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="31"/>
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="31"/>
-      <c r="G154" s="31"/>
-      <c r="H154" s="31"/>
-      <c r="I154" s="31"/>
-      <c r="J154" s="31"/>
-      <c r="K154" s="31"/>
-      <c r="M154" s="31"/>
-      <c r="N154" s="31"/>
-      <c r="O154" s="31"/>
-      <c r="P154" s="47"/>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="31"/>
-      <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="31"/>
-      <c r="F155" s="31"/>
-      <c r="G155" s="31"/>
-      <c r="H155" s="31"/>
-      <c r="I155" s="31"/>
-      <c r="J155" s="31"/>
-      <c r="K155" s="31"/>
-      <c r="M155" s="31"/>
-      <c r="N155" s="31"/>
-      <c r="O155" s="31"/>
-      <c r="P155" s="47"/>
+      <c r="M152" s="53"/>
+      <c r="N152" s="53"/>
+      <c r="O152" s="53"/>
+      <c r="P152" s="54"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A153" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B153" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E153" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="F153" s="53"/>
+      <c r="G153" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J153" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K153" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="L153" s="29"/>
+      <c r="M153" s="53"/>
+      <c r="N153" s="53"/>
+      <c r="O153" s="53"/>
+      <c r="P153" s="54"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A154" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E154" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="F154" s="53"/>
+      <c r="G154" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H154" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J154" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K154" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="L154" s="29"/>
+      <c r="M154" s="53"/>
+      <c r="N154" s="53"/>
+      <c r="O154" s="53"/>
+      <c r="P154" s="54"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A155" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E155" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="F155" s="53"/>
+      <c r="G155" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H155" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I155" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K155" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="L155" s="29"/>
+      <c r="M155" s="53"/>
+      <c r="N155" s="53"/>
+      <c r="O155" s="53"/>
+      <c r="P155" s="54"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A156" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B156" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E156" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="F156" s="31"/>
+      <c r="G156" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J156" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K156" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="L156" s="29"/>
+      <c r="M156" s="31"/>
+      <c r="N156" s="31"/>
+      <c r="O156" s="31"/>
+      <c r="P156" s="47"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A157" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B157" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E157" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="F157" s="31"/>
+      <c r="G157" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H157" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J157" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K157" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="L157" s="29"/>
+      <c r="M157" s="31"/>
+      <c r="N157" s="31"/>
+      <c r="O157" s="31"/>
+      <c r="P157" s="47"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B158" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E158" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="F158" s="31"/>
+      <c r="G158" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H158" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J158" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K158" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="L158" s="29"/>
+      <c r="M158" s="31"/>
+      <c r="N158" s="31"/>
+      <c r="O158" s="31"/>
+      <c r="P158" s="47"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A159" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E159" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="F159" s="31"/>
+      <c r="G159" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K159" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="L159" s="29"/>
+      <c r="M159" s="31"/>
+      <c r="N159" s="31"/>
+      <c r="O159" s="31"/>
+      <c r="P159" s="47"/>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A160" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B160" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E160" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="F160" s="46"/>
+      <c r="G160" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J160" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K160" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L160" s="52"/>
+      <c r="M160" s="46"/>
+      <c r="N160" s="46"/>
+      <c r="O160" s="46"/>
+      <c r="P160" s="47"/>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A161" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B161" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E161" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="F161" s="46"/>
+      <c r="G161" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H161" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I161" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J161" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K161" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L161" s="52"/>
+      <c r="M161" s="46"/>
+      <c r="N161" s="46"/>
+      <c r="O161" s="46"/>
+      <c r="P161" s="47"/>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A162" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B162" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E162" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F162" s="46"/>
+      <c r="G162" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H162" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I162" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K162" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L162" s="52"/>
+      <c r="M162" s="46"/>
+      <c r="N162" s="46"/>
+      <c r="O162" s="46"/>
+      <c r="P162" s="47"/>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A163" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E163" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F163" s="46"/>
+      <c r="G163" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H163" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I163" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J163" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K163" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L163" s="52"/>
+      <c r="M163" s="46"/>
+      <c r="N163" s="46"/>
+      <c r="O163" s="46"/>
+      <c r="P163" s="47"/>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A164" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B164" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E164" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="F164" s="46"/>
+      <c r="G164" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H164" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I164" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J164" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K164" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L164" s="52"/>
+      <c r="M164" s="46"/>
+      <c r="N164" s="46"/>
+      <c r="O164" s="46"/>
+      <c r="P164" s="47"/>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A165" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B165" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E165" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="F165" s="46"/>
+      <c r="G165" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H165" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I165" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J165" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K165" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L165" s="52"/>
+      <c r="M165" s="46"/>
+      <c r="N165" s="46"/>
+      <c r="O165" s="46"/>
+      <c r="P165" s="47"/>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A166" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B166" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E166" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="F166" s="46"/>
+      <c r="G166" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H166" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I166" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J166" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K166" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L166" s="52"/>
+      <c r="M166" s="46"/>
+      <c r="N166" s="46"/>
+      <c r="O166" s="46"/>
+      <c r="P166" s="47"/>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A167" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B167" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E167" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="F167" s="46"/>
+      <c r="G167" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H167" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I167" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J167" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K167" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L167" s="52"/>
+      <c r="M167" s="46"/>
+      <c r="N167" s="46"/>
+      <c r="O167" s="46"/>
+      <c r="P167" s="47"/>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A168" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B168" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E168" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="F168" s="46"/>
+      <c r="G168" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H168" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I168" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J168" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K168" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L168" s="52"/>
+      <c r="M168" s="46"/>
+      <c r="N168" s="46"/>
+      <c r="O168" s="46"/>
+      <c r="P168" s="47"/>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A169" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B169" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E169" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="F169" s="46"/>
+      <c r="G169" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H169" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I169" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J169" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K169" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L169" s="52"/>
+      <c r="M169" s="46"/>
+      <c r="N169" s="46"/>
+      <c r="O169" s="46"/>
+      <c r="P169" s="47"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A170" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B170" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E170" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="F170" s="55"/>
+      <c r="G170" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H170" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I170" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J170" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K170" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L170" s="52"/>
+      <c r="M170" s="55"/>
+      <c r="N170" s="55"/>
+      <c r="O170" s="55"/>
+      <c r="P170" s="56"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A171" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B171" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E171" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="F171" s="55"/>
+      <c r="G171" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H171" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I171" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J171" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K171" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L171" s="52"/>
+      <c r="M171" s="55"/>
+      <c r="N171" s="55"/>
+      <c r="O171" s="55"/>
+      <c r="P171" s="56"/>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A172" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B172" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E172" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="F172" s="55"/>
+      <c r="G172" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H172" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I172" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J172" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K172" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L172" s="52"/>
+      <c r="M172" s="55"/>
+      <c r="N172" s="55"/>
+      <c r="O172" s="55"/>
+      <c r="P172" s="56"/>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A173" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B173" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E173" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="F173" s="55"/>
+      <c r="G173" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H173" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I173" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J173" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K173" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L173" s="52"/>
+      <c r="M173" s="55"/>
+      <c r="N173" s="55"/>
+      <c r="O173" s="55"/>
+      <c r="P173" s="56"/>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A174" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B174" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E174" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="F174" s="55"/>
+      <c r="G174" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H174" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I174" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J174" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K174" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L174" s="52"/>
+      <c r="M174" s="55"/>
+      <c r="N174" s="55"/>
+      <c r="O174" s="55"/>
+      <c r="P174" s="56"/>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A175" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B175" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E175" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="F175" s="55"/>
+      <c r="G175" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H175" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I175" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J175" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K175" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L175" s="52"/>
+      <c r="M175" s="55"/>
+      <c r="N175" s="55"/>
+      <c r="O175" s="55"/>
+      <c r="P175" s="56"/>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A176" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B176" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E176" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="F176" s="55"/>
+      <c r="G176" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I176" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J176" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K176" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L176" s="52"/>
+      <c r="M176" s="55"/>
+      <c r="N176" s="55"/>
+      <c r="O176" s="55"/>
+      <c r="P176" s="56"/>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K181" t="s">
+        <v>309</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B16">
     <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"X,X,X"</formula>
@@ -9404,7 +10491,7 @@
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:J1048576 B39 B110:B134">
+  <conditionalFormatting sqref="B39 B110:B134 G1:J1048576">
     <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
@@ -9426,7 +10513,7 @@
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L155">
+  <conditionalFormatting sqref="L2:L176">
     <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
@@ -9445,13 +10532,13 @@
           <x14:formula1>
             <xm:f>Configuratie!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L1 L116:L134 L96:L98 L100:L114 L153:L1048576</xm:sqref>
+          <xm:sqref>L1 L116:L134 L96:L98 L100:L114 L177:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A99B45A-3469-41B9-95C3-9470E9A47E8F}">
           <x14:formula1>
             <xm:f>Configuratie!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L135:L152 L99 L115 L2:L95</xm:sqref>
+          <xm:sqref>L135:L176 L99 L115 L2:L95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2067B2B-AAB7-4BB4-AB95-6ECCB20F9551}">
           <x14:formula1>
@@ -9485,23 +10572,23 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -9542,7 +10629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -9557,7 +10644,7 @@
       <c r="L2" s="16"/>
       <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -9572,7 +10659,7 @@
       <c r="L3" s="16"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -9587,7 +10674,7 @@
       <c r="L4" s="16"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -9602,7 +10689,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="21"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -9617,7 +10704,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -9632,7 +10719,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -9647,7 +10734,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -9662,7 +10749,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -9677,7 +10764,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="21"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -9693,7 +10780,7 @@
       <c r="M11" s="22"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -9709,7 +10796,7 @@
       <c r="M12" s="22"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -9725,7 +10812,7 @@
       <c r="M13" s="22"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -9741,7 +10828,7 @@
       <c r="M14" s="22"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -9757,7 +10844,7 @@
       <c r="M15" s="21"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -9773,7 +10860,7 @@
       <c r="M16" s="21"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -9789,7 +10876,7 @@
       <c r="M17" s="21"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -9804,7 +10891,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="20"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -9819,7 +10906,7 @@
       <c r="L19" s="16"/>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -9834,7 +10921,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -9849,7 +10936,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="20"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -9864,7 +10951,7 @@
       <c r="L22" s="16"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -9879,7 +10966,7 @@
       <c r="L23" s="16"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -9894,7 +10981,7 @@
       <c r="L24" s="16"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -9998,16 +11085,16 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>266</v>
       </c>
@@ -10024,7 +11111,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>6</v>
       </c>
@@ -10041,7 +11128,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>27</v>
       </c>
@@ -10058,7 +11145,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>26</v>
       </c>
@@ -10075,7 +11162,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>25</v>
       </c>
@@ -10092,7 +11179,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>24</v>
       </c>
@@ -10109,7 +11196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>23</v>
       </c>
@@ -10126,7 +11213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -10143,7 +11230,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -10160,7 +11247,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -10177,7 +11264,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -10194,7 +11281,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>28</v>
       </c>
@@ -10211,7 +11298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>21</v>
       </c>
@@ -10228,7 +11315,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>20</v>
       </c>
@@ -10245,7 +11332,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>19</v>
       </c>
@@ -10262,7 +11349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>18</v>
       </c>
@@ -10279,7 +11366,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -10296,7 +11383,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -10313,7 +11400,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -10330,7 +11417,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -10347,7 +11434,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>13</v>
       </c>
@@ -10364,7 +11451,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -10381,7 +11468,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>12</v>
       </c>
@@ -10398,7 +11485,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>11</v>
       </c>
@@ -10415,7 +11502,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>10</v>
       </c>
@@ -10432,7 +11519,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>9</v>
       </c>
@@ -10449,7 +11536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>8</v>
       </c>
@@ -10466,7 +11553,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>7</v>
       </c>
@@ -10483,7 +11570,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>22</v>
       </c>
@@ -10514,42 +11601,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>287</v>
       </c>
@@ -10560,26 +11647,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="16" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f61f07c867748b0019541a657f349ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5688d83df968b8ed30cda1c17f9d8ac7" ns2:_="" ns3:_="">
     <xsd:import namespace="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
@@ -10820,26 +11887,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
-    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FF6D437-CC37-4CBE-9DFE-67A70FDDA4C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10858,6 +11926,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
+    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e36377b7-70c4-4493-a338-095918d327e9}" enabled="0" method="" siteId="{e36377b7-70c4-4493-a338-095918d327e9}" removed="1"/>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eb0095856\Projecten\Leerlijn-Content-SE-Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DDF457-4D4B-4536-83CC-D00885F13F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8084C7B4-E109-480B-A045-CF7AF8B696A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="314">
   <si>
     <t>TC-1</t>
   </si>
@@ -1441,7 +1441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1499,15 +1499,11 @@
     <xf numFmtId="0" fontId="9" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="62">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1705,146 +1701,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2886,61 +2742,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P176" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}" name="Tabel3" displayName="Tabel3" ref="A1:P176" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58">
   <autoFilter ref="A1:P176" xr:uid="{98B2741E-2F52-40E8-B271-0C73FC0EFEB8}"/>
   <tableColumns count="16">
-    <tableColumn id="2" xr3:uid="{F8A50546-3BB2-41F8-99A7-821FFAEA9EA0}" name="TC-1" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{41734F87-6DB1-4AC3-80CE-250B23378554}" name="TC-2" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{5B30DF97-0362-47CA-9FEB-983BDA2DF844}" name="Proces" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{DDC7FBE8-1A18-4596-8FBD-1F40B9F94AA0}" name="Processtap" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{15170496-2005-43A7-AD43-CFD4F0B25656}" name="Onderwerp" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{AD473AEC-8FAD-46C0-A48A-A65E296DBE11}" name="PS" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{1591AA9A-3ED6-44E5-A48A-E9910C5A2DDC}" name="LT" dataDxfId="65"/>
-    <tableColumn id="9" xr3:uid="{343866B0-4820-4E45-9596-524C0A3E0DB4}" name="OI" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{B3D04D72-920A-4859-8170-8854154E6BEE}" name="PI" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{DAE26EF7-02E2-4493-9827-F044C9947102}" name="DT" dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{66861921-DC42-4E48-9995-22D71902D0E6}" name="Auteur" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{F8A50546-3BB2-41F8-99A7-821FFAEA9EA0}" name="TC-1" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{41734F87-6DB1-4AC3-80CE-250B23378554}" name="TC-2" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{5B30DF97-0362-47CA-9FEB-983BDA2DF844}" name="Proces" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{DDC7FBE8-1A18-4596-8FBD-1F40B9F94AA0}" name="Processtap" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{15170496-2005-43A7-AD43-CFD4F0B25656}" name="Onderwerp" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{AD473AEC-8FAD-46C0-A48A-A65E296DBE11}" name="PS" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{1591AA9A-3ED6-44E5-A48A-E9910C5A2DDC}" name="LT" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{343866B0-4820-4E45-9596-524C0A3E0DB4}" name="OI" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{B3D04D72-920A-4859-8170-8854154E6BEE}" name="PI" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{DAE26EF7-02E2-4493-9827-F044C9947102}" name="DT" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{66861921-DC42-4E48-9995-22D71902D0E6}" name="Auteur" dataDxfId="47"/>
     <tableColumn id="13" xr3:uid="{41E829DC-30B4-4ED6-A23E-6E86A90CC847}" name="Status"/>
-    <tableColumn id="14" xr3:uid="{4DEA7C20-4CDB-4765-A2ED-2DAE0C74EA88}" name="Les" dataDxfId="60"/>
-    <tableColumn id="15" xr3:uid="{BA1A1DC9-E1C8-41C8-8B22-98655139BA61}" name="Week" dataDxfId="59"/>
-    <tableColumn id="16" xr3:uid="{FEFBF060-7975-4841-BB25-4FD9EA20FCE9}" name="Vak" dataDxfId="58"/>
-    <tableColumn id="17" xr3:uid="{DC49865F-5E2A-4A41-9018-4460A5231335}" name="Opmerking" dataDxfId="57"/>
+    <tableColumn id="14" xr3:uid="{4DEA7C20-4CDB-4765-A2ED-2DAE0C74EA88}" name="Les" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{BA1A1DC9-E1C8-41C8-8B22-98655139BA61}" name="Week" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{FEFBF060-7975-4841-BB25-4FD9EA20FCE9}" name="Vak" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{DC49865F-5E2A-4A41-9018-4460A5231335}" name="Opmerking" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}" name="Tabel46" displayName="Tabel46" ref="A1:M25" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}" name="Tabel46" displayName="Tabel46" ref="A1:M25" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="A1:M25" xr:uid="{6339E1F4-F4B6-4657-9A4C-D6B1F30A8DA6}"/>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{1535D98C-E0EE-4D42-BCEB-E5B9CE3EB61D}" name="TC-1" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{626D3CCE-98FA-446A-9492-EFF5B77FBEE7}" name="TC-2" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{7D9467F0-D231-479A-AC4D-EFCFCDA0F355}" name="Proces" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{563F1A23-B95F-4820-8982-FD4C397E7132}" name="Processtap" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{6EB4EFB7-2E6E-49E8-8B36-E5A953066F34}" name="Onderwerp" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{952C00F6-C03B-46BB-8BDD-48716B660A03}" name="PS" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{905E3EDF-F38D-471C-BAF6-5E4C96FF3FB2}" name="LT" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{8DFE5EC7-2595-4617-8FC0-FDDA89438F44}" name="OI" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{557B5D16-5B65-4AF7-BD7B-FB0218A7C1B3}" name="PI" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{9F6BDCD6-BD58-4752-B392-4BDB07F65BF9}" name="DT" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{265C90D0-C2F9-46F3-BC15-46853C80AE44}" name="Auteur" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{56238B06-B929-4176-9193-3DBF61BD24F4}" name="Reviewer" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{5A7CC1D3-6CDF-46C8-BAD6-5021F68425FC}" name="Status" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{1535D98C-E0EE-4D42-BCEB-E5B9CE3EB61D}" name="TC-1" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{626D3CCE-98FA-446A-9492-EFF5B77FBEE7}" name="TC-2" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{7D9467F0-D231-479A-AC4D-EFCFCDA0F355}" name="Proces" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{563F1A23-B95F-4820-8982-FD4C397E7132}" name="Processtap" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{6EB4EFB7-2E6E-49E8-8B36-E5A953066F34}" name="Onderwerp" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{952C00F6-C03B-46BB-8BDD-48716B660A03}" name="PS" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{905E3EDF-F38D-471C-BAF6-5E4C96FF3FB2}" name="LT" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{8DFE5EC7-2595-4617-8FC0-FDDA89438F44}" name="OI" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{557B5D16-5B65-4AF7-BD7B-FB0218A7C1B3}" name="PI" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{9F6BDCD6-BD58-4752-B392-4BDB07F65BF9}" name="DT" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{265C90D0-C2F9-46F3-BC15-46853C80AE44}" name="Auteur" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{56238B06-B929-4176-9193-3DBF61BD24F4}" name="Reviewer" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{5A7CC1D3-6CDF-46C8-BAD6-5021F68425FC}" name="Status" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}" name="Tabel2" displayName="Tabel2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}" name="Tabel2" displayName="Tabel2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:E29" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E0D87A47-D7F7-498A-A22E-05A996992FE5}" name="Id" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{A3888C5B-B532-4621-A573-477CB568DA88}" name="SSDLC" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{E1227983-22D3-4B85-9382-7BE0428CF806}" name="Proces" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{25EAD8F8-D89A-4F34-8AE3-23D6D7363D47}" name="Processtap" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{DCD8D2DD-F7D1-48E7-8B06-F484930BAD1C}" name="Taxonomiecode-deel-1" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{E0D87A47-D7F7-498A-A22E-05A996992FE5}" name="Id" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{A3888C5B-B532-4621-A573-477CB568DA88}" name="SSDLC" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{E1227983-22D3-4B85-9382-7BE0428CF806}" name="Proces" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{25EAD8F8-D89A-4F34-8AE3-23D6D7363D47}" name="Processtap" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{DCD8D2DD-F7D1-48E7-8B06-F484930BAD1C}" name="Taxonomiecode-deel-1" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3265,8 +3121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8AE46-0301-40E0-97E1-E2E70FD5D32D}">
   <dimension ref="A1:P181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9355,11 +9211,15 @@
       <c r="P146" s="47"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A147" s="31"/>
+      <c r="A147" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="B147" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C147" s="31"/>
+      <c r="C147" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="D147" s="31"/>
       <c r="E147" s="31" t="s">
         <v>259</v>
@@ -9389,11 +9249,15 @@
       <c r="P147" s="47"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A148" s="31"/>
+      <c r="A148" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="B148" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C148" s="31"/>
+      <c r="C148" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="D148" s="31"/>
       <c r="E148" s="31" t="s">
         <v>261</v>
@@ -9423,11 +9287,15 @@
       <c r="P148" s="47"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A149" s="31"/>
+      <c r="A149" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="B149" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C149" s="31"/>
+      <c r="C149" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="D149" s="31"/>
       <c r="E149" s="31" t="s">
         <v>262</v>
@@ -9457,11 +9325,15 @@
       <c r="P149" s="47"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A150" s="31"/>
+      <c r="A150" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="B150" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C150" s="31"/>
+      <c r="C150" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="D150" s="31"/>
       <c r="E150" s="31" t="s">
         <v>263</v>
@@ -9491,11 +9363,15 @@
       <c r="P150" s="47"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A151" s="31"/>
+      <c r="A151" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="B151" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C151" s="31"/>
+      <c r="C151" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="D151" s="31"/>
       <c r="E151" s="31" t="s">
         <v>264</v>
@@ -9537,10 +9413,10 @@
       <c r="D152" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E152" s="53" t="s">
+      <c r="E152" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="F152" s="53"/>
+      <c r="F152" s="31"/>
       <c r="G152" s="31" t="s">
         <v>22</v>
       </c>
@@ -9557,10 +9433,10 @@
         <v>100</v>
       </c>
       <c r="L152" s="29"/>
-      <c r="M152" s="53"/>
-      <c r="N152" s="53"/>
-      <c r="O152" s="53"/>
-      <c r="P152" s="54"/>
+      <c r="M152" s="31"/>
+      <c r="N152" s="31"/>
+      <c r="O152" s="31"/>
+      <c r="P152" s="45"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="31" t="s">
@@ -9575,10 +9451,10 @@
       <c r="D153" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E153" s="53" t="s">
+      <c r="E153" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="F153" s="53"/>
+      <c r="F153" s="31"/>
       <c r="G153" s="31" t="s">
         <v>22</v>
       </c>
@@ -9595,10 +9471,10 @@
         <v>100</v>
       </c>
       <c r="L153" s="29"/>
-      <c r="M153" s="53"/>
-      <c r="N153" s="53"/>
-      <c r="O153" s="53"/>
-      <c r="P153" s="54"/>
+      <c r="M153" s="31"/>
+      <c r="N153" s="31"/>
+      <c r="O153" s="31"/>
+      <c r="P153" s="45"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="31" t="s">
@@ -9613,10 +9489,10 @@
       <c r="D154" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E154" s="53" t="s">
+      <c r="E154" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="F154" s="53"/>
+      <c r="F154" s="31"/>
       <c r="G154" s="31" t="s">
         <v>22</v>
       </c>
@@ -9633,10 +9509,10 @@
         <v>100</v>
       </c>
       <c r="L154" s="29"/>
-      <c r="M154" s="53"/>
-      <c r="N154" s="53"/>
-      <c r="O154" s="53"/>
-      <c r="P154" s="54"/>
+      <c r="M154" s="31"/>
+      <c r="N154" s="31"/>
+      <c r="O154" s="31"/>
+      <c r="P154" s="45"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="31" t="s">
@@ -9651,10 +9527,10 @@
       <c r="D155" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E155" s="53" t="s">
+      <c r="E155" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="F155" s="53"/>
+      <c r="F155" s="31"/>
       <c r="G155" s="31" t="s">
         <v>22</v>
       </c>
@@ -9671,10 +9547,10 @@
         <v>100</v>
       </c>
       <c r="L155" s="29"/>
-      <c r="M155" s="53"/>
-      <c r="N155" s="53"/>
-      <c r="O155" s="53"/>
-      <c r="P155" s="54"/>
+      <c r="M155" s="31"/>
+      <c r="N155" s="31"/>
+      <c r="O155" s="31"/>
+      <c r="P155" s="45"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="31" t="s">
@@ -10221,10 +10097,10 @@
       <c r="D170" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E170" s="55" t="s">
+      <c r="E170" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="F170" s="55"/>
+      <c r="F170" s="46"/>
       <c r="G170" s="46" t="s">
         <v>22</v>
       </c>
@@ -10241,10 +10117,10 @@
         <v>100</v>
       </c>
       <c r="L170" s="52"/>
-      <c r="M170" s="55"/>
-      <c r="N170" s="55"/>
-      <c r="O170" s="55"/>
-      <c r="P170" s="56"/>
+      <c r="M170" s="46"/>
+      <c r="N170" s="46"/>
+      <c r="O170" s="46"/>
+      <c r="P170" s="47"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="46" t="s">
@@ -10259,10 +10135,10 @@
       <c r="D171" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E171" s="55" t="s">
+      <c r="E171" s="46" t="s">
         <v>303</v>
       </c>
-      <c r="F171" s="55"/>
+      <c r="F171" s="46"/>
       <c r="G171" s="46" t="s">
         <v>22</v>
       </c>
@@ -10279,10 +10155,10 @@
         <v>100</v>
       </c>
       <c r="L171" s="52"/>
-      <c r="M171" s="55"/>
-      <c r="N171" s="55"/>
-      <c r="O171" s="55"/>
-      <c r="P171" s="56"/>
+      <c r="M171" s="46"/>
+      <c r="N171" s="46"/>
+      <c r="O171" s="46"/>
+      <c r="P171" s="47"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="46" t="s">
@@ -10297,10 +10173,10 @@
       <c r="D172" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E172" s="55" t="s">
+      <c r="E172" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="F172" s="55"/>
+      <c r="F172" s="46"/>
       <c r="G172" s="46" t="s">
         <v>22</v>
       </c>
@@ -10317,10 +10193,10 @@
         <v>100</v>
       </c>
       <c r="L172" s="52"/>
-      <c r="M172" s="55"/>
-      <c r="N172" s="55"/>
-      <c r="O172" s="55"/>
-      <c r="P172" s="56"/>
+      <c r="M172" s="46"/>
+      <c r="N172" s="46"/>
+      <c r="O172" s="46"/>
+      <c r="P172" s="47"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="46" t="s">
@@ -10335,10 +10211,10 @@
       <c r="D173" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E173" s="55" t="s">
+      <c r="E173" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="F173" s="55"/>
+      <c r="F173" s="46"/>
       <c r="G173" s="46" t="s">
         <v>22</v>
       </c>
@@ -10355,10 +10231,10 @@
         <v>100</v>
       </c>
       <c r="L173" s="52"/>
-      <c r="M173" s="55"/>
-      <c r="N173" s="55"/>
-      <c r="O173" s="55"/>
-      <c r="P173" s="56"/>
+      <c r="M173" s="46"/>
+      <c r="N173" s="46"/>
+      <c r="O173" s="46"/>
+      <c r="P173" s="47"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="46" t="s">
@@ -10373,10 +10249,10 @@
       <c r="D174" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E174" s="55" t="s">
+      <c r="E174" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="F174" s="55"/>
+      <c r="F174" s="46"/>
       <c r="G174" s="46" t="s">
         <v>22</v>
       </c>
@@ -10393,10 +10269,10 @@
         <v>100</v>
       </c>
       <c r="L174" s="52"/>
-      <c r="M174" s="55"/>
-      <c r="N174" s="55"/>
-      <c r="O174" s="55"/>
-      <c r="P174" s="56"/>
+      <c r="M174" s="46"/>
+      <c r="N174" s="46"/>
+      <c r="O174" s="46"/>
+      <c r="P174" s="47"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="46" t="s">
@@ -10411,10 +10287,10 @@
       <c r="D175" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E175" s="55" t="s">
+      <c r="E175" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="F175" s="55"/>
+      <c r="F175" s="46"/>
       <c r="G175" s="46" t="s">
         <v>22</v>
       </c>
@@ -10431,10 +10307,10 @@
         <v>100</v>
       </c>
       <c r="L175" s="52"/>
-      <c r="M175" s="55"/>
-      <c r="N175" s="55"/>
-      <c r="O175" s="55"/>
-      <c r="P175" s="56"/>
+      <c r="M175" s="46"/>
+      <c r="N175" s="46"/>
+      <c r="O175" s="46"/>
+      <c r="P175" s="47"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="46" t="s">
@@ -10449,10 +10325,10 @@
       <c r="D176" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E176" s="55" t="s">
+      <c r="E176" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="F176" s="55"/>
+      <c r="F176" s="46"/>
       <c r="G176" s="46" t="s">
         <v>22</v>
       </c>
@@ -10469,10 +10345,10 @@
         <v>100</v>
       </c>
       <c r="L176" s="52"/>
-      <c r="M176" s="55"/>
-      <c r="N176" s="55"/>
-      <c r="O176" s="55"/>
-      <c r="P176" s="56"/>
+      <c r="M176" s="46"/>
+      <c r="N176" s="46"/>
+      <c r="O176" s="46"/>
+      <c r="P176" s="47"/>
     </row>
     <row r="181" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K181" t="s">
@@ -10491,7 +10367,7 @@
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39 B110:B134 G1:J1048576">
+  <conditionalFormatting sqref="G1:J1048576 B39 B110:B134">
     <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
@@ -11647,6 +11523,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="16" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f61f07c867748b0019541a657f349ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5688d83df968b8ed30cda1c17f9d8ac7" ns2:_="" ns3:_="">
     <xsd:import namespace="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
@@ -11887,27 +11783,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
+    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FF6D437-CC37-4CBE-9DFE-67A70FDDA4C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11926,25 +11821,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
-    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e36377b7-70c4-4493-a338-095918d327e9}" enabled="0" method="" siteId="{e36377b7-70c4-4493-a338-095918d327e9}" removed="1"/>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eb0095856\Projecten\Leerlijn-Content-SE-Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eb0095856\Projecten\ContentCompiler-Runner\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8084C7B4-E109-480B-A045-CF7AF8B696A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE08142-3307-4D98-89FC-6693DB2FF5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="313">
   <si>
     <t>TC-1</t>
   </si>
@@ -917,9 +917,6 @@
     <t>Kiezen-user-stories</t>
   </si>
   <si>
-    <t>Toevoegen taken aan user story</t>
-  </si>
-  <si>
     <t>Opstellen-product-backlog</t>
   </si>
   <si>
@@ -968,9 +965,6 @@
     <t>Noteren-actiepunten</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Aangeven-behoeften</t>
   </si>
   <si>
@@ -981,6 +975,9 @@
   </si>
   <si>
     <t>Opstellen-productafspraken</t>
+  </si>
+  <si>
+    <t>Toevoegen-taken-aan-user-story</t>
   </si>
 </sst>
 </file>
@@ -1526,6 +1523,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1671,16 +1678,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3119,10 +3116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8AE46-0301-40E0-97E1-E2E70FD5D32D}">
-  <dimension ref="A1:P181"/>
+  <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9220,7 +9217,9 @@
       <c r="C147" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D147" s="31"/>
+      <c r="D147" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="E147" s="31" t="s">
         <v>259</v>
       </c>
@@ -9258,7 +9257,9 @@
       <c r="C148" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D148" s="31"/>
+      <c r="D148" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="E148" s="31" t="s">
         <v>261</v>
       </c>
@@ -9296,7 +9297,9 @@
       <c r="C149" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D149" s="31"/>
+      <c r="D149" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="E149" s="31" t="s">
         <v>262</v>
       </c>
@@ -9334,7 +9337,9 @@
       <c r="C150" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D150" s="31"/>
+      <c r="D150" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="E150" s="31" t="s">
         <v>263</v>
       </c>
@@ -9372,7 +9377,9 @@
       <c r="C151" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D151" s="31"/>
+      <c r="D151" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="E151" s="31" t="s">
         <v>264</v>
       </c>
@@ -9414,7 +9421,7 @@
         <v>98</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F152" s="31"/>
       <c r="G152" s="31" t="s">
@@ -9452,7 +9459,7 @@
         <v>98</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F153" s="31"/>
       <c r="G153" s="31" t="s">
@@ -9490,7 +9497,7 @@
         <v>98</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F154" s="31"/>
       <c r="G154" s="31" t="s">
@@ -9528,7 +9535,7 @@
         <v>98</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F155" s="31"/>
       <c r="G155" s="31" t="s">
@@ -9538,7 +9545,7 @@
         <v>17</v>
       </c>
       <c r="I155" s="31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J155" s="31" t="s">
         <v>22</v>
@@ -9718,7 +9725,7 @@
         <v>98</v>
       </c>
       <c r="E160" s="46" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="F160" s="46"/>
       <c r="G160" s="46" t="s">
@@ -9756,7 +9763,7 @@
         <v>98</v>
       </c>
       <c r="E161" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F161" s="46"/>
       <c r="G161" s="46" t="s">
@@ -9794,7 +9801,7 @@
         <v>98</v>
       </c>
       <c r="E162" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F162" s="46"/>
       <c r="G162" s="46" t="s">
@@ -9832,7 +9839,7 @@
         <v>98</v>
       </c>
       <c r="E163" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F163" s="46"/>
       <c r="G163" s="46" t="s">
@@ -9870,7 +9877,7 @@
         <v>98</v>
       </c>
       <c r="E164" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F164" s="46"/>
       <c r="G164" s="46" t="s">
@@ -9908,7 +9915,7 @@
         <v>98</v>
       </c>
       <c r="E165" s="46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F165" s="46"/>
       <c r="G165" s="46" t="s">
@@ -9946,7 +9953,7 @@
         <v>98</v>
       </c>
       <c r="E166" s="46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F166" s="46"/>
       <c r="G166" s="46" t="s">
@@ -9984,7 +9991,7 @@
         <v>98</v>
       </c>
       <c r="E167" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F167" s="46"/>
       <c r="G167" s="46" t="s">
@@ -10022,7 +10029,7 @@
         <v>98</v>
       </c>
       <c r="E168" s="46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F168" s="46"/>
       <c r="G168" s="46" t="s">
@@ -10060,7 +10067,7 @@
         <v>98</v>
       </c>
       <c r="E169" s="46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F169" s="46"/>
       <c r="G169" s="46" t="s">
@@ -10098,7 +10105,7 @@
         <v>98</v>
       </c>
       <c r="E170" s="46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F170" s="46"/>
       <c r="G170" s="46" t="s">
@@ -10136,7 +10143,7 @@
         <v>98</v>
       </c>
       <c r="E171" s="46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F171" s="46"/>
       <c r="G171" s="46" t="s">
@@ -10174,7 +10181,7 @@
         <v>98</v>
       </c>
       <c r="E172" s="46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F172" s="46"/>
       <c r="G172" s="46" t="s">
@@ -10212,7 +10219,7 @@
         <v>98</v>
       </c>
       <c r="E173" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F173" s="46"/>
       <c r="G173" s="46" t="s">
@@ -10250,7 +10257,7 @@
         <v>98</v>
       </c>
       <c r="E174" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F174" s="46"/>
       <c r="G174" s="46" t="s">
@@ -10288,7 +10295,7 @@
         <v>98</v>
       </c>
       <c r="E175" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F175" s="46"/>
       <c r="G175" s="46" t="s">
@@ -10326,7 +10333,7 @@
         <v>98</v>
       </c>
       <c r="E176" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F176" s="46"/>
       <c r="G176" s="46" t="s">
@@ -10350,15 +10357,10 @@
       <c r="O176" s="46"/>
       <c r="P176" s="47"/>
     </row>
-    <row r="181" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K181" t="s">
-        <v>309</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+  <conditionalFormatting sqref="B39 B110:B134">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10367,33 +10369,33 @@
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:J1048576 B39 B110:B134">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+  <conditionalFormatting sqref="B16 G1:J1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>"Branch"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>"On hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L176">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10875,44 +10877,44 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:M11 A12:D12 F12:M12 A13:M25">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$N1="Les 1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$N14="Les 1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:J1">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Branch"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
       <formula>"On hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N17">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>"Les1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O17">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$N1="Les 1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11523,26 +11525,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="16" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f61f07c867748b0019541a657f349ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5688d83df968b8ed30cda1c17f9d8ac7" ns2:_="" ns3:_="">
     <xsd:import namespace="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
@@ -11783,26 +11765,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
-    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FF6D437-CC37-4CBE-9DFE-67A70FDDA4C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11821,6 +11804,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
+    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e36377b7-70c4-4493-a338-095918d327e9}" enabled="0" method="" siteId="{e36377b7-70c4-4493-a338-095918d327e9}" removed="1"/>
